--- a/AAII_Financials/Yearly/IIJIY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/IIJIY_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
   <si>
     <t>IIJIY</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,129 +665,141 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
         <v>43555</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43190</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42825</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42460</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42094</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41729</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41364</v>
       </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1749200</v>
+        <v>1899600</v>
       </c>
       <c r="E8" s="3">
-        <v>1602000</v>
+        <v>1787700</v>
       </c>
       <c r="F8" s="3">
-        <v>1434300</v>
+        <v>1637200</v>
       </c>
       <c r="G8" s="3">
-        <v>1278500</v>
+        <v>1465900</v>
       </c>
       <c r="H8" s="3">
-        <v>1118500</v>
+        <v>1306600</v>
       </c>
       <c r="I8" s="3">
-        <v>1038700</v>
+        <v>1143100</v>
       </c>
       <c r="J8" s="3">
+        <v>1061600</v>
+      </c>
+      <c r="K8" s="3">
         <v>965800</v>
       </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1485800</v>
+        <v>1596800</v>
       </c>
       <c r="E9" s="3">
-        <v>2666200</v>
+        <v>1518500</v>
       </c>
       <c r="F9" s="3">
-        <v>1204800</v>
+        <v>2724900</v>
       </c>
       <c r="G9" s="3">
-        <v>1054400</v>
+        <v>1231300</v>
       </c>
       <c r="H9" s="3">
-        <v>917900</v>
+        <v>1077600</v>
       </c>
       <c r="I9" s="3">
-        <v>847200</v>
+        <v>938100</v>
       </c>
       <c r="J9" s="3">
+        <v>865900</v>
+      </c>
+      <c r="K9" s="3">
         <v>767100</v>
       </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>263400</v>
+        <v>302800</v>
       </c>
       <c r="E10" s="3">
-        <v>-1064300</v>
+        <v>269200</v>
       </c>
       <c r="F10" s="3">
-        <v>229500</v>
+        <v>-1087700</v>
       </c>
       <c r="G10" s="3">
-        <v>224100</v>
+        <v>234500</v>
       </c>
       <c r="H10" s="3">
-        <v>200600</v>
+        <v>229000</v>
       </c>
       <c r="I10" s="3">
-        <v>191500</v>
+        <v>205100</v>
       </c>
       <c r="J10" s="3">
+        <v>195700</v>
+      </c>
+      <c r="K10" s="3">
         <v>198600</v>
       </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -799,35 +811,39 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="3">
         <v>4100</v>
       </c>
-      <c r="E12" s="3">
-        <v>4400</v>
-      </c>
       <c r="F12" s="3">
+        <v>4500</v>
+      </c>
+      <c r="G12" s="3">
+        <v>4300</v>
+      </c>
+      <c r="H12" s="3">
         <v>4200</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>4100</v>
       </c>
-      <c r="H12" s="3">
-        <v>4000</v>
-      </c>
-      <c r="I12" s="3">
-        <v>3800</v>
-      </c>
       <c r="J12" s="3">
+        <v>3900</v>
+      </c>
+      <c r="K12" s="3">
         <v>3700</v>
       </c>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -852,47 +868,53 @@
       <c r="J13" s="3">
         <v>0</v>
       </c>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="3">
         <v>1000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>300</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>100</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>300</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>200</v>
       </c>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="3">
+        <v>11900</v>
+      </c>
+      <c r="F15" s="3">
         <v>11600</v>
-      </c>
-      <c r="E15" s="3">
-        <v>11400</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>10</v>
@@ -906,9 +928,12 @@
       <c r="J15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -917,62 +942,69 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1694400</v>
+        <v>1823100</v>
       </c>
       <c r="E17" s="3">
-        <v>1540400</v>
+        <v>1731700</v>
       </c>
       <c r="F17" s="3">
-        <v>1387900</v>
+        <v>1574300</v>
       </c>
       <c r="G17" s="3">
-        <v>1222800</v>
+        <v>1418400</v>
       </c>
       <c r="H17" s="3">
-        <v>1072700</v>
+        <v>1249700</v>
       </c>
       <c r="I17" s="3">
-        <v>986700</v>
+        <v>1096300</v>
       </c>
       <c r="J17" s="3">
+        <v>1008400</v>
+      </c>
+      <c r="K17" s="3">
         <v>895500</v>
       </c>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>54700</v>
+        <v>76400</v>
       </c>
       <c r="E18" s="3">
-        <v>61500</v>
+        <v>56000</v>
       </c>
       <c r="F18" s="3">
-        <v>46400</v>
+        <v>62900</v>
       </c>
       <c r="G18" s="3">
-        <v>55700</v>
+        <v>47400</v>
       </c>
       <c r="H18" s="3">
-        <v>45900</v>
+        <v>56900</v>
       </c>
       <c r="I18" s="3">
-        <v>52000</v>
+        <v>46900</v>
       </c>
       <c r="J18" s="3">
+        <v>53200</v>
+      </c>
+      <c r="K18" s="3">
         <v>70300</v>
       </c>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -984,143 +1016,159 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-9900</v>
+      </c>
+      <c r="E20" s="3">
         <v>2300</v>
       </c>
-      <c r="E20" s="3">
-        <v>8000</v>
-      </c>
       <c r="F20" s="3">
-        <v>5700</v>
+        <v>8200</v>
       </c>
       <c r="G20" s="3">
+        <v>5800</v>
+      </c>
+      <c r="H20" s="3">
+        <v>2900</v>
+      </c>
+      <c r="I20" s="3">
+        <v>3100</v>
+      </c>
+      <c r="J20" s="3">
+        <v>7500</v>
+      </c>
+      <c r="K20" s="3">
         <v>2800</v>
       </c>
-      <c r="H20" s="3">
-        <v>3000</v>
-      </c>
-      <c r="I20" s="3">
-        <v>7300</v>
-      </c>
-      <c r="J20" s="3">
-        <v>2800</v>
-      </c>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>199400</v>
+        <v>331200</v>
       </c>
       <c r="E21" s="3">
-        <v>191700</v>
+        <v>203300</v>
       </c>
       <c r="F21" s="3">
-        <v>151300</v>
+        <v>195600</v>
       </c>
       <c r="G21" s="3">
-        <v>148900</v>
+        <v>154300</v>
       </c>
       <c r="H21" s="3">
-        <v>137000</v>
+        <v>151800</v>
       </c>
       <c r="I21" s="3">
-        <v>139700</v>
+        <v>139800</v>
       </c>
       <c r="J21" s="3">
+        <v>142600</v>
+      </c>
+      <c r="K21" s="3">
         <v>141500</v>
       </c>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>3900</v>
+      <c r="D22" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E22" s="3">
-        <v>7100</v>
+        <v>4000</v>
       </c>
       <c r="F22" s="3">
+        <v>7200</v>
+      </c>
+      <c r="G22" s="3">
         <v>2800</v>
-      </c>
-      <c r="G22" s="3">
-        <v>2200</v>
       </c>
       <c r="H22" s="3">
         <v>2200</v>
       </c>
       <c r="I22" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="J22" s="3">
+        <v>2400</v>
+      </c>
+      <c r="K22" s="3">
         <v>2600</v>
       </c>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>53100</v>
+        <v>66500</v>
       </c>
       <c r="E23" s="3">
-        <v>62500</v>
+        <v>54300</v>
       </c>
       <c r="F23" s="3">
-        <v>49300</v>
+        <v>63800</v>
       </c>
       <c r="G23" s="3">
-        <v>56300</v>
+        <v>50400</v>
       </c>
       <c r="H23" s="3">
-        <v>46700</v>
+        <v>57500</v>
       </c>
       <c r="I23" s="3">
-        <v>57000</v>
+        <v>47700</v>
       </c>
       <c r="J23" s="3">
+        <v>58300</v>
+      </c>
+      <c r="K23" s="3">
         <v>70500</v>
       </c>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>19500</v>
+        <v>27500</v>
       </c>
       <c r="E24" s="3">
-        <v>20900</v>
+        <v>19900</v>
       </c>
       <c r="F24" s="3">
-        <v>20200</v>
+        <v>21300</v>
       </c>
       <c r="G24" s="3">
-        <v>19800</v>
+        <v>20700</v>
       </c>
       <c r="H24" s="3">
-        <v>17200</v>
+        <v>20300</v>
       </c>
       <c r="I24" s="3">
-        <v>16300</v>
+        <v>17600</v>
       </c>
       <c r="J24" s="3">
+        <v>16700</v>
+      </c>
+      <c r="K24" s="3">
         <v>23700</v>
       </c>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1145,63 +1193,72 @@
       <c r="J25" s="3">
         <v>0</v>
       </c>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>33600</v>
+        <v>39000</v>
       </c>
       <c r="E26" s="3">
+        <v>34400</v>
+      </c>
+      <c r="F26" s="3">
+        <v>42500</v>
+      </c>
+      <c r="G26" s="3">
+        <v>29700</v>
+      </c>
+      <c r="H26" s="3">
+        <v>37300</v>
+      </c>
+      <c r="I26" s="3">
+        <v>30100</v>
+      </c>
+      <c r="J26" s="3">
         <v>41600</v>
       </c>
-      <c r="F26" s="3">
-        <v>29100</v>
-      </c>
-      <c r="G26" s="3">
-        <v>36400</v>
-      </c>
-      <c r="H26" s="3">
-        <v>29500</v>
-      </c>
-      <c r="I26" s="3">
-        <v>40700</v>
-      </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>46800</v>
       </c>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>32000</v>
+        <v>37200</v>
       </c>
       <c r="E27" s="3">
-        <v>41300</v>
+        <v>32700</v>
       </c>
       <c r="F27" s="3">
-        <v>28800</v>
+        <v>42200</v>
       </c>
       <c r="G27" s="3">
-        <v>36700</v>
+        <v>29400</v>
       </c>
       <c r="H27" s="3">
-        <v>30200</v>
+        <v>37500</v>
       </c>
       <c r="I27" s="3">
-        <v>40700</v>
+        <v>30900</v>
       </c>
       <c r="J27" s="3">
+        <v>41600</v>
+      </c>
+      <c r="K27" s="3">
         <v>48200</v>
       </c>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1226,20 +1283,23 @@
       <c r="J28" s="3">
         <v>0</v>
       </c>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" s="3">
         <v>200</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>10</v>
@@ -1253,9 +1313,12 @@
       <c r="J29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1280,9 +1343,12 @@
       <c r="J30" s="3">
         <v>0</v>
       </c>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1307,63 +1373,72 @@
       <c r="J31" s="3">
         <v>0</v>
       </c>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>9900</v>
+      </c>
+      <c r="E32" s="3">
         <v>-2300</v>
       </c>
-      <c r="E32" s="3">
-        <v>-8000</v>
-      </c>
       <c r="F32" s="3">
-        <v>-5700</v>
+        <v>-8200</v>
       </c>
       <c r="G32" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="H32" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="K32" s="3">
         <v>-2800</v>
       </c>
-      <c r="H32" s="3">
-        <v>-3000</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-7300</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-2800</v>
-      </c>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>32000</v>
+        <v>37200</v>
       </c>
       <c r="E33" s="3">
-        <v>41400</v>
+        <v>32700</v>
       </c>
       <c r="F33" s="3">
-        <v>28800</v>
+        <v>42300</v>
       </c>
       <c r="G33" s="3">
-        <v>36700</v>
+        <v>29400</v>
       </c>
       <c r="H33" s="3">
-        <v>30200</v>
+        <v>37500</v>
       </c>
       <c r="I33" s="3">
-        <v>40700</v>
+        <v>30900</v>
       </c>
       <c r="J33" s="3">
+        <v>41600</v>
+      </c>
+      <c r="K33" s="3">
         <v>48200</v>
       </c>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1388,68 +1463,77 @@
       <c r="J34" s="3">
         <v>0</v>
       </c>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>32000</v>
+        <v>37200</v>
       </c>
       <c r="E35" s="3">
-        <v>41400</v>
+        <v>32700</v>
       </c>
       <c r="F35" s="3">
-        <v>28800</v>
+        <v>42300</v>
       </c>
       <c r="G35" s="3">
-        <v>36700</v>
+        <v>29400</v>
       </c>
       <c r="H35" s="3">
-        <v>30200</v>
+        <v>37500</v>
       </c>
       <c r="I35" s="3">
-        <v>40700</v>
+        <v>30900</v>
       </c>
       <c r="J35" s="3">
+        <v>41600</v>
+      </c>
+      <c r="K35" s="3">
         <v>48200</v>
       </c>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
         <v>43555</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43190</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42825</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42460</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42094</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41729</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41364</v>
       </c>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1461,8 +1545,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1474,46 +1559,50 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>290500</v>
+        <v>358900</v>
       </c>
       <c r="E41" s="3">
-        <v>388400</v>
+        <v>296600</v>
       </c>
       <c r="F41" s="3">
-        <v>199600</v>
+        <v>396500</v>
       </c>
       <c r="G41" s="3">
-        <v>177900</v>
+        <v>203800</v>
       </c>
       <c r="H41" s="3">
-        <v>191700</v>
+        <v>181600</v>
       </c>
       <c r="I41" s="3">
-        <v>203800</v>
+        <v>195700</v>
       </c>
       <c r="J41" s="3">
+        <v>208100</v>
+      </c>
+      <c r="K41" s="3">
         <v>111400</v>
       </c>
-      <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>14400</v>
+        <v>24800</v>
       </c>
       <c r="E42" s="3">
-        <v>34200</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>10</v>
+        <v>14700</v>
+      </c>
+      <c r="F42" s="3">
+        <v>34900</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>10</v>
@@ -1527,198 +1616,222 @@
       <c r="J42" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K42" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>303400</v>
+        <v>306100</v>
       </c>
       <c r="E43" s="3">
-        <v>576300</v>
+        <v>309700</v>
       </c>
       <c r="F43" s="3">
-        <v>248800</v>
+        <v>588300</v>
       </c>
       <c r="G43" s="3">
-        <v>215700</v>
+        <v>254000</v>
       </c>
       <c r="H43" s="3">
-        <v>202300</v>
+        <v>220200</v>
       </c>
       <c r="I43" s="3">
-        <v>174700</v>
+        <v>206500</v>
       </c>
       <c r="J43" s="3">
+        <v>178300</v>
+      </c>
+      <c r="K43" s="3">
         <v>170500</v>
       </c>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>30900</v>
+        <v>23000</v>
       </c>
       <c r="E44" s="3">
-        <v>29600</v>
+        <v>31600</v>
       </c>
       <c r="F44" s="3">
-        <v>25400</v>
+        <v>30200</v>
       </c>
       <c r="G44" s="3">
-        <v>18200</v>
+        <v>26000</v>
       </c>
       <c r="H44" s="3">
-        <v>11200</v>
+        <v>18600</v>
       </c>
       <c r="I44" s="3">
-        <v>15200</v>
+        <v>11400</v>
       </c>
       <c r="J44" s="3">
+        <v>15500</v>
+      </c>
+      <c r="K44" s="3">
         <v>11800</v>
       </c>
-      <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>78700</v>
+        <v>90800</v>
       </c>
       <c r="E45" s="3">
-        <v>180800</v>
+        <v>80300</v>
       </c>
       <c r="F45" s="3">
-        <v>105400</v>
+        <v>184600</v>
       </c>
       <c r="G45" s="3">
-        <v>73600</v>
+        <v>107600</v>
       </c>
       <c r="H45" s="3">
-        <v>68300</v>
+        <v>75200</v>
       </c>
       <c r="I45" s="3">
-        <v>76300</v>
+        <v>69700</v>
       </c>
       <c r="J45" s="3">
+        <v>77900</v>
+      </c>
+      <c r="K45" s="3">
         <v>46600</v>
       </c>
-      <c r="K45" s="3"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>717900</v>
+        <v>803600</v>
       </c>
       <c r="E46" s="3">
-        <v>598500</v>
+        <v>732900</v>
       </c>
       <c r="F46" s="3">
-        <v>579200</v>
+        <v>611000</v>
       </c>
       <c r="G46" s="3">
-        <v>485500</v>
+        <v>591300</v>
       </c>
       <c r="H46" s="3">
-        <v>473500</v>
+        <v>495600</v>
       </c>
       <c r="I46" s="3">
-        <v>470000</v>
+        <v>483400</v>
       </c>
       <c r="J46" s="3">
+        <v>479800</v>
+      </c>
+      <c r="K46" s="3">
         <v>340300</v>
       </c>
-      <c r="K46" s="3"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>195700</v>
+        <v>173700</v>
       </c>
       <c r="E47" s="3">
-        <v>256100</v>
+        <v>199800</v>
       </c>
       <c r="F47" s="3">
-        <v>28100</v>
+        <v>261400</v>
       </c>
       <c r="G47" s="3">
-        <v>26500</v>
+        <v>28700</v>
       </c>
       <c r="H47" s="3">
-        <v>22400</v>
+        <v>27100</v>
       </c>
       <c r="I47" s="3">
-        <v>18400</v>
+        <v>22900</v>
       </c>
       <c r="J47" s="3">
+        <v>18800</v>
+      </c>
+      <c r="K47" s="3">
         <v>14600</v>
       </c>
-      <c r="K47" s="3"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>301200</v>
+        <v>630700</v>
       </c>
       <c r="E48" s="3">
-        <v>726600</v>
+        <v>307500</v>
       </c>
       <c r="F48" s="3">
-        <v>361600</v>
+        <v>741800</v>
       </c>
       <c r="G48" s="3">
-        <v>312000</v>
+        <v>369100</v>
       </c>
       <c r="H48" s="3">
-        <v>267000</v>
+        <v>318500</v>
       </c>
       <c r="I48" s="3">
-        <v>245200</v>
+        <v>272600</v>
       </c>
       <c r="J48" s="3">
+        <v>250300</v>
+      </c>
+      <c r="K48" s="3">
         <v>209300</v>
       </c>
-      <c r="K48" s="3"/>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>226400</v>
+        <v>226100</v>
       </c>
       <c r="E49" s="3">
-        <v>296600</v>
+        <v>231100</v>
       </c>
       <c r="F49" s="3">
-        <v>84100</v>
+        <v>302800</v>
       </c>
       <c r="G49" s="3">
-        <v>88300</v>
+        <v>85900</v>
       </c>
       <c r="H49" s="3">
-        <v>91900</v>
+        <v>90200</v>
       </c>
       <c r="I49" s="3">
-        <v>93700</v>
+        <v>93800</v>
       </c>
       <c r="J49" s="3">
+        <v>95700</v>
+      </c>
+      <c r="K49" s="3">
         <v>97800</v>
       </c>
-      <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1743,9 +1856,12 @@
       <c r="J50" s="3">
         <v>0</v>
       </c>
-      <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3"/>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1770,36 +1886,42 @@
       <c r="J51" s="3">
         <v>0</v>
       </c>
-      <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K51" s="3">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>79500</v>
+        <v>82500</v>
       </c>
       <c r="E52" s="3">
-        <v>316700</v>
+        <v>81200</v>
       </c>
       <c r="F52" s="3">
-        <v>195900</v>
+        <v>323300</v>
       </c>
       <c r="G52" s="3">
-        <v>158800</v>
+        <v>200000</v>
       </c>
       <c r="H52" s="3">
-        <v>133400</v>
+        <v>162100</v>
       </c>
       <c r="I52" s="3">
-        <v>116900</v>
+        <v>136100</v>
       </c>
       <c r="J52" s="3">
+        <v>119400</v>
+      </c>
+      <c r="K52" s="3">
         <v>84300</v>
       </c>
-      <c r="K52" s="3"/>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1824,36 +1946,42 @@
       <c r="J53" s="3">
         <v>0</v>
       </c>
-      <c r="K53" s="3"/>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K53" s="3">
+        <v>0</v>
+      </c>
+      <c r="L53" s="3"/>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1520700</v>
+        <v>1916500</v>
       </c>
       <c r="E54" s="3">
-        <v>1410400</v>
+        <v>1552400</v>
       </c>
       <c r="F54" s="3">
-        <v>1248900</v>
+        <v>1439900</v>
       </c>
       <c r="G54" s="3">
-        <v>1071100</v>
+        <v>1275000</v>
       </c>
       <c r="H54" s="3">
-        <v>988100</v>
+        <v>1093500</v>
       </c>
       <c r="I54" s="3">
-        <v>944100</v>
+        <v>1008800</v>
       </c>
       <c r="J54" s="3">
+        <v>963900</v>
+      </c>
+      <c r="K54" s="3">
         <v>746400</v>
       </c>
-      <c r="K54" s="3"/>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1865,8 +1993,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1878,170 +2007,189 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>71000</v>
+        <v>169700</v>
       </c>
       <c r="E57" s="3">
-        <v>185200</v>
+        <v>72500</v>
       </c>
       <c r="F57" s="3">
-        <v>133200</v>
+        <v>189100</v>
       </c>
       <c r="G57" s="3">
-        <v>126400</v>
+        <v>136000</v>
       </c>
       <c r="H57" s="3">
-        <v>110700</v>
+        <v>129100</v>
       </c>
       <c r="I57" s="3">
-        <v>104500</v>
+        <v>113100</v>
       </c>
       <c r="J57" s="3">
+        <v>106600</v>
+      </c>
+      <c r="K57" s="3">
         <v>99700</v>
       </c>
-      <c r="K57" s="3"/>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3"/>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>175200</v>
+        <v>310200</v>
       </c>
       <c r="E58" s="3">
-        <v>270900</v>
+        <v>178800</v>
       </c>
       <c r="F58" s="3">
-        <v>127900</v>
+        <v>276600</v>
       </c>
       <c r="G58" s="3">
-        <v>120000</v>
+        <v>130600</v>
       </c>
       <c r="H58" s="3">
-        <v>116100</v>
+        <v>122500</v>
       </c>
       <c r="I58" s="3">
-        <v>128500</v>
+        <v>118500</v>
       </c>
       <c r="J58" s="3">
+        <v>131200</v>
+      </c>
+      <c r="K58" s="3">
         <v>126500</v>
       </c>
-      <c r="K58" s="3"/>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3"/>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>234700</v>
+        <v>129700</v>
       </c>
       <c r="E59" s="3">
-        <v>310000</v>
+        <v>239700</v>
       </c>
       <c r="F59" s="3">
-        <v>102400</v>
+        <v>316500</v>
       </c>
       <c r="G59" s="3">
-        <v>81400</v>
+        <v>104500</v>
       </c>
       <c r="H59" s="3">
-        <v>79900</v>
+        <v>83100</v>
       </c>
       <c r="I59" s="3">
-        <v>62200</v>
+        <v>81500</v>
       </c>
       <c r="J59" s="3">
+        <v>63500</v>
+      </c>
+      <c r="K59" s="3">
         <v>68100</v>
       </c>
-      <c r="K59" s="3"/>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3"/>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>480900</v>
+        <v>609600</v>
       </c>
       <c r="E60" s="3">
-        <v>383000</v>
+        <v>491000</v>
       </c>
       <c r="F60" s="3">
-        <v>363400</v>
+        <v>391000</v>
       </c>
       <c r="G60" s="3">
-        <v>327800</v>
+        <v>371000</v>
       </c>
       <c r="H60" s="3">
-        <v>306700</v>
+        <v>334700</v>
       </c>
       <c r="I60" s="3">
-        <v>295100</v>
+        <v>313100</v>
       </c>
       <c r="J60" s="3">
+        <v>301300</v>
+      </c>
+      <c r="K60" s="3">
         <v>294400</v>
       </c>
-      <c r="K60" s="3"/>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>231900</v>
+        <v>112900</v>
       </c>
       <c r="E61" s="3">
-        <v>240100</v>
+        <v>236800</v>
       </c>
       <c r="F61" s="3">
-        <v>171700</v>
+        <v>245200</v>
       </c>
       <c r="G61" s="3">
-        <v>70700</v>
+        <v>175200</v>
       </c>
       <c r="H61" s="3">
-        <v>39500</v>
+        <v>72200</v>
       </c>
       <c r="I61" s="3">
-        <v>41800</v>
+        <v>40300</v>
       </c>
       <c r="J61" s="3">
+        <v>42700</v>
+      </c>
+      <c r="K61" s="3">
         <v>57700</v>
       </c>
-      <c r="K61" s="3"/>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>106800</v>
+        <v>451100</v>
       </c>
       <c r="E62" s="3">
-        <v>202300</v>
+        <v>109000</v>
       </c>
       <c r="F62" s="3">
-        <v>101300</v>
+        <v>206500</v>
       </c>
       <c r="G62" s="3">
-        <v>78600</v>
+        <v>103400</v>
       </c>
       <c r="H62" s="3">
-        <v>70700</v>
+        <v>80200</v>
       </c>
       <c r="I62" s="3">
-        <v>60100</v>
+        <v>72200</v>
       </c>
       <c r="J62" s="3">
+        <v>61400</v>
+      </c>
+      <c r="K62" s="3">
         <v>52200</v>
       </c>
-      <c r="K62" s="3"/>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2066,9 +2214,12 @@
       <c r="J63" s="3">
         <v>0</v>
       </c>
-      <c r="K63" s="3"/>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K63" s="3">
+        <v>0</v>
+      </c>
+      <c r="L63" s="3"/>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2093,9 +2244,12 @@
       <c r="J64" s="3">
         <v>0</v>
       </c>
-      <c r="K64" s="3"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K64" s="3">
+        <v>0</v>
+      </c>
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2120,36 +2274,42 @@
       <c r="J65" s="3">
         <v>0</v>
       </c>
-      <c r="K65" s="3"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K65" s="3">
+        <v>0</v>
+      </c>
+      <c r="L65" s="3"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>827400</v>
+        <v>1182700</v>
       </c>
       <c r="E66" s="3">
-        <v>733000</v>
+        <v>844600</v>
       </c>
       <c r="F66" s="3">
-        <v>642200</v>
+        <v>748300</v>
       </c>
       <c r="G66" s="3">
-        <v>481700</v>
+        <v>655700</v>
       </c>
       <c r="H66" s="3">
-        <v>420000</v>
+        <v>491700</v>
       </c>
       <c r="I66" s="3">
-        <v>399500</v>
+        <v>428700</v>
       </c>
       <c r="J66" s="3">
+        <v>407900</v>
+      </c>
+      <c r="K66" s="3">
         <v>404500</v>
       </c>
-      <c r="K66" s="3"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2161,8 +2321,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2187,9 +2348,12 @@
       <c r="J68" s="3">
         <v>0</v>
       </c>
-      <c r="K68" s="3"/>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K68" s="3">
+        <v>0</v>
+      </c>
+      <c r="L68" s="3"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2214,9 +2378,12 @@
       <c r="J69" s="3">
         <v>0</v>
       </c>
-      <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K69" s="3">
+        <v>0</v>
+      </c>
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2241,9 +2408,12 @@
       <c r="J70" s="3">
         <v>0</v>
       </c>
-      <c r="K70" s="3"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2268,36 +2438,42 @@
       <c r="J71" s="3">
         <v>0</v>
       </c>
-      <c r="K71" s="3"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K71" s="3">
+        <v>0</v>
+      </c>
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>112100</v>
+        <v>153100</v>
       </c>
       <c r="E72" s="3">
-        <v>164400</v>
+        <v>114500</v>
       </c>
       <c r="F72" s="3">
-        <v>41000</v>
+        <v>167800</v>
       </c>
       <c r="G72" s="3">
-        <v>22500</v>
+        <v>41900</v>
       </c>
       <c r="H72" s="3">
-        <v>-5100</v>
+        <v>22900</v>
       </c>
       <c r="I72" s="3">
-        <v>-26100</v>
+        <v>-5200</v>
       </c>
       <c r="J72" s="3">
+        <v>-26600</v>
+      </c>
+      <c r="K72" s="3">
         <v>-58200</v>
       </c>
-      <c r="K72" s="3"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2322,9 +2498,12 @@
       <c r="J73" s="3">
         <v>0</v>
       </c>
-      <c r="K73" s="3"/>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K73" s="3">
+        <v>0</v>
+      </c>
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2349,9 +2528,12 @@
       <c r="J74" s="3">
         <v>0</v>
       </c>
-      <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K74" s="3">
+        <v>0</v>
+      </c>
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2376,36 +2558,42 @@
       <c r="J75" s="3">
         <v>0</v>
       </c>
-      <c r="K75" s="3"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K75" s="3">
+        <v>0</v>
+      </c>
+      <c r="L75" s="3"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>693300</v>
+        <v>733800</v>
       </c>
       <c r="E76" s="3">
-        <v>677500</v>
+        <v>707800</v>
       </c>
       <c r="F76" s="3">
-        <v>606700</v>
+        <v>691600</v>
       </c>
       <c r="G76" s="3">
-        <v>589400</v>
+        <v>619400</v>
       </c>
       <c r="H76" s="3">
-        <v>568200</v>
+        <v>601800</v>
       </c>
       <c r="I76" s="3">
-        <v>544600</v>
+        <v>580000</v>
       </c>
       <c r="J76" s="3">
+        <v>556000</v>
+      </c>
+      <c r="K76" s="3">
         <v>341800</v>
       </c>
-      <c r="K76" s="3"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2430,68 +2618,77 @@
       <c r="J77" s="3">
         <v>0</v>
       </c>
-      <c r="K77" s="3"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K77" s="3">
+        <v>0</v>
+      </c>
+      <c r="L77" s="3"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
         <v>43555</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43190</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42825</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42460</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42094</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41729</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41364</v>
       </c>
-      <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2"/>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>32000</v>
+        <v>37200</v>
       </c>
       <c r="E81" s="3">
-        <v>41400</v>
+        <v>32700</v>
       </c>
       <c r="F81" s="3">
-        <v>28800</v>
+        <v>42300</v>
       </c>
       <c r="G81" s="3">
-        <v>36700</v>
+        <v>29400</v>
       </c>
       <c r="H81" s="3">
-        <v>30200</v>
+        <v>37500</v>
       </c>
       <c r="I81" s="3">
-        <v>40700</v>
+        <v>30900</v>
       </c>
       <c r="J81" s="3">
+        <v>41600</v>
+      </c>
+      <c r="K81" s="3">
         <v>48200</v>
       </c>
-      <c r="K81" s="3"/>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3"/>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2503,35 +2700,39 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>142100</v>
+        <v>265000</v>
       </c>
       <c r="E83" s="3">
-        <v>121900</v>
+        <v>145200</v>
       </c>
       <c r="F83" s="3">
-        <v>99000</v>
+        <v>124600</v>
       </c>
       <c r="G83" s="3">
-        <v>90200</v>
+        <v>101200</v>
       </c>
       <c r="H83" s="3">
-        <v>88000</v>
+        <v>92200</v>
       </c>
       <c r="I83" s="3">
-        <v>80200</v>
+        <v>89900</v>
       </c>
       <c r="J83" s="3">
+        <v>82000</v>
+      </c>
+      <c r="K83" s="3">
         <v>68200</v>
       </c>
-      <c r="K83" s="3"/>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3"/>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2556,9 +2757,12 @@
       <c r="J84" s="3">
         <v>0</v>
       </c>
-      <c r="K84" s="3"/>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K84" s="3">
+        <v>0</v>
+      </c>
+      <c r="L84" s="3"/>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2583,9 +2787,12 @@
       <c r="J85" s="3">
         <v>0</v>
       </c>
-      <c r="K85" s="3"/>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K85" s="3">
+        <v>0</v>
+      </c>
+      <c r="L85" s="3"/>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2610,9 +2817,12 @@
       <c r="J86" s="3">
         <v>0</v>
       </c>
-      <c r="K86" s="3"/>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K86" s="3">
+        <v>0</v>
+      </c>
+      <c r="L86" s="3"/>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2637,9 +2847,12 @@
       <c r="J87" s="3">
         <v>0</v>
       </c>
-      <c r="K87" s="3"/>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K87" s="3">
+        <v>0</v>
+      </c>
+      <c r="L87" s="3"/>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2664,36 +2877,42 @@
       <c r="J88" s="3">
         <v>0</v>
       </c>
-      <c r="K88" s="3"/>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K88" s="3">
+        <v>0</v>
+      </c>
+      <c r="L88" s="3"/>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>228600</v>
+        <v>310200</v>
       </c>
       <c r="E89" s="3">
-        <v>133300</v>
+        <v>233700</v>
       </c>
       <c r="F89" s="3">
-        <v>67000</v>
+        <v>136200</v>
       </c>
       <c r="G89" s="3">
-        <v>109500</v>
+        <v>68400</v>
       </c>
       <c r="H89" s="3">
-        <v>117400</v>
+        <v>112000</v>
       </c>
       <c r="I89" s="3">
-        <v>79900</v>
+        <v>120000</v>
       </c>
       <c r="J89" s="3">
+        <v>81600</v>
+      </c>
+      <c r="K89" s="3">
         <v>88700</v>
       </c>
-      <c r="K89" s="3"/>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3"/>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2705,35 +2924,39 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-64400</v>
+        <v>-66900</v>
       </c>
       <c r="E91" s="3">
-        <v>-244200</v>
+        <v>-65800</v>
       </c>
       <c r="F91" s="3">
-        <v>-96600</v>
+        <v>-249600</v>
       </c>
       <c r="G91" s="3">
-        <v>-99100</v>
+        <v>-98700</v>
       </c>
       <c r="H91" s="3">
-        <v>-74100</v>
+        <v>-101200</v>
       </c>
       <c r="I91" s="3">
-        <v>-82900</v>
+        <v>-75800</v>
       </c>
       <c r="J91" s="3">
+        <v>-84800</v>
+      </c>
+      <c r="K91" s="3">
         <v>-50800</v>
       </c>
-      <c r="K91" s="3"/>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3"/>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2758,9 +2981,12 @@
       <c r="J92" s="3">
         <v>0</v>
       </c>
-      <c r="K92" s="3"/>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K92" s="3">
+        <v>0</v>
+      </c>
+      <c r="L92" s="3"/>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2785,36 +3011,42 @@
       <c r="J93" s="3">
         <v>0</v>
       </c>
-      <c r="K93" s="3"/>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K93" s="3">
+        <v>0</v>
+      </c>
+      <c r="L93" s="3"/>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-79000</v>
+        <v>-67500</v>
       </c>
       <c r="E94" s="3">
-        <v>-130000</v>
+        <v>-80700</v>
       </c>
       <c r="F94" s="3">
-        <v>-67000</v>
+        <v>-132800</v>
       </c>
       <c r="G94" s="3">
-        <v>-76100</v>
+        <v>-68500</v>
       </c>
       <c r="H94" s="3">
-        <v>-73400</v>
+        <v>-77800</v>
       </c>
       <c r="I94" s="3">
-        <v>-92700</v>
+        <v>-75000</v>
       </c>
       <c r="J94" s="3">
+        <v>-94800</v>
+      </c>
+      <c r="K94" s="3">
         <v>-54000</v>
       </c>
-      <c r="K94" s="3"/>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3"/>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2826,35 +3058,39 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-11100</v>
+        <v>-11300</v>
       </c>
       <c r="E96" s="3">
-        <v>-11100</v>
+        <v>-11300</v>
       </c>
       <c r="F96" s="3">
-        <v>-10200</v>
+        <v>-11300</v>
       </c>
       <c r="G96" s="3">
-        <v>-9200</v>
+        <v>-10500</v>
       </c>
       <c r="H96" s="3">
-        <v>-9200</v>
+        <v>-9400</v>
       </c>
       <c r="I96" s="3">
-        <v>-8300</v>
+        <v>-9400</v>
       </c>
       <c r="J96" s="3">
+        <v>-8500</v>
+      </c>
+      <c r="K96" s="3">
         <v>-6400</v>
       </c>
-      <c r="K96" s="3"/>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3"/>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2879,9 +3115,12 @@
       <c r="J97" s="3">
         <v>0</v>
       </c>
-      <c r="K97" s="3"/>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K97" s="3">
+        <v>0</v>
+      </c>
+      <c r="L97" s="3"/>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2906,9 +3145,12 @@
       <c r="J98" s="3">
         <v>0</v>
       </c>
-      <c r="K98" s="3"/>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K98" s="3">
+        <v>0</v>
+      </c>
+      <c r="L98" s="3"/>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2933,88 +3175,100 @@
       <c r="J99" s="3">
         <v>0</v>
       </c>
-      <c r="K99" s="3"/>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K99" s="3">
+        <v>0</v>
+      </c>
+      <c r="L99" s="3"/>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-53500</v>
+        <v>-179800</v>
       </c>
       <c r="E100" s="3">
-        <v>-6500</v>
+        <v>-54700</v>
       </c>
       <c r="F100" s="3">
-        <v>22700</v>
+        <v>-6700</v>
       </c>
       <c r="G100" s="3">
-        <v>-47300</v>
+        <v>23200</v>
       </c>
       <c r="H100" s="3">
-        <v>-57100</v>
+        <v>-48300</v>
       </c>
       <c r="I100" s="3">
-        <v>103500</v>
+        <v>-58400</v>
       </c>
       <c r="J100" s="3">
+        <v>105700</v>
+      </c>
+      <c r="K100" s="3">
         <v>-45400</v>
       </c>
-      <c r="K100" s="3"/>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3"/>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E101" s="3">
         <v>600</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-700</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-900</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
       <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
         <v>1100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>1800</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-800</v>
       </c>
-      <c r="K101" s="3"/>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3"/>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>96700</v>
+        <v>62400</v>
       </c>
       <c r="E102" s="3">
-        <v>-3900</v>
+        <v>98800</v>
       </c>
       <c r="F102" s="3">
-        <v>21700</v>
+        <v>-4000</v>
       </c>
       <c r="G102" s="3">
-        <v>-13900</v>
+        <v>22200</v>
       </c>
       <c r="H102" s="3">
-        <v>-12100</v>
+        <v>-14200</v>
       </c>
       <c r="I102" s="3">
-        <v>92400</v>
+        <v>-12300</v>
       </c>
       <c r="J102" s="3">
+        <v>94400</v>
+      </c>
+      <c r="K102" s="3">
         <v>-11600</v>
       </c>
-      <c r="K102" s="3"/>
+      <c r="L102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/IIJIY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/IIJIY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
   <si>
     <t>IIJIY</t>
   </si>
@@ -714,25 +714,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1899600</v>
+        <v>1930200</v>
       </c>
       <c r="E8" s="3">
-        <v>1787700</v>
+        <v>1816500</v>
       </c>
       <c r="F8" s="3">
-        <v>1637200</v>
+        <v>1663600</v>
       </c>
       <c r="G8" s="3">
-        <v>1465900</v>
+        <v>1489500</v>
       </c>
       <c r="H8" s="3">
-        <v>1306600</v>
+        <v>1327700</v>
       </c>
       <c r="I8" s="3">
-        <v>1143100</v>
+        <v>1161600</v>
       </c>
       <c r="J8" s="3">
-        <v>1061600</v>
+        <v>1078700</v>
       </c>
       <c r="K8" s="3">
         <v>965800</v>
@@ -744,25 +744,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1596800</v>
+        <v>1622500</v>
       </c>
       <c r="E9" s="3">
-        <v>1518500</v>
+        <v>1543000</v>
       </c>
       <c r="F9" s="3">
-        <v>2724900</v>
+        <v>2768900</v>
       </c>
       <c r="G9" s="3">
-        <v>1231300</v>
+        <v>1251200</v>
       </c>
       <c r="H9" s="3">
-        <v>1077600</v>
+        <v>1095000</v>
       </c>
       <c r="I9" s="3">
-        <v>938100</v>
+        <v>953200</v>
       </c>
       <c r="J9" s="3">
-        <v>865900</v>
+        <v>879900</v>
       </c>
       <c r="K9" s="3">
         <v>767100</v>
@@ -774,25 +774,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>302800</v>
+        <v>307700</v>
       </c>
       <c r="E10" s="3">
-        <v>269200</v>
+        <v>273500</v>
       </c>
       <c r="F10" s="3">
-        <v>-1087700</v>
+        <v>-1105300</v>
       </c>
       <c r="G10" s="3">
-        <v>234500</v>
+        <v>238300</v>
       </c>
       <c r="H10" s="3">
-        <v>229000</v>
+        <v>232700</v>
       </c>
       <c r="I10" s="3">
-        <v>205100</v>
+        <v>208400</v>
       </c>
       <c r="J10" s="3">
-        <v>195700</v>
+        <v>198900</v>
       </c>
       <c r="K10" s="3">
         <v>198600</v>
@@ -817,26 +817,26 @@
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>10</v>
+      <c r="D12" s="3">
+        <v>4100</v>
       </c>
       <c r="E12" s="3">
-        <v>4100</v>
+        <v>4200</v>
       </c>
       <c r="F12" s="3">
-        <v>4500</v>
+        <v>4600</v>
       </c>
       <c r="G12" s="3">
+        <v>4400</v>
+      </c>
+      <c r="H12" s="3">
         <v>4300</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>4200</v>
       </c>
-      <c r="I12" s="3">
-        <v>4100</v>
-      </c>
       <c r="J12" s="3">
-        <v>3900</v>
+        <v>4000</v>
       </c>
       <c r="K12" s="3">
         <v>3700</v>
@@ -877,8 +877,8 @@
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>10</v>
+      <c r="D14" s="3">
+        <v>-3500</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>10</v>
@@ -907,14 +907,14 @@
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>10</v>
+      <c r="D15" s="3">
+        <v>26800</v>
       </c>
       <c r="E15" s="3">
-        <v>11900</v>
+        <v>12100</v>
       </c>
       <c r="F15" s="3">
-        <v>11600</v>
+        <v>11800</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>10</v>
@@ -949,25 +949,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1823100</v>
+        <v>1849000</v>
       </c>
       <c r="E17" s="3">
-        <v>1731700</v>
+        <v>1759700</v>
       </c>
       <c r="F17" s="3">
-        <v>1574300</v>
+        <v>1599700</v>
       </c>
       <c r="G17" s="3">
-        <v>1418400</v>
+        <v>1441300</v>
       </c>
       <c r="H17" s="3">
-        <v>1249700</v>
+        <v>1269900</v>
       </c>
       <c r="I17" s="3">
-        <v>1096300</v>
+        <v>1114000</v>
       </c>
       <c r="J17" s="3">
-        <v>1008400</v>
+        <v>1024700</v>
       </c>
       <c r="K17" s="3">
         <v>895500</v>
@@ -979,25 +979,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>76400</v>
+        <v>81200</v>
       </c>
       <c r="E18" s="3">
-        <v>56000</v>
+        <v>56900</v>
       </c>
       <c r="F18" s="3">
-        <v>62900</v>
+        <v>63900</v>
       </c>
       <c r="G18" s="3">
-        <v>47400</v>
+        <v>48200</v>
       </c>
       <c r="H18" s="3">
-        <v>56900</v>
+        <v>57800</v>
       </c>
       <c r="I18" s="3">
-        <v>46900</v>
+        <v>47600</v>
       </c>
       <c r="J18" s="3">
-        <v>53200</v>
+        <v>54000</v>
       </c>
       <c r="K18" s="3">
         <v>70300</v>
@@ -1023,16 +1023,16 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-9900</v>
+        <v>-8300</v>
       </c>
       <c r="E20" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="F20" s="3">
-        <v>8200</v>
+        <v>8300</v>
       </c>
       <c r="G20" s="3">
-        <v>5800</v>
+        <v>5900</v>
       </c>
       <c r="H20" s="3">
         <v>2900</v>
@@ -1041,7 +1041,7 @@
         <v>3100</v>
       </c>
       <c r="J20" s="3">
-        <v>7500</v>
+        <v>7600</v>
       </c>
       <c r="K20" s="3">
         <v>2800</v>
@@ -1053,25 +1053,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>331200</v>
+        <v>341000</v>
       </c>
       <c r="E21" s="3">
-        <v>203300</v>
+        <v>206100</v>
       </c>
       <c r="F21" s="3">
-        <v>195600</v>
+        <v>198300</v>
       </c>
       <c r="G21" s="3">
-        <v>154300</v>
+        <v>156500</v>
       </c>
       <c r="H21" s="3">
-        <v>151800</v>
+        <v>154000</v>
       </c>
       <c r="I21" s="3">
-        <v>139800</v>
+        <v>141700</v>
       </c>
       <c r="J21" s="3">
-        <v>142600</v>
+        <v>144600</v>
       </c>
       <c r="K21" s="3">
         <v>141500</v>
@@ -1082,20 +1082,20 @@
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>10</v>
+      <c r="D22" s="3">
+        <v>5300</v>
       </c>
       <c r="E22" s="3">
-        <v>4000</v>
+        <v>4100</v>
       </c>
       <c r="F22" s="3">
-        <v>7200</v>
+        <v>7400</v>
       </c>
       <c r="G22" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="H22" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="I22" s="3">
         <v>2200</v>
@@ -1113,25 +1113,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>66500</v>
+        <v>67600</v>
       </c>
       <c r="E23" s="3">
-        <v>54300</v>
+        <v>55200</v>
       </c>
       <c r="F23" s="3">
-        <v>63800</v>
+        <v>64900</v>
       </c>
       <c r="G23" s="3">
-        <v>50400</v>
+        <v>51200</v>
       </c>
       <c r="H23" s="3">
-        <v>57500</v>
+        <v>58500</v>
       </c>
       <c r="I23" s="3">
-        <v>47700</v>
+        <v>48500</v>
       </c>
       <c r="J23" s="3">
-        <v>58300</v>
+        <v>59200</v>
       </c>
       <c r="K23" s="3">
         <v>70500</v>
@@ -1143,25 +1143,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>27500</v>
+        <v>28000</v>
       </c>
       <c r="E24" s="3">
-        <v>19900</v>
+        <v>20200</v>
       </c>
       <c r="F24" s="3">
-        <v>21300</v>
+        <v>21700</v>
       </c>
       <c r="G24" s="3">
-        <v>20700</v>
+        <v>21000</v>
       </c>
       <c r="H24" s="3">
-        <v>20300</v>
+        <v>20600</v>
       </c>
       <c r="I24" s="3">
-        <v>17600</v>
+        <v>17900</v>
       </c>
       <c r="J24" s="3">
-        <v>16700</v>
+        <v>16900</v>
       </c>
       <c r="K24" s="3">
         <v>23700</v>
@@ -1203,25 +1203,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>39000</v>
+        <v>39600</v>
       </c>
       <c r="E26" s="3">
-        <v>34400</v>
+        <v>34900</v>
       </c>
       <c r="F26" s="3">
-        <v>42500</v>
+        <v>43200</v>
       </c>
       <c r="G26" s="3">
-        <v>29700</v>
+        <v>30200</v>
       </c>
       <c r="H26" s="3">
-        <v>37300</v>
+        <v>37900</v>
       </c>
       <c r="I26" s="3">
-        <v>30100</v>
+        <v>30600</v>
       </c>
       <c r="J26" s="3">
-        <v>41600</v>
+        <v>42300</v>
       </c>
       <c r="K26" s="3">
         <v>46800</v>
@@ -1233,25 +1233,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>37200</v>
+        <v>37800</v>
       </c>
       <c r="E27" s="3">
-        <v>32700</v>
+        <v>33200</v>
       </c>
       <c r="F27" s="3">
-        <v>42200</v>
+        <v>42800</v>
       </c>
       <c r="G27" s="3">
-        <v>29400</v>
+        <v>29900</v>
       </c>
       <c r="H27" s="3">
-        <v>37500</v>
+        <v>38100</v>
       </c>
       <c r="I27" s="3">
-        <v>30900</v>
+        <v>31400</v>
       </c>
       <c r="J27" s="3">
-        <v>41600</v>
+        <v>42300</v>
       </c>
       <c r="K27" s="3">
         <v>48200</v>
@@ -1383,16 +1383,16 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>9900</v>
+        <v>8300</v>
       </c>
       <c r="E32" s="3">
-        <v>-2300</v>
+        <v>-2400</v>
       </c>
       <c r="F32" s="3">
-        <v>-8200</v>
+        <v>-8300</v>
       </c>
       <c r="G32" s="3">
-        <v>-5800</v>
+        <v>-5900</v>
       </c>
       <c r="H32" s="3">
         <v>-2900</v>
@@ -1401,7 +1401,7 @@
         <v>-3100</v>
       </c>
       <c r="J32" s="3">
-        <v>-7500</v>
+        <v>-7600</v>
       </c>
       <c r="K32" s="3">
         <v>-2800</v>
@@ -1413,25 +1413,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>37200</v>
+        <v>37800</v>
       </c>
       <c r="E33" s="3">
-        <v>32700</v>
+        <v>33200</v>
       </c>
       <c r="F33" s="3">
+        <v>43000</v>
+      </c>
+      <c r="G33" s="3">
+        <v>29900</v>
+      </c>
+      <c r="H33" s="3">
+        <v>38100</v>
+      </c>
+      <c r="I33" s="3">
+        <v>31400</v>
+      </c>
+      <c r="J33" s="3">
         <v>42300</v>
-      </c>
-      <c r="G33" s="3">
-        <v>29400</v>
-      </c>
-      <c r="H33" s="3">
-        <v>37500</v>
-      </c>
-      <c r="I33" s="3">
-        <v>30900</v>
-      </c>
-      <c r="J33" s="3">
-        <v>41600</v>
       </c>
       <c r="K33" s="3">
         <v>48200</v>
@@ -1473,25 +1473,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>37200</v>
+        <v>37800</v>
       </c>
       <c r="E35" s="3">
-        <v>32700</v>
+        <v>33200</v>
       </c>
       <c r="F35" s="3">
+        <v>43000</v>
+      </c>
+      <c r="G35" s="3">
+        <v>29900</v>
+      </c>
+      <c r="H35" s="3">
+        <v>38100</v>
+      </c>
+      <c r="I35" s="3">
+        <v>31400</v>
+      </c>
+      <c r="J35" s="3">
         <v>42300</v>
-      </c>
-      <c r="G35" s="3">
-        <v>29400</v>
-      </c>
-      <c r="H35" s="3">
-        <v>37500</v>
-      </c>
-      <c r="I35" s="3">
-        <v>30900</v>
-      </c>
-      <c r="J35" s="3">
-        <v>41600</v>
       </c>
       <c r="K35" s="3">
         <v>48200</v>
@@ -1566,25 +1566,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>358900</v>
+        <v>365100</v>
       </c>
       <c r="E41" s="3">
-        <v>296600</v>
+        <v>301700</v>
       </c>
       <c r="F41" s="3">
-        <v>396500</v>
+        <v>403300</v>
       </c>
       <c r="G41" s="3">
-        <v>203800</v>
+        <v>207300</v>
       </c>
       <c r="H41" s="3">
-        <v>181600</v>
+        <v>184700</v>
       </c>
       <c r="I41" s="3">
-        <v>195700</v>
+        <v>199100</v>
       </c>
       <c r="J41" s="3">
-        <v>208100</v>
+        <v>211700</v>
       </c>
       <c r="K41" s="3">
         <v>111400</v>
@@ -1596,13 +1596,13 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>24800</v>
+        <v>25200</v>
       </c>
       <c r="E42" s="3">
-        <v>14700</v>
+        <v>14900</v>
       </c>
       <c r="F42" s="3">
-        <v>34900</v>
+        <v>35500</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>10</v>
@@ -1626,25 +1626,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>306100</v>
+        <v>311400</v>
       </c>
       <c r="E43" s="3">
-        <v>309700</v>
+        <v>315100</v>
       </c>
       <c r="F43" s="3">
-        <v>588300</v>
+        <v>598500</v>
       </c>
       <c r="G43" s="3">
-        <v>254000</v>
+        <v>258400</v>
       </c>
       <c r="H43" s="3">
-        <v>220200</v>
+        <v>224000</v>
       </c>
       <c r="I43" s="3">
-        <v>206500</v>
+        <v>210100</v>
       </c>
       <c r="J43" s="3">
-        <v>178300</v>
+        <v>181400</v>
       </c>
       <c r="K43" s="3">
         <v>170500</v>
@@ -1656,25 +1656,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>23000</v>
+        <v>23400</v>
       </c>
       <c r="E44" s="3">
-        <v>31600</v>
+        <v>32100</v>
       </c>
       <c r="F44" s="3">
-        <v>30200</v>
+        <v>30800</v>
       </c>
       <c r="G44" s="3">
-        <v>26000</v>
+        <v>26400</v>
       </c>
       <c r="H44" s="3">
-        <v>18600</v>
+        <v>18900</v>
       </c>
       <c r="I44" s="3">
-        <v>11400</v>
+        <v>11600</v>
       </c>
       <c r="J44" s="3">
-        <v>15500</v>
+        <v>15800</v>
       </c>
       <c r="K44" s="3">
         <v>11800</v>
@@ -1686,25 +1686,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>90800</v>
+        <v>92400</v>
       </c>
       <c r="E45" s="3">
-        <v>80300</v>
+        <v>81700</v>
       </c>
       <c r="F45" s="3">
-        <v>184600</v>
+        <v>187700</v>
       </c>
       <c r="G45" s="3">
-        <v>107600</v>
+        <v>109500</v>
       </c>
       <c r="H45" s="3">
-        <v>75200</v>
+        <v>76500</v>
       </c>
       <c r="I45" s="3">
-        <v>69700</v>
+        <v>70900</v>
       </c>
       <c r="J45" s="3">
-        <v>77900</v>
+        <v>79300</v>
       </c>
       <c r="K45" s="3">
         <v>46600</v>
@@ -1716,25 +1716,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>803600</v>
+        <v>817400</v>
       </c>
       <c r="E46" s="3">
-        <v>732900</v>
+        <v>745500</v>
       </c>
       <c r="F46" s="3">
-        <v>611000</v>
+        <v>621600</v>
       </c>
       <c r="G46" s="3">
-        <v>591300</v>
+        <v>601500</v>
       </c>
       <c r="H46" s="3">
-        <v>495600</v>
+        <v>504200</v>
       </c>
       <c r="I46" s="3">
-        <v>483400</v>
+        <v>491700</v>
       </c>
       <c r="J46" s="3">
-        <v>479800</v>
+        <v>488100</v>
       </c>
       <c r="K46" s="3">
         <v>340300</v>
@@ -1746,25 +1746,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>173700</v>
+        <v>176700</v>
       </c>
       <c r="E47" s="3">
-        <v>199800</v>
+        <v>203300</v>
       </c>
       <c r="F47" s="3">
-        <v>261400</v>
+        <v>266000</v>
       </c>
       <c r="G47" s="3">
-        <v>28700</v>
+        <v>29200</v>
       </c>
       <c r="H47" s="3">
-        <v>27100</v>
+        <v>27500</v>
       </c>
       <c r="I47" s="3">
-        <v>22900</v>
+        <v>23300</v>
       </c>
       <c r="J47" s="3">
-        <v>18800</v>
+        <v>19100</v>
       </c>
       <c r="K47" s="3">
         <v>14600</v>
@@ -1776,25 +1776,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>630700</v>
+        <v>641500</v>
       </c>
       <c r="E48" s="3">
-        <v>307500</v>
+        <v>312800</v>
       </c>
       <c r="F48" s="3">
-        <v>741800</v>
+        <v>754600</v>
       </c>
       <c r="G48" s="3">
-        <v>369100</v>
+        <v>375500</v>
       </c>
       <c r="H48" s="3">
-        <v>318500</v>
+        <v>324000</v>
       </c>
       <c r="I48" s="3">
-        <v>272600</v>
+        <v>277300</v>
       </c>
       <c r="J48" s="3">
-        <v>250300</v>
+        <v>254600</v>
       </c>
       <c r="K48" s="3">
         <v>209300</v>
@@ -1806,25 +1806,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>226100</v>
+        <v>230000</v>
       </c>
       <c r="E49" s="3">
-        <v>231100</v>
+        <v>235100</v>
       </c>
       <c r="F49" s="3">
-        <v>302800</v>
+        <v>308100</v>
       </c>
       <c r="G49" s="3">
-        <v>85900</v>
+        <v>87400</v>
       </c>
       <c r="H49" s="3">
-        <v>90200</v>
+        <v>91700</v>
       </c>
       <c r="I49" s="3">
-        <v>93800</v>
+        <v>95400</v>
       </c>
       <c r="J49" s="3">
-        <v>95700</v>
+        <v>97300</v>
       </c>
       <c r="K49" s="3">
         <v>97800</v>
@@ -1896,25 +1896,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>82500</v>
+        <v>83900</v>
       </c>
       <c r="E52" s="3">
-        <v>81200</v>
+        <v>82600</v>
       </c>
       <c r="F52" s="3">
-        <v>323300</v>
+        <v>328900</v>
       </c>
       <c r="G52" s="3">
-        <v>200000</v>
+        <v>203500</v>
       </c>
       <c r="H52" s="3">
-        <v>162100</v>
+        <v>164900</v>
       </c>
       <c r="I52" s="3">
-        <v>136100</v>
+        <v>138500</v>
       </c>
       <c r="J52" s="3">
-        <v>119400</v>
+        <v>121400</v>
       </c>
       <c r="K52" s="3">
         <v>84300</v>
@@ -1956,25 +1956,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1916500</v>
+        <v>1949600</v>
       </c>
       <c r="E54" s="3">
-        <v>1552400</v>
+        <v>1579200</v>
       </c>
       <c r="F54" s="3">
-        <v>1439900</v>
+        <v>1464700</v>
       </c>
       <c r="G54" s="3">
-        <v>1275000</v>
+        <v>1297000</v>
       </c>
       <c r="H54" s="3">
-        <v>1093500</v>
+        <v>1112400</v>
       </c>
       <c r="I54" s="3">
-        <v>1008800</v>
+        <v>1026200</v>
       </c>
       <c r="J54" s="3">
-        <v>963900</v>
+        <v>980500</v>
       </c>
       <c r="K54" s="3">
         <v>746400</v>
@@ -2014,25 +2014,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>169700</v>
+        <v>56400</v>
       </c>
       <c r="E57" s="3">
-        <v>72500</v>
+        <v>73700</v>
       </c>
       <c r="F57" s="3">
-        <v>189100</v>
+        <v>192300</v>
       </c>
       <c r="G57" s="3">
-        <v>136000</v>
+        <v>138300</v>
       </c>
       <c r="H57" s="3">
-        <v>129100</v>
+        <v>131300</v>
       </c>
       <c r="I57" s="3">
-        <v>113100</v>
+        <v>115000</v>
       </c>
       <c r="J57" s="3">
-        <v>106600</v>
+        <v>108500</v>
       </c>
       <c r="K57" s="3">
         <v>99700</v>
@@ -2044,25 +2044,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>310200</v>
+        <v>147100</v>
       </c>
       <c r="E58" s="3">
-        <v>178800</v>
+        <v>181900</v>
       </c>
       <c r="F58" s="3">
-        <v>276600</v>
+        <v>281300</v>
       </c>
       <c r="G58" s="3">
-        <v>130600</v>
+        <v>132800</v>
       </c>
       <c r="H58" s="3">
-        <v>122500</v>
+        <v>124600</v>
       </c>
       <c r="I58" s="3">
-        <v>118500</v>
+        <v>120600</v>
       </c>
       <c r="J58" s="3">
-        <v>131200</v>
+        <v>133400</v>
       </c>
       <c r="K58" s="3">
         <v>126500</v>
@@ -2074,25 +2074,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>129700</v>
+        <v>416600</v>
       </c>
       <c r="E59" s="3">
-        <v>239700</v>
+        <v>243800</v>
       </c>
       <c r="F59" s="3">
-        <v>316500</v>
+        <v>322000</v>
       </c>
       <c r="G59" s="3">
-        <v>104500</v>
+        <v>106300</v>
       </c>
       <c r="H59" s="3">
-        <v>83100</v>
+        <v>84500</v>
       </c>
       <c r="I59" s="3">
-        <v>81500</v>
+        <v>82900</v>
       </c>
       <c r="J59" s="3">
-        <v>63500</v>
+        <v>64600</v>
       </c>
       <c r="K59" s="3">
         <v>68100</v>
@@ -2104,25 +2104,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>609600</v>
+        <v>620100</v>
       </c>
       <c r="E60" s="3">
-        <v>491000</v>
+        <v>499400</v>
       </c>
       <c r="F60" s="3">
-        <v>391000</v>
+        <v>397800</v>
       </c>
       <c r="G60" s="3">
-        <v>371000</v>
+        <v>377400</v>
       </c>
       <c r="H60" s="3">
-        <v>334700</v>
+        <v>340500</v>
       </c>
       <c r="I60" s="3">
-        <v>313100</v>
+        <v>318500</v>
       </c>
       <c r="J60" s="3">
-        <v>301300</v>
+        <v>306500</v>
       </c>
       <c r="K60" s="3">
         <v>294400</v>
@@ -2134,25 +2134,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>112900</v>
+        <v>114900</v>
       </c>
       <c r="E61" s="3">
-        <v>236800</v>
+        <v>240900</v>
       </c>
       <c r="F61" s="3">
-        <v>245200</v>
+        <v>249400</v>
       </c>
       <c r="G61" s="3">
-        <v>175200</v>
+        <v>178300</v>
       </c>
       <c r="H61" s="3">
-        <v>72200</v>
+        <v>73400</v>
       </c>
       <c r="I61" s="3">
-        <v>40300</v>
+        <v>41000</v>
       </c>
       <c r="J61" s="3">
-        <v>42700</v>
+        <v>43500</v>
       </c>
       <c r="K61" s="3">
         <v>57700</v>
@@ -2164,25 +2164,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>451100</v>
+        <v>458900</v>
       </c>
       <c r="E62" s="3">
-        <v>109000</v>
+        <v>110900</v>
       </c>
       <c r="F62" s="3">
-        <v>206500</v>
+        <v>210100</v>
       </c>
       <c r="G62" s="3">
-        <v>103400</v>
+        <v>105200</v>
       </c>
       <c r="H62" s="3">
-        <v>80200</v>
+        <v>81600</v>
       </c>
       <c r="I62" s="3">
-        <v>72200</v>
+        <v>73400</v>
       </c>
       <c r="J62" s="3">
-        <v>61400</v>
+        <v>62500</v>
       </c>
       <c r="K62" s="3">
         <v>52200</v>
@@ -2284,25 +2284,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1182700</v>
+        <v>1203100</v>
       </c>
       <c r="E66" s="3">
-        <v>844600</v>
+        <v>859200</v>
       </c>
       <c r="F66" s="3">
-        <v>748300</v>
+        <v>761200</v>
       </c>
       <c r="G66" s="3">
-        <v>655700</v>
+        <v>667000</v>
       </c>
       <c r="H66" s="3">
-        <v>491700</v>
+        <v>500200</v>
       </c>
       <c r="I66" s="3">
-        <v>428700</v>
+        <v>436100</v>
       </c>
       <c r="J66" s="3">
-        <v>407900</v>
+        <v>414900</v>
       </c>
       <c r="K66" s="3">
         <v>404500</v>
@@ -2448,25 +2448,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>153100</v>
+        <v>155800</v>
       </c>
       <c r="E72" s="3">
-        <v>114500</v>
+        <v>116400</v>
       </c>
       <c r="F72" s="3">
-        <v>167800</v>
+        <v>170700</v>
       </c>
       <c r="G72" s="3">
-        <v>41900</v>
+        <v>42600</v>
       </c>
       <c r="H72" s="3">
-        <v>22900</v>
+        <v>23300</v>
       </c>
       <c r="I72" s="3">
-        <v>-5200</v>
+        <v>-5300</v>
       </c>
       <c r="J72" s="3">
-        <v>-26600</v>
+        <v>-27100</v>
       </c>
       <c r="K72" s="3">
         <v>-58200</v>
@@ -2568,25 +2568,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>733800</v>
+        <v>746500</v>
       </c>
       <c r="E76" s="3">
-        <v>707800</v>
+        <v>720000</v>
       </c>
       <c r="F76" s="3">
-        <v>691600</v>
+        <v>703600</v>
       </c>
       <c r="G76" s="3">
-        <v>619400</v>
+        <v>630000</v>
       </c>
       <c r="H76" s="3">
-        <v>601800</v>
+        <v>612100</v>
       </c>
       <c r="I76" s="3">
-        <v>580000</v>
+        <v>590000</v>
       </c>
       <c r="J76" s="3">
-        <v>556000</v>
+        <v>565600</v>
       </c>
       <c r="K76" s="3">
         <v>341800</v>
@@ -2663,25 +2663,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>37200</v>
+        <v>37800</v>
       </c>
       <c r="E81" s="3">
-        <v>32700</v>
+        <v>33200</v>
       </c>
       <c r="F81" s="3">
+        <v>43000</v>
+      </c>
+      <c r="G81" s="3">
+        <v>29900</v>
+      </c>
+      <c r="H81" s="3">
+        <v>38100</v>
+      </c>
+      <c r="I81" s="3">
+        <v>31400</v>
+      </c>
+      <c r="J81" s="3">
         <v>42300</v>
-      </c>
-      <c r="G81" s="3">
-        <v>29400</v>
-      </c>
-      <c r="H81" s="3">
-        <v>37500</v>
-      </c>
-      <c r="I81" s="3">
-        <v>30900</v>
-      </c>
-      <c r="J81" s="3">
-        <v>41600</v>
       </c>
       <c r="K81" s="3">
         <v>48200</v>
@@ -2707,25 +2707,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>265000</v>
+        <v>269200</v>
       </c>
       <c r="E83" s="3">
-        <v>145200</v>
+        <v>147500</v>
       </c>
       <c r="F83" s="3">
-        <v>124600</v>
+        <v>126600</v>
       </c>
       <c r="G83" s="3">
-        <v>101200</v>
+        <v>102800</v>
       </c>
       <c r="H83" s="3">
-        <v>92200</v>
+        <v>93700</v>
       </c>
       <c r="I83" s="3">
-        <v>89900</v>
+        <v>91400</v>
       </c>
       <c r="J83" s="3">
-        <v>82000</v>
+        <v>83300</v>
       </c>
       <c r="K83" s="3">
         <v>68200</v>
@@ -2887,25 +2887,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>310200</v>
+        <v>315200</v>
       </c>
       <c r="E89" s="3">
-        <v>233700</v>
+        <v>237400</v>
       </c>
       <c r="F89" s="3">
-        <v>136200</v>
+        <v>138400</v>
       </c>
       <c r="G89" s="3">
-        <v>68400</v>
+        <v>69600</v>
       </c>
       <c r="H89" s="3">
-        <v>112000</v>
+        <v>113800</v>
       </c>
       <c r="I89" s="3">
-        <v>120000</v>
+        <v>121900</v>
       </c>
       <c r="J89" s="3">
-        <v>81600</v>
+        <v>82900</v>
       </c>
       <c r="K89" s="3">
         <v>88700</v>
@@ -2931,25 +2931,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-66900</v>
+        <v>-67900</v>
       </c>
       <c r="E91" s="3">
-        <v>-65800</v>
+        <v>-66800</v>
       </c>
       <c r="F91" s="3">
-        <v>-249600</v>
+        <v>-253600</v>
       </c>
       <c r="G91" s="3">
-        <v>-98700</v>
+        <v>-100300</v>
       </c>
       <c r="H91" s="3">
-        <v>-101200</v>
+        <v>-102900</v>
       </c>
       <c r="I91" s="3">
-        <v>-75800</v>
+        <v>-77000</v>
       </c>
       <c r="J91" s="3">
-        <v>-84800</v>
+        <v>-86100</v>
       </c>
       <c r="K91" s="3">
         <v>-50800</v>
@@ -3021,25 +3021,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-67500</v>
+        <v>-68600</v>
       </c>
       <c r="E94" s="3">
-        <v>-80700</v>
+        <v>-82000</v>
       </c>
       <c r="F94" s="3">
-        <v>-132800</v>
+        <v>-135000</v>
       </c>
       <c r="G94" s="3">
-        <v>-68500</v>
+        <v>-69600</v>
       </c>
       <c r="H94" s="3">
-        <v>-77800</v>
+        <v>-79100</v>
       </c>
       <c r="I94" s="3">
-        <v>-75000</v>
+        <v>-76200</v>
       </c>
       <c r="J94" s="3">
-        <v>-94800</v>
+        <v>-96300</v>
       </c>
       <c r="K94" s="3">
         <v>-54000</v>
@@ -3065,25 +3065,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-11300</v>
+        <v>-11500</v>
       </c>
       <c r="E96" s="3">
-        <v>-11300</v>
+        <v>-11500</v>
       </c>
       <c r="F96" s="3">
-        <v>-11300</v>
+        <v>-11500</v>
       </c>
       <c r="G96" s="3">
-        <v>-10500</v>
+        <v>-10600</v>
       </c>
       <c r="H96" s="3">
-        <v>-9400</v>
+        <v>-9500</v>
       </c>
       <c r="I96" s="3">
-        <v>-9400</v>
+        <v>-9500</v>
       </c>
       <c r="J96" s="3">
-        <v>-8500</v>
+        <v>-8600</v>
       </c>
       <c r="K96" s="3">
         <v>-6400</v>
@@ -3185,25 +3185,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-179800</v>
+        <v>-182700</v>
       </c>
       <c r="E100" s="3">
-        <v>-54700</v>
+        <v>-55600</v>
       </c>
       <c r="F100" s="3">
-        <v>-6700</v>
+        <v>-6800</v>
       </c>
       <c r="G100" s="3">
-        <v>23200</v>
+        <v>23500</v>
       </c>
       <c r="H100" s="3">
-        <v>-48300</v>
+        <v>-49100</v>
       </c>
       <c r="I100" s="3">
-        <v>-58400</v>
+        <v>-59300</v>
       </c>
       <c r="J100" s="3">
-        <v>105700</v>
+        <v>107400</v>
       </c>
       <c r="K100" s="3">
         <v>-45400</v>
@@ -3233,7 +3233,7 @@
         <v>1100</v>
       </c>
       <c r="J101" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="K101" s="3">
         <v>-800</v>
@@ -3245,25 +3245,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>62400</v>
+        <v>63400</v>
       </c>
       <c r="E102" s="3">
-        <v>98800</v>
+        <v>100400</v>
       </c>
       <c r="F102" s="3">
         <v>-4000</v>
       </c>
       <c r="G102" s="3">
-        <v>22200</v>
+        <v>22600</v>
       </c>
       <c r="H102" s="3">
-        <v>-14200</v>
+        <v>-14400</v>
       </c>
       <c r="I102" s="3">
-        <v>-12300</v>
+        <v>-12500</v>
       </c>
       <c r="J102" s="3">
-        <v>94400</v>
+        <v>95900</v>
       </c>
       <c r="K102" s="3">
         <v>-11600</v>

--- a/AAII_Financials/Yearly/IIJIY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/IIJIY_YR_FIN.xlsx
@@ -714,25 +714,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1930200</v>
+        <v>1965000</v>
       </c>
       <c r="E8" s="3">
-        <v>1816500</v>
+        <v>1849300</v>
       </c>
       <c r="F8" s="3">
-        <v>1663600</v>
+        <v>1693600</v>
       </c>
       <c r="G8" s="3">
-        <v>1489500</v>
+        <v>1516400</v>
       </c>
       <c r="H8" s="3">
-        <v>1327700</v>
+        <v>1351600</v>
       </c>
       <c r="I8" s="3">
-        <v>1161600</v>
+        <v>1182500</v>
       </c>
       <c r="J8" s="3">
-        <v>1078700</v>
+        <v>1098200</v>
       </c>
       <c r="K8" s="3">
         <v>965800</v>
@@ -744,25 +744,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1622500</v>
+        <v>1651800</v>
       </c>
       <c r="E9" s="3">
-        <v>1543000</v>
+        <v>1570800</v>
       </c>
       <c r="F9" s="3">
-        <v>2768900</v>
+        <v>2818800</v>
       </c>
       <c r="G9" s="3">
-        <v>1251200</v>
+        <v>1273700</v>
       </c>
       <c r="H9" s="3">
-        <v>1095000</v>
+        <v>1114700</v>
       </c>
       <c r="I9" s="3">
-        <v>953200</v>
+        <v>970400</v>
       </c>
       <c r="J9" s="3">
-        <v>879900</v>
+        <v>895700</v>
       </c>
       <c r="K9" s="3">
         <v>767100</v>
@@ -774,25 +774,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>307700</v>
+        <v>313200</v>
       </c>
       <c r="E10" s="3">
-        <v>273500</v>
+        <v>278400</v>
       </c>
       <c r="F10" s="3">
-        <v>-1105300</v>
+        <v>-1125200</v>
       </c>
       <c r="G10" s="3">
-        <v>238300</v>
+        <v>242600</v>
       </c>
       <c r="H10" s="3">
-        <v>232700</v>
+        <v>236900</v>
       </c>
       <c r="I10" s="3">
-        <v>208400</v>
+        <v>212100</v>
       </c>
       <c r="J10" s="3">
-        <v>198900</v>
+        <v>202400</v>
       </c>
       <c r="K10" s="3">
         <v>198600</v>
@@ -818,19 +818,19 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>4100</v>
+        <v>4200</v>
       </c>
       <c r="E12" s="3">
-        <v>4200</v>
+        <v>4300</v>
       </c>
       <c r="F12" s="3">
-        <v>4600</v>
+        <v>4700</v>
       </c>
       <c r="G12" s="3">
+        <v>4500</v>
+      </c>
+      <c r="H12" s="3">
         <v>4400</v>
-      </c>
-      <c r="H12" s="3">
-        <v>4300</v>
       </c>
       <c r="I12" s="3">
         <v>4200</v>
@@ -878,13 +878,13 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>-3500</v>
+        <v>-3600</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F14" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="G14" s="3">
         <v>300</v>
@@ -908,13 +908,13 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>26800</v>
+        <v>27300</v>
       </c>
       <c r="E15" s="3">
-        <v>12100</v>
+        <v>12300</v>
       </c>
       <c r="F15" s="3">
-        <v>11800</v>
+        <v>12000</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>10</v>
@@ -949,25 +949,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1849000</v>
+        <v>1882300</v>
       </c>
       <c r="E17" s="3">
-        <v>1759700</v>
+        <v>1791400</v>
       </c>
       <c r="F17" s="3">
-        <v>1599700</v>
+        <v>1628500</v>
       </c>
       <c r="G17" s="3">
-        <v>1441300</v>
+        <v>1467300</v>
       </c>
       <c r="H17" s="3">
-        <v>1269900</v>
+        <v>1292800</v>
       </c>
       <c r="I17" s="3">
-        <v>1114000</v>
+        <v>1134000</v>
       </c>
       <c r="J17" s="3">
-        <v>1024700</v>
+        <v>1043200</v>
       </c>
       <c r="K17" s="3">
         <v>895500</v>
@@ -979,25 +979,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>81200</v>
+        <v>82700</v>
       </c>
       <c r="E18" s="3">
-        <v>56900</v>
+        <v>57900</v>
       </c>
       <c r="F18" s="3">
-        <v>63900</v>
+        <v>65100</v>
       </c>
       <c r="G18" s="3">
-        <v>48200</v>
+        <v>49000</v>
       </c>
       <c r="H18" s="3">
-        <v>57800</v>
+        <v>58900</v>
       </c>
       <c r="I18" s="3">
-        <v>47600</v>
+        <v>48500</v>
       </c>
       <c r="J18" s="3">
-        <v>54000</v>
+        <v>55000</v>
       </c>
       <c r="K18" s="3">
         <v>70300</v>
@@ -1023,25 +1023,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-8300</v>
+        <v>-8400</v>
       </c>
       <c r="E20" s="3">
         <v>2400</v>
       </c>
       <c r="F20" s="3">
-        <v>8300</v>
+        <v>8500</v>
       </c>
       <c r="G20" s="3">
-        <v>5900</v>
+        <v>6000</v>
       </c>
       <c r="H20" s="3">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="I20" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="J20" s="3">
-        <v>7600</v>
+        <v>7800</v>
       </c>
       <c r="K20" s="3">
         <v>2800</v>
@@ -1053,25 +1053,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>341000</v>
+        <v>347700</v>
       </c>
       <c r="E21" s="3">
-        <v>206100</v>
+        <v>210200</v>
       </c>
       <c r="F21" s="3">
-        <v>198300</v>
+        <v>202200</v>
       </c>
       <c r="G21" s="3">
-        <v>156500</v>
+        <v>159500</v>
       </c>
       <c r="H21" s="3">
-        <v>154000</v>
+        <v>157000</v>
       </c>
       <c r="I21" s="3">
-        <v>141700</v>
+        <v>144500</v>
       </c>
       <c r="J21" s="3">
-        <v>144600</v>
+        <v>147400</v>
       </c>
       <c r="K21" s="3">
         <v>141500</v>
@@ -1083,13 +1083,13 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>5300</v>
+        <v>5400</v>
       </c>
       <c r="E22" s="3">
         <v>4100</v>
       </c>
       <c r="F22" s="3">
-        <v>7400</v>
+        <v>7500</v>
       </c>
       <c r="G22" s="3">
         <v>2900</v>
@@ -1098,10 +1098,10 @@
         <v>2300</v>
       </c>
       <c r="I22" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="J22" s="3">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="K22" s="3">
         <v>2600</v>
@@ -1113,25 +1113,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>67600</v>
+        <v>68800</v>
       </c>
       <c r="E23" s="3">
-        <v>55200</v>
+        <v>56200</v>
       </c>
       <c r="F23" s="3">
-        <v>64900</v>
+        <v>66000</v>
       </c>
       <c r="G23" s="3">
-        <v>51200</v>
+        <v>52200</v>
       </c>
       <c r="H23" s="3">
-        <v>58500</v>
+        <v>59500</v>
       </c>
       <c r="I23" s="3">
-        <v>48500</v>
+        <v>49400</v>
       </c>
       <c r="J23" s="3">
-        <v>59200</v>
+        <v>60300</v>
       </c>
       <c r="K23" s="3">
         <v>70500</v>
@@ -1143,25 +1143,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>28000</v>
+        <v>28500</v>
       </c>
       <c r="E24" s="3">
-        <v>20200</v>
+        <v>20600</v>
       </c>
       <c r="F24" s="3">
-        <v>21700</v>
+        <v>22100</v>
       </c>
       <c r="G24" s="3">
+        <v>21400</v>
+      </c>
+      <c r="H24" s="3">
         <v>21000</v>
       </c>
-      <c r="H24" s="3">
-        <v>20600</v>
-      </c>
       <c r="I24" s="3">
-        <v>17900</v>
+        <v>18200</v>
       </c>
       <c r="J24" s="3">
-        <v>16900</v>
+        <v>17300</v>
       </c>
       <c r="K24" s="3">
         <v>23700</v>
@@ -1203,25 +1203,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>39600</v>
+        <v>40300</v>
       </c>
       <c r="E26" s="3">
-        <v>34900</v>
+        <v>35500</v>
       </c>
       <c r="F26" s="3">
-        <v>43200</v>
+        <v>44000</v>
       </c>
       <c r="G26" s="3">
-        <v>30200</v>
+        <v>30800</v>
       </c>
       <c r="H26" s="3">
-        <v>37900</v>
+        <v>38500</v>
       </c>
       <c r="I26" s="3">
-        <v>30600</v>
+        <v>31200</v>
       </c>
       <c r="J26" s="3">
-        <v>42300</v>
+        <v>43000</v>
       </c>
       <c r="K26" s="3">
         <v>46800</v>
@@ -1233,25 +1233,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>37800</v>
+        <v>38500</v>
       </c>
       <c r="E27" s="3">
-        <v>33200</v>
+        <v>33800</v>
       </c>
       <c r="F27" s="3">
-        <v>42800</v>
+        <v>43600</v>
       </c>
       <c r="G27" s="3">
-        <v>29900</v>
+        <v>30400</v>
       </c>
       <c r="H27" s="3">
-        <v>38100</v>
+        <v>38800</v>
       </c>
       <c r="I27" s="3">
-        <v>31400</v>
+        <v>31900</v>
       </c>
       <c r="J27" s="3">
-        <v>42300</v>
+        <v>43000</v>
       </c>
       <c r="K27" s="3">
         <v>48200</v>
@@ -1383,25 +1383,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>8300</v>
+        <v>8400</v>
       </c>
       <c r="E32" s="3">
         <v>-2400</v>
       </c>
       <c r="F32" s="3">
-        <v>-8300</v>
+        <v>-8500</v>
       </c>
       <c r="G32" s="3">
-        <v>-5900</v>
+        <v>-6000</v>
       </c>
       <c r="H32" s="3">
-        <v>-2900</v>
+        <v>-3000</v>
       </c>
       <c r="I32" s="3">
-        <v>-3100</v>
+        <v>-3200</v>
       </c>
       <c r="J32" s="3">
-        <v>-7600</v>
+        <v>-7800</v>
       </c>
       <c r="K32" s="3">
         <v>-2800</v>
@@ -1413,25 +1413,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>37800</v>
+        <v>38500</v>
       </c>
       <c r="E33" s="3">
-        <v>33200</v>
+        <v>33800</v>
       </c>
       <c r="F33" s="3">
+        <v>43800</v>
+      </c>
+      <c r="G33" s="3">
+        <v>30400</v>
+      </c>
+      <c r="H33" s="3">
+        <v>38800</v>
+      </c>
+      <c r="I33" s="3">
+        <v>31900</v>
+      </c>
+      <c r="J33" s="3">
         <v>43000</v>
-      </c>
-      <c r="G33" s="3">
-        <v>29900</v>
-      </c>
-      <c r="H33" s="3">
-        <v>38100</v>
-      </c>
-      <c r="I33" s="3">
-        <v>31400</v>
-      </c>
-      <c r="J33" s="3">
-        <v>42300</v>
       </c>
       <c r="K33" s="3">
         <v>48200</v>
@@ -1473,25 +1473,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>37800</v>
+        <v>38500</v>
       </c>
       <c r="E35" s="3">
-        <v>33200</v>
+        <v>33800</v>
       </c>
       <c r="F35" s="3">
+        <v>43800</v>
+      </c>
+      <c r="G35" s="3">
+        <v>30400</v>
+      </c>
+      <c r="H35" s="3">
+        <v>38800</v>
+      </c>
+      <c r="I35" s="3">
+        <v>31900</v>
+      </c>
+      <c r="J35" s="3">
         <v>43000</v>
-      </c>
-      <c r="G35" s="3">
-        <v>29900</v>
-      </c>
-      <c r="H35" s="3">
-        <v>38100</v>
-      </c>
-      <c r="I35" s="3">
-        <v>31400</v>
-      </c>
-      <c r="J35" s="3">
-        <v>42300</v>
       </c>
       <c r="K35" s="3">
         <v>48200</v>
@@ -1566,25 +1566,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>365100</v>
+        <v>371600</v>
       </c>
       <c r="E41" s="3">
-        <v>301700</v>
+        <v>307100</v>
       </c>
       <c r="F41" s="3">
-        <v>403300</v>
+        <v>410600</v>
       </c>
       <c r="G41" s="3">
-        <v>207300</v>
+        <v>211000</v>
       </c>
       <c r="H41" s="3">
-        <v>184700</v>
+        <v>188100</v>
       </c>
       <c r="I41" s="3">
-        <v>199100</v>
+        <v>202700</v>
       </c>
       <c r="J41" s="3">
-        <v>211700</v>
+        <v>215500</v>
       </c>
       <c r="K41" s="3">
         <v>111400</v>
@@ -1596,13 +1596,13 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>25200</v>
+        <v>25700</v>
       </c>
       <c r="E42" s="3">
-        <v>14900</v>
+        <v>15200</v>
       </c>
       <c r="F42" s="3">
-        <v>35500</v>
+        <v>36100</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>10</v>
@@ -1626,25 +1626,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>311400</v>
+        <v>317000</v>
       </c>
       <c r="E43" s="3">
-        <v>315100</v>
+        <v>320700</v>
       </c>
       <c r="F43" s="3">
-        <v>598500</v>
+        <v>609300</v>
       </c>
       <c r="G43" s="3">
-        <v>258400</v>
+        <v>263000</v>
       </c>
       <c r="H43" s="3">
-        <v>224000</v>
+        <v>228100</v>
       </c>
       <c r="I43" s="3">
-        <v>210100</v>
+        <v>213800</v>
       </c>
       <c r="J43" s="3">
-        <v>181400</v>
+        <v>184600</v>
       </c>
       <c r="K43" s="3">
         <v>170500</v>
@@ -1656,25 +1656,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>23400</v>
+        <v>23800</v>
       </c>
       <c r="E44" s="3">
-        <v>32100</v>
+        <v>32700</v>
       </c>
       <c r="F44" s="3">
-        <v>30800</v>
+        <v>31300</v>
       </c>
       <c r="G44" s="3">
-        <v>26400</v>
+        <v>26900</v>
       </c>
       <c r="H44" s="3">
-        <v>18900</v>
+        <v>19300</v>
       </c>
       <c r="I44" s="3">
-        <v>11600</v>
+        <v>11800</v>
       </c>
       <c r="J44" s="3">
-        <v>15800</v>
+        <v>16100</v>
       </c>
       <c r="K44" s="3">
         <v>11800</v>
@@ -1686,25 +1686,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>92400</v>
+        <v>94100</v>
       </c>
       <c r="E45" s="3">
-        <v>81700</v>
+        <v>83200</v>
       </c>
       <c r="F45" s="3">
-        <v>187700</v>
+        <v>191100</v>
       </c>
       <c r="G45" s="3">
-        <v>109500</v>
+        <v>111400</v>
       </c>
       <c r="H45" s="3">
-        <v>76500</v>
+        <v>77900</v>
       </c>
       <c r="I45" s="3">
-        <v>70900</v>
+        <v>72200</v>
       </c>
       <c r="J45" s="3">
-        <v>79300</v>
+        <v>80700</v>
       </c>
       <c r="K45" s="3">
         <v>46600</v>
@@ -1716,25 +1716,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>817400</v>
+        <v>832100</v>
       </c>
       <c r="E46" s="3">
-        <v>745500</v>
+        <v>758900</v>
       </c>
       <c r="F46" s="3">
-        <v>621600</v>
+        <v>632800</v>
       </c>
       <c r="G46" s="3">
-        <v>601500</v>
+        <v>612400</v>
       </c>
       <c r="H46" s="3">
-        <v>504200</v>
+        <v>513200</v>
       </c>
       <c r="I46" s="3">
-        <v>491700</v>
+        <v>500600</v>
       </c>
       <c r="J46" s="3">
-        <v>488100</v>
+        <v>496800</v>
       </c>
       <c r="K46" s="3">
         <v>340300</v>
@@ -1746,25 +1746,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>176700</v>
+        <v>179900</v>
       </c>
       <c r="E47" s="3">
-        <v>203300</v>
+        <v>206900</v>
       </c>
       <c r="F47" s="3">
-        <v>266000</v>
+        <v>270700</v>
       </c>
       <c r="G47" s="3">
-        <v>29200</v>
+        <v>29700</v>
       </c>
       <c r="H47" s="3">
-        <v>27500</v>
+        <v>28000</v>
       </c>
       <c r="I47" s="3">
-        <v>23300</v>
+        <v>23700</v>
       </c>
       <c r="J47" s="3">
-        <v>19100</v>
+        <v>19400</v>
       </c>
       <c r="K47" s="3">
         <v>14600</v>
@@ -1776,25 +1776,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>641500</v>
+        <v>653100</v>
       </c>
       <c r="E48" s="3">
-        <v>312800</v>
+        <v>318400</v>
       </c>
       <c r="F48" s="3">
-        <v>754600</v>
+        <v>768200</v>
       </c>
       <c r="G48" s="3">
-        <v>375500</v>
+        <v>382200</v>
       </c>
       <c r="H48" s="3">
-        <v>324000</v>
+        <v>329900</v>
       </c>
       <c r="I48" s="3">
-        <v>277300</v>
+        <v>282200</v>
       </c>
       <c r="J48" s="3">
-        <v>254600</v>
+        <v>259200</v>
       </c>
       <c r="K48" s="3">
         <v>209300</v>
@@ -1806,25 +1806,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>230000</v>
+        <v>234100</v>
       </c>
       <c r="E49" s="3">
-        <v>235100</v>
+        <v>239300</v>
       </c>
       <c r="F49" s="3">
-        <v>308100</v>
+        <v>313600</v>
       </c>
       <c r="G49" s="3">
-        <v>87400</v>
+        <v>89000</v>
       </c>
       <c r="H49" s="3">
-        <v>91700</v>
+        <v>93400</v>
       </c>
       <c r="I49" s="3">
-        <v>95400</v>
+        <v>97200</v>
       </c>
       <c r="J49" s="3">
-        <v>97300</v>
+        <v>99100</v>
       </c>
       <c r="K49" s="3">
         <v>97800</v>
@@ -1896,25 +1896,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>83900</v>
+        <v>85400</v>
       </c>
       <c r="E52" s="3">
-        <v>82600</v>
+        <v>84100</v>
       </c>
       <c r="F52" s="3">
-        <v>328900</v>
+        <v>334800</v>
       </c>
       <c r="G52" s="3">
-        <v>203500</v>
+        <v>207100</v>
       </c>
       <c r="H52" s="3">
-        <v>164900</v>
+        <v>167900</v>
       </c>
       <c r="I52" s="3">
-        <v>138500</v>
+        <v>141000</v>
       </c>
       <c r="J52" s="3">
-        <v>121400</v>
+        <v>123600</v>
       </c>
       <c r="K52" s="3">
         <v>84300</v>
@@ -1956,25 +1956,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1949600</v>
+        <v>1984700</v>
       </c>
       <c r="E54" s="3">
-        <v>1579200</v>
+        <v>1607600</v>
       </c>
       <c r="F54" s="3">
-        <v>1464700</v>
+        <v>1491100</v>
       </c>
       <c r="G54" s="3">
-        <v>1297000</v>
+        <v>1320400</v>
       </c>
       <c r="H54" s="3">
-        <v>1112400</v>
+        <v>1132400</v>
       </c>
       <c r="I54" s="3">
-        <v>1026200</v>
+        <v>1044700</v>
       </c>
       <c r="J54" s="3">
-        <v>980500</v>
+        <v>998200</v>
       </c>
       <c r="K54" s="3">
         <v>746400</v>
@@ -2014,25 +2014,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>56400</v>
+        <v>57500</v>
       </c>
       <c r="E57" s="3">
-        <v>73700</v>
+        <v>75100</v>
       </c>
       <c r="F57" s="3">
-        <v>192300</v>
+        <v>195800</v>
       </c>
       <c r="G57" s="3">
-        <v>138300</v>
+        <v>140800</v>
       </c>
       <c r="H57" s="3">
-        <v>131300</v>
+        <v>133600</v>
       </c>
       <c r="I57" s="3">
-        <v>115000</v>
+        <v>117100</v>
       </c>
       <c r="J57" s="3">
-        <v>108500</v>
+        <v>110400</v>
       </c>
       <c r="K57" s="3">
         <v>99700</v>
@@ -2044,25 +2044,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>147100</v>
+        <v>149700</v>
       </c>
       <c r="E58" s="3">
-        <v>181900</v>
+        <v>185200</v>
       </c>
       <c r="F58" s="3">
-        <v>281300</v>
+        <v>286400</v>
       </c>
       <c r="G58" s="3">
-        <v>132800</v>
+        <v>135200</v>
       </c>
       <c r="H58" s="3">
-        <v>124600</v>
+        <v>126900</v>
       </c>
       <c r="I58" s="3">
-        <v>120600</v>
+        <v>122700</v>
       </c>
       <c r="J58" s="3">
-        <v>133400</v>
+        <v>135800</v>
       </c>
       <c r="K58" s="3">
         <v>126500</v>
@@ -2074,25 +2074,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>416600</v>
+        <v>424100</v>
       </c>
       <c r="E59" s="3">
-        <v>243800</v>
+        <v>248200</v>
       </c>
       <c r="F59" s="3">
-        <v>322000</v>
+        <v>327800</v>
       </c>
       <c r="G59" s="3">
-        <v>106300</v>
+        <v>108200</v>
       </c>
       <c r="H59" s="3">
-        <v>84500</v>
+        <v>86100</v>
       </c>
       <c r="I59" s="3">
-        <v>82900</v>
+        <v>84400</v>
       </c>
       <c r="J59" s="3">
-        <v>64600</v>
+        <v>65800</v>
       </c>
       <c r="K59" s="3">
         <v>68100</v>
@@ -2104,25 +2104,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>620100</v>
+        <v>631200</v>
       </c>
       <c r="E60" s="3">
-        <v>499400</v>
+        <v>508400</v>
       </c>
       <c r="F60" s="3">
-        <v>397800</v>
+        <v>404900</v>
       </c>
       <c r="G60" s="3">
-        <v>377400</v>
+        <v>384200</v>
       </c>
       <c r="H60" s="3">
-        <v>340500</v>
+        <v>346600</v>
       </c>
       <c r="I60" s="3">
-        <v>318500</v>
+        <v>324300</v>
       </c>
       <c r="J60" s="3">
-        <v>306500</v>
+        <v>312000</v>
       </c>
       <c r="K60" s="3">
         <v>294400</v>
@@ -2134,25 +2134,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>114900</v>
+        <v>117000</v>
       </c>
       <c r="E61" s="3">
-        <v>240900</v>
+        <v>245200</v>
       </c>
       <c r="F61" s="3">
-        <v>249400</v>
+        <v>253900</v>
       </c>
       <c r="G61" s="3">
-        <v>178300</v>
+        <v>181500</v>
       </c>
       <c r="H61" s="3">
-        <v>73400</v>
+        <v>74800</v>
       </c>
       <c r="I61" s="3">
-        <v>41000</v>
+        <v>41700</v>
       </c>
       <c r="J61" s="3">
-        <v>43500</v>
+        <v>44200</v>
       </c>
       <c r="K61" s="3">
         <v>57700</v>
@@ -2164,25 +2164,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>458900</v>
+        <v>467100</v>
       </c>
       <c r="E62" s="3">
-        <v>110900</v>
+        <v>112900</v>
       </c>
       <c r="F62" s="3">
-        <v>210100</v>
+        <v>213900</v>
       </c>
       <c r="G62" s="3">
-        <v>105200</v>
+        <v>107100</v>
       </c>
       <c r="H62" s="3">
-        <v>81600</v>
+        <v>83100</v>
       </c>
       <c r="I62" s="3">
-        <v>73400</v>
+        <v>74800</v>
       </c>
       <c r="J62" s="3">
-        <v>62500</v>
+        <v>63600</v>
       </c>
       <c r="K62" s="3">
         <v>52200</v>
@@ -2284,25 +2284,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1203100</v>
+        <v>1224800</v>
       </c>
       <c r="E66" s="3">
-        <v>859200</v>
+        <v>874700</v>
       </c>
       <c r="F66" s="3">
-        <v>761200</v>
+        <v>774900</v>
       </c>
       <c r="G66" s="3">
-        <v>667000</v>
+        <v>679000</v>
       </c>
       <c r="H66" s="3">
-        <v>500200</v>
+        <v>509200</v>
       </c>
       <c r="I66" s="3">
-        <v>436100</v>
+        <v>444000</v>
       </c>
       <c r="J66" s="3">
-        <v>414900</v>
+        <v>422400</v>
       </c>
       <c r="K66" s="3">
         <v>404500</v>
@@ -2448,25 +2448,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>155800</v>
+        <v>158600</v>
       </c>
       <c r="E72" s="3">
-        <v>116400</v>
+        <v>118500</v>
       </c>
       <c r="F72" s="3">
-        <v>170700</v>
+        <v>173800</v>
       </c>
       <c r="G72" s="3">
-        <v>42600</v>
+        <v>43400</v>
       </c>
       <c r="H72" s="3">
-        <v>23300</v>
+        <v>23700</v>
       </c>
       <c r="I72" s="3">
         <v>-5300</v>
       </c>
       <c r="J72" s="3">
-        <v>-27100</v>
+        <v>-27600</v>
       </c>
       <c r="K72" s="3">
         <v>-58200</v>
@@ -2568,25 +2568,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>746500</v>
+        <v>759900</v>
       </c>
       <c r="E76" s="3">
-        <v>720000</v>
+        <v>733000</v>
       </c>
       <c r="F76" s="3">
-        <v>703600</v>
+        <v>716200</v>
       </c>
       <c r="G76" s="3">
-        <v>630000</v>
+        <v>641400</v>
       </c>
       <c r="H76" s="3">
-        <v>612100</v>
+        <v>623200</v>
       </c>
       <c r="I76" s="3">
-        <v>590000</v>
+        <v>600700</v>
       </c>
       <c r="J76" s="3">
-        <v>565600</v>
+        <v>575800</v>
       </c>
       <c r="K76" s="3">
         <v>341800</v>
@@ -2663,25 +2663,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>37800</v>
+        <v>38500</v>
       </c>
       <c r="E81" s="3">
-        <v>33200</v>
+        <v>33800</v>
       </c>
       <c r="F81" s="3">
+        <v>43800</v>
+      </c>
+      <c r="G81" s="3">
+        <v>30400</v>
+      </c>
+      <c r="H81" s="3">
+        <v>38800</v>
+      </c>
+      <c r="I81" s="3">
+        <v>31900</v>
+      </c>
+      <c r="J81" s="3">
         <v>43000</v>
-      </c>
-      <c r="G81" s="3">
-        <v>29900</v>
-      </c>
-      <c r="H81" s="3">
-        <v>38100</v>
-      </c>
-      <c r="I81" s="3">
-        <v>31400</v>
-      </c>
-      <c r="J81" s="3">
-        <v>42300</v>
       </c>
       <c r="K81" s="3">
         <v>48200</v>
@@ -2707,25 +2707,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>269200</v>
+        <v>274100</v>
       </c>
       <c r="E83" s="3">
-        <v>147500</v>
+        <v>150200</v>
       </c>
       <c r="F83" s="3">
-        <v>126600</v>
+        <v>128900</v>
       </c>
       <c r="G83" s="3">
-        <v>102800</v>
+        <v>104700</v>
       </c>
       <c r="H83" s="3">
-        <v>93700</v>
+        <v>95300</v>
       </c>
       <c r="I83" s="3">
-        <v>91400</v>
+        <v>93000</v>
       </c>
       <c r="J83" s="3">
-        <v>83300</v>
+        <v>84800</v>
       </c>
       <c r="K83" s="3">
         <v>68200</v>
@@ -2887,25 +2887,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>315200</v>
+        <v>320900</v>
       </c>
       <c r="E89" s="3">
-        <v>237400</v>
+        <v>241700</v>
       </c>
       <c r="F89" s="3">
-        <v>138400</v>
+        <v>140900</v>
       </c>
       <c r="G89" s="3">
-        <v>69600</v>
+        <v>70800</v>
       </c>
       <c r="H89" s="3">
-        <v>113800</v>
+        <v>115800</v>
       </c>
       <c r="I89" s="3">
-        <v>121900</v>
+        <v>124100</v>
       </c>
       <c r="J89" s="3">
-        <v>82900</v>
+        <v>84400</v>
       </c>
       <c r="K89" s="3">
         <v>88700</v>
@@ -2931,25 +2931,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-67900</v>
+        <v>-69200</v>
       </c>
       <c r="E91" s="3">
-        <v>-66800</v>
+        <v>-68000</v>
       </c>
       <c r="F91" s="3">
-        <v>-253600</v>
+        <v>-258200</v>
       </c>
       <c r="G91" s="3">
-        <v>-100300</v>
+        <v>-102100</v>
       </c>
       <c r="H91" s="3">
-        <v>-102900</v>
+        <v>-104700</v>
       </c>
       <c r="I91" s="3">
-        <v>-77000</v>
+        <v>-78400</v>
       </c>
       <c r="J91" s="3">
-        <v>-86100</v>
+        <v>-87700</v>
       </c>
       <c r="K91" s="3">
         <v>-50800</v>
@@ -3021,25 +3021,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-68600</v>
+        <v>-69800</v>
       </c>
       <c r="E94" s="3">
-        <v>-82000</v>
+        <v>-83500</v>
       </c>
       <c r="F94" s="3">
-        <v>-135000</v>
+        <v>-137400</v>
       </c>
       <c r="G94" s="3">
-        <v>-69600</v>
+        <v>-70900</v>
       </c>
       <c r="H94" s="3">
-        <v>-79100</v>
+        <v>-80500</v>
       </c>
       <c r="I94" s="3">
-        <v>-76200</v>
+        <v>-77600</v>
       </c>
       <c r="J94" s="3">
-        <v>-96300</v>
+        <v>-98000</v>
       </c>
       <c r="K94" s="3">
         <v>-54000</v>
@@ -3065,25 +3065,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-11500</v>
+        <v>-11700</v>
       </c>
       <c r="E96" s="3">
-        <v>-11500</v>
+        <v>-11700</v>
       </c>
       <c r="F96" s="3">
-        <v>-11500</v>
+        <v>-11700</v>
       </c>
       <c r="G96" s="3">
-        <v>-10600</v>
+        <v>-10800</v>
       </c>
       <c r="H96" s="3">
-        <v>-9500</v>
+        <v>-9700</v>
       </c>
       <c r="I96" s="3">
-        <v>-9500</v>
+        <v>-9700</v>
       </c>
       <c r="J96" s="3">
-        <v>-8600</v>
+        <v>-8800</v>
       </c>
       <c r="K96" s="3">
         <v>-6400</v>
@@ -3185,25 +3185,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-182700</v>
+        <v>-186000</v>
       </c>
       <c r="E100" s="3">
-        <v>-55600</v>
+        <v>-56600</v>
       </c>
       <c r="F100" s="3">
-        <v>-6800</v>
+        <v>-6900</v>
       </c>
       <c r="G100" s="3">
-        <v>23500</v>
+        <v>23900</v>
       </c>
       <c r="H100" s="3">
-        <v>-49100</v>
+        <v>-50000</v>
       </c>
       <c r="I100" s="3">
-        <v>-59300</v>
+        <v>-60400</v>
       </c>
       <c r="J100" s="3">
-        <v>107400</v>
+        <v>109400</v>
       </c>
       <c r="K100" s="3">
         <v>-45400</v>
@@ -3245,25 +3245,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>63400</v>
+        <v>64500</v>
       </c>
       <c r="E102" s="3">
-        <v>100400</v>
+        <v>102200</v>
       </c>
       <c r="F102" s="3">
-        <v>-4000</v>
+        <v>-4100</v>
       </c>
       <c r="G102" s="3">
-        <v>22600</v>
+        <v>23000</v>
       </c>
       <c r="H102" s="3">
-        <v>-14400</v>
+        <v>-14700</v>
       </c>
       <c r="I102" s="3">
-        <v>-12500</v>
+        <v>-12800</v>
       </c>
       <c r="J102" s="3">
-        <v>95900</v>
+        <v>97700</v>
       </c>
       <c r="K102" s="3">
         <v>-11600</v>

--- a/AAII_Financials/Yearly/IIJIY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/IIJIY_YR_FIN.xlsx
@@ -714,25 +714,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1965000</v>
+        <v>1873000</v>
       </c>
       <c r="E8" s="3">
-        <v>1849300</v>
+        <v>1762700</v>
       </c>
       <c r="F8" s="3">
-        <v>1693600</v>
+        <v>1614300</v>
       </c>
       <c r="G8" s="3">
-        <v>1516400</v>
+        <v>1445300</v>
       </c>
       <c r="H8" s="3">
-        <v>1351600</v>
+        <v>1288300</v>
       </c>
       <c r="I8" s="3">
-        <v>1182500</v>
+        <v>1127100</v>
       </c>
       <c r="J8" s="3">
-        <v>1098200</v>
+        <v>1046700</v>
       </c>
       <c r="K8" s="3">
         <v>965800</v>
@@ -744,25 +744,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1651800</v>
+        <v>1574400</v>
       </c>
       <c r="E9" s="3">
-        <v>1570800</v>
+        <v>1497300</v>
       </c>
       <c r="F9" s="3">
-        <v>2818800</v>
+        <v>2686800</v>
       </c>
       <c r="G9" s="3">
-        <v>1273700</v>
+        <v>1214100</v>
       </c>
       <c r="H9" s="3">
-        <v>1114700</v>
+        <v>1062500</v>
       </c>
       <c r="I9" s="3">
-        <v>970400</v>
+        <v>925000</v>
       </c>
       <c r="J9" s="3">
-        <v>895700</v>
+        <v>853800</v>
       </c>
       <c r="K9" s="3">
         <v>767100</v>
@@ -774,25 +774,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>313200</v>
+        <v>298600</v>
       </c>
       <c r="E10" s="3">
-        <v>278400</v>
+        <v>265400</v>
       </c>
       <c r="F10" s="3">
-        <v>-1125200</v>
+        <v>-1072500</v>
       </c>
       <c r="G10" s="3">
-        <v>242600</v>
+        <v>231300</v>
       </c>
       <c r="H10" s="3">
-        <v>236900</v>
+        <v>225800</v>
       </c>
       <c r="I10" s="3">
-        <v>212100</v>
+        <v>202200</v>
       </c>
       <c r="J10" s="3">
-        <v>202400</v>
+        <v>193000</v>
       </c>
       <c r="K10" s="3">
         <v>198600</v>
@@ -818,25 +818,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E12" s="3">
+        <v>4100</v>
+      </c>
+      <c r="F12" s="3">
+        <v>4500</v>
+      </c>
+      <c r="G12" s="3">
+        <v>4300</v>
+      </c>
+      <c r="H12" s="3">
         <v>4200</v>
       </c>
-      <c r="E12" s="3">
-        <v>4300</v>
-      </c>
-      <c r="F12" s="3">
-        <v>4700</v>
-      </c>
-      <c r="G12" s="3">
-        <v>4500</v>
-      </c>
-      <c r="H12" s="3">
-        <v>4400</v>
-      </c>
       <c r="I12" s="3">
-        <v>4200</v>
+        <v>4000</v>
       </c>
       <c r="J12" s="3">
-        <v>4000</v>
+        <v>3900</v>
       </c>
       <c r="K12" s="3">
         <v>3700</v>
@@ -878,13 +878,13 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>-3600</v>
+        <v>-3400</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F14" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="G14" s="3">
         <v>300</v>
@@ -908,13 +908,13 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>27300</v>
+        <v>26000</v>
       </c>
       <c r="E15" s="3">
-        <v>12300</v>
+        <v>11700</v>
       </c>
       <c r="F15" s="3">
-        <v>12000</v>
+        <v>11500</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>10</v>
@@ -949,25 +949,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1882300</v>
+        <v>1794200</v>
       </c>
       <c r="E17" s="3">
-        <v>1791400</v>
+        <v>1707500</v>
       </c>
       <c r="F17" s="3">
-        <v>1628500</v>
+        <v>1552300</v>
       </c>
       <c r="G17" s="3">
-        <v>1467300</v>
+        <v>1398600</v>
       </c>
       <c r="H17" s="3">
-        <v>1292800</v>
+        <v>1232200</v>
       </c>
       <c r="I17" s="3">
-        <v>1134000</v>
+        <v>1080900</v>
       </c>
       <c r="J17" s="3">
-        <v>1043200</v>
+        <v>994300</v>
       </c>
       <c r="K17" s="3">
         <v>895500</v>
@@ -979,25 +979,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>82700</v>
+        <v>78800</v>
       </c>
       <c r="E18" s="3">
-        <v>57900</v>
+        <v>55200</v>
       </c>
       <c r="F18" s="3">
-        <v>65100</v>
+        <v>62000</v>
       </c>
       <c r="G18" s="3">
-        <v>49000</v>
+        <v>46800</v>
       </c>
       <c r="H18" s="3">
-        <v>58900</v>
+        <v>56100</v>
       </c>
       <c r="I18" s="3">
-        <v>48500</v>
+        <v>46200</v>
       </c>
       <c r="J18" s="3">
-        <v>55000</v>
+        <v>52400</v>
       </c>
       <c r="K18" s="3">
         <v>70300</v>
@@ -1023,25 +1023,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-8400</v>
+        <v>-8000</v>
       </c>
       <c r="E20" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="F20" s="3">
-        <v>8500</v>
+        <v>8100</v>
       </c>
       <c r="G20" s="3">
-        <v>6000</v>
+        <v>5700</v>
       </c>
       <c r="H20" s="3">
+        <v>2800</v>
+      </c>
+      <c r="I20" s="3">
         <v>3000</v>
       </c>
-      <c r="I20" s="3">
-        <v>3200</v>
-      </c>
       <c r="J20" s="3">
-        <v>7800</v>
+        <v>7400</v>
       </c>
       <c r="K20" s="3">
         <v>2800</v>
@@ -1053,25 +1053,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>347700</v>
+        <v>333100</v>
       </c>
       <c r="E21" s="3">
-        <v>210200</v>
+        <v>201200</v>
       </c>
       <c r="F21" s="3">
-        <v>202200</v>
+        <v>193500</v>
       </c>
       <c r="G21" s="3">
-        <v>159500</v>
+        <v>152700</v>
       </c>
       <c r="H21" s="3">
-        <v>157000</v>
+        <v>150200</v>
       </c>
       <c r="I21" s="3">
-        <v>144500</v>
+        <v>138300</v>
       </c>
       <c r="J21" s="3">
-        <v>147400</v>
+        <v>141000</v>
       </c>
       <c r="K21" s="3">
         <v>141500</v>
@@ -1083,25 +1083,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>5400</v>
+        <v>5200</v>
       </c>
       <c r="E22" s="3">
-        <v>4100</v>
+        <v>3900</v>
       </c>
       <c r="F22" s="3">
-        <v>7500</v>
+        <v>7100</v>
       </c>
       <c r="G22" s="3">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="H22" s="3">
+        <v>2200</v>
+      </c>
+      <c r="I22" s="3">
+        <v>2200</v>
+      </c>
+      <c r="J22" s="3">
         <v>2300</v>
-      </c>
-      <c r="I22" s="3">
-        <v>2300</v>
-      </c>
-      <c r="J22" s="3">
-        <v>2500</v>
       </c>
       <c r="K22" s="3">
         <v>2600</v>
@@ -1113,25 +1113,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>68800</v>
+        <v>65600</v>
       </c>
       <c r="E23" s="3">
-        <v>56200</v>
+        <v>53500</v>
       </c>
       <c r="F23" s="3">
-        <v>66000</v>
+        <v>62900</v>
       </c>
       <c r="G23" s="3">
-        <v>52200</v>
+        <v>49700</v>
       </c>
       <c r="H23" s="3">
-        <v>59500</v>
+        <v>56700</v>
       </c>
       <c r="I23" s="3">
-        <v>49400</v>
+        <v>47100</v>
       </c>
       <c r="J23" s="3">
-        <v>60300</v>
+        <v>57500</v>
       </c>
       <c r="K23" s="3">
         <v>70500</v>
@@ -1143,25 +1143,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>28500</v>
+        <v>27200</v>
       </c>
       <c r="E24" s="3">
-        <v>20600</v>
+        <v>19600</v>
       </c>
       <c r="F24" s="3">
-        <v>22100</v>
+        <v>21100</v>
       </c>
       <c r="G24" s="3">
-        <v>21400</v>
+        <v>20400</v>
       </c>
       <c r="H24" s="3">
-        <v>21000</v>
+        <v>20000</v>
       </c>
       <c r="I24" s="3">
-        <v>18200</v>
+        <v>17400</v>
       </c>
       <c r="J24" s="3">
-        <v>17300</v>
+        <v>16400</v>
       </c>
       <c r="K24" s="3">
         <v>23700</v>
@@ -1203,25 +1203,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>40300</v>
+        <v>38400</v>
       </c>
       <c r="E26" s="3">
-        <v>35500</v>
+        <v>33900</v>
       </c>
       <c r="F26" s="3">
-        <v>44000</v>
+        <v>41900</v>
       </c>
       <c r="G26" s="3">
-        <v>30800</v>
+        <v>29300</v>
       </c>
       <c r="H26" s="3">
-        <v>38500</v>
+        <v>36700</v>
       </c>
       <c r="I26" s="3">
-        <v>31200</v>
+        <v>29700</v>
       </c>
       <c r="J26" s="3">
-        <v>43000</v>
+        <v>41000</v>
       </c>
       <c r="K26" s="3">
         <v>46800</v>
@@ -1233,25 +1233,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>38500</v>
+        <v>36700</v>
       </c>
       <c r="E27" s="3">
-        <v>33800</v>
+        <v>32200</v>
       </c>
       <c r="F27" s="3">
-        <v>43600</v>
+        <v>41600</v>
       </c>
       <c r="G27" s="3">
+        <v>29000</v>
+      </c>
+      <c r="H27" s="3">
+        <v>37000</v>
+      </c>
+      <c r="I27" s="3">
         <v>30400</v>
       </c>
-      <c r="H27" s="3">
-        <v>38800</v>
-      </c>
-      <c r="I27" s="3">
-        <v>31900</v>
-      </c>
       <c r="J27" s="3">
-        <v>43000</v>
+        <v>41000</v>
       </c>
       <c r="K27" s="3">
         <v>48200</v>
@@ -1383,25 +1383,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>8400</v>
+        <v>8000</v>
       </c>
       <c r="E32" s="3">
-        <v>-2400</v>
+        <v>-2300</v>
       </c>
       <c r="F32" s="3">
-        <v>-8500</v>
+        <v>-8100</v>
       </c>
       <c r="G32" s="3">
-        <v>-6000</v>
+        <v>-5700</v>
       </c>
       <c r="H32" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="I32" s="3">
         <v>-3000</v>
       </c>
-      <c r="I32" s="3">
-        <v>-3200</v>
-      </c>
       <c r="J32" s="3">
-        <v>-7800</v>
+        <v>-7400</v>
       </c>
       <c r="K32" s="3">
         <v>-2800</v>
@@ -1413,25 +1413,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>38500</v>
+        <v>36700</v>
       </c>
       <c r="E33" s="3">
-        <v>33800</v>
+        <v>32200</v>
       </c>
       <c r="F33" s="3">
-        <v>43800</v>
+        <v>41700</v>
       </c>
       <c r="G33" s="3">
+        <v>29000</v>
+      </c>
+      <c r="H33" s="3">
+        <v>37000</v>
+      </c>
+      <c r="I33" s="3">
         <v>30400</v>
       </c>
-      <c r="H33" s="3">
-        <v>38800</v>
-      </c>
-      <c r="I33" s="3">
-        <v>31900</v>
-      </c>
       <c r="J33" s="3">
-        <v>43000</v>
+        <v>41000</v>
       </c>
       <c r="K33" s="3">
         <v>48200</v>
@@ -1473,25 +1473,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>38500</v>
+        <v>36700</v>
       </c>
       <c r="E35" s="3">
-        <v>33800</v>
+        <v>32200</v>
       </c>
       <c r="F35" s="3">
-        <v>43800</v>
+        <v>41700</v>
       </c>
       <c r="G35" s="3">
+        <v>29000</v>
+      </c>
+      <c r="H35" s="3">
+        <v>37000</v>
+      </c>
+      <c r="I35" s="3">
         <v>30400</v>
       </c>
-      <c r="H35" s="3">
-        <v>38800</v>
-      </c>
-      <c r="I35" s="3">
-        <v>31900</v>
-      </c>
       <c r="J35" s="3">
-        <v>43000</v>
+        <v>41000</v>
       </c>
       <c r="K35" s="3">
         <v>48200</v>
@@ -1566,25 +1566,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>371600</v>
+        <v>354200</v>
       </c>
       <c r="E41" s="3">
-        <v>307100</v>
+        <v>292700</v>
       </c>
       <c r="F41" s="3">
-        <v>410600</v>
+        <v>391300</v>
       </c>
       <c r="G41" s="3">
-        <v>211000</v>
+        <v>201100</v>
       </c>
       <c r="H41" s="3">
-        <v>188100</v>
+        <v>179300</v>
       </c>
       <c r="I41" s="3">
-        <v>202700</v>
+        <v>193200</v>
       </c>
       <c r="J41" s="3">
-        <v>215500</v>
+        <v>205400</v>
       </c>
       <c r="K41" s="3">
         <v>111400</v>
@@ -1596,13 +1596,13 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>25700</v>
+        <v>24500</v>
       </c>
       <c r="E42" s="3">
-        <v>15200</v>
+        <v>14500</v>
       </c>
       <c r="F42" s="3">
-        <v>36100</v>
+        <v>34400</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>10</v>
@@ -1626,25 +1626,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>317000</v>
+        <v>302100</v>
       </c>
       <c r="E43" s="3">
-        <v>320700</v>
+        <v>305700</v>
       </c>
       <c r="F43" s="3">
-        <v>609300</v>
+        <v>580700</v>
       </c>
       <c r="G43" s="3">
-        <v>263000</v>
+        <v>250700</v>
       </c>
       <c r="H43" s="3">
-        <v>228100</v>
+        <v>217400</v>
       </c>
       <c r="I43" s="3">
-        <v>213800</v>
+        <v>203800</v>
       </c>
       <c r="J43" s="3">
-        <v>184600</v>
+        <v>176000</v>
       </c>
       <c r="K43" s="3">
         <v>170500</v>
@@ -1656,25 +1656,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>23800</v>
+        <v>22700</v>
       </c>
       <c r="E44" s="3">
-        <v>32700</v>
+        <v>31200</v>
       </c>
       <c r="F44" s="3">
-        <v>31300</v>
+        <v>29900</v>
       </c>
       <c r="G44" s="3">
-        <v>26900</v>
+        <v>25600</v>
       </c>
       <c r="H44" s="3">
-        <v>19300</v>
+        <v>18400</v>
       </c>
       <c r="I44" s="3">
-        <v>11800</v>
+        <v>11300</v>
       </c>
       <c r="J44" s="3">
-        <v>16100</v>
+        <v>15300</v>
       </c>
       <c r="K44" s="3">
         <v>11800</v>
@@ -1686,25 +1686,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>94100</v>
+        <v>89700</v>
       </c>
       <c r="E45" s="3">
-        <v>83200</v>
+        <v>79300</v>
       </c>
       <c r="F45" s="3">
-        <v>191100</v>
+        <v>182200</v>
       </c>
       <c r="G45" s="3">
-        <v>111400</v>
+        <v>106200</v>
       </c>
       <c r="H45" s="3">
-        <v>77900</v>
+        <v>74200</v>
       </c>
       <c r="I45" s="3">
-        <v>72200</v>
+        <v>68800</v>
       </c>
       <c r="J45" s="3">
-        <v>80700</v>
+        <v>76900</v>
       </c>
       <c r="K45" s="3">
         <v>46600</v>
@@ -1716,25 +1716,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>832100</v>
+        <v>793200</v>
       </c>
       <c r="E46" s="3">
-        <v>758900</v>
+        <v>723400</v>
       </c>
       <c r="F46" s="3">
-        <v>632800</v>
+        <v>603100</v>
       </c>
       <c r="G46" s="3">
-        <v>612400</v>
+        <v>583700</v>
       </c>
       <c r="H46" s="3">
-        <v>513200</v>
+        <v>489200</v>
       </c>
       <c r="I46" s="3">
-        <v>500600</v>
+        <v>477100</v>
       </c>
       <c r="J46" s="3">
-        <v>496800</v>
+        <v>473600</v>
       </c>
       <c r="K46" s="3">
         <v>340300</v>
@@ -1746,25 +1746,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>179900</v>
+        <v>171500</v>
       </c>
       <c r="E47" s="3">
-        <v>206900</v>
+        <v>197200</v>
       </c>
       <c r="F47" s="3">
-        <v>270700</v>
+        <v>258100</v>
       </c>
       <c r="G47" s="3">
-        <v>29700</v>
+        <v>28300</v>
       </c>
       <c r="H47" s="3">
-        <v>28000</v>
+        <v>26700</v>
       </c>
       <c r="I47" s="3">
-        <v>23700</v>
+        <v>22600</v>
       </c>
       <c r="J47" s="3">
-        <v>19400</v>
+        <v>18500</v>
       </c>
       <c r="K47" s="3">
         <v>14600</v>
@@ -1776,25 +1776,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>653100</v>
+        <v>622500</v>
       </c>
       <c r="E48" s="3">
-        <v>318400</v>
+        <v>303500</v>
       </c>
       <c r="F48" s="3">
-        <v>768200</v>
+        <v>732200</v>
       </c>
       <c r="G48" s="3">
-        <v>382200</v>
+        <v>364300</v>
       </c>
       <c r="H48" s="3">
-        <v>329900</v>
+        <v>314400</v>
       </c>
       <c r="I48" s="3">
-        <v>282200</v>
+        <v>269000</v>
       </c>
       <c r="J48" s="3">
-        <v>259200</v>
+        <v>247100</v>
       </c>
       <c r="K48" s="3">
         <v>209300</v>
@@ -1806,25 +1806,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>234100</v>
+        <v>223200</v>
       </c>
       <c r="E49" s="3">
-        <v>239300</v>
+        <v>228100</v>
       </c>
       <c r="F49" s="3">
-        <v>313600</v>
+        <v>298900</v>
       </c>
       <c r="G49" s="3">
+        <v>84800</v>
+      </c>
+      <c r="H49" s="3">
         <v>89000</v>
       </c>
-      <c r="H49" s="3">
-        <v>93400</v>
-      </c>
       <c r="I49" s="3">
-        <v>97200</v>
+        <v>92600</v>
       </c>
       <c r="J49" s="3">
-        <v>99100</v>
+        <v>94400</v>
       </c>
       <c r="K49" s="3">
         <v>97800</v>
@@ -1896,25 +1896,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>85400</v>
+        <v>81400</v>
       </c>
       <c r="E52" s="3">
-        <v>84100</v>
+        <v>80100</v>
       </c>
       <c r="F52" s="3">
-        <v>334800</v>
+        <v>319100</v>
       </c>
       <c r="G52" s="3">
-        <v>207100</v>
+        <v>197400</v>
       </c>
       <c r="H52" s="3">
-        <v>167900</v>
+        <v>160000</v>
       </c>
       <c r="I52" s="3">
-        <v>141000</v>
+        <v>134400</v>
       </c>
       <c r="J52" s="3">
-        <v>123600</v>
+        <v>117800</v>
       </c>
       <c r="K52" s="3">
         <v>84300</v>
@@ -1956,25 +1956,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1984700</v>
+        <v>1891800</v>
       </c>
       <c r="E54" s="3">
-        <v>1607600</v>
+        <v>1532400</v>
       </c>
       <c r="F54" s="3">
-        <v>1491100</v>
+        <v>1421300</v>
       </c>
       <c r="G54" s="3">
-        <v>1320400</v>
+        <v>1258500</v>
       </c>
       <c r="H54" s="3">
-        <v>1132400</v>
+        <v>1079400</v>
       </c>
       <c r="I54" s="3">
-        <v>1044700</v>
+        <v>995700</v>
       </c>
       <c r="J54" s="3">
-        <v>998200</v>
+        <v>951400</v>
       </c>
       <c r="K54" s="3">
         <v>746400</v>
@@ -2014,25 +2014,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>57500</v>
+        <v>54800</v>
       </c>
       <c r="E57" s="3">
-        <v>75100</v>
+        <v>71500</v>
       </c>
       <c r="F57" s="3">
-        <v>195800</v>
+        <v>186600</v>
       </c>
       <c r="G57" s="3">
-        <v>140800</v>
+        <v>134200</v>
       </c>
       <c r="H57" s="3">
-        <v>133600</v>
+        <v>127400</v>
       </c>
       <c r="I57" s="3">
-        <v>117100</v>
+        <v>111600</v>
       </c>
       <c r="J57" s="3">
-        <v>110400</v>
+        <v>105300</v>
       </c>
       <c r="K57" s="3">
         <v>99700</v>
@@ -2044,25 +2044,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>149700</v>
+        <v>142700</v>
       </c>
       <c r="E58" s="3">
-        <v>185200</v>
+        <v>176500</v>
       </c>
       <c r="F58" s="3">
-        <v>286400</v>
+        <v>273000</v>
       </c>
       <c r="G58" s="3">
-        <v>135200</v>
+        <v>128900</v>
       </c>
       <c r="H58" s="3">
-        <v>126900</v>
+        <v>121000</v>
       </c>
       <c r="I58" s="3">
-        <v>122700</v>
+        <v>117000</v>
       </c>
       <c r="J58" s="3">
-        <v>135800</v>
+        <v>129500</v>
       </c>
       <c r="K58" s="3">
         <v>126500</v>
@@ -2074,25 +2074,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>424100</v>
+        <v>404200</v>
       </c>
       <c r="E59" s="3">
-        <v>248200</v>
+        <v>236600</v>
       </c>
       <c r="F59" s="3">
-        <v>327800</v>
+        <v>312400</v>
       </c>
       <c r="G59" s="3">
-        <v>108200</v>
+        <v>103200</v>
       </c>
       <c r="H59" s="3">
-        <v>86100</v>
+        <v>82000</v>
       </c>
       <c r="I59" s="3">
-        <v>84400</v>
+        <v>80500</v>
       </c>
       <c r="J59" s="3">
-        <v>65800</v>
+        <v>62700</v>
       </c>
       <c r="K59" s="3">
         <v>68100</v>
@@ -2104,25 +2104,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>631200</v>
+        <v>601700</v>
       </c>
       <c r="E60" s="3">
-        <v>508400</v>
+        <v>484600</v>
       </c>
       <c r="F60" s="3">
-        <v>404900</v>
+        <v>386000</v>
       </c>
       <c r="G60" s="3">
-        <v>384200</v>
+        <v>366200</v>
       </c>
       <c r="H60" s="3">
-        <v>346600</v>
+        <v>330400</v>
       </c>
       <c r="I60" s="3">
-        <v>324300</v>
+        <v>309100</v>
       </c>
       <c r="J60" s="3">
-        <v>312000</v>
+        <v>297400</v>
       </c>
       <c r="K60" s="3">
         <v>294400</v>
@@ -2134,25 +2134,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>117000</v>
+        <v>111500</v>
       </c>
       <c r="E61" s="3">
-        <v>245200</v>
+        <v>233700</v>
       </c>
       <c r="F61" s="3">
-        <v>253900</v>
+        <v>242000</v>
       </c>
       <c r="G61" s="3">
-        <v>181500</v>
+        <v>173000</v>
       </c>
       <c r="H61" s="3">
-        <v>74800</v>
+        <v>71300</v>
       </c>
       <c r="I61" s="3">
-        <v>41700</v>
+        <v>39800</v>
       </c>
       <c r="J61" s="3">
-        <v>44200</v>
+        <v>42200</v>
       </c>
       <c r="K61" s="3">
         <v>57700</v>
@@ -2164,25 +2164,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>467100</v>
+        <v>445300</v>
       </c>
       <c r="E62" s="3">
-        <v>112900</v>
+        <v>107600</v>
       </c>
       <c r="F62" s="3">
-        <v>213900</v>
+        <v>203800</v>
       </c>
       <c r="G62" s="3">
-        <v>107100</v>
+        <v>102100</v>
       </c>
       <c r="H62" s="3">
-        <v>83100</v>
+        <v>79200</v>
       </c>
       <c r="I62" s="3">
-        <v>74800</v>
+        <v>71300</v>
       </c>
       <c r="J62" s="3">
-        <v>63600</v>
+        <v>60600</v>
       </c>
       <c r="K62" s="3">
         <v>52200</v>
@@ -2284,25 +2284,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1224800</v>
+        <v>1167400</v>
       </c>
       <c r="E66" s="3">
-        <v>874700</v>
+        <v>833700</v>
       </c>
       <c r="F66" s="3">
-        <v>774900</v>
+        <v>738600</v>
       </c>
       <c r="G66" s="3">
-        <v>679000</v>
+        <v>647200</v>
       </c>
       <c r="H66" s="3">
-        <v>509200</v>
+        <v>485400</v>
       </c>
       <c r="I66" s="3">
-        <v>444000</v>
+        <v>423200</v>
       </c>
       <c r="J66" s="3">
-        <v>422400</v>
+        <v>402600</v>
       </c>
       <c r="K66" s="3">
         <v>404500</v>
@@ -2448,25 +2448,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>158600</v>
+        <v>151100</v>
       </c>
       <c r="E72" s="3">
-        <v>118500</v>
+        <v>113000</v>
       </c>
       <c r="F72" s="3">
-        <v>173800</v>
+        <v>165600</v>
       </c>
       <c r="G72" s="3">
-        <v>43400</v>
+        <v>41300</v>
       </c>
       <c r="H72" s="3">
-        <v>23700</v>
+        <v>22600</v>
       </c>
       <c r="I72" s="3">
-        <v>-5300</v>
+        <v>-5100</v>
       </c>
       <c r="J72" s="3">
-        <v>-27600</v>
+        <v>-26300</v>
       </c>
       <c r="K72" s="3">
         <v>-58200</v>
@@ -2568,25 +2568,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>759900</v>
+        <v>724300</v>
       </c>
       <c r="E76" s="3">
-        <v>733000</v>
+        <v>698600</v>
       </c>
       <c r="F76" s="3">
-        <v>716200</v>
+        <v>682700</v>
       </c>
       <c r="G76" s="3">
-        <v>641400</v>
+        <v>611400</v>
       </c>
       <c r="H76" s="3">
-        <v>623200</v>
+        <v>594000</v>
       </c>
       <c r="I76" s="3">
-        <v>600700</v>
+        <v>572500</v>
       </c>
       <c r="J76" s="3">
-        <v>575800</v>
+        <v>548800</v>
       </c>
       <c r="K76" s="3">
         <v>341800</v>
@@ -2663,25 +2663,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>38500</v>
+        <v>36700</v>
       </c>
       <c r="E81" s="3">
-        <v>33800</v>
+        <v>32200</v>
       </c>
       <c r="F81" s="3">
-        <v>43800</v>
+        <v>41700</v>
       </c>
       <c r="G81" s="3">
+        <v>29000</v>
+      </c>
+      <c r="H81" s="3">
+        <v>37000</v>
+      </c>
+      <c r="I81" s="3">
         <v>30400</v>
       </c>
-      <c r="H81" s="3">
-        <v>38800</v>
-      </c>
-      <c r="I81" s="3">
-        <v>31900</v>
-      </c>
       <c r="J81" s="3">
-        <v>43000</v>
+        <v>41000</v>
       </c>
       <c r="K81" s="3">
         <v>48200</v>
@@ -2707,25 +2707,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>274100</v>
+        <v>261200</v>
       </c>
       <c r="E83" s="3">
-        <v>150200</v>
+        <v>143200</v>
       </c>
       <c r="F83" s="3">
-        <v>128900</v>
+        <v>122900</v>
       </c>
       <c r="G83" s="3">
-        <v>104700</v>
+        <v>99800</v>
       </c>
       <c r="H83" s="3">
-        <v>95300</v>
+        <v>90900</v>
       </c>
       <c r="I83" s="3">
-        <v>93000</v>
+        <v>88600</v>
       </c>
       <c r="J83" s="3">
-        <v>84800</v>
+        <v>80800</v>
       </c>
       <c r="K83" s="3">
         <v>68200</v>
@@ -2887,25 +2887,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>320900</v>
+        <v>305900</v>
       </c>
       <c r="E89" s="3">
-        <v>241700</v>
+        <v>230400</v>
       </c>
       <c r="F89" s="3">
-        <v>140900</v>
+        <v>134300</v>
       </c>
       <c r="G89" s="3">
-        <v>70800</v>
+        <v>67500</v>
       </c>
       <c r="H89" s="3">
-        <v>115800</v>
+        <v>110400</v>
       </c>
       <c r="I89" s="3">
-        <v>124100</v>
+        <v>118300</v>
       </c>
       <c r="J89" s="3">
-        <v>84400</v>
+        <v>80500</v>
       </c>
       <c r="K89" s="3">
         <v>88700</v>
@@ -2931,25 +2931,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-69200</v>
+        <v>-65900</v>
       </c>
       <c r="E91" s="3">
-        <v>-68000</v>
+        <v>-64900</v>
       </c>
       <c r="F91" s="3">
-        <v>-258200</v>
+        <v>-246100</v>
       </c>
       <c r="G91" s="3">
-        <v>-102100</v>
+        <v>-97300</v>
       </c>
       <c r="H91" s="3">
-        <v>-104700</v>
+        <v>-99800</v>
       </c>
       <c r="I91" s="3">
-        <v>-78400</v>
+        <v>-74700</v>
       </c>
       <c r="J91" s="3">
-        <v>-87700</v>
+        <v>-83600</v>
       </c>
       <c r="K91" s="3">
         <v>-50800</v>
@@ -3021,25 +3021,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-69800</v>
+        <v>-66500</v>
       </c>
       <c r="E94" s="3">
-        <v>-83500</v>
+        <v>-79600</v>
       </c>
       <c r="F94" s="3">
-        <v>-137400</v>
+        <v>-131000</v>
       </c>
       <c r="G94" s="3">
-        <v>-70900</v>
+        <v>-67600</v>
       </c>
       <c r="H94" s="3">
-        <v>-80500</v>
+        <v>-76700</v>
       </c>
       <c r="I94" s="3">
-        <v>-77600</v>
+        <v>-73900</v>
       </c>
       <c r="J94" s="3">
-        <v>-98000</v>
+        <v>-93500</v>
       </c>
       <c r="K94" s="3">
         <v>-54000</v>
@@ -3065,25 +3065,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-11700</v>
+        <v>-11100</v>
       </c>
       <c r="E96" s="3">
-        <v>-11700</v>
+        <v>-11100</v>
       </c>
       <c r="F96" s="3">
-        <v>-11700</v>
+        <v>-11100</v>
       </c>
       <c r="G96" s="3">
-        <v>-10800</v>
+        <v>-10300</v>
       </c>
       <c r="H96" s="3">
-        <v>-9700</v>
+        <v>-9300</v>
       </c>
       <c r="I96" s="3">
-        <v>-9700</v>
+        <v>-9300</v>
       </c>
       <c r="J96" s="3">
-        <v>-8800</v>
+        <v>-8300</v>
       </c>
       <c r="K96" s="3">
         <v>-6400</v>
@@ -3185,25 +3185,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-186000</v>
+        <v>-177300</v>
       </c>
       <c r="E100" s="3">
-        <v>-56600</v>
+        <v>-54000</v>
       </c>
       <c r="F100" s="3">
-        <v>-6900</v>
+        <v>-6600</v>
       </c>
       <c r="G100" s="3">
-        <v>23900</v>
+        <v>22800</v>
       </c>
       <c r="H100" s="3">
-        <v>-50000</v>
+        <v>-47600</v>
       </c>
       <c r="I100" s="3">
-        <v>-60400</v>
+        <v>-57600</v>
       </c>
       <c r="J100" s="3">
-        <v>109400</v>
+        <v>104300</v>
       </c>
       <c r="K100" s="3">
         <v>-45400</v>
@@ -3233,7 +3233,7 @@
         <v>1100</v>
       </c>
       <c r="J101" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="K101" s="3">
         <v>-800</v>
@@ -3245,25 +3245,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>64500</v>
+        <v>61500</v>
       </c>
       <c r="E102" s="3">
-        <v>102200</v>
+        <v>97400</v>
       </c>
       <c r="F102" s="3">
-        <v>-4100</v>
+        <v>-3900</v>
       </c>
       <c r="G102" s="3">
-        <v>23000</v>
+        <v>21900</v>
       </c>
       <c r="H102" s="3">
-        <v>-14700</v>
+        <v>-14000</v>
       </c>
       <c r="I102" s="3">
-        <v>-12800</v>
+        <v>-12200</v>
       </c>
       <c r="J102" s="3">
-        <v>97700</v>
+        <v>93100</v>
       </c>
       <c r="K102" s="3">
         <v>-11600</v>

--- a/AAII_Financials/Yearly/IIJIY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/IIJIY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
   <si>
     <t>IIJIY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,141 +665,153 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43555</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43190</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42825</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42460</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42094</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41729</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41364</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1873000</v>
+        <v>1957500</v>
       </c>
       <c r="E8" s="3">
-        <v>1762700</v>
+        <v>1879100</v>
       </c>
       <c r="F8" s="3">
-        <v>1614300</v>
+        <v>1768400</v>
       </c>
       <c r="G8" s="3">
-        <v>1445300</v>
+        <v>1619600</v>
       </c>
       <c r="H8" s="3">
-        <v>1288300</v>
+        <v>1450100</v>
       </c>
       <c r="I8" s="3">
-        <v>1127100</v>
+        <v>1292600</v>
       </c>
       <c r="J8" s="3">
+        <v>1130800</v>
+      </c>
+      <c r="K8" s="3">
         <v>1046700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>965800</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1574400</v>
+        <v>1587300</v>
       </c>
       <c r="E9" s="3">
-        <v>1497300</v>
+        <v>1579600</v>
       </c>
       <c r="F9" s="3">
-        <v>2686800</v>
+        <v>1502200</v>
       </c>
       <c r="G9" s="3">
-        <v>1214100</v>
+        <v>2695600</v>
       </c>
       <c r="H9" s="3">
-        <v>1062500</v>
+        <v>1218100</v>
       </c>
       <c r="I9" s="3">
-        <v>925000</v>
+        <v>1066000</v>
       </c>
       <c r="J9" s="3">
+        <v>928000</v>
+      </c>
+      <c r="K9" s="3">
         <v>853800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>767100</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>298600</v>
+        <v>370200</v>
       </c>
       <c r="E10" s="3">
-        <v>265400</v>
+        <v>299500</v>
       </c>
       <c r="F10" s="3">
-        <v>-1072500</v>
+        <v>266300</v>
       </c>
       <c r="G10" s="3">
-        <v>231300</v>
+        <v>-1076000</v>
       </c>
       <c r="H10" s="3">
-        <v>225800</v>
+        <v>232000</v>
       </c>
       <c r="I10" s="3">
-        <v>202200</v>
+        <v>226600</v>
       </c>
       <c r="J10" s="3">
+        <v>202800</v>
+      </c>
+      <c r="K10" s="3">
         <v>193000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>198600</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,38 +824,42 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="3">
         <v>4000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>4100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>4500</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>4300</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>4200</v>
       </c>
-      <c r="I12" s="3">
-        <v>4000</v>
-      </c>
       <c r="J12" s="3">
+        <v>4100</v>
+      </c>
+      <c r="K12" s="3">
         <v>3900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>3700</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -871,53 +887,59 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3">
-        <v>-3400</v>
-      </c>
-      <c r="E14" s="3" t="s">
+      <c r="D14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="3">
+      <c r="E14" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="3">
         <v>1000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>300</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>100</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>300</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>200</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
-        <v>26000</v>
+      <c r="D15" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E15" s="3">
-        <v>11700</v>
+        <v>26100</v>
       </c>
       <c r="F15" s="3">
+        <v>11800</v>
+      </c>
+      <c r="G15" s="3">
         <v>11500</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>10</v>
@@ -931,9 +953,12 @@
       <c r="K15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -943,68 +968,75 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1794200</v>
+        <v>1826600</v>
       </c>
       <c r="E17" s="3">
-        <v>1707500</v>
+        <v>1800100</v>
       </c>
       <c r="F17" s="3">
-        <v>1552300</v>
+        <v>1713100</v>
       </c>
       <c r="G17" s="3">
-        <v>1398600</v>
+        <v>1557400</v>
       </c>
       <c r="H17" s="3">
-        <v>1232200</v>
+        <v>1403200</v>
       </c>
       <c r="I17" s="3">
-        <v>1080900</v>
+        <v>1236300</v>
       </c>
       <c r="J17" s="3">
+        <v>1084500</v>
+      </c>
+      <c r="K17" s="3">
         <v>994300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>895500</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>78800</v>
+        <v>130900</v>
       </c>
       <c r="E18" s="3">
-        <v>55200</v>
+        <v>79000</v>
       </c>
       <c r="F18" s="3">
-        <v>62000</v>
+        <v>55400</v>
       </c>
       <c r="G18" s="3">
-        <v>46800</v>
+        <v>62200</v>
       </c>
       <c r="H18" s="3">
-        <v>56100</v>
+        <v>46900</v>
       </c>
       <c r="I18" s="3">
-        <v>46200</v>
+        <v>56300</v>
       </c>
       <c r="J18" s="3">
+        <v>46400</v>
+      </c>
+      <c r="K18" s="3">
         <v>52400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>70300</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1017,158 +1049,174 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-8000</v>
+        <v>-2000</v>
       </c>
       <c r="E20" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="F20" s="3">
         <v>2300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>8100</v>
       </c>
-      <c r="G20" s="3">
-        <v>5700</v>
-      </c>
       <c r="H20" s="3">
+        <v>5800</v>
+      </c>
+      <c r="I20" s="3">
         <v>2800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>3000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>7400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>2800</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>333100</v>
+        <v>386300</v>
       </c>
       <c r="E21" s="3">
-        <v>201200</v>
+        <v>333400</v>
       </c>
       <c r="F21" s="3">
-        <v>193500</v>
+        <v>201400</v>
       </c>
       <c r="G21" s="3">
-        <v>152700</v>
+        <v>193700</v>
       </c>
       <c r="H21" s="3">
-        <v>150200</v>
+        <v>152900</v>
       </c>
       <c r="I21" s="3">
-        <v>138300</v>
+        <v>150400</v>
       </c>
       <c r="J21" s="3">
+        <v>138400</v>
+      </c>
+      <c r="K21" s="3">
         <v>141000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>141500</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="3">
         <v>5200</v>
       </c>
-      <c r="E22" s="3">
-        <v>3900</v>
-      </c>
       <c r="F22" s="3">
-        <v>7100</v>
+        <v>4000</v>
       </c>
       <c r="G22" s="3">
+        <v>7200</v>
+      </c>
+      <c r="H22" s="3">
         <v>2800</v>
-      </c>
-      <c r="H22" s="3">
-        <v>2200</v>
       </c>
       <c r="I22" s="3">
         <v>2200</v>
       </c>
       <c r="J22" s="3">
+        <v>2200</v>
+      </c>
+      <c r="K22" s="3">
         <v>2300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>2600</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>65600</v>
+        <v>129000</v>
       </c>
       <c r="E23" s="3">
-        <v>53500</v>
+        <v>65800</v>
       </c>
       <c r="F23" s="3">
-        <v>62900</v>
+        <v>53700</v>
       </c>
       <c r="G23" s="3">
-        <v>49700</v>
+        <v>63200</v>
       </c>
       <c r="H23" s="3">
-        <v>56700</v>
+        <v>49900</v>
       </c>
       <c r="I23" s="3">
-        <v>47100</v>
+        <v>56900</v>
       </c>
       <c r="J23" s="3">
+        <v>47200</v>
+      </c>
+      <c r="K23" s="3">
         <v>57500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>70500</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>27200</v>
+        <v>38900</v>
       </c>
       <c r="E24" s="3">
-        <v>19600</v>
+        <v>27300</v>
       </c>
       <c r="F24" s="3">
+        <v>19700</v>
+      </c>
+      <c r="G24" s="3">
         <v>21100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>20400</v>
       </c>
-      <c r="H24" s="3">
-        <v>20000</v>
-      </c>
       <c r="I24" s="3">
+        <v>20100</v>
+      </c>
+      <c r="J24" s="3">
         <v>17400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>16400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>23700</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1196,69 +1244,78 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>38400</v>
+        <v>90100</v>
       </c>
       <c r="E26" s="3">
-        <v>33900</v>
+        <v>38500</v>
       </c>
       <c r="F26" s="3">
-        <v>41900</v>
+        <v>34000</v>
       </c>
       <c r="G26" s="3">
-        <v>29300</v>
+        <v>42000</v>
       </c>
       <c r="H26" s="3">
-        <v>36700</v>
+        <v>29400</v>
       </c>
       <c r="I26" s="3">
-        <v>29700</v>
+        <v>36900</v>
       </c>
       <c r="J26" s="3">
+        <v>29800</v>
+      </c>
+      <c r="K26" s="3">
         <v>41000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>46800</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>36700</v>
+        <v>89200</v>
       </c>
       <c r="E27" s="3">
-        <v>32200</v>
+        <v>36800</v>
       </c>
       <c r="F27" s="3">
-        <v>41600</v>
+        <v>32400</v>
       </c>
       <c r="G27" s="3">
-        <v>29000</v>
+        <v>41700</v>
       </c>
       <c r="H27" s="3">
-        <v>37000</v>
+        <v>29100</v>
       </c>
       <c r="I27" s="3">
-        <v>30400</v>
+        <v>37100</v>
       </c>
       <c r="J27" s="3">
+        <v>30500</v>
+      </c>
+      <c r="K27" s="3">
         <v>41000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>48200</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1286,9 +1343,12 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1298,11 +1358,11 @@
       <c r="E29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G29" s="3">
         <v>200</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>10</v>
@@ -1316,9 +1376,12 @@
       <c r="K29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1346,9 +1409,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1376,69 +1442,78 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>8000</v>
+        <v>2000</v>
       </c>
       <c r="E32" s="3">
+        <v>8100</v>
+      </c>
+      <c r="F32" s="3">
         <v>-2300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-8100</v>
       </c>
-      <c r="G32" s="3">
-        <v>-5700</v>
-      </c>
       <c r="H32" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="I32" s="3">
         <v>-2800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-3000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-7400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-2800</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>36700</v>
+        <v>89200</v>
       </c>
       <c r="E33" s="3">
-        <v>32200</v>
+        <v>36800</v>
       </c>
       <c r="F33" s="3">
-        <v>41700</v>
+        <v>32400</v>
       </c>
       <c r="G33" s="3">
-        <v>29000</v>
+        <v>41900</v>
       </c>
       <c r="H33" s="3">
-        <v>37000</v>
+        <v>29100</v>
       </c>
       <c r="I33" s="3">
-        <v>30400</v>
+        <v>37100</v>
       </c>
       <c r="J33" s="3">
+        <v>30500</v>
+      </c>
+      <c r="K33" s="3">
         <v>41000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>48200</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1466,74 +1541,83 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>36700</v>
+        <v>89200</v>
       </c>
       <c r="E35" s="3">
-        <v>32200</v>
+        <v>36800</v>
       </c>
       <c r="F35" s="3">
-        <v>41700</v>
+        <v>32400</v>
       </c>
       <c r="G35" s="3">
-        <v>29000</v>
+        <v>41900</v>
       </c>
       <c r="H35" s="3">
-        <v>37000</v>
+        <v>29100</v>
       </c>
       <c r="I35" s="3">
-        <v>30400</v>
+        <v>37100</v>
       </c>
       <c r="J35" s="3">
+        <v>30500</v>
+      </c>
+      <c r="K35" s="3">
         <v>41000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>48200</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43555</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43190</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42825</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42460</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42094</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41729</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41364</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1546,8 +1630,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1560,52 +1645,56 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>354200</v>
+        <v>390300</v>
       </c>
       <c r="E41" s="3">
-        <v>292700</v>
+        <v>355400</v>
       </c>
       <c r="F41" s="3">
-        <v>391300</v>
+        <v>293700</v>
       </c>
       <c r="G41" s="3">
-        <v>201100</v>
+        <v>392600</v>
       </c>
       <c r="H41" s="3">
-        <v>179300</v>
+        <v>201800</v>
       </c>
       <c r="I41" s="3">
-        <v>193200</v>
+        <v>179800</v>
       </c>
       <c r="J41" s="3">
+        <v>193900</v>
+      </c>
+      <c r="K41" s="3">
         <v>205400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>111400</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>18200</v>
+      </c>
+      <c r="E42" s="3">
         <v>24500</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>14500</v>
       </c>
-      <c r="F42" s="3">
-        <v>34400</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>10</v>
+      <c r="G42" s="3">
+        <v>34500</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>10</v>
@@ -1619,219 +1708,243 @@
       <c r="K42" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L42" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>302100</v>
+        <v>331600</v>
       </c>
       <c r="E43" s="3">
-        <v>305700</v>
+        <v>303100</v>
       </c>
       <c r="F43" s="3">
-        <v>580700</v>
+        <v>306700</v>
       </c>
       <c r="G43" s="3">
-        <v>250700</v>
+        <v>582600</v>
       </c>
       <c r="H43" s="3">
-        <v>217400</v>
+        <v>251500</v>
       </c>
       <c r="I43" s="3">
-        <v>203800</v>
+        <v>218100</v>
       </c>
       <c r="J43" s="3">
+        <v>204500</v>
+      </c>
+      <c r="K43" s="3">
         <v>176000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>170500</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>22700</v>
+        <v>20000</v>
       </c>
       <c r="E44" s="3">
-        <v>31200</v>
+        <v>22800</v>
       </c>
       <c r="F44" s="3">
-        <v>29900</v>
+        <v>31300</v>
       </c>
       <c r="G44" s="3">
-        <v>25600</v>
+        <v>30000</v>
       </c>
       <c r="H44" s="3">
+        <v>25700</v>
+      </c>
+      <c r="I44" s="3">
         <v>18400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>11300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>15300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>11800</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>89700</v>
+        <v>98400</v>
       </c>
       <c r="E45" s="3">
-        <v>79300</v>
+        <v>90000</v>
       </c>
       <c r="F45" s="3">
-        <v>182200</v>
+        <v>79500</v>
       </c>
       <c r="G45" s="3">
-        <v>106200</v>
+        <v>182800</v>
       </c>
       <c r="H45" s="3">
-        <v>74200</v>
+        <v>106600</v>
       </c>
       <c r="I45" s="3">
-        <v>68800</v>
+        <v>74500</v>
       </c>
       <c r="J45" s="3">
+        <v>69000</v>
+      </c>
+      <c r="K45" s="3">
         <v>76900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>46600</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>793200</v>
+        <v>858400</v>
       </c>
       <c r="E46" s="3">
-        <v>723400</v>
+        <v>795800</v>
       </c>
       <c r="F46" s="3">
-        <v>603100</v>
+        <v>725700</v>
       </c>
       <c r="G46" s="3">
-        <v>583700</v>
+        <v>605100</v>
       </c>
       <c r="H46" s="3">
-        <v>489200</v>
+        <v>585600</v>
       </c>
       <c r="I46" s="3">
-        <v>477100</v>
+        <v>490800</v>
       </c>
       <c r="J46" s="3">
+        <v>478700</v>
+      </c>
+      <c r="K46" s="3">
         <v>473600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>340300</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>171500</v>
+        <v>242900</v>
       </c>
       <c r="E47" s="3">
-        <v>197200</v>
+        <v>172000</v>
       </c>
       <c r="F47" s="3">
-        <v>258100</v>
+        <v>197900</v>
       </c>
       <c r="G47" s="3">
-        <v>28300</v>
+        <v>258900</v>
       </c>
       <c r="H47" s="3">
-        <v>26700</v>
+        <v>28400</v>
       </c>
       <c r="I47" s="3">
-        <v>22600</v>
+        <v>26800</v>
       </c>
       <c r="J47" s="3">
+        <v>22700</v>
+      </c>
+      <c r="K47" s="3">
         <v>18500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>14600</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>622500</v>
+        <v>623000</v>
       </c>
       <c r="E48" s="3">
-        <v>303500</v>
+        <v>624600</v>
       </c>
       <c r="F48" s="3">
-        <v>732200</v>
+        <v>304500</v>
       </c>
       <c r="G48" s="3">
-        <v>364300</v>
+        <v>734600</v>
       </c>
       <c r="H48" s="3">
-        <v>314400</v>
+        <v>365500</v>
       </c>
       <c r="I48" s="3">
-        <v>269000</v>
+        <v>315400</v>
       </c>
       <c r="J48" s="3">
+        <v>269900</v>
+      </c>
+      <c r="K48" s="3">
         <v>247100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>209300</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>223200</v>
+        <v>211700</v>
       </c>
       <c r="E49" s="3">
-        <v>228100</v>
+        <v>223900</v>
       </c>
       <c r="F49" s="3">
-        <v>298900</v>
+        <v>228800</v>
       </c>
       <c r="G49" s="3">
-        <v>84800</v>
+        <v>299900</v>
       </c>
       <c r="H49" s="3">
-        <v>89000</v>
+        <v>85100</v>
       </c>
       <c r="I49" s="3">
-        <v>92600</v>
+        <v>89300</v>
       </c>
       <c r="J49" s="3">
+        <v>92900</v>
+      </c>
+      <c r="K49" s="3">
         <v>94400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>97800</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1859,9 +1972,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1889,39 +2005,45 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>81400</v>
+        <v>93000</v>
       </c>
       <c r="E52" s="3">
-        <v>80100</v>
+        <v>81700</v>
       </c>
       <c r="F52" s="3">
-        <v>319100</v>
+        <v>80400</v>
       </c>
       <c r="G52" s="3">
-        <v>197400</v>
+        <v>320200</v>
       </c>
       <c r="H52" s="3">
-        <v>160000</v>
+        <v>198100</v>
       </c>
       <c r="I52" s="3">
-        <v>134400</v>
+        <v>160500</v>
       </c>
       <c r="J52" s="3">
+        <v>134800</v>
+      </c>
+      <c r="K52" s="3">
         <v>117800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>84300</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1949,39 +2071,45 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1891800</v>
+        <v>2028900</v>
       </c>
       <c r="E54" s="3">
-        <v>1532400</v>
+        <v>1898000</v>
       </c>
       <c r="F54" s="3">
-        <v>1421300</v>
+        <v>1537400</v>
       </c>
       <c r="G54" s="3">
-        <v>1258500</v>
+        <v>1425900</v>
       </c>
       <c r="H54" s="3">
-        <v>1079400</v>
+        <v>1262700</v>
       </c>
       <c r="I54" s="3">
-        <v>995700</v>
+        <v>1082900</v>
       </c>
       <c r="J54" s="3">
+        <v>999000</v>
+      </c>
+      <c r="K54" s="3">
         <v>951400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>746400</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1994,8 +2122,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2008,188 +2137,207 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>54800</v>
+        <v>176900</v>
       </c>
       <c r="E57" s="3">
-        <v>71500</v>
+        <v>54900</v>
       </c>
       <c r="F57" s="3">
-        <v>186600</v>
+        <v>71800</v>
       </c>
       <c r="G57" s="3">
-        <v>134200</v>
+        <v>187200</v>
       </c>
       <c r="H57" s="3">
-        <v>127400</v>
+        <v>134700</v>
       </c>
       <c r="I57" s="3">
-        <v>111600</v>
+        <v>127800</v>
       </c>
       <c r="J57" s="3">
+        <v>112000</v>
+      </c>
+      <c r="K57" s="3">
         <v>105300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>99700</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>142700</v>
+        <v>170600</v>
       </c>
       <c r="E58" s="3">
-        <v>176500</v>
+        <v>143200</v>
       </c>
       <c r="F58" s="3">
-        <v>273000</v>
+        <v>177100</v>
       </c>
       <c r="G58" s="3">
-        <v>128900</v>
+        <v>273900</v>
       </c>
       <c r="H58" s="3">
-        <v>121000</v>
+        <v>129300</v>
       </c>
       <c r="I58" s="3">
-        <v>117000</v>
+        <v>121300</v>
       </c>
       <c r="J58" s="3">
+        <v>117400</v>
+      </c>
+      <c r="K58" s="3">
         <v>129500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>126500</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>404200</v>
+        <v>325800</v>
       </c>
       <c r="E59" s="3">
-        <v>236600</v>
+        <v>405500</v>
       </c>
       <c r="F59" s="3">
-        <v>312400</v>
+        <v>237300</v>
       </c>
       <c r="G59" s="3">
-        <v>103200</v>
+        <v>313400</v>
       </c>
       <c r="H59" s="3">
-        <v>82000</v>
+        <v>103500</v>
       </c>
       <c r="I59" s="3">
-        <v>80500</v>
+        <v>82300</v>
       </c>
       <c r="J59" s="3">
+        <v>80700</v>
+      </c>
+      <c r="K59" s="3">
         <v>62700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>68100</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>601700</v>
+        <v>673300</v>
       </c>
       <c r="E60" s="3">
-        <v>484600</v>
+        <v>603700</v>
       </c>
       <c r="F60" s="3">
-        <v>386000</v>
+        <v>486200</v>
       </c>
       <c r="G60" s="3">
-        <v>366200</v>
+        <v>387200</v>
       </c>
       <c r="H60" s="3">
-        <v>330400</v>
+        <v>367400</v>
       </c>
       <c r="I60" s="3">
-        <v>309100</v>
+        <v>331400</v>
       </c>
       <c r="J60" s="3">
+        <v>310100</v>
+      </c>
+      <c r="K60" s="3">
         <v>297400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>294400</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>111500</v>
+        <v>64300</v>
       </c>
       <c r="E61" s="3">
-        <v>233700</v>
+        <v>111800</v>
       </c>
       <c r="F61" s="3">
-        <v>242000</v>
+        <v>234500</v>
       </c>
       <c r="G61" s="3">
-        <v>173000</v>
+        <v>242800</v>
       </c>
       <c r="H61" s="3">
-        <v>71300</v>
+        <v>173500</v>
       </c>
       <c r="I61" s="3">
-        <v>39800</v>
+        <v>71500</v>
       </c>
       <c r="J61" s="3">
+        <v>39900</v>
+      </c>
+      <c r="K61" s="3">
         <v>42200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>57700</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>445300</v>
+        <v>455300</v>
       </c>
       <c r="E62" s="3">
-        <v>107600</v>
+        <v>446700</v>
       </c>
       <c r="F62" s="3">
-        <v>203800</v>
+        <v>108000</v>
       </c>
       <c r="G62" s="3">
-        <v>102100</v>
+        <v>204500</v>
       </c>
       <c r="H62" s="3">
-        <v>79200</v>
+        <v>102400</v>
       </c>
       <c r="I62" s="3">
-        <v>71300</v>
+        <v>79500</v>
       </c>
       <c r="J62" s="3">
+        <v>71500</v>
+      </c>
+      <c r="K62" s="3">
         <v>60600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>52200</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2217,9 +2365,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2247,9 +2398,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2277,39 +2431,45 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1167400</v>
+        <v>1202200</v>
       </c>
       <c r="E66" s="3">
-        <v>833700</v>
+        <v>1171300</v>
       </c>
       <c r="F66" s="3">
-        <v>738600</v>
+        <v>836500</v>
       </c>
       <c r="G66" s="3">
-        <v>647200</v>
+        <v>741000</v>
       </c>
       <c r="H66" s="3">
-        <v>485400</v>
+        <v>649300</v>
       </c>
       <c r="I66" s="3">
-        <v>423200</v>
+        <v>487000</v>
       </c>
       <c r="J66" s="3">
+        <v>424600</v>
+      </c>
+      <c r="K66" s="3">
         <v>402600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>404500</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2322,8 +2482,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2351,9 +2512,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2381,9 +2545,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2411,9 +2578,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2441,39 +2611,45 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>151100</v>
+        <v>230200</v>
       </c>
       <c r="E72" s="3">
-        <v>113000</v>
+        <v>151600</v>
       </c>
       <c r="F72" s="3">
-        <v>165600</v>
+        <v>113400</v>
       </c>
       <c r="G72" s="3">
-        <v>41300</v>
+        <v>166200</v>
       </c>
       <c r="H72" s="3">
-        <v>22600</v>
+        <v>41500</v>
       </c>
       <c r="I72" s="3">
+        <v>22700</v>
+      </c>
+      <c r="J72" s="3">
         <v>-5100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-26300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-58200</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2501,9 +2677,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2531,9 +2710,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2561,39 +2743,45 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>724300</v>
+        <v>826700</v>
       </c>
       <c r="E76" s="3">
-        <v>698600</v>
+        <v>726700</v>
       </c>
       <c r="F76" s="3">
-        <v>682700</v>
+        <v>700900</v>
       </c>
       <c r="G76" s="3">
-        <v>611400</v>
+        <v>684900</v>
       </c>
       <c r="H76" s="3">
-        <v>594000</v>
+        <v>613400</v>
       </c>
       <c r="I76" s="3">
-        <v>572500</v>
+        <v>595900</v>
       </c>
       <c r="J76" s="3">
+        <v>574400</v>
+      </c>
+      <c r="K76" s="3">
         <v>548800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>341800</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2621,74 +2809,83 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43555</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43190</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42825</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42460</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42094</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41729</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41364</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>36700</v>
+        <v>89200</v>
       </c>
       <c r="E81" s="3">
-        <v>32200</v>
+        <v>36800</v>
       </c>
       <c r="F81" s="3">
-        <v>41700</v>
+        <v>32400</v>
       </c>
       <c r="G81" s="3">
-        <v>29000</v>
+        <v>41900</v>
       </c>
       <c r="H81" s="3">
-        <v>37000</v>
+        <v>29100</v>
       </c>
       <c r="I81" s="3">
-        <v>30400</v>
+        <v>37100</v>
       </c>
       <c r="J81" s="3">
+        <v>30500</v>
+      </c>
+      <c r="K81" s="3">
         <v>41000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>48200</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2701,38 +2898,42 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>261200</v>
+        <v>257100</v>
       </c>
       <c r="E83" s="3">
-        <v>143200</v>
+        <v>262100</v>
       </c>
       <c r="F83" s="3">
-        <v>122900</v>
+        <v>143600</v>
       </c>
       <c r="G83" s="3">
-        <v>99800</v>
+        <v>123300</v>
       </c>
       <c r="H83" s="3">
-        <v>90900</v>
+        <v>100100</v>
       </c>
       <c r="I83" s="3">
-        <v>88600</v>
+        <v>91200</v>
       </c>
       <c r="J83" s="3">
+        <v>88900</v>
+      </c>
+      <c r="K83" s="3">
         <v>80800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>68200</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2760,9 +2961,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2790,9 +2994,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2820,9 +3027,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2850,9 +3060,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2880,39 +3093,45 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>305900</v>
+        <v>372600</v>
       </c>
       <c r="E89" s="3">
-        <v>230400</v>
+        <v>306900</v>
       </c>
       <c r="F89" s="3">
-        <v>134300</v>
+        <v>231200</v>
       </c>
       <c r="G89" s="3">
-        <v>67500</v>
+        <v>134800</v>
       </c>
       <c r="H89" s="3">
-        <v>110400</v>
+        <v>67700</v>
       </c>
       <c r="I89" s="3">
-        <v>118300</v>
+        <v>110800</v>
       </c>
       <c r="J89" s="3">
+        <v>118700</v>
+      </c>
+      <c r="K89" s="3">
         <v>80500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>88700</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2925,38 +3144,42 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-65900</v>
+        <v>-58700</v>
       </c>
       <c r="E91" s="3">
-        <v>-64900</v>
+        <v>-66100</v>
       </c>
       <c r="F91" s="3">
-        <v>-246100</v>
+        <v>-65100</v>
       </c>
       <c r="G91" s="3">
-        <v>-97300</v>
+        <v>-246900</v>
       </c>
       <c r="H91" s="3">
-        <v>-99800</v>
+        <v>-97600</v>
       </c>
       <c r="I91" s="3">
-        <v>-74700</v>
+        <v>-100200</v>
       </c>
       <c r="J91" s="3">
+        <v>-75000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-83600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-50800</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2984,9 +3207,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3014,39 +3240,45 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-66500</v>
+        <v>-121500</v>
       </c>
       <c r="E94" s="3">
-        <v>-79600</v>
+        <v>-66800</v>
       </c>
       <c r="F94" s="3">
-        <v>-131000</v>
+        <v>-79800</v>
       </c>
       <c r="G94" s="3">
-        <v>-67600</v>
+        <v>-131400</v>
       </c>
       <c r="H94" s="3">
-        <v>-76700</v>
+        <v>-67800</v>
       </c>
       <c r="I94" s="3">
-        <v>-73900</v>
+        <v>-77000</v>
       </c>
       <c r="J94" s="3">
+        <v>-74200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-93500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-54000</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3059,38 +3291,42 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-11100</v>
+        <v>-14100</v>
       </c>
       <c r="E96" s="3">
-        <v>-11100</v>
+        <v>-11200</v>
       </c>
       <c r="F96" s="3">
-        <v>-11100</v>
+        <v>-11200</v>
       </c>
       <c r="G96" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="H96" s="3">
         <v>-10300</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-9300</v>
       </c>
       <c r="I96" s="3">
         <v>-9300</v>
       </c>
       <c r="J96" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="K96" s="3">
         <v>-8300</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-6400</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3118,9 +3354,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3148,9 +3387,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3178,97 +3420,109 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-177300</v>
+        <v>-217000</v>
       </c>
       <c r="E100" s="3">
-        <v>-54000</v>
+        <v>-177900</v>
       </c>
       <c r="F100" s="3">
+        <v>-54100</v>
+      </c>
+      <c r="G100" s="3">
         <v>-6600</v>
       </c>
-      <c r="G100" s="3">
-        <v>22800</v>
-      </c>
       <c r="H100" s="3">
-        <v>-47600</v>
+        <v>22900</v>
       </c>
       <c r="I100" s="3">
-        <v>-57600</v>
+        <v>-47800</v>
       </c>
       <c r="J100" s="3">
+        <v>-57700</v>
+      </c>
+      <c r="K100" s="3">
         <v>104300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-45400</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>800</v>
+      </c>
+      <c r="E101" s="3">
         <v>-600</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>600</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-700</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-900</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
       <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
         <v>1100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>1800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-800</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>61500</v>
+        <v>34900</v>
       </c>
       <c r="E102" s="3">
-        <v>97400</v>
+        <v>61700</v>
       </c>
       <c r="F102" s="3">
+        <v>97800</v>
+      </c>
+      <c r="G102" s="3">
         <v>-3900</v>
       </c>
-      <c r="G102" s="3">
-        <v>21900</v>
-      </c>
       <c r="H102" s="3">
+        <v>22000</v>
+      </c>
+      <c r="I102" s="3">
         <v>-14000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-12200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>93100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-11600</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/IIJIY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/IIJIY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
   <si>
     <t>IIJIY</t>
   </si>
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1957500</v>
+        <v>1940400</v>
       </c>
       <c r="E8" s="3">
-        <v>1879100</v>
+        <v>1862800</v>
       </c>
       <c r="F8" s="3">
-        <v>1768400</v>
+        <v>1753000</v>
       </c>
       <c r="G8" s="3">
-        <v>1619600</v>
+        <v>1605500</v>
       </c>
       <c r="H8" s="3">
-        <v>1450100</v>
+        <v>1437500</v>
       </c>
       <c r="I8" s="3">
-        <v>1292600</v>
+        <v>1281300</v>
       </c>
       <c r="J8" s="3">
-        <v>1130800</v>
+        <v>1121000</v>
       </c>
       <c r="K8" s="3">
         <v>1046700</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1587300</v>
+        <v>1573500</v>
       </c>
       <c r="E9" s="3">
-        <v>1579600</v>
+        <v>1565800</v>
       </c>
       <c r="F9" s="3">
-        <v>1502200</v>
+        <v>1489100</v>
       </c>
       <c r="G9" s="3">
-        <v>2695600</v>
+        <v>2672100</v>
       </c>
       <c r="H9" s="3">
-        <v>1218100</v>
+        <v>1207500</v>
       </c>
       <c r="I9" s="3">
-        <v>1066000</v>
+        <v>1056700</v>
       </c>
       <c r="J9" s="3">
-        <v>928000</v>
+        <v>919900</v>
       </c>
       <c r="K9" s="3">
         <v>853800</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>370200</v>
+        <v>367000</v>
       </c>
       <c r="E10" s="3">
-        <v>299500</v>
+        <v>296900</v>
       </c>
       <c r="F10" s="3">
-        <v>266300</v>
+        <v>264000</v>
       </c>
       <c r="G10" s="3">
-        <v>-1076000</v>
+        <v>-1066600</v>
       </c>
       <c r="H10" s="3">
-        <v>232000</v>
+        <v>230000</v>
       </c>
       <c r="I10" s="3">
-        <v>226600</v>
+        <v>224600</v>
       </c>
       <c r="J10" s="3">
-        <v>202800</v>
+        <v>201100</v>
       </c>
       <c r="K10" s="3">
         <v>193000</v>
@@ -830,8 +830,8 @@
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>10</v>
+      <c r="D12" s="3">
+        <v>4300</v>
       </c>
       <c r="E12" s="3">
         <v>4000</v>
@@ -840,16 +840,16 @@
         <v>4100</v>
       </c>
       <c r="G12" s="3">
-        <v>4500</v>
+        <v>4400</v>
       </c>
       <c r="H12" s="3">
-        <v>4300</v>
+        <v>4200</v>
       </c>
       <c r="I12" s="3">
-        <v>4200</v>
+        <v>4100</v>
       </c>
       <c r="J12" s="3">
-        <v>4100</v>
+        <v>4000</v>
       </c>
       <c r="K12" s="3">
         <v>3900</v>
@@ -896,11 +896,11 @@
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>10</v>
+      <c r="D14" s="3">
+        <v>-3200</v>
       </c>
       <c r="E14" s="3">
-        <v>-3500</v>
+        <v>-3400</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>10</v>
@@ -929,17 +929,17 @@
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>10</v>
+      <c r="D15" s="3">
+        <v>25900</v>
       </c>
       <c r="E15" s="3">
-        <v>26100</v>
+        <v>25900</v>
       </c>
       <c r="F15" s="3">
-        <v>11800</v>
+        <v>11700</v>
       </c>
       <c r="G15" s="3">
-        <v>11500</v>
+        <v>11400</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>10</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1826600</v>
+        <v>1807500</v>
       </c>
       <c r="E17" s="3">
-        <v>1800100</v>
+        <v>1784400</v>
       </c>
       <c r="F17" s="3">
-        <v>1713100</v>
+        <v>1698200</v>
       </c>
       <c r="G17" s="3">
-        <v>1557400</v>
+        <v>1543800</v>
       </c>
       <c r="H17" s="3">
-        <v>1403200</v>
+        <v>1391000</v>
       </c>
       <c r="I17" s="3">
-        <v>1236300</v>
+        <v>1225500</v>
       </c>
       <c r="J17" s="3">
-        <v>1084500</v>
+        <v>1075000</v>
       </c>
       <c r="K17" s="3">
         <v>994300</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>130900</v>
+        <v>133000</v>
       </c>
       <c r="E18" s="3">
-        <v>79000</v>
+        <v>78400</v>
       </c>
       <c r="F18" s="3">
-        <v>55400</v>
+        <v>54900</v>
       </c>
       <c r="G18" s="3">
-        <v>62200</v>
+        <v>61700</v>
       </c>
       <c r="H18" s="3">
-        <v>46900</v>
+        <v>46500</v>
       </c>
       <c r="I18" s="3">
-        <v>56300</v>
+        <v>55800</v>
       </c>
       <c r="J18" s="3">
-        <v>46400</v>
+        <v>46000</v>
       </c>
       <c r="K18" s="3">
         <v>52400</v>
@@ -1056,19 +1056,19 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-2000</v>
+        <v>-100</v>
       </c>
       <c r="E20" s="3">
-        <v>-8100</v>
+        <v>-8000</v>
       </c>
       <c r="F20" s="3">
         <v>2300</v>
       </c>
       <c r="G20" s="3">
-        <v>8100</v>
+        <v>8000</v>
       </c>
       <c r="H20" s="3">
-        <v>5800</v>
+        <v>5700</v>
       </c>
       <c r="I20" s="3">
         <v>2800</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>386300</v>
+        <v>387800</v>
       </c>
       <c r="E21" s="3">
-        <v>333400</v>
+        <v>330200</v>
       </c>
       <c r="F21" s="3">
-        <v>201400</v>
+        <v>199500</v>
       </c>
       <c r="G21" s="3">
-        <v>193700</v>
+        <v>191900</v>
       </c>
       <c r="H21" s="3">
-        <v>152900</v>
+        <v>151400</v>
       </c>
       <c r="I21" s="3">
-        <v>150400</v>
+        <v>149000</v>
       </c>
       <c r="J21" s="3">
-        <v>138400</v>
+        <v>137100</v>
       </c>
       <c r="K21" s="3">
         <v>141000</v>
@@ -1121,17 +1121,17 @@
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>10</v>
+      <c r="D22" s="3">
+        <v>5100</v>
       </c>
       <c r="E22" s="3">
         <v>5200</v>
       </c>
       <c r="F22" s="3">
-        <v>4000</v>
+        <v>3900</v>
       </c>
       <c r="G22" s="3">
-        <v>7200</v>
+        <v>7100</v>
       </c>
       <c r="H22" s="3">
         <v>2800</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>129000</v>
+        <v>127900</v>
       </c>
       <c r="E23" s="3">
-        <v>65800</v>
+        <v>65200</v>
       </c>
       <c r="F23" s="3">
-        <v>53700</v>
+        <v>53200</v>
       </c>
       <c r="G23" s="3">
-        <v>63200</v>
+        <v>62600</v>
       </c>
       <c r="H23" s="3">
-        <v>49900</v>
+        <v>49400</v>
       </c>
       <c r="I23" s="3">
-        <v>56900</v>
+        <v>56400</v>
       </c>
       <c r="J23" s="3">
-        <v>47200</v>
+        <v>46800</v>
       </c>
       <c r="K23" s="3">
         <v>57500</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>38900</v>
+        <v>38600</v>
       </c>
       <c r="E24" s="3">
-        <v>27300</v>
+        <v>27000</v>
       </c>
       <c r="F24" s="3">
-        <v>19700</v>
+        <v>19500</v>
       </c>
       <c r="G24" s="3">
-        <v>21100</v>
+        <v>20900</v>
       </c>
       <c r="H24" s="3">
-        <v>20400</v>
+        <v>20300</v>
       </c>
       <c r="I24" s="3">
-        <v>20100</v>
+        <v>19900</v>
       </c>
       <c r="J24" s="3">
-        <v>17400</v>
+        <v>17300</v>
       </c>
       <c r="K24" s="3">
         <v>16400</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>90100</v>
+        <v>89300</v>
       </c>
       <c r="E26" s="3">
-        <v>38500</v>
+        <v>38200</v>
       </c>
       <c r="F26" s="3">
-        <v>34000</v>
+        <v>33700</v>
       </c>
       <c r="G26" s="3">
-        <v>42000</v>
+        <v>41700</v>
       </c>
       <c r="H26" s="3">
-        <v>29400</v>
+        <v>29200</v>
       </c>
       <c r="I26" s="3">
-        <v>36900</v>
+        <v>36500</v>
       </c>
       <c r="J26" s="3">
-        <v>29800</v>
+        <v>29500</v>
       </c>
       <c r="K26" s="3">
         <v>41000</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>89200</v>
+        <v>88500</v>
       </c>
       <c r="E27" s="3">
+        <v>36500</v>
+      </c>
+      <c r="F27" s="3">
+        <v>32100</v>
+      </c>
+      <c r="G27" s="3">
+        <v>41300</v>
+      </c>
+      <c r="H27" s="3">
+        <v>28800</v>
+      </c>
+      <c r="I27" s="3">
         <v>36800</v>
       </c>
-      <c r="F27" s="3">
-        <v>32400</v>
-      </c>
-      <c r="G27" s="3">
-        <v>41700</v>
-      </c>
-      <c r="H27" s="3">
-        <v>29100</v>
-      </c>
-      <c r="I27" s="3">
-        <v>37100</v>
-      </c>
       <c r="J27" s="3">
-        <v>30500</v>
+        <v>30300</v>
       </c>
       <c r="K27" s="3">
         <v>41000</v>
@@ -1452,19 +1452,19 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>2000</v>
+        <v>100</v>
       </c>
       <c r="E32" s="3">
-        <v>8100</v>
+        <v>8000</v>
       </c>
       <c r="F32" s="3">
         <v>-2300</v>
       </c>
       <c r="G32" s="3">
-        <v>-8100</v>
+        <v>-8000</v>
       </c>
       <c r="H32" s="3">
-        <v>-5800</v>
+        <v>-5700</v>
       </c>
       <c r="I32" s="3">
         <v>-2800</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>89200</v>
+        <v>88500</v>
       </c>
       <c r="E33" s="3">
+        <v>36500</v>
+      </c>
+      <c r="F33" s="3">
+        <v>32100</v>
+      </c>
+      <c r="G33" s="3">
+        <v>41500</v>
+      </c>
+      <c r="H33" s="3">
+        <v>28800</v>
+      </c>
+      <c r="I33" s="3">
         <v>36800</v>
       </c>
-      <c r="F33" s="3">
-        <v>32400</v>
-      </c>
-      <c r="G33" s="3">
-        <v>41900</v>
-      </c>
-      <c r="H33" s="3">
-        <v>29100</v>
-      </c>
-      <c r="I33" s="3">
-        <v>37100</v>
-      </c>
       <c r="J33" s="3">
-        <v>30500</v>
+        <v>30300</v>
       </c>
       <c r="K33" s="3">
         <v>41000</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>89200</v>
+        <v>88500</v>
       </c>
       <c r="E35" s="3">
+        <v>36500</v>
+      </c>
+      <c r="F35" s="3">
+        <v>32100</v>
+      </c>
+      <c r="G35" s="3">
+        <v>41500</v>
+      </c>
+      <c r="H35" s="3">
+        <v>28800</v>
+      </c>
+      <c r="I35" s="3">
         <v>36800</v>
       </c>
-      <c r="F35" s="3">
-        <v>32400</v>
-      </c>
-      <c r="G35" s="3">
-        <v>41900</v>
-      </c>
-      <c r="H35" s="3">
-        <v>29100</v>
-      </c>
-      <c r="I35" s="3">
-        <v>37100</v>
-      </c>
       <c r="J35" s="3">
-        <v>30500</v>
+        <v>30300</v>
       </c>
       <c r="K35" s="3">
         <v>41000</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>390300</v>
+        <v>386900</v>
       </c>
       <c r="E41" s="3">
-        <v>355400</v>
+        <v>352300</v>
       </c>
       <c r="F41" s="3">
-        <v>293700</v>
+        <v>291100</v>
       </c>
       <c r="G41" s="3">
-        <v>392600</v>
+        <v>389200</v>
       </c>
       <c r="H41" s="3">
-        <v>201800</v>
+        <v>200000</v>
       </c>
       <c r="I41" s="3">
-        <v>179800</v>
+        <v>178300</v>
       </c>
       <c r="J41" s="3">
-        <v>193900</v>
+        <v>192200</v>
       </c>
       <c r="K41" s="3">
         <v>205400</v>
@@ -1685,16 +1685,16 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>18200</v>
+        <v>18000</v>
       </c>
       <c r="E42" s="3">
-        <v>24500</v>
+        <v>24300</v>
       </c>
       <c r="F42" s="3">
-        <v>14500</v>
+        <v>14400</v>
       </c>
       <c r="G42" s="3">
-        <v>34500</v>
+        <v>34200</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>10</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>331600</v>
+        <v>328700</v>
       </c>
       <c r="E43" s="3">
-        <v>303100</v>
+        <v>300500</v>
       </c>
       <c r="F43" s="3">
-        <v>306700</v>
+        <v>304100</v>
       </c>
       <c r="G43" s="3">
-        <v>582600</v>
+        <v>577600</v>
       </c>
       <c r="H43" s="3">
-        <v>251500</v>
+        <v>249300</v>
       </c>
       <c r="I43" s="3">
-        <v>218100</v>
+        <v>216200</v>
       </c>
       <c r="J43" s="3">
-        <v>204500</v>
+        <v>202700</v>
       </c>
       <c r="K43" s="3">
         <v>176000</v>
@@ -1751,25 +1751,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>20000</v>
+        <v>19800</v>
       </c>
       <c r="E44" s="3">
-        <v>22800</v>
+        <v>22600</v>
       </c>
       <c r="F44" s="3">
-        <v>31300</v>
+        <v>31000</v>
       </c>
       <c r="G44" s="3">
-        <v>30000</v>
+        <v>29700</v>
       </c>
       <c r="H44" s="3">
-        <v>25700</v>
+        <v>25500</v>
       </c>
       <c r="I44" s="3">
-        <v>18400</v>
+        <v>18300</v>
       </c>
       <c r="J44" s="3">
-        <v>11300</v>
+        <v>11200</v>
       </c>
       <c r="K44" s="3">
         <v>15300</v>
@@ -1784,25 +1784,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>98400</v>
+        <v>97600</v>
       </c>
       <c r="E45" s="3">
-        <v>90000</v>
+        <v>89200</v>
       </c>
       <c r="F45" s="3">
-        <v>79500</v>
+        <v>78800</v>
       </c>
       <c r="G45" s="3">
-        <v>182800</v>
+        <v>181200</v>
       </c>
       <c r="H45" s="3">
-        <v>106600</v>
+        <v>105600</v>
       </c>
       <c r="I45" s="3">
-        <v>74500</v>
+        <v>73800</v>
       </c>
       <c r="J45" s="3">
-        <v>69000</v>
+        <v>68400</v>
       </c>
       <c r="K45" s="3">
         <v>76900</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>858400</v>
+        <v>850900</v>
       </c>
       <c r="E46" s="3">
-        <v>795800</v>
+        <v>788800</v>
       </c>
       <c r="F46" s="3">
-        <v>725700</v>
+        <v>719400</v>
       </c>
       <c r="G46" s="3">
-        <v>605100</v>
+        <v>599800</v>
       </c>
       <c r="H46" s="3">
-        <v>585600</v>
+        <v>580500</v>
       </c>
       <c r="I46" s="3">
-        <v>490800</v>
+        <v>486500</v>
       </c>
       <c r="J46" s="3">
-        <v>478700</v>
+        <v>474500</v>
       </c>
       <c r="K46" s="3">
         <v>473600</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>242900</v>
+        <v>240800</v>
       </c>
       <c r="E47" s="3">
-        <v>172000</v>
+        <v>170500</v>
       </c>
       <c r="F47" s="3">
-        <v>197900</v>
+        <v>196200</v>
       </c>
       <c r="G47" s="3">
-        <v>258900</v>
+        <v>256700</v>
       </c>
       <c r="H47" s="3">
-        <v>28400</v>
+        <v>28100</v>
       </c>
       <c r="I47" s="3">
-        <v>26800</v>
+        <v>26600</v>
       </c>
       <c r="J47" s="3">
-        <v>22700</v>
+        <v>22500</v>
       </c>
       <c r="K47" s="3">
         <v>18500</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>623000</v>
+        <v>617600</v>
       </c>
       <c r="E48" s="3">
-        <v>624600</v>
+        <v>619100</v>
       </c>
       <c r="F48" s="3">
-        <v>304500</v>
+        <v>301900</v>
       </c>
       <c r="G48" s="3">
-        <v>734600</v>
+        <v>728200</v>
       </c>
       <c r="H48" s="3">
-        <v>365500</v>
+        <v>362400</v>
       </c>
       <c r="I48" s="3">
-        <v>315400</v>
+        <v>312700</v>
       </c>
       <c r="J48" s="3">
-        <v>269900</v>
+        <v>267600</v>
       </c>
       <c r="K48" s="3">
         <v>247100</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>211700</v>
+        <v>209900</v>
       </c>
       <c r="E49" s="3">
-        <v>223900</v>
+        <v>221900</v>
       </c>
       <c r="F49" s="3">
-        <v>228800</v>
+        <v>226800</v>
       </c>
       <c r="G49" s="3">
-        <v>299900</v>
+        <v>297300</v>
       </c>
       <c r="H49" s="3">
-        <v>85100</v>
+        <v>84300</v>
       </c>
       <c r="I49" s="3">
-        <v>89300</v>
+        <v>88500</v>
       </c>
       <c r="J49" s="3">
-        <v>92900</v>
+        <v>92100</v>
       </c>
       <c r="K49" s="3">
         <v>94400</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>93000</v>
+        <v>92100</v>
       </c>
       <c r="E52" s="3">
-        <v>81700</v>
+        <v>81000</v>
       </c>
       <c r="F52" s="3">
-        <v>80400</v>
+        <v>79700</v>
       </c>
       <c r="G52" s="3">
-        <v>320200</v>
+        <v>317400</v>
       </c>
       <c r="H52" s="3">
-        <v>198100</v>
+        <v>196300</v>
       </c>
       <c r="I52" s="3">
-        <v>160500</v>
+        <v>159100</v>
       </c>
       <c r="J52" s="3">
-        <v>134800</v>
+        <v>133600</v>
       </c>
       <c r="K52" s="3">
         <v>117800</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2028900</v>
+        <v>2011300</v>
       </c>
       <c r="E54" s="3">
-        <v>1898000</v>
+        <v>1881400</v>
       </c>
       <c r="F54" s="3">
-        <v>1537400</v>
+        <v>1524000</v>
       </c>
       <c r="G54" s="3">
-        <v>1425900</v>
+        <v>1413500</v>
       </c>
       <c r="H54" s="3">
-        <v>1262700</v>
+        <v>1251700</v>
       </c>
       <c r="I54" s="3">
-        <v>1082900</v>
+        <v>1073500</v>
       </c>
       <c r="J54" s="3">
-        <v>999000</v>
+        <v>990300</v>
       </c>
       <c r="K54" s="3">
         <v>951400</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>176900</v>
+        <v>58200</v>
       </c>
       <c r="E57" s="3">
-        <v>54900</v>
+        <v>54500</v>
       </c>
       <c r="F57" s="3">
-        <v>71800</v>
+        <v>71100</v>
       </c>
       <c r="G57" s="3">
-        <v>187200</v>
+        <v>185600</v>
       </c>
       <c r="H57" s="3">
-        <v>134700</v>
+        <v>133500</v>
       </c>
       <c r="I57" s="3">
-        <v>127800</v>
+        <v>126700</v>
       </c>
       <c r="J57" s="3">
-        <v>112000</v>
+        <v>111000</v>
       </c>
       <c r="K57" s="3">
         <v>105300</v>
@@ -2177,25 +2177,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>170600</v>
+        <v>169100</v>
       </c>
       <c r="E58" s="3">
-        <v>143200</v>
+        <v>141900</v>
       </c>
       <c r="F58" s="3">
-        <v>177100</v>
+        <v>175500</v>
       </c>
       <c r="G58" s="3">
-        <v>273900</v>
+        <v>271500</v>
       </c>
       <c r="H58" s="3">
-        <v>129300</v>
+        <v>128200</v>
       </c>
       <c r="I58" s="3">
-        <v>121300</v>
+        <v>120300</v>
       </c>
       <c r="J58" s="3">
-        <v>117400</v>
+        <v>116400</v>
       </c>
       <c r="K58" s="3">
         <v>129500</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>325800</v>
+        <v>440100</v>
       </c>
       <c r="E59" s="3">
-        <v>405500</v>
+        <v>402000</v>
       </c>
       <c r="F59" s="3">
-        <v>237300</v>
+        <v>235300</v>
       </c>
       <c r="G59" s="3">
-        <v>313400</v>
+        <v>310700</v>
       </c>
       <c r="H59" s="3">
-        <v>103500</v>
+        <v>102600</v>
       </c>
       <c r="I59" s="3">
-        <v>82300</v>
+        <v>81600</v>
       </c>
       <c r="J59" s="3">
-        <v>80700</v>
+        <v>80000</v>
       </c>
       <c r="K59" s="3">
         <v>62700</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>673300</v>
+        <v>667400</v>
       </c>
       <c r="E60" s="3">
-        <v>603700</v>
+        <v>598400</v>
       </c>
       <c r="F60" s="3">
-        <v>486200</v>
+        <v>482000</v>
       </c>
       <c r="G60" s="3">
-        <v>387200</v>
+        <v>383900</v>
       </c>
       <c r="H60" s="3">
-        <v>367400</v>
+        <v>364200</v>
       </c>
       <c r="I60" s="3">
-        <v>331400</v>
+        <v>328600</v>
       </c>
       <c r="J60" s="3">
-        <v>310100</v>
+        <v>307400</v>
       </c>
       <c r="K60" s="3">
         <v>297400</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>64300</v>
+        <v>63800</v>
       </c>
       <c r="E61" s="3">
-        <v>111800</v>
+        <v>110900</v>
       </c>
       <c r="F61" s="3">
-        <v>234500</v>
+        <v>232400</v>
       </c>
       <c r="G61" s="3">
-        <v>242800</v>
+        <v>240700</v>
       </c>
       <c r="H61" s="3">
-        <v>173500</v>
+        <v>172000</v>
       </c>
       <c r="I61" s="3">
-        <v>71500</v>
+        <v>70900</v>
       </c>
       <c r="J61" s="3">
-        <v>39900</v>
+        <v>39500</v>
       </c>
       <c r="K61" s="3">
         <v>42200</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>455300</v>
+        <v>451400</v>
       </c>
       <c r="E62" s="3">
-        <v>446700</v>
+        <v>442800</v>
       </c>
       <c r="F62" s="3">
-        <v>108000</v>
+        <v>107100</v>
       </c>
       <c r="G62" s="3">
-        <v>204500</v>
+        <v>202700</v>
       </c>
       <c r="H62" s="3">
-        <v>102400</v>
+        <v>101600</v>
       </c>
       <c r="I62" s="3">
-        <v>79500</v>
+        <v>78800</v>
       </c>
       <c r="J62" s="3">
-        <v>71500</v>
+        <v>70900</v>
       </c>
       <c r="K62" s="3">
         <v>60600</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1202200</v>
+        <v>1191800</v>
       </c>
       <c r="E66" s="3">
-        <v>1171300</v>
+        <v>1161100</v>
       </c>
       <c r="F66" s="3">
-        <v>836500</v>
+        <v>829200</v>
       </c>
       <c r="G66" s="3">
-        <v>741000</v>
+        <v>734600</v>
       </c>
       <c r="H66" s="3">
-        <v>649300</v>
+        <v>643700</v>
       </c>
       <c r="I66" s="3">
-        <v>487000</v>
+        <v>482700</v>
       </c>
       <c r="J66" s="3">
-        <v>424600</v>
+        <v>420900</v>
       </c>
       <c r="K66" s="3">
         <v>402600</v>
@@ -2621,22 +2621,22 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>230200</v>
+        <v>228200</v>
       </c>
       <c r="E72" s="3">
-        <v>151600</v>
+        <v>150300</v>
       </c>
       <c r="F72" s="3">
-        <v>113400</v>
+        <v>112400</v>
       </c>
       <c r="G72" s="3">
-        <v>166200</v>
+        <v>164700</v>
       </c>
       <c r="H72" s="3">
-        <v>41500</v>
+        <v>41100</v>
       </c>
       <c r="I72" s="3">
-        <v>22700</v>
+        <v>22500</v>
       </c>
       <c r="J72" s="3">
         <v>-5100</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>826700</v>
+        <v>819500</v>
       </c>
       <c r="E76" s="3">
-        <v>726700</v>
+        <v>720400</v>
       </c>
       <c r="F76" s="3">
-        <v>700900</v>
+        <v>694800</v>
       </c>
       <c r="G76" s="3">
-        <v>684900</v>
+        <v>679000</v>
       </c>
       <c r="H76" s="3">
-        <v>613400</v>
+        <v>608000</v>
       </c>
       <c r="I76" s="3">
-        <v>595900</v>
+        <v>590700</v>
       </c>
       <c r="J76" s="3">
-        <v>574400</v>
+        <v>569400</v>
       </c>
       <c r="K76" s="3">
         <v>548800</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>89200</v>
+        <v>88500</v>
       </c>
       <c r="E81" s="3">
+        <v>36500</v>
+      </c>
+      <c r="F81" s="3">
+        <v>32100</v>
+      </c>
+      <c r="G81" s="3">
+        <v>41500</v>
+      </c>
+      <c r="H81" s="3">
+        <v>28800</v>
+      </c>
+      <c r="I81" s="3">
         <v>36800</v>
       </c>
-      <c r="F81" s="3">
-        <v>32400</v>
-      </c>
-      <c r="G81" s="3">
-        <v>41900</v>
-      </c>
-      <c r="H81" s="3">
-        <v>29100</v>
-      </c>
-      <c r="I81" s="3">
-        <v>37100</v>
-      </c>
       <c r="J81" s="3">
-        <v>30500</v>
+        <v>30300</v>
       </c>
       <c r="K81" s="3">
         <v>41000</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>257100</v>
+        <v>254800</v>
       </c>
       <c r="E83" s="3">
-        <v>262100</v>
+        <v>259800</v>
       </c>
       <c r="F83" s="3">
-        <v>143600</v>
+        <v>142400</v>
       </c>
       <c r="G83" s="3">
-        <v>123300</v>
+        <v>122200</v>
       </c>
       <c r="H83" s="3">
-        <v>100100</v>
+        <v>99200</v>
       </c>
       <c r="I83" s="3">
-        <v>91200</v>
+        <v>90400</v>
       </c>
       <c r="J83" s="3">
-        <v>88900</v>
+        <v>88200</v>
       </c>
       <c r="K83" s="3">
         <v>80800</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>372600</v>
+        <v>369400</v>
       </c>
       <c r="E89" s="3">
-        <v>306900</v>
+        <v>304200</v>
       </c>
       <c r="F89" s="3">
-        <v>231200</v>
+        <v>229100</v>
       </c>
       <c r="G89" s="3">
-        <v>134800</v>
+        <v>133600</v>
       </c>
       <c r="H89" s="3">
-        <v>67700</v>
+        <v>67100</v>
       </c>
       <c r="I89" s="3">
-        <v>110800</v>
+        <v>109800</v>
       </c>
       <c r="J89" s="3">
-        <v>118700</v>
+        <v>117600</v>
       </c>
       <c r="K89" s="3">
         <v>80500</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-58700</v>
+        <v>-58200</v>
       </c>
       <c r="E91" s="3">
-        <v>-66100</v>
+        <v>-65600</v>
       </c>
       <c r="F91" s="3">
-        <v>-65100</v>
+        <v>-64500</v>
       </c>
       <c r="G91" s="3">
-        <v>-246900</v>
+        <v>-244700</v>
       </c>
       <c r="H91" s="3">
-        <v>-97600</v>
+        <v>-96800</v>
       </c>
       <c r="I91" s="3">
-        <v>-100200</v>
+        <v>-99300</v>
       </c>
       <c r="J91" s="3">
-        <v>-75000</v>
+        <v>-74300</v>
       </c>
       <c r="K91" s="3">
         <v>-83600</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-121500</v>
+        <v>-120400</v>
       </c>
       <c r="E94" s="3">
-        <v>-66800</v>
+        <v>-66200</v>
       </c>
       <c r="F94" s="3">
-        <v>-79800</v>
+        <v>-79100</v>
       </c>
       <c r="G94" s="3">
-        <v>-131400</v>
+        <v>-130200</v>
       </c>
       <c r="H94" s="3">
-        <v>-67800</v>
+        <v>-67200</v>
       </c>
       <c r="I94" s="3">
-        <v>-77000</v>
+        <v>-76300</v>
       </c>
       <c r="J94" s="3">
-        <v>-74200</v>
+        <v>-73500</v>
       </c>
       <c r="K94" s="3">
         <v>-93500</v>
@@ -3298,25 +3298,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-14100</v>
+        <v>-14000</v>
       </c>
       <c r="E96" s="3">
-        <v>-11200</v>
+        <v>-11100</v>
       </c>
       <c r="F96" s="3">
-        <v>-11200</v>
+        <v>-11100</v>
       </c>
       <c r="G96" s="3">
-        <v>-11200</v>
+        <v>-11100</v>
       </c>
       <c r="H96" s="3">
         <v>-10300</v>
       </c>
       <c r="I96" s="3">
-        <v>-9300</v>
+        <v>-9200</v>
       </c>
       <c r="J96" s="3">
-        <v>-9300</v>
+        <v>-9200</v>
       </c>
       <c r="K96" s="3">
         <v>-8300</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-217000</v>
+        <v>-215200</v>
       </c>
       <c r="E100" s="3">
-        <v>-177900</v>
+        <v>-176300</v>
       </c>
       <c r="F100" s="3">
-        <v>-54100</v>
+        <v>-53700</v>
       </c>
       <c r="G100" s="3">
-        <v>-6600</v>
+        <v>-6500</v>
       </c>
       <c r="H100" s="3">
-        <v>22900</v>
+        <v>22700</v>
       </c>
       <c r="I100" s="3">
-        <v>-47800</v>
+        <v>-47400</v>
       </c>
       <c r="J100" s="3">
-        <v>-57700</v>
+        <v>-57200</v>
       </c>
       <c r="K100" s="3">
         <v>104300</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>34900</v>
+        <v>34600</v>
       </c>
       <c r="E102" s="3">
-        <v>61700</v>
+        <v>61200</v>
       </c>
       <c r="F102" s="3">
-        <v>97800</v>
+        <v>96900</v>
       </c>
       <c r="G102" s="3">
         <v>-3900</v>
       </c>
       <c r="H102" s="3">
-        <v>22000</v>
+        <v>21800</v>
       </c>
       <c r="I102" s="3">
-        <v>-14000</v>
+        <v>-13900</v>
       </c>
       <c r="J102" s="3">
-        <v>-12200</v>
+        <v>-12100</v>
       </c>
       <c r="K102" s="3">
         <v>93100</v>

--- a/AAII_Financials/Yearly/IIJIY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/IIJIY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
   <si>
     <t>IIJIY</t>
   </si>
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1940400</v>
+        <v>1876500</v>
       </c>
       <c r="E8" s="3">
-        <v>1862800</v>
+        <v>1801400</v>
       </c>
       <c r="F8" s="3">
-        <v>1753000</v>
+        <v>1695300</v>
       </c>
       <c r="G8" s="3">
-        <v>1605500</v>
+        <v>1552600</v>
       </c>
       <c r="H8" s="3">
-        <v>1437500</v>
+        <v>1390100</v>
       </c>
       <c r="I8" s="3">
-        <v>1281300</v>
+        <v>1239100</v>
       </c>
       <c r="J8" s="3">
-        <v>1121000</v>
+        <v>1084100</v>
       </c>
       <c r="K8" s="3">
         <v>1046700</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1573500</v>
+        <v>1521700</v>
       </c>
       <c r="E9" s="3">
-        <v>1565800</v>
+        <v>1514300</v>
       </c>
       <c r="F9" s="3">
-        <v>1489100</v>
+        <v>1440000</v>
       </c>
       <c r="G9" s="3">
-        <v>2672100</v>
+        <v>2584100</v>
       </c>
       <c r="H9" s="3">
-        <v>1207500</v>
+        <v>1167700</v>
       </c>
       <c r="I9" s="3">
-        <v>1056700</v>
+        <v>1021900</v>
       </c>
       <c r="J9" s="3">
-        <v>919900</v>
+        <v>889600</v>
       </c>
       <c r="K9" s="3">
         <v>853800</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>367000</v>
+        <v>354900</v>
       </c>
       <c r="E10" s="3">
-        <v>296900</v>
+        <v>287100</v>
       </c>
       <c r="F10" s="3">
-        <v>264000</v>
+        <v>255300</v>
       </c>
       <c r="G10" s="3">
-        <v>-1066600</v>
+        <v>-1031500</v>
       </c>
       <c r="H10" s="3">
-        <v>230000</v>
+        <v>222400</v>
       </c>
       <c r="I10" s="3">
-        <v>224600</v>
+        <v>217200</v>
       </c>
       <c r="J10" s="3">
-        <v>201100</v>
+        <v>194500</v>
       </c>
       <c r="K10" s="3">
         <v>193000</v>
@@ -831,25 +831,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E12" s="3">
+        <v>3900</v>
+      </c>
+      <c r="F12" s="3">
+        <v>3900</v>
+      </c>
+      <c r="G12" s="3">
         <v>4300</v>
       </c>
-      <c r="E12" s="3">
+      <c r="H12" s="3">
+        <v>4100</v>
+      </c>
+      <c r="I12" s="3">
         <v>4000</v>
       </c>
-      <c r="F12" s="3">
-        <v>4100</v>
-      </c>
-      <c r="G12" s="3">
-        <v>4400</v>
-      </c>
-      <c r="H12" s="3">
-        <v>4200</v>
-      </c>
-      <c r="I12" s="3">
-        <v>4100</v>
-      </c>
       <c r="J12" s="3">
-        <v>4000</v>
+        <v>3900</v>
       </c>
       <c r="K12" s="3">
         <v>3900</v>
@@ -897,16 +897,16 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>-3200</v>
+        <v>3500</v>
       </c>
       <c r="E14" s="3">
-        <v>-3400</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>10</v>
+        <v>1600</v>
+      </c>
+      <c r="F14" s="3">
+        <v>2700</v>
       </c>
       <c r="G14" s="3">
-        <v>1000</v>
+        <v>1900</v>
       </c>
       <c r="H14" s="3">
         <v>300</v>
@@ -930,16 +930,16 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>25900</v>
+        <v>25000</v>
       </c>
       <c r="E15" s="3">
-        <v>25900</v>
+        <v>25000</v>
       </c>
       <c r="F15" s="3">
-        <v>11700</v>
+        <v>11300</v>
       </c>
       <c r="G15" s="3">
-        <v>11400</v>
+        <v>11000</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>10</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1807500</v>
+        <v>1748000</v>
       </c>
       <c r="E17" s="3">
-        <v>1784400</v>
+        <v>1725600</v>
       </c>
       <c r="F17" s="3">
-        <v>1698200</v>
+        <v>1642200</v>
       </c>
       <c r="G17" s="3">
-        <v>1543800</v>
+        <v>1493000</v>
       </c>
       <c r="H17" s="3">
-        <v>1391000</v>
+        <v>1345200</v>
       </c>
       <c r="I17" s="3">
-        <v>1225500</v>
+        <v>1185100</v>
       </c>
       <c r="J17" s="3">
-        <v>1075000</v>
+        <v>1039600</v>
       </c>
       <c r="K17" s="3">
         <v>994300</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>133000</v>
+        <v>128600</v>
       </c>
       <c r="E18" s="3">
-        <v>78400</v>
+        <v>75800</v>
       </c>
       <c r="F18" s="3">
-        <v>54900</v>
+        <v>53100</v>
       </c>
       <c r="G18" s="3">
-        <v>61700</v>
+        <v>59600</v>
       </c>
       <c r="H18" s="3">
-        <v>46500</v>
+        <v>45000</v>
       </c>
       <c r="I18" s="3">
-        <v>55800</v>
+        <v>54000</v>
       </c>
       <c r="J18" s="3">
-        <v>46000</v>
+        <v>44500</v>
       </c>
       <c r="K18" s="3">
         <v>52400</v>
@@ -1059,22 +1059,22 @@
         <v>-100</v>
       </c>
       <c r="E20" s="3">
-        <v>-8000</v>
+        <v>-7700</v>
       </c>
       <c r="F20" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="G20" s="3">
-        <v>8000</v>
+        <v>7800</v>
       </c>
       <c r="H20" s="3">
-        <v>5700</v>
+        <v>5500</v>
       </c>
       <c r="I20" s="3">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="J20" s="3">
-        <v>3000</v>
+        <v>2900</v>
       </c>
       <c r="K20" s="3">
         <v>7400</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>387800</v>
+        <v>375600</v>
       </c>
       <c r="E21" s="3">
-        <v>330200</v>
+        <v>319900</v>
       </c>
       <c r="F21" s="3">
-        <v>199500</v>
+        <v>193300</v>
       </c>
       <c r="G21" s="3">
-        <v>191900</v>
+        <v>185900</v>
       </c>
       <c r="H21" s="3">
-        <v>151400</v>
+        <v>146700</v>
       </c>
       <c r="I21" s="3">
-        <v>149000</v>
+        <v>144300</v>
       </c>
       <c r="J21" s="3">
-        <v>137100</v>
+        <v>132800</v>
       </c>
       <c r="K21" s="3">
         <v>141000</v>
@@ -1122,25 +1122,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>5100</v>
+        <v>4900</v>
       </c>
       <c r="E22" s="3">
-        <v>5200</v>
+        <v>5000</v>
       </c>
       <c r="F22" s="3">
-        <v>3900</v>
+        <v>3800</v>
       </c>
       <c r="G22" s="3">
-        <v>7100</v>
+        <v>6900</v>
       </c>
       <c r="H22" s="3">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="I22" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="J22" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="K22" s="3">
         <v>2300</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>127900</v>
+        <v>123600</v>
       </c>
       <c r="E23" s="3">
-        <v>65200</v>
+        <v>63100</v>
       </c>
       <c r="F23" s="3">
-        <v>53200</v>
+        <v>51500</v>
       </c>
       <c r="G23" s="3">
-        <v>62600</v>
+        <v>60500</v>
       </c>
       <c r="H23" s="3">
-        <v>49400</v>
+        <v>47800</v>
       </c>
       <c r="I23" s="3">
-        <v>56400</v>
+        <v>54600</v>
       </c>
       <c r="J23" s="3">
-        <v>46800</v>
+        <v>45300</v>
       </c>
       <c r="K23" s="3">
         <v>57500</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>38600</v>
+        <v>37300</v>
       </c>
       <c r="E24" s="3">
-        <v>27000</v>
+        <v>26100</v>
       </c>
       <c r="F24" s="3">
-        <v>19500</v>
+        <v>18900</v>
       </c>
       <c r="G24" s="3">
-        <v>20900</v>
+        <v>20200</v>
       </c>
       <c r="H24" s="3">
-        <v>20300</v>
+        <v>19600</v>
       </c>
       <c r="I24" s="3">
-        <v>19900</v>
+        <v>19200</v>
       </c>
       <c r="J24" s="3">
-        <v>17300</v>
+        <v>16700</v>
       </c>
       <c r="K24" s="3">
         <v>16400</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>89300</v>
+        <v>86300</v>
       </c>
       <c r="E26" s="3">
-        <v>38200</v>
+        <v>36900</v>
       </c>
       <c r="F26" s="3">
-        <v>33700</v>
+        <v>32600</v>
       </c>
       <c r="G26" s="3">
-        <v>41700</v>
+        <v>40300</v>
       </c>
       <c r="H26" s="3">
-        <v>29200</v>
+        <v>28200</v>
       </c>
       <c r="I26" s="3">
-        <v>36500</v>
+        <v>35300</v>
       </c>
       <c r="J26" s="3">
-        <v>29500</v>
+        <v>28600</v>
       </c>
       <c r="K26" s="3">
         <v>41000</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>88500</v>
+        <v>85600</v>
       </c>
       <c r="E27" s="3">
-        <v>36500</v>
+        <v>35300</v>
       </c>
       <c r="F27" s="3">
-        <v>32100</v>
+        <v>31000</v>
       </c>
       <c r="G27" s="3">
-        <v>41300</v>
+        <v>40000</v>
       </c>
       <c r="H27" s="3">
-        <v>28800</v>
+        <v>27900</v>
       </c>
       <c r="I27" s="3">
-        <v>36800</v>
+        <v>35600</v>
       </c>
       <c r="J27" s="3">
-        <v>30300</v>
+        <v>29300</v>
       </c>
       <c r="K27" s="3">
         <v>41000</v>
@@ -1455,22 +1455,22 @@
         <v>100</v>
       </c>
       <c r="E32" s="3">
-        <v>8000</v>
+        <v>7700</v>
       </c>
       <c r="F32" s="3">
-        <v>-2300</v>
+        <v>-2200</v>
       </c>
       <c r="G32" s="3">
-        <v>-8000</v>
+        <v>-7800</v>
       </c>
       <c r="H32" s="3">
-        <v>-5700</v>
+        <v>-5500</v>
       </c>
       <c r="I32" s="3">
-        <v>-2800</v>
+        <v>-2700</v>
       </c>
       <c r="J32" s="3">
-        <v>-3000</v>
+        <v>-2900</v>
       </c>
       <c r="K32" s="3">
         <v>-7400</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>88500</v>
+        <v>85600</v>
       </c>
       <c r="E33" s="3">
-        <v>36500</v>
+        <v>35300</v>
       </c>
       <c r="F33" s="3">
-        <v>32100</v>
+        <v>31000</v>
       </c>
       <c r="G33" s="3">
-        <v>41500</v>
+        <v>40200</v>
       </c>
       <c r="H33" s="3">
-        <v>28800</v>
+        <v>27900</v>
       </c>
       <c r="I33" s="3">
-        <v>36800</v>
+        <v>35600</v>
       </c>
       <c r="J33" s="3">
-        <v>30300</v>
+        <v>29300</v>
       </c>
       <c r="K33" s="3">
         <v>41000</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>88500</v>
+        <v>85600</v>
       </c>
       <c r="E35" s="3">
-        <v>36500</v>
+        <v>35300</v>
       </c>
       <c r="F35" s="3">
-        <v>32100</v>
+        <v>31000</v>
       </c>
       <c r="G35" s="3">
-        <v>41500</v>
+        <v>40200</v>
       </c>
       <c r="H35" s="3">
-        <v>28800</v>
+        <v>27900</v>
       </c>
       <c r="I35" s="3">
-        <v>36800</v>
+        <v>35600</v>
       </c>
       <c r="J35" s="3">
-        <v>30300</v>
+        <v>29300</v>
       </c>
       <c r="K35" s="3">
         <v>41000</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>386900</v>
+        <v>374100</v>
       </c>
       <c r="E41" s="3">
-        <v>352300</v>
+        <v>340700</v>
       </c>
       <c r="F41" s="3">
-        <v>291100</v>
+        <v>281500</v>
       </c>
       <c r="G41" s="3">
-        <v>389200</v>
+        <v>376400</v>
       </c>
       <c r="H41" s="3">
-        <v>200000</v>
+        <v>193500</v>
       </c>
       <c r="I41" s="3">
-        <v>178300</v>
+        <v>172400</v>
       </c>
       <c r="J41" s="3">
-        <v>192200</v>
+        <v>185800</v>
       </c>
       <c r="K41" s="3">
         <v>205400</v>
@@ -1685,16 +1685,16 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>18000</v>
+        <v>17400</v>
       </c>
       <c r="E42" s="3">
-        <v>24300</v>
+        <v>23500</v>
       </c>
       <c r="F42" s="3">
-        <v>14400</v>
+        <v>13900</v>
       </c>
       <c r="G42" s="3">
-        <v>34200</v>
+        <v>33100</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>10</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>328700</v>
+        <v>317900</v>
       </c>
       <c r="E43" s="3">
-        <v>300500</v>
+        <v>290600</v>
       </c>
       <c r="F43" s="3">
-        <v>304100</v>
+        <v>294000</v>
       </c>
       <c r="G43" s="3">
-        <v>577600</v>
+        <v>558600</v>
       </c>
       <c r="H43" s="3">
-        <v>249300</v>
+        <v>241100</v>
       </c>
       <c r="I43" s="3">
-        <v>216200</v>
+        <v>209100</v>
       </c>
       <c r="J43" s="3">
-        <v>202700</v>
+        <v>196000</v>
       </c>
       <c r="K43" s="3">
         <v>176000</v>
@@ -1751,25 +1751,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>19800</v>
+        <v>19100</v>
       </c>
       <c r="E44" s="3">
-        <v>22600</v>
+        <v>21800</v>
       </c>
       <c r="F44" s="3">
-        <v>31000</v>
+        <v>30000</v>
       </c>
       <c r="G44" s="3">
-        <v>29700</v>
+        <v>28700</v>
       </c>
       <c r="H44" s="3">
-        <v>25500</v>
+        <v>24700</v>
       </c>
       <c r="I44" s="3">
-        <v>18300</v>
+        <v>17700</v>
       </c>
       <c r="J44" s="3">
-        <v>11200</v>
+        <v>10800</v>
       </c>
       <c r="K44" s="3">
         <v>15300</v>
@@ -1784,25 +1784,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>97600</v>
+        <v>94400</v>
       </c>
       <c r="E45" s="3">
-        <v>89200</v>
+        <v>86200</v>
       </c>
       <c r="F45" s="3">
-        <v>78800</v>
+        <v>76200</v>
       </c>
       <c r="G45" s="3">
-        <v>181200</v>
+        <v>175200</v>
       </c>
       <c r="H45" s="3">
-        <v>105600</v>
+        <v>102200</v>
       </c>
       <c r="I45" s="3">
-        <v>73800</v>
+        <v>71400</v>
       </c>
       <c r="J45" s="3">
-        <v>68400</v>
+        <v>66200</v>
       </c>
       <c r="K45" s="3">
         <v>76900</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>850900</v>
+        <v>822900</v>
       </c>
       <c r="E46" s="3">
-        <v>788800</v>
+        <v>762900</v>
       </c>
       <c r="F46" s="3">
-        <v>719400</v>
+        <v>695700</v>
       </c>
       <c r="G46" s="3">
-        <v>599800</v>
+        <v>580100</v>
       </c>
       <c r="H46" s="3">
-        <v>580500</v>
+        <v>561400</v>
       </c>
       <c r="I46" s="3">
-        <v>486500</v>
+        <v>470500</v>
       </c>
       <c r="J46" s="3">
-        <v>474500</v>
+        <v>458900</v>
       </c>
       <c r="K46" s="3">
         <v>473600</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>240800</v>
+        <v>232800</v>
       </c>
       <c r="E47" s="3">
-        <v>170500</v>
+        <v>164900</v>
       </c>
       <c r="F47" s="3">
-        <v>196200</v>
+        <v>189700</v>
       </c>
       <c r="G47" s="3">
-        <v>256700</v>
+        <v>248200</v>
       </c>
       <c r="H47" s="3">
-        <v>28100</v>
+        <v>27200</v>
       </c>
       <c r="I47" s="3">
-        <v>26600</v>
+        <v>25700</v>
       </c>
       <c r="J47" s="3">
-        <v>22500</v>
+        <v>21700</v>
       </c>
       <c r="K47" s="3">
         <v>18500</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>617600</v>
+        <v>597200</v>
       </c>
       <c r="E48" s="3">
-        <v>619100</v>
+        <v>598700</v>
       </c>
       <c r="F48" s="3">
-        <v>301900</v>
+        <v>291900</v>
       </c>
       <c r="G48" s="3">
-        <v>728200</v>
+        <v>704300</v>
       </c>
       <c r="H48" s="3">
-        <v>362400</v>
+        <v>350400</v>
       </c>
       <c r="I48" s="3">
-        <v>312700</v>
+        <v>302400</v>
       </c>
       <c r="J48" s="3">
-        <v>267600</v>
+        <v>258800</v>
       </c>
       <c r="K48" s="3">
         <v>247100</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>209900</v>
+        <v>203000</v>
       </c>
       <c r="E49" s="3">
-        <v>221900</v>
+        <v>214600</v>
       </c>
       <c r="F49" s="3">
-        <v>226800</v>
+        <v>219400</v>
       </c>
       <c r="G49" s="3">
-        <v>297300</v>
+        <v>287500</v>
       </c>
       <c r="H49" s="3">
-        <v>84300</v>
+        <v>81600</v>
       </c>
       <c r="I49" s="3">
-        <v>88500</v>
+        <v>85600</v>
       </c>
       <c r="J49" s="3">
-        <v>92100</v>
+        <v>89100</v>
       </c>
       <c r="K49" s="3">
         <v>94400</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>92100</v>
+        <v>89100</v>
       </c>
       <c r="E52" s="3">
-        <v>81000</v>
+        <v>78300</v>
       </c>
       <c r="F52" s="3">
-        <v>79700</v>
+        <v>77100</v>
       </c>
       <c r="G52" s="3">
-        <v>317400</v>
+        <v>306900</v>
       </c>
       <c r="H52" s="3">
-        <v>196300</v>
+        <v>189900</v>
       </c>
       <c r="I52" s="3">
-        <v>159100</v>
+        <v>153900</v>
       </c>
       <c r="J52" s="3">
-        <v>133600</v>
+        <v>129200</v>
       </c>
       <c r="K52" s="3">
         <v>117800</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2011300</v>
+        <v>1945000</v>
       </c>
       <c r="E54" s="3">
-        <v>1881400</v>
+        <v>1819500</v>
       </c>
       <c r="F54" s="3">
-        <v>1524000</v>
+        <v>1473800</v>
       </c>
       <c r="G54" s="3">
-        <v>1413500</v>
+        <v>1367000</v>
       </c>
       <c r="H54" s="3">
-        <v>1251700</v>
+        <v>1210500</v>
       </c>
       <c r="I54" s="3">
-        <v>1073500</v>
+        <v>1038100</v>
       </c>
       <c r="J54" s="3">
-        <v>990300</v>
+        <v>957700</v>
       </c>
       <c r="K54" s="3">
         <v>951400</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>58200</v>
+        <v>56300</v>
       </c>
       <c r="E57" s="3">
-        <v>54500</v>
+        <v>52700</v>
       </c>
       <c r="F57" s="3">
-        <v>71100</v>
+        <v>68800</v>
       </c>
       <c r="G57" s="3">
-        <v>185600</v>
+        <v>179500</v>
       </c>
       <c r="H57" s="3">
-        <v>133500</v>
+        <v>129100</v>
       </c>
       <c r="I57" s="3">
-        <v>126700</v>
+        <v>122500</v>
       </c>
       <c r="J57" s="3">
-        <v>111000</v>
+        <v>107300</v>
       </c>
       <c r="K57" s="3">
         <v>105300</v>
@@ -2177,25 +2177,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>169100</v>
+        <v>163500</v>
       </c>
       <c r="E58" s="3">
-        <v>141900</v>
+        <v>137300</v>
       </c>
       <c r="F58" s="3">
-        <v>175500</v>
+        <v>169800</v>
       </c>
       <c r="G58" s="3">
-        <v>271500</v>
+        <v>262600</v>
       </c>
       <c r="H58" s="3">
-        <v>128200</v>
+        <v>123900</v>
       </c>
       <c r="I58" s="3">
-        <v>120300</v>
+        <v>116300</v>
       </c>
       <c r="J58" s="3">
-        <v>116400</v>
+        <v>112500</v>
       </c>
       <c r="K58" s="3">
         <v>129500</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>440100</v>
+        <v>425600</v>
       </c>
       <c r="E59" s="3">
-        <v>402000</v>
+        <v>388800</v>
       </c>
       <c r="F59" s="3">
-        <v>235300</v>
+        <v>227500</v>
       </c>
       <c r="G59" s="3">
-        <v>310700</v>
+        <v>300500</v>
       </c>
       <c r="H59" s="3">
-        <v>102600</v>
+        <v>99200</v>
       </c>
       <c r="I59" s="3">
-        <v>81600</v>
+        <v>78900</v>
       </c>
       <c r="J59" s="3">
-        <v>80000</v>
+        <v>77400</v>
       </c>
       <c r="K59" s="3">
         <v>62700</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>667400</v>
+        <v>645400</v>
       </c>
       <c r="E60" s="3">
-        <v>598400</v>
+        <v>578700</v>
       </c>
       <c r="F60" s="3">
-        <v>482000</v>
+        <v>466100</v>
       </c>
       <c r="G60" s="3">
-        <v>383900</v>
+        <v>371200</v>
       </c>
       <c r="H60" s="3">
-        <v>364200</v>
+        <v>352300</v>
       </c>
       <c r="I60" s="3">
-        <v>328600</v>
+        <v>317700</v>
       </c>
       <c r="J60" s="3">
-        <v>307400</v>
+        <v>297300</v>
       </c>
       <c r="K60" s="3">
         <v>297400</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>63800</v>
+        <v>61700</v>
       </c>
       <c r="E61" s="3">
-        <v>110900</v>
+        <v>107200</v>
       </c>
       <c r="F61" s="3">
-        <v>232400</v>
+        <v>224800</v>
       </c>
       <c r="G61" s="3">
-        <v>240700</v>
+        <v>232700</v>
       </c>
       <c r="H61" s="3">
-        <v>172000</v>
+        <v>166400</v>
       </c>
       <c r="I61" s="3">
-        <v>70900</v>
+        <v>68500</v>
       </c>
       <c r="J61" s="3">
-        <v>39500</v>
+        <v>38200</v>
       </c>
       <c r="K61" s="3">
         <v>42200</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>451400</v>
+        <v>436500</v>
       </c>
       <c r="E62" s="3">
-        <v>442800</v>
+        <v>428300</v>
       </c>
       <c r="F62" s="3">
-        <v>107100</v>
+        <v>103500</v>
       </c>
       <c r="G62" s="3">
-        <v>202700</v>
+        <v>196100</v>
       </c>
       <c r="H62" s="3">
-        <v>101600</v>
+        <v>98200</v>
       </c>
       <c r="I62" s="3">
-        <v>78800</v>
+        <v>76200</v>
       </c>
       <c r="J62" s="3">
-        <v>70900</v>
+        <v>68500</v>
       </c>
       <c r="K62" s="3">
         <v>60600</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1191800</v>
+        <v>1152500</v>
       </c>
       <c r="E66" s="3">
-        <v>1161100</v>
+        <v>1122800</v>
       </c>
       <c r="F66" s="3">
-        <v>829200</v>
+        <v>801900</v>
       </c>
       <c r="G66" s="3">
-        <v>734600</v>
+        <v>710400</v>
       </c>
       <c r="H66" s="3">
-        <v>643700</v>
+        <v>622500</v>
       </c>
       <c r="I66" s="3">
-        <v>482700</v>
+        <v>466800</v>
       </c>
       <c r="J66" s="3">
-        <v>420900</v>
+        <v>407000</v>
       </c>
       <c r="K66" s="3">
         <v>402600</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>228200</v>
+        <v>220700</v>
       </c>
       <c r="E72" s="3">
-        <v>150300</v>
+        <v>145400</v>
       </c>
       <c r="F72" s="3">
-        <v>112400</v>
+        <v>108700</v>
       </c>
       <c r="G72" s="3">
-        <v>164700</v>
+        <v>159300</v>
       </c>
       <c r="H72" s="3">
-        <v>41100</v>
+        <v>39800</v>
       </c>
       <c r="I72" s="3">
-        <v>22500</v>
+        <v>21800</v>
       </c>
       <c r="J72" s="3">
-        <v>-5100</v>
+        <v>-4900</v>
       </c>
       <c r="K72" s="3">
         <v>-26300</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>819500</v>
+        <v>792500</v>
       </c>
       <c r="E76" s="3">
-        <v>720400</v>
+        <v>696700</v>
       </c>
       <c r="F76" s="3">
-        <v>694800</v>
+        <v>672000</v>
       </c>
       <c r="G76" s="3">
-        <v>679000</v>
+        <v>656600</v>
       </c>
       <c r="H76" s="3">
-        <v>608000</v>
+        <v>588000</v>
       </c>
       <c r="I76" s="3">
-        <v>590700</v>
+        <v>571300</v>
       </c>
       <c r="J76" s="3">
-        <v>569400</v>
+        <v>550700</v>
       </c>
       <c r="K76" s="3">
         <v>548800</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>88500</v>
+        <v>85600</v>
       </c>
       <c r="E81" s="3">
-        <v>36500</v>
+        <v>35300</v>
       </c>
       <c r="F81" s="3">
-        <v>32100</v>
+        <v>31000</v>
       </c>
       <c r="G81" s="3">
-        <v>41500</v>
+        <v>40200</v>
       </c>
       <c r="H81" s="3">
-        <v>28800</v>
+        <v>27900</v>
       </c>
       <c r="I81" s="3">
-        <v>36800</v>
+        <v>35600</v>
       </c>
       <c r="J81" s="3">
-        <v>30300</v>
+        <v>29300</v>
       </c>
       <c r="K81" s="3">
         <v>41000</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>254800</v>
+        <v>246400</v>
       </c>
       <c r="E83" s="3">
-        <v>259800</v>
+        <v>251300</v>
       </c>
       <c r="F83" s="3">
-        <v>142400</v>
+        <v>137700</v>
       </c>
       <c r="G83" s="3">
-        <v>122200</v>
+        <v>118200</v>
       </c>
       <c r="H83" s="3">
-        <v>99200</v>
+        <v>96000</v>
       </c>
       <c r="I83" s="3">
-        <v>90400</v>
+        <v>87400</v>
       </c>
       <c r="J83" s="3">
-        <v>88200</v>
+        <v>85300</v>
       </c>
       <c r="K83" s="3">
         <v>80800</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>369400</v>
+        <v>357200</v>
       </c>
       <c r="E89" s="3">
-        <v>304200</v>
+        <v>294200</v>
       </c>
       <c r="F89" s="3">
-        <v>229100</v>
+        <v>221600</v>
       </c>
       <c r="G89" s="3">
-        <v>133600</v>
+        <v>129200</v>
       </c>
       <c r="H89" s="3">
-        <v>67100</v>
+        <v>64900</v>
       </c>
       <c r="I89" s="3">
-        <v>109800</v>
+        <v>106200</v>
       </c>
       <c r="J89" s="3">
-        <v>117600</v>
+        <v>113800</v>
       </c>
       <c r="K89" s="3">
         <v>80500</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-58200</v>
+        <v>-56300</v>
       </c>
       <c r="E91" s="3">
-        <v>-65600</v>
+        <v>-63400</v>
       </c>
       <c r="F91" s="3">
-        <v>-64500</v>
+        <v>-62400</v>
       </c>
       <c r="G91" s="3">
-        <v>-244700</v>
+        <v>-236700</v>
       </c>
       <c r="H91" s="3">
-        <v>-96800</v>
+        <v>-93600</v>
       </c>
       <c r="I91" s="3">
-        <v>-99300</v>
+        <v>-96000</v>
       </c>
       <c r="J91" s="3">
-        <v>-74300</v>
+        <v>-71900</v>
       </c>
       <c r="K91" s="3">
         <v>-83600</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-120400</v>
+        <v>-116400</v>
       </c>
       <c r="E94" s="3">
-        <v>-66200</v>
+        <v>-64000</v>
       </c>
       <c r="F94" s="3">
-        <v>-79100</v>
+        <v>-76500</v>
       </c>
       <c r="G94" s="3">
-        <v>-130200</v>
+        <v>-126000</v>
       </c>
       <c r="H94" s="3">
-        <v>-67200</v>
+        <v>-65000</v>
       </c>
       <c r="I94" s="3">
-        <v>-76300</v>
+        <v>-73800</v>
       </c>
       <c r="J94" s="3">
-        <v>-73500</v>
+        <v>-71100</v>
       </c>
       <c r="K94" s="3">
         <v>-93500</v>
@@ -3298,25 +3298,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-14000</v>
+        <v>-13500</v>
       </c>
       <c r="E96" s="3">
-        <v>-11100</v>
+        <v>-10700</v>
       </c>
       <c r="F96" s="3">
-        <v>-11100</v>
+        <v>-10700</v>
       </c>
       <c r="G96" s="3">
-        <v>-11100</v>
+        <v>-10700</v>
       </c>
       <c r="H96" s="3">
-        <v>-10300</v>
+        <v>-9900</v>
       </c>
       <c r="I96" s="3">
-        <v>-9200</v>
+        <v>-8900</v>
       </c>
       <c r="J96" s="3">
-        <v>-9200</v>
+        <v>-8900</v>
       </c>
       <c r="K96" s="3">
         <v>-8300</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-215200</v>
+        <v>-208100</v>
       </c>
       <c r="E100" s="3">
-        <v>-176300</v>
+        <v>-170500</v>
       </c>
       <c r="F100" s="3">
-        <v>-53700</v>
+        <v>-51900</v>
       </c>
       <c r="G100" s="3">
-        <v>-6500</v>
+        <v>-6300</v>
       </c>
       <c r="H100" s="3">
-        <v>22700</v>
+        <v>22000</v>
       </c>
       <c r="I100" s="3">
-        <v>-47400</v>
+        <v>-45800</v>
       </c>
       <c r="J100" s="3">
-        <v>-57200</v>
+        <v>-55400</v>
       </c>
       <c r="K100" s="3">
         <v>104300</v>
@@ -3463,10 +3463,10 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="E101" s="3">
-        <v>-600</v>
+        <v>-500</v>
       </c>
       <c r="F101" s="3">
         <v>600</v>
@@ -3475,13 +3475,13 @@
         <v>-700</v>
       </c>
       <c r="H101" s="3">
-        <v>-900</v>
+        <v>-800</v>
       </c>
       <c r="I101" s="3">
         <v>0</v>
       </c>
       <c r="J101" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="K101" s="3">
         <v>1800</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>34600</v>
+        <v>33400</v>
       </c>
       <c r="E102" s="3">
-        <v>61200</v>
+        <v>59100</v>
       </c>
       <c r="F102" s="3">
-        <v>96900</v>
+        <v>93700</v>
       </c>
       <c r="G102" s="3">
-        <v>-3900</v>
+        <v>-3800</v>
       </c>
       <c r="H102" s="3">
-        <v>21800</v>
+        <v>21100</v>
       </c>
       <c r="I102" s="3">
-        <v>-13900</v>
+        <v>-13400</v>
       </c>
       <c r="J102" s="3">
-        <v>-12100</v>
+        <v>-11700</v>
       </c>
       <c r="K102" s="3">
         <v>93100</v>

--- a/AAII_Financials/Yearly/IIJIY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/IIJIY_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1876500</v>
+        <v>1816900</v>
       </c>
       <c r="E8" s="3">
-        <v>1801400</v>
+        <v>1744200</v>
       </c>
       <c r="F8" s="3">
-        <v>1695300</v>
+        <v>1641400</v>
       </c>
       <c r="G8" s="3">
-        <v>1552600</v>
+        <v>1503300</v>
       </c>
       <c r="H8" s="3">
-        <v>1390100</v>
+        <v>1345900</v>
       </c>
       <c r="I8" s="3">
-        <v>1239100</v>
+        <v>1199700</v>
       </c>
       <c r="J8" s="3">
-        <v>1084100</v>
+        <v>1049600</v>
       </c>
       <c r="K8" s="3">
         <v>1046700</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1521700</v>
+        <v>1473300</v>
       </c>
       <c r="E9" s="3">
-        <v>1514300</v>
+        <v>1466100</v>
       </c>
       <c r="F9" s="3">
-        <v>1440000</v>
+        <v>1394300</v>
       </c>
       <c r="G9" s="3">
-        <v>2584100</v>
+        <v>2502000</v>
       </c>
       <c r="H9" s="3">
-        <v>1167700</v>
+        <v>1130600</v>
       </c>
       <c r="I9" s="3">
-        <v>1021900</v>
+        <v>989400</v>
       </c>
       <c r="J9" s="3">
-        <v>889600</v>
+        <v>861300</v>
       </c>
       <c r="K9" s="3">
         <v>853800</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>354900</v>
+        <v>343600</v>
       </c>
       <c r="E10" s="3">
-        <v>287100</v>
+        <v>278000</v>
       </c>
       <c r="F10" s="3">
-        <v>255300</v>
+        <v>247200</v>
       </c>
       <c r="G10" s="3">
-        <v>-1031500</v>
+        <v>-998700</v>
       </c>
       <c r="H10" s="3">
-        <v>222400</v>
+        <v>215400</v>
       </c>
       <c r="I10" s="3">
-        <v>217200</v>
+        <v>210300</v>
       </c>
       <c r="J10" s="3">
-        <v>194500</v>
+        <v>188300</v>
       </c>
       <c r="K10" s="3">
         <v>193000</v>
@@ -831,25 +831,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E12" s="3">
+        <v>3700</v>
+      </c>
+      <c r="F12" s="3">
+        <v>3800</v>
+      </c>
+      <c r="G12" s="3">
         <v>4200</v>
       </c>
-      <c r="E12" s="3">
+      <c r="H12" s="3">
+        <v>4000</v>
+      </c>
+      <c r="I12" s="3">
         <v>3900</v>
       </c>
-      <c r="F12" s="3">
-        <v>3900</v>
-      </c>
-      <c r="G12" s="3">
-        <v>4300</v>
-      </c>
-      <c r="H12" s="3">
-        <v>4100</v>
-      </c>
-      <c r="I12" s="3">
-        <v>4000</v>
-      </c>
       <c r="J12" s="3">
-        <v>3900</v>
+        <v>3800</v>
       </c>
       <c r="K12" s="3">
         <v>3900</v>
@@ -897,13 +897,13 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="E14" s="3">
         <v>1600</v>
       </c>
       <c r="F14" s="3">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="G14" s="3">
         <v>1900</v>
@@ -915,7 +915,7 @@
         <v>100</v>
       </c>
       <c r="J14" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -930,16 +930,16 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>25000</v>
+        <v>24200</v>
       </c>
       <c r="E15" s="3">
-        <v>25000</v>
+        <v>24200</v>
       </c>
       <c r="F15" s="3">
-        <v>11300</v>
+        <v>10900</v>
       </c>
       <c r="G15" s="3">
-        <v>11000</v>
+        <v>10700</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>10</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1748000</v>
+        <v>1692400</v>
       </c>
       <c r="E17" s="3">
-        <v>1725600</v>
+        <v>1670800</v>
       </c>
       <c r="F17" s="3">
-        <v>1642200</v>
+        <v>1590100</v>
       </c>
       <c r="G17" s="3">
-        <v>1493000</v>
+        <v>1445500</v>
       </c>
       <c r="H17" s="3">
-        <v>1345200</v>
+        <v>1302400</v>
       </c>
       <c r="I17" s="3">
-        <v>1185100</v>
+        <v>1147500</v>
       </c>
       <c r="J17" s="3">
-        <v>1039600</v>
+        <v>1006600</v>
       </c>
       <c r="K17" s="3">
         <v>994300</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>128600</v>
+        <v>124500</v>
       </c>
       <c r="E18" s="3">
-        <v>75800</v>
+        <v>73400</v>
       </c>
       <c r="F18" s="3">
-        <v>53100</v>
+        <v>51400</v>
       </c>
       <c r="G18" s="3">
-        <v>59600</v>
+        <v>57700</v>
       </c>
       <c r="H18" s="3">
-        <v>45000</v>
+        <v>43500</v>
       </c>
       <c r="I18" s="3">
-        <v>54000</v>
+        <v>52300</v>
       </c>
       <c r="J18" s="3">
-        <v>44500</v>
+        <v>43000</v>
       </c>
       <c r="K18" s="3">
         <v>52400</v>
@@ -1059,22 +1059,22 @@
         <v>-100</v>
       </c>
       <c r="E20" s="3">
-        <v>-7700</v>
+        <v>-7500</v>
       </c>
       <c r="F20" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="G20" s="3">
-        <v>7800</v>
+        <v>7500</v>
       </c>
       <c r="H20" s="3">
-        <v>5500</v>
+        <v>5300</v>
       </c>
       <c r="I20" s="3">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="J20" s="3">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="K20" s="3">
         <v>7400</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>375600</v>
+        <v>365900</v>
       </c>
       <c r="E21" s="3">
-        <v>319900</v>
+        <v>312000</v>
       </c>
       <c r="F21" s="3">
-        <v>193300</v>
+        <v>188400</v>
       </c>
       <c r="G21" s="3">
-        <v>185900</v>
+        <v>181000</v>
       </c>
       <c r="H21" s="3">
-        <v>146700</v>
+        <v>142900</v>
       </c>
       <c r="I21" s="3">
-        <v>144300</v>
+        <v>140500</v>
       </c>
       <c r="J21" s="3">
-        <v>132800</v>
+        <v>129400</v>
       </c>
       <c r="K21" s="3">
         <v>141000</v>
@@ -1122,25 +1122,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>4900</v>
+        <v>4700</v>
       </c>
       <c r="E22" s="3">
-        <v>5000</v>
+        <v>4800</v>
       </c>
       <c r="F22" s="3">
-        <v>3800</v>
+        <v>3700</v>
       </c>
       <c r="G22" s="3">
-        <v>6900</v>
+        <v>6700</v>
       </c>
       <c r="H22" s="3">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="I22" s="3">
         <v>2100</v>
       </c>
       <c r="J22" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="K22" s="3">
         <v>2300</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>123600</v>
+        <v>119700</v>
       </c>
       <c r="E23" s="3">
-        <v>63100</v>
+        <v>61100</v>
       </c>
       <c r="F23" s="3">
-        <v>51500</v>
+        <v>49800</v>
       </c>
       <c r="G23" s="3">
-        <v>60500</v>
+        <v>58600</v>
       </c>
       <c r="H23" s="3">
-        <v>47800</v>
+        <v>46300</v>
       </c>
       <c r="I23" s="3">
-        <v>54600</v>
+        <v>52800</v>
       </c>
       <c r="J23" s="3">
-        <v>45300</v>
+        <v>43800</v>
       </c>
       <c r="K23" s="3">
         <v>57500</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>37300</v>
+        <v>36100</v>
       </c>
       <c r="E24" s="3">
-        <v>26100</v>
+        <v>25300</v>
       </c>
       <c r="F24" s="3">
-        <v>18900</v>
+        <v>18300</v>
       </c>
       <c r="G24" s="3">
-        <v>20200</v>
+        <v>19600</v>
       </c>
       <c r="H24" s="3">
-        <v>19600</v>
+        <v>19000</v>
       </c>
       <c r="I24" s="3">
-        <v>19200</v>
+        <v>18600</v>
       </c>
       <c r="J24" s="3">
-        <v>16700</v>
+        <v>16200</v>
       </c>
       <c r="K24" s="3">
         <v>16400</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>86300</v>
+        <v>83600</v>
       </c>
       <c r="E26" s="3">
-        <v>36900</v>
+        <v>35800</v>
       </c>
       <c r="F26" s="3">
-        <v>32600</v>
+        <v>31600</v>
       </c>
       <c r="G26" s="3">
-        <v>40300</v>
+        <v>39000</v>
       </c>
       <c r="H26" s="3">
-        <v>28200</v>
+        <v>27300</v>
       </c>
       <c r="I26" s="3">
-        <v>35300</v>
+        <v>34200</v>
       </c>
       <c r="J26" s="3">
-        <v>28600</v>
+        <v>27700</v>
       </c>
       <c r="K26" s="3">
         <v>41000</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>85600</v>
+        <v>82800</v>
       </c>
       <c r="E27" s="3">
-        <v>35300</v>
+        <v>34200</v>
       </c>
       <c r="F27" s="3">
-        <v>31000</v>
+        <v>30000</v>
       </c>
       <c r="G27" s="3">
-        <v>40000</v>
+        <v>38700</v>
       </c>
       <c r="H27" s="3">
-        <v>27900</v>
+        <v>27000</v>
       </c>
       <c r="I27" s="3">
-        <v>35600</v>
+        <v>34400</v>
       </c>
       <c r="J27" s="3">
-        <v>29300</v>
+        <v>28300</v>
       </c>
       <c r="K27" s="3">
         <v>41000</v>
@@ -1455,22 +1455,22 @@
         <v>100</v>
       </c>
       <c r="E32" s="3">
-        <v>7700</v>
+        <v>7500</v>
       </c>
       <c r="F32" s="3">
-        <v>-2200</v>
+        <v>-2100</v>
       </c>
       <c r="G32" s="3">
-        <v>-7800</v>
+        <v>-7500</v>
       </c>
       <c r="H32" s="3">
-        <v>-5500</v>
+        <v>-5300</v>
       </c>
       <c r="I32" s="3">
-        <v>-2700</v>
+        <v>-2600</v>
       </c>
       <c r="J32" s="3">
-        <v>-2900</v>
+        <v>-2800</v>
       </c>
       <c r="K32" s="3">
         <v>-7400</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>85600</v>
+        <v>82800</v>
       </c>
       <c r="E33" s="3">
-        <v>35300</v>
+        <v>34200</v>
       </c>
       <c r="F33" s="3">
-        <v>31000</v>
+        <v>30000</v>
       </c>
       <c r="G33" s="3">
-        <v>40200</v>
+        <v>38900</v>
       </c>
       <c r="H33" s="3">
-        <v>27900</v>
+        <v>27000</v>
       </c>
       <c r="I33" s="3">
-        <v>35600</v>
+        <v>34400</v>
       </c>
       <c r="J33" s="3">
-        <v>29300</v>
+        <v>28300</v>
       </c>
       <c r="K33" s="3">
         <v>41000</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>85600</v>
+        <v>82800</v>
       </c>
       <c r="E35" s="3">
-        <v>35300</v>
+        <v>34200</v>
       </c>
       <c r="F35" s="3">
-        <v>31000</v>
+        <v>30000</v>
       </c>
       <c r="G35" s="3">
-        <v>40200</v>
+        <v>38900</v>
       </c>
       <c r="H35" s="3">
-        <v>27900</v>
+        <v>27000</v>
       </c>
       <c r="I35" s="3">
-        <v>35600</v>
+        <v>34400</v>
       </c>
       <c r="J35" s="3">
-        <v>29300</v>
+        <v>28300</v>
       </c>
       <c r="K35" s="3">
         <v>41000</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>374100</v>
+        <v>362200</v>
       </c>
       <c r="E41" s="3">
-        <v>340700</v>
+        <v>329900</v>
       </c>
       <c r="F41" s="3">
-        <v>281500</v>
+        <v>272600</v>
       </c>
       <c r="G41" s="3">
-        <v>376400</v>
+        <v>364400</v>
       </c>
       <c r="H41" s="3">
-        <v>193500</v>
+        <v>187300</v>
       </c>
       <c r="I41" s="3">
-        <v>172400</v>
+        <v>166900</v>
       </c>
       <c r="J41" s="3">
-        <v>185800</v>
+        <v>179900</v>
       </c>
       <c r="K41" s="3">
         <v>205400</v>
@@ -1685,16 +1685,16 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>17400</v>
+        <v>16900</v>
       </c>
       <c r="E42" s="3">
-        <v>23500</v>
+        <v>22800</v>
       </c>
       <c r="F42" s="3">
-        <v>13900</v>
+        <v>13500</v>
       </c>
       <c r="G42" s="3">
-        <v>33100</v>
+        <v>32100</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>10</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>317900</v>
+        <v>307800</v>
       </c>
       <c r="E43" s="3">
-        <v>290600</v>
+        <v>281300</v>
       </c>
       <c r="F43" s="3">
-        <v>294000</v>
+        <v>284700</v>
       </c>
       <c r="G43" s="3">
-        <v>558600</v>
+        <v>540800</v>
       </c>
       <c r="H43" s="3">
-        <v>241100</v>
+        <v>233500</v>
       </c>
       <c r="I43" s="3">
-        <v>209100</v>
+        <v>202400</v>
       </c>
       <c r="J43" s="3">
-        <v>196000</v>
+        <v>189800</v>
       </c>
       <c r="K43" s="3">
         <v>176000</v>
@@ -1751,25 +1751,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>19100</v>
+        <v>18500</v>
       </c>
       <c r="E44" s="3">
-        <v>21800</v>
+        <v>21100</v>
       </c>
       <c r="F44" s="3">
-        <v>30000</v>
+        <v>29000</v>
       </c>
       <c r="G44" s="3">
-        <v>28700</v>
+        <v>27800</v>
       </c>
       <c r="H44" s="3">
-        <v>24700</v>
+        <v>23900</v>
       </c>
       <c r="I44" s="3">
-        <v>17700</v>
+        <v>17100</v>
       </c>
       <c r="J44" s="3">
-        <v>10800</v>
+        <v>10500</v>
       </c>
       <c r="K44" s="3">
         <v>15300</v>
@@ -1784,25 +1784,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>94400</v>
+        <v>91400</v>
       </c>
       <c r="E45" s="3">
-        <v>86200</v>
+        <v>83500</v>
       </c>
       <c r="F45" s="3">
-        <v>76200</v>
+        <v>73800</v>
       </c>
       <c r="G45" s="3">
-        <v>175200</v>
+        <v>169600</v>
       </c>
       <c r="H45" s="3">
-        <v>102200</v>
+        <v>98900</v>
       </c>
       <c r="I45" s="3">
-        <v>71400</v>
+        <v>69100</v>
       </c>
       <c r="J45" s="3">
-        <v>66200</v>
+        <v>64100</v>
       </c>
       <c r="K45" s="3">
         <v>76900</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>822900</v>
+        <v>796700</v>
       </c>
       <c r="E46" s="3">
-        <v>762900</v>
+        <v>738600</v>
       </c>
       <c r="F46" s="3">
-        <v>695700</v>
+        <v>673600</v>
       </c>
       <c r="G46" s="3">
-        <v>580100</v>
+        <v>561600</v>
       </c>
       <c r="H46" s="3">
-        <v>561400</v>
+        <v>543500</v>
       </c>
       <c r="I46" s="3">
-        <v>470500</v>
+        <v>455600</v>
       </c>
       <c r="J46" s="3">
-        <v>458900</v>
+        <v>444300</v>
       </c>
       <c r="K46" s="3">
         <v>473600</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>232800</v>
+        <v>225400</v>
       </c>
       <c r="E47" s="3">
-        <v>164900</v>
+        <v>159700</v>
       </c>
       <c r="F47" s="3">
-        <v>189700</v>
+        <v>183700</v>
       </c>
       <c r="G47" s="3">
-        <v>248200</v>
+        <v>240300</v>
       </c>
       <c r="H47" s="3">
-        <v>27200</v>
+        <v>26300</v>
       </c>
       <c r="I47" s="3">
-        <v>25700</v>
+        <v>24900</v>
       </c>
       <c r="J47" s="3">
-        <v>21700</v>
+        <v>21000</v>
       </c>
       <c r="K47" s="3">
         <v>18500</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>597200</v>
+        <v>578300</v>
       </c>
       <c r="E48" s="3">
-        <v>598700</v>
+        <v>579700</v>
       </c>
       <c r="F48" s="3">
-        <v>291900</v>
+        <v>282700</v>
       </c>
       <c r="G48" s="3">
-        <v>704300</v>
+        <v>681900</v>
       </c>
       <c r="H48" s="3">
-        <v>350400</v>
+        <v>339300</v>
       </c>
       <c r="I48" s="3">
-        <v>302400</v>
+        <v>292800</v>
       </c>
       <c r="J48" s="3">
-        <v>258800</v>
+        <v>250500</v>
       </c>
       <c r="K48" s="3">
         <v>247100</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>203000</v>
+        <v>196500</v>
       </c>
       <c r="E49" s="3">
-        <v>214600</v>
+        <v>207800</v>
       </c>
       <c r="F49" s="3">
-        <v>219400</v>
+        <v>212400</v>
       </c>
       <c r="G49" s="3">
-        <v>287500</v>
+        <v>278400</v>
       </c>
       <c r="H49" s="3">
-        <v>81600</v>
+        <v>79000</v>
       </c>
       <c r="I49" s="3">
-        <v>85600</v>
+        <v>82900</v>
       </c>
       <c r="J49" s="3">
-        <v>89100</v>
+        <v>86200</v>
       </c>
       <c r="K49" s="3">
         <v>94400</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>89100</v>
+        <v>86300</v>
       </c>
       <c r="E52" s="3">
-        <v>78300</v>
+        <v>75800</v>
       </c>
       <c r="F52" s="3">
-        <v>77100</v>
+        <v>74600</v>
       </c>
       <c r="G52" s="3">
-        <v>306900</v>
+        <v>297200</v>
       </c>
       <c r="H52" s="3">
-        <v>189900</v>
+        <v>183800</v>
       </c>
       <c r="I52" s="3">
-        <v>153900</v>
+        <v>149000</v>
       </c>
       <c r="J52" s="3">
-        <v>129200</v>
+        <v>125100</v>
       </c>
       <c r="K52" s="3">
         <v>117800</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1945000</v>
+        <v>1883200</v>
       </c>
       <c r="E54" s="3">
-        <v>1819500</v>
+        <v>1761700</v>
       </c>
       <c r="F54" s="3">
-        <v>1473800</v>
+        <v>1427000</v>
       </c>
       <c r="G54" s="3">
-        <v>1367000</v>
+        <v>1323500</v>
       </c>
       <c r="H54" s="3">
-        <v>1210500</v>
+        <v>1172000</v>
       </c>
       <c r="I54" s="3">
-        <v>1038100</v>
+        <v>1005100</v>
       </c>
       <c r="J54" s="3">
-        <v>957700</v>
+        <v>927300</v>
       </c>
       <c r="K54" s="3">
         <v>951400</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>56300</v>
+        <v>54500</v>
       </c>
       <c r="E57" s="3">
-        <v>52700</v>
+        <v>51000</v>
       </c>
       <c r="F57" s="3">
-        <v>68800</v>
+        <v>66600</v>
       </c>
       <c r="G57" s="3">
-        <v>179500</v>
+        <v>173800</v>
       </c>
       <c r="H57" s="3">
-        <v>129100</v>
+        <v>125000</v>
       </c>
       <c r="I57" s="3">
-        <v>122500</v>
+        <v>118600</v>
       </c>
       <c r="J57" s="3">
-        <v>107300</v>
+        <v>103900</v>
       </c>
       <c r="K57" s="3">
         <v>105300</v>
@@ -2177,25 +2177,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>163500</v>
+        <v>158300</v>
       </c>
       <c r="E58" s="3">
-        <v>137300</v>
+        <v>132900</v>
       </c>
       <c r="F58" s="3">
-        <v>169800</v>
+        <v>164400</v>
       </c>
       <c r="G58" s="3">
-        <v>262600</v>
+        <v>254200</v>
       </c>
       <c r="H58" s="3">
-        <v>123900</v>
+        <v>120000</v>
       </c>
       <c r="I58" s="3">
-        <v>116300</v>
+        <v>112600</v>
       </c>
       <c r="J58" s="3">
-        <v>112500</v>
+        <v>108900</v>
       </c>
       <c r="K58" s="3">
         <v>129500</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>425600</v>
+        <v>412100</v>
       </c>
       <c r="E59" s="3">
-        <v>388800</v>
+        <v>376400</v>
       </c>
       <c r="F59" s="3">
-        <v>227500</v>
+        <v>220300</v>
       </c>
       <c r="G59" s="3">
-        <v>300500</v>
+        <v>290900</v>
       </c>
       <c r="H59" s="3">
-        <v>99200</v>
+        <v>96100</v>
       </c>
       <c r="I59" s="3">
-        <v>78900</v>
+        <v>76400</v>
       </c>
       <c r="J59" s="3">
-        <v>77400</v>
+        <v>74900</v>
       </c>
       <c r="K59" s="3">
         <v>62700</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>645400</v>
+        <v>624900</v>
       </c>
       <c r="E60" s="3">
-        <v>578700</v>
+        <v>560300</v>
       </c>
       <c r="F60" s="3">
-        <v>466100</v>
+        <v>451300</v>
       </c>
       <c r="G60" s="3">
-        <v>371200</v>
+        <v>359400</v>
       </c>
       <c r="H60" s="3">
-        <v>352300</v>
+        <v>341100</v>
       </c>
       <c r="I60" s="3">
-        <v>317700</v>
+        <v>307600</v>
       </c>
       <c r="J60" s="3">
-        <v>297300</v>
+        <v>287800</v>
       </c>
       <c r="K60" s="3">
         <v>297400</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>61700</v>
+        <v>59700</v>
       </c>
       <c r="E61" s="3">
-        <v>107200</v>
+        <v>103800</v>
       </c>
       <c r="F61" s="3">
-        <v>224800</v>
+        <v>217600</v>
       </c>
       <c r="G61" s="3">
-        <v>232700</v>
+        <v>225400</v>
       </c>
       <c r="H61" s="3">
-        <v>166400</v>
+        <v>161100</v>
       </c>
       <c r="I61" s="3">
-        <v>68500</v>
+        <v>66400</v>
       </c>
       <c r="J61" s="3">
-        <v>38200</v>
+        <v>37000</v>
       </c>
       <c r="K61" s="3">
         <v>42200</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>436500</v>
+        <v>422600</v>
       </c>
       <c r="E62" s="3">
-        <v>428300</v>
+        <v>414600</v>
       </c>
       <c r="F62" s="3">
-        <v>103500</v>
+        <v>100200</v>
       </c>
       <c r="G62" s="3">
-        <v>196100</v>
+        <v>189800</v>
       </c>
       <c r="H62" s="3">
-        <v>98200</v>
+        <v>95100</v>
       </c>
       <c r="I62" s="3">
-        <v>76200</v>
+        <v>73700</v>
       </c>
       <c r="J62" s="3">
-        <v>68500</v>
+        <v>66400</v>
       </c>
       <c r="K62" s="3">
         <v>60600</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1152500</v>
+        <v>1115900</v>
       </c>
       <c r="E66" s="3">
-        <v>1122800</v>
+        <v>1087100</v>
       </c>
       <c r="F66" s="3">
-        <v>801900</v>
+        <v>776400</v>
       </c>
       <c r="G66" s="3">
-        <v>710400</v>
+        <v>687800</v>
       </c>
       <c r="H66" s="3">
-        <v>622500</v>
+        <v>602700</v>
       </c>
       <c r="I66" s="3">
-        <v>466800</v>
+        <v>452000</v>
       </c>
       <c r="J66" s="3">
-        <v>407000</v>
+        <v>394100</v>
       </c>
       <c r="K66" s="3">
         <v>402600</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>220700</v>
+        <v>213600</v>
       </c>
       <c r="E72" s="3">
-        <v>145400</v>
+        <v>140800</v>
       </c>
       <c r="F72" s="3">
-        <v>108700</v>
+        <v>105200</v>
       </c>
       <c r="G72" s="3">
-        <v>159300</v>
+        <v>154200</v>
       </c>
       <c r="H72" s="3">
-        <v>39800</v>
+        <v>38500</v>
       </c>
       <c r="I72" s="3">
-        <v>21800</v>
+        <v>21100</v>
       </c>
       <c r="J72" s="3">
-        <v>-4900</v>
+        <v>-4700</v>
       </c>
       <c r="K72" s="3">
         <v>-26300</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>792500</v>
+        <v>767300</v>
       </c>
       <c r="E76" s="3">
-        <v>696700</v>
+        <v>674500</v>
       </c>
       <c r="F76" s="3">
-        <v>672000</v>
+        <v>650600</v>
       </c>
       <c r="G76" s="3">
-        <v>656600</v>
+        <v>635700</v>
       </c>
       <c r="H76" s="3">
-        <v>588000</v>
+        <v>569300</v>
       </c>
       <c r="I76" s="3">
-        <v>571300</v>
+        <v>553100</v>
       </c>
       <c r="J76" s="3">
-        <v>550700</v>
+        <v>533200</v>
       </c>
       <c r="K76" s="3">
         <v>548800</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>85600</v>
+        <v>82800</v>
       </c>
       <c r="E81" s="3">
-        <v>35300</v>
+        <v>34200</v>
       </c>
       <c r="F81" s="3">
-        <v>31000</v>
+        <v>30000</v>
       </c>
       <c r="G81" s="3">
-        <v>40200</v>
+        <v>38900</v>
       </c>
       <c r="H81" s="3">
-        <v>27900</v>
+        <v>27000</v>
       </c>
       <c r="I81" s="3">
-        <v>35600</v>
+        <v>34400</v>
       </c>
       <c r="J81" s="3">
-        <v>29300</v>
+        <v>28300</v>
       </c>
       <c r="K81" s="3">
         <v>41000</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>246400</v>
+        <v>238600</v>
       </c>
       <c r="E83" s="3">
-        <v>251300</v>
+        <v>243300</v>
       </c>
       <c r="F83" s="3">
-        <v>137700</v>
+        <v>133300</v>
       </c>
       <c r="G83" s="3">
-        <v>118200</v>
+        <v>114400</v>
       </c>
       <c r="H83" s="3">
-        <v>96000</v>
+        <v>92900</v>
       </c>
       <c r="I83" s="3">
-        <v>87400</v>
+        <v>84600</v>
       </c>
       <c r="J83" s="3">
-        <v>85300</v>
+        <v>82500</v>
       </c>
       <c r="K83" s="3">
         <v>80800</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>357200</v>
+        <v>345800</v>
       </c>
       <c r="E89" s="3">
-        <v>294200</v>
+        <v>284800</v>
       </c>
       <c r="F89" s="3">
-        <v>221600</v>
+        <v>214500</v>
       </c>
       <c r="G89" s="3">
-        <v>129200</v>
+        <v>125100</v>
       </c>
       <c r="H89" s="3">
-        <v>64900</v>
+        <v>62800</v>
       </c>
       <c r="I89" s="3">
-        <v>106200</v>
+        <v>102800</v>
       </c>
       <c r="J89" s="3">
-        <v>113800</v>
+        <v>110100</v>
       </c>
       <c r="K89" s="3">
         <v>80500</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-56300</v>
+        <v>-54500</v>
       </c>
       <c r="E91" s="3">
-        <v>-63400</v>
+        <v>-61400</v>
       </c>
       <c r="F91" s="3">
-        <v>-62400</v>
+        <v>-60400</v>
       </c>
       <c r="G91" s="3">
-        <v>-236700</v>
+        <v>-229100</v>
       </c>
       <c r="H91" s="3">
-        <v>-93600</v>
+        <v>-90600</v>
       </c>
       <c r="I91" s="3">
-        <v>-96000</v>
+        <v>-93000</v>
       </c>
       <c r="J91" s="3">
-        <v>-71900</v>
+        <v>-69600</v>
       </c>
       <c r="K91" s="3">
         <v>-83600</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-116400</v>
+        <v>-112700</v>
       </c>
       <c r="E94" s="3">
-        <v>-64000</v>
+        <v>-62000</v>
       </c>
       <c r="F94" s="3">
-        <v>-76500</v>
+        <v>-74100</v>
       </c>
       <c r="G94" s="3">
-        <v>-126000</v>
+        <v>-122000</v>
       </c>
       <c r="H94" s="3">
-        <v>-65000</v>
+        <v>-62900</v>
       </c>
       <c r="I94" s="3">
-        <v>-73800</v>
+        <v>-71500</v>
       </c>
       <c r="J94" s="3">
-        <v>-71100</v>
+        <v>-68900</v>
       </c>
       <c r="K94" s="3">
         <v>-93500</v>
@@ -3298,25 +3298,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-13500</v>
+        <v>-13100</v>
       </c>
       <c r="E96" s="3">
-        <v>-10700</v>
+        <v>-10400</v>
       </c>
       <c r="F96" s="3">
-        <v>-10700</v>
+        <v>-10400</v>
       </c>
       <c r="G96" s="3">
-        <v>-10700</v>
+        <v>-10400</v>
       </c>
       <c r="H96" s="3">
-        <v>-9900</v>
+        <v>-9600</v>
       </c>
       <c r="I96" s="3">
-        <v>-8900</v>
+        <v>-8600</v>
       </c>
       <c r="J96" s="3">
-        <v>-8900</v>
+        <v>-8600</v>
       </c>
       <c r="K96" s="3">
         <v>-8300</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-208100</v>
+        <v>-201500</v>
       </c>
       <c r="E100" s="3">
-        <v>-170500</v>
+        <v>-165100</v>
       </c>
       <c r="F100" s="3">
-        <v>-51900</v>
+        <v>-50200</v>
       </c>
       <c r="G100" s="3">
-        <v>-6300</v>
+        <v>-6100</v>
       </c>
       <c r="H100" s="3">
-        <v>22000</v>
+        <v>21300</v>
       </c>
       <c r="I100" s="3">
-        <v>-45800</v>
+        <v>-44400</v>
       </c>
       <c r="J100" s="3">
-        <v>-55400</v>
+        <v>-53600</v>
       </c>
       <c r="K100" s="3">
         <v>104300</v>
@@ -3469,7 +3469,7 @@
         <v>-500</v>
       </c>
       <c r="F101" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="G101" s="3">
         <v>-700</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>33400</v>
+        <v>32400</v>
       </c>
       <c r="E102" s="3">
-        <v>59100</v>
+        <v>57300</v>
       </c>
       <c r="F102" s="3">
-        <v>93700</v>
+        <v>90700</v>
       </c>
       <c r="G102" s="3">
-        <v>-3800</v>
+        <v>-3600</v>
       </c>
       <c r="H102" s="3">
-        <v>21100</v>
+        <v>20400</v>
       </c>
       <c r="I102" s="3">
-        <v>-13400</v>
+        <v>-13000</v>
       </c>
       <c r="J102" s="3">
-        <v>-11700</v>
+        <v>-11300</v>
       </c>
       <c r="K102" s="3">
         <v>93100</v>

--- a/AAII_Financials/Yearly/IIJIY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/IIJIY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
   <si>
     <t>IIJIY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,153 +665,165 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43190</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42825</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42460</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42094</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41729</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41364</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1816900</v>
+        <v>1763200</v>
       </c>
       <c r="E8" s="3">
-        <v>1744200</v>
+        <v>1659300</v>
       </c>
       <c r="F8" s="3">
-        <v>1641400</v>
+        <v>1592800</v>
       </c>
       <c r="G8" s="3">
-        <v>1503300</v>
+        <v>1499000</v>
       </c>
       <c r="H8" s="3">
-        <v>1345900</v>
+        <v>1372900</v>
       </c>
       <c r="I8" s="3">
-        <v>1199700</v>
+        <v>1229200</v>
       </c>
       <c r="J8" s="3">
+        <v>1095600</v>
+      </c>
+      <c r="K8" s="3">
         <v>1049600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1046700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>965800</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1473300</v>
+        <v>1361000</v>
       </c>
       <c r="E9" s="3">
-        <v>1466100</v>
+        <v>1345500</v>
       </c>
       <c r="F9" s="3">
-        <v>1394300</v>
+        <v>1338900</v>
       </c>
       <c r="G9" s="3">
-        <v>2502000</v>
+        <v>1273300</v>
       </c>
       <c r="H9" s="3">
-        <v>1130600</v>
+        <v>2284900</v>
       </c>
       <c r="I9" s="3">
-        <v>989400</v>
+        <v>1032500</v>
       </c>
       <c r="J9" s="3">
+        <v>903600</v>
+      </c>
+      <c r="K9" s="3">
         <v>861300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>853800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>767100</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>343600</v>
+        <v>402200</v>
       </c>
       <c r="E10" s="3">
-        <v>278000</v>
+        <v>313800</v>
       </c>
       <c r="F10" s="3">
-        <v>247200</v>
+        <v>253900</v>
       </c>
       <c r="G10" s="3">
-        <v>-998700</v>
+        <v>225700</v>
       </c>
       <c r="H10" s="3">
-        <v>215400</v>
+        <v>-912100</v>
       </c>
       <c r="I10" s="3">
-        <v>210300</v>
+        <v>196700</v>
       </c>
       <c r="J10" s="3">
+        <v>192100</v>
+      </c>
+      <c r="K10" s="3">
         <v>188300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>193000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>198600</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -825,41 +837,45 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="3">
-        <v>4000</v>
+      <c r="D12" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E12" s="3">
         <v>3700</v>
       </c>
       <c r="F12" s="3">
+        <v>3400</v>
+      </c>
+      <c r="G12" s="3">
+        <v>3500</v>
+      </c>
+      <c r="H12" s="3">
         <v>3800</v>
       </c>
-      <c r="G12" s="3">
-        <v>4200</v>
-      </c>
-      <c r="H12" s="3">
-        <v>4000</v>
-      </c>
       <c r="I12" s="3">
+        <v>3600</v>
+      </c>
+      <c r="J12" s="3">
+        <v>3500</v>
+      </c>
+      <c r="K12" s="3">
+        <v>3800</v>
+      </c>
+      <c r="L12" s="3">
         <v>3900</v>
       </c>
-      <c r="J12" s="3">
-        <v>3800</v>
-      </c>
-      <c r="K12" s="3">
-        <v>3900</v>
-      </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>3700</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -890,59 +906,65 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3">
-        <v>3400</v>
+      <c r="D14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E14" s="3">
-        <v>1600</v>
+        <v>3100</v>
       </c>
       <c r="F14" s="3">
-        <v>2600</v>
+        <v>1400</v>
       </c>
       <c r="G14" s="3">
-        <v>1900</v>
+        <v>2400</v>
       </c>
       <c r="H14" s="3">
-        <v>300</v>
+        <v>1700</v>
       </c>
       <c r="I14" s="3">
+        <v>200</v>
+      </c>
+      <c r="J14" s="3">
         <v>100</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>200</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>200</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
-        <v>24200</v>
+      <c r="D15" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E15" s="3">
-        <v>24200</v>
+        <v>22100</v>
       </c>
       <c r="F15" s="3">
-        <v>10900</v>
+        <v>22100</v>
       </c>
       <c r="G15" s="3">
-        <v>10700</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>10</v>
+        <v>10000</v>
+      </c>
+      <c r="H15" s="3">
+        <v>9700</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>10</v>
@@ -956,9 +978,12 @@
       <c r="L15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -969,74 +994,81 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1692400</v>
+        <v>1579700</v>
       </c>
       <c r="E17" s="3">
-        <v>1670800</v>
+        <v>1545600</v>
       </c>
       <c r="F17" s="3">
-        <v>1590100</v>
+        <v>1525800</v>
       </c>
       <c r="G17" s="3">
-        <v>1445500</v>
+        <v>1452100</v>
       </c>
       <c r="H17" s="3">
-        <v>1302400</v>
+        <v>1320100</v>
       </c>
       <c r="I17" s="3">
-        <v>1147500</v>
+        <v>1189400</v>
       </c>
       <c r="J17" s="3">
+        <v>1047900</v>
+      </c>
+      <c r="K17" s="3">
         <v>1006600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>994300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>895500</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>124500</v>
+        <v>183400</v>
       </c>
       <c r="E18" s="3">
-        <v>73400</v>
+        <v>113700</v>
       </c>
       <c r="F18" s="3">
-        <v>51400</v>
+        <v>67000</v>
       </c>
       <c r="G18" s="3">
-        <v>57700</v>
+        <v>46900</v>
       </c>
       <c r="H18" s="3">
-        <v>43500</v>
+        <v>52700</v>
       </c>
       <c r="I18" s="3">
-        <v>52300</v>
+        <v>39800</v>
       </c>
       <c r="J18" s="3">
+        <v>47700</v>
+      </c>
+      <c r="K18" s="3">
         <v>43000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>52400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>70300</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1050,173 +1082,189 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-100</v>
+        <v>4800</v>
       </c>
       <c r="E20" s="3">
-        <v>-7500</v>
+        <v>0</v>
       </c>
       <c r="F20" s="3">
-        <v>2100</v>
+        <v>-6800</v>
       </c>
       <c r="G20" s="3">
-        <v>7500</v>
+        <v>1900</v>
       </c>
       <c r="H20" s="3">
-        <v>5300</v>
+        <v>6900</v>
       </c>
       <c r="I20" s="3">
-        <v>2600</v>
+        <v>4900</v>
       </c>
       <c r="J20" s="3">
+        <v>2400</v>
+      </c>
+      <c r="K20" s="3">
         <v>2800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>7400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>2800</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>365900</v>
+        <v>403300</v>
       </c>
       <c r="E21" s="3">
-        <v>312000</v>
+        <v>333000</v>
       </c>
       <c r="F21" s="3">
-        <v>188400</v>
+        <v>180400</v>
       </c>
       <c r="G21" s="3">
-        <v>181000</v>
+        <v>152000</v>
       </c>
       <c r="H21" s="3">
-        <v>142900</v>
+        <v>143400</v>
       </c>
       <c r="I21" s="3">
-        <v>140500</v>
+        <v>120900</v>
       </c>
       <c r="J21" s="3">
+        <v>124500</v>
+      </c>
+      <c r="K21" s="3">
         <v>129400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>141000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>141500</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>4700</v>
+      <c r="D22" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E22" s="3">
-        <v>4800</v>
+        <v>4300</v>
       </c>
       <c r="F22" s="3">
-        <v>3700</v>
+        <v>4400</v>
       </c>
       <c r="G22" s="3">
-        <v>6700</v>
+        <v>3400</v>
       </c>
       <c r="H22" s="3">
+        <v>6100</v>
+      </c>
+      <c r="I22" s="3">
+        <v>2400</v>
+      </c>
+      <c r="J22" s="3">
+        <v>1900</v>
+      </c>
+      <c r="K22" s="3">
+        <v>2000</v>
+      </c>
+      <c r="L22" s="3">
+        <v>2300</v>
+      </c>
+      <c r="M22" s="3">
         <v>2600</v>
       </c>
-      <c r="I22" s="3">
-        <v>2100</v>
-      </c>
-      <c r="J22" s="3">
-        <v>2000</v>
-      </c>
-      <c r="K22" s="3">
-        <v>2300</v>
-      </c>
-      <c r="L22" s="3">
-        <v>2600</v>
-      </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>119700</v>
+        <v>188200</v>
       </c>
       <c r="E23" s="3">
-        <v>61100</v>
+        <v>109300</v>
       </c>
       <c r="F23" s="3">
-        <v>49800</v>
+        <v>55800</v>
       </c>
       <c r="G23" s="3">
-        <v>58600</v>
+        <v>45500</v>
       </c>
       <c r="H23" s="3">
-        <v>46300</v>
+        <v>53500</v>
       </c>
       <c r="I23" s="3">
-        <v>52800</v>
+        <v>42300</v>
       </c>
       <c r="J23" s="3">
+        <v>48200</v>
+      </c>
+      <c r="K23" s="3">
         <v>43800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>57500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>70500</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>36100</v>
+        <v>65100</v>
       </c>
       <c r="E24" s="3">
-        <v>25300</v>
+        <v>33000</v>
       </c>
       <c r="F24" s="3">
-        <v>18300</v>
+        <v>23100</v>
       </c>
       <c r="G24" s="3">
-        <v>19600</v>
+        <v>16700</v>
       </c>
       <c r="H24" s="3">
-        <v>19000</v>
+        <v>17900</v>
       </c>
       <c r="I24" s="3">
-        <v>18600</v>
+        <v>17300</v>
       </c>
       <c r="J24" s="3">
+        <v>17000</v>
+      </c>
+      <c r="K24" s="3">
         <v>16200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>16400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>23700</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1247,75 +1295,84 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>83600</v>
+        <v>123100</v>
       </c>
       <c r="E26" s="3">
-        <v>35800</v>
+        <v>76400</v>
       </c>
       <c r="F26" s="3">
-        <v>31600</v>
+        <v>32700</v>
       </c>
       <c r="G26" s="3">
-        <v>39000</v>
+        <v>28800</v>
       </c>
       <c r="H26" s="3">
-        <v>27300</v>
+        <v>35600</v>
       </c>
       <c r="I26" s="3">
-        <v>34200</v>
+        <v>24900</v>
       </c>
       <c r="J26" s="3">
+        <v>31200</v>
+      </c>
+      <c r="K26" s="3">
         <v>27700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>41000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>46800</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>82800</v>
+        <v>122100</v>
       </c>
       <c r="E27" s="3">
-        <v>34200</v>
+        <v>75700</v>
       </c>
       <c r="F27" s="3">
-        <v>30000</v>
+        <v>31200</v>
       </c>
       <c r="G27" s="3">
-        <v>38700</v>
+        <v>27400</v>
       </c>
       <c r="H27" s="3">
-        <v>27000</v>
+        <v>35400</v>
       </c>
       <c r="I27" s="3">
-        <v>34400</v>
+        <v>24700</v>
       </c>
       <c r="J27" s="3">
+        <v>31500</v>
+      </c>
+      <c r="K27" s="3">
         <v>28300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>41000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>48200</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1346,9 +1403,12 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1361,11 +1421,11 @@
       <c r="F29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G29" s="3">
-        <v>200</v>
-      </c>
-      <c r="H29" s="3" t="s">
+      <c r="G29" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="H29" s="3">
+        <v>100</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>10</v>
@@ -1379,9 +1439,12 @@
       <c r="L29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1412,9 +1475,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1445,75 +1511,84 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>100</v>
+        <v>-4800</v>
       </c>
       <c r="E32" s="3">
-        <v>7500</v>
+        <v>0</v>
       </c>
       <c r="F32" s="3">
-        <v>-2100</v>
+        <v>6800</v>
       </c>
       <c r="G32" s="3">
-        <v>-7500</v>
+        <v>-1900</v>
       </c>
       <c r="H32" s="3">
-        <v>-5300</v>
+        <v>-6900</v>
       </c>
       <c r="I32" s="3">
-        <v>-2600</v>
+        <v>-4900</v>
       </c>
       <c r="J32" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="K32" s="3">
         <v>-2800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-7400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-2800</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>82800</v>
+        <v>122100</v>
       </c>
       <c r="E33" s="3">
-        <v>34200</v>
+        <v>75700</v>
       </c>
       <c r="F33" s="3">
-        <v>30000</v>
+        <v>31200</v>
       </c>
       <c r="G33" s="3">
-        <v>38900</v>
+        <v>27400</v>
       </c>
       <c r="H33" s="3">
-        <v>27000</v>
+        <v>35500</v>
       </c>
       <c r="I33" s="3">
-        <v>34400</v>
+        <v>24700</v>
       </c>
       <c r="J33" s="3">
+        <v>31500</v>
+      </c>
+      <c r="K33" s="3">
         <v>28300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>41000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>48200</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1544,80 +1619,89 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>82800</v>
+        <v>122100</v>
       </c>
       <c r="E35" s="3">
-        <v>34200</v>
+        <v>75700</v>
       </c>
       <c r="F35" s="3">
-        <v>30000</v>
+        <v>31200</v>
       </c>
       <c r="G35" s="3">
-        <v>38900</v>
+        <v>27400</v>
       </c>
       <c r="H35" s="3">
-        <v>27000</v>
+        <v>35500</v>
       </c>
       <c r="I35" s="3">
-        <v>34400</v>
+        <v>24700</v>
       </c>
       <c r="J35" s="3">
+        <v>31500</v>
+      </c>
+      <c r="K35" s="3">
         <v>28300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>41000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>48200</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43190</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42825</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42460</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42094</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41729</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41364</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1631,8 +1715,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1646,58 +1731,62 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>362200</v>
+        <v>369200</v>
       </c>
       <c r="E41" s="3">
-        <v>329900</v>
+        <v>330800</v>
       </c>
       <c r="F41" s="3">
-        <v>272600</v>
+        <v>301300</v>
       </c>
       <c r="G41" s="3">
-        <v>364400</v>
+        <v>249000</v>
       </c>
       <c r="H41" s="3">
-        <v>187300</v>
+        <v>332800</v>
       </c>
       <c r="I41" s="3">
-        <v>166900</v>
+        <v>171100</v>
       </c>
       <c r="J41" s="3">
+        <v>152400</v>
+      </c>
+      <c r="K41" s="3">
         <v>179900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>205400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>111400</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>16900</v>
+        <v>10100</v>
       </c>
       <c r="E42" s="3">
-        <v>22800</v>
+        <v>15400</v>
       </c>
       <c r="F42" s="3">
-        <v>13500</v>
+        <v>20800</v>
       </c>
       <c r="G42" s="3">
-        <v>32100</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>10</v>
+        <v>12300</v>
+      </c>
+      <c r="H42" s="3">
+        <v>29300</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>10</v>
@@ -1711,240 +1800,264 @@
       <c r="L42" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M42" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>307800</v>
+        <v>307900</v>
       </c>
       <c r="E43" s="3">
-        <v>281300</v>
+        <v>281100</v>
       </c>
       <c r="F43" s="3">
-        <v>284700</v>
+        <v>256900</v>
       </c>
       <c r="G43" s="3">
-        <v>540800</v>
+        <v>260000</v>
       </c>
       <c r="H43" s="3">
-        <v>233500</v>
+        <v>493900</v>
       </c>
       <c r="I43" s="3">
-        <v>202400</v>
+        <v>213200</v>
       </c>
       <c r="J43" s="3">
+        <v>184900</v>
+      </c>
+      <c r="K43" s="3">
         <v>189800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>176000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>170500</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>18500</v>
+        <v>20300</v>
       </c>
       <c r="E44" s="3">
-        <v>21100</v>
+        <v>16900</v>
       </c>
       <c r="F44" s="3">
-        <v>29000</v>
+        <v>19300</v>
       </c>
       <c r="G44" s="3">
-        <v>27800</v>
+        <v>26500</v>
       </c>
       <c r="H44" s="3">
-        <v>23900</v>
+        <v>25400</v>
       </c>
       <c r="I44" s="3">
-        <v>17100</v>
+        <v>21800</v>
       </c>
       <c r="J44" s="3">
+        <v>15600</v>
+      </c>
+      <c r="K44" s="3">
         <v>10500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>15300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>11800</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>91400</v>
+        <v>106500</v>
       </c>
       <c r="E45" s="3">
-        <v>83500</v>
+        <v>83400</v>
       </c>
       <c r="F45" s="3">
-        <v>73800</v>
+        <v>76300</v>
       </c>
       <c r="G45" s="3">
-        <v>169600</v>
+        <v>67400</v>
       </c>
       <c r="H45" s="3">
-        <v>98900</v>
+        <v>154900</v>
       </c>
       <c r="I45" s="3">
-        <v>69100</v>
+        <v>90300</v>
       </c>
       <c r="J45" s="3">
+        <v>63100</v>
+      </c>
+      <c r="K45" s="3">
         <v>64100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>76900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>46600</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>796700</v>
+        <v>813900</v>
       </c>
       <c r="E46" s="3">
-        <v>738600</v>
+        <v>727600</v>
       </c>
       <c r="F46" s="3">
-        <v>673600</v>
+        <v>674500</v>
       </c>
       <c r="G46" s="3">
-        <v>561600</v>
+        <v>615200</v>
       </c>
       <c r="H46" s="3">
-        <v>543500</v>
+        <v>512900</v>
       </c>
       <c r="I46" s="3">
-        <v>455600</v>
+        <v>496400</v>
       </c>
       <c r="J46" s="3">
+        <v>416000</v>
+      </c>
+      <c r="K46" s="3">
         <v>444300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>473600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>340300</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>225400</v>
+        <v>214600</v>
       </c>
       <c r="E47" s="3">
-        <v>159700</v>
+        <v>205900</v>
       </c>
       <c r="F47" s="3">
-        <v>183700</v>
+        <v>145800</v>
       </c>
       <c r="G47" s="3">
-        <v>240300</v>
+        <v>167700</v>
       </c>
       <c r="H47" s="3">
-        <v>26300</v>
+        <v>219500</v>
       </c>
       <c r="I47" s="3">
-        <v>24900</v>
+        <v>24100</v>
       </c>
       <c r="J47" s="3">
+        <v>22700</v>
+      </c>
+      <c r="K47" s="3">
         <v>21000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>18500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>14600</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>578300</v>
+        <v>488600</v>
       </c>
       <c r="E48" s="3">
-        <v>579700</v>
+        <v>528100</v>
       </c>
       <c r="F48" s="3">
-        <v>282700</v>
+        <v>529400</v>
       </c>
       <c r="G48" s="3">
-        <v>681900</v>
+        <v>258100</v>
       </c>
       <c r="H48" s="3">
-        <v>339300</v>
+        <v>622700</v>
       </c>
       <c r="I48" s="3">
-        <v>292800</v>
+        <v>309900</v>
       </c>
       <c r="J48" s="3">
+        <v>267400</v>
+      </c>
+      <c r="K48" s="3">
         <v>250500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>247100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>209300</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>196500</v>
+        <v>201800</v>
       </c>
       <c r="E49" s="3">
-        <v>207800</v>
+        <v>179500</v>
       </c>
       <c r="F49" s="3">
-        <v>212400</v>
+        <v>189800</v>
       </c>
       <c r="G49" s="3">
-        <v>278400</v>
+        <v>194000</v>
       </c>
       <c r="H49" s="3">
-        <v>79000</v>
+        <v>254200</v>
       </c>
       <c r="I49" s="3">
-        <v>82900</v>
+        <v>72100</v>
       </c>
       <c r="J49" s="3">
+        <v>75700</v>
+      </c>
+      <c r="K49" s="3">
         <v>86200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>94400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>97800</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1975,9 +2088,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2008,42 +2124,48 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>86300</v>
+        <v>86800</v>
       </c>
       <c r="E52" s="3">
-        <v>75800</v>
+        <v>78800</v>
       </c>
       <c r="F52" s="3">
-        <v>74600</v>
+        <v>69300</v>
       </c>
       <c r="G52" s="3">
-        <v>297200</v>
+        <v>68100</v>
       </c>
       <c r="H52" s="3">
-        <v>183800</v>
+        <v>271400</v>
       </c>
       <c r="I52" s="3">
-        <v>149000</v>
+        <v>167900</v>
       </c>
       <c r="J52" s="3">
+        <v>136100</v>
+      </c>
+      <c r="K52" s="3">
         <v>125100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>117800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>84300</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2074,42 +2196,48 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1883200</v>
+        <v>1805800</v>
       </c>
       <c r="E54" s="3">
-        <v>1761700</v>
+        <v>1719900</v>
       </c>
       <c r="F54" s="3">
-        <v>1427000</v>
+        <v>1608800</v>
       </c>
       <c r="G54" s="3">
-        <v>1323500</v>
+        <v>1303200</v>
       </c>
       <c r="H54" s="3">
-        <v>1172000</v>
+        <v>1208700</v>
       </c>
       <c r="I54" s="3">
-        <v>1005100</v>
+        <v>1070300</v>
       </c>
       <c r="J54" s="3">
+        <v>917900</v>
+      </c>
+      <c r="K54" s="3">
         <v>927300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>951400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>746400</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2123,8 +2251,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2138,206 +2267,225 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>54500</v>
+        <v>161600</v>
       </c>
       <c r="E57" s="3">
-        <v>51000</v>
+        <v>49800</v>
       </c>
       <c r="F57" s="3">
-        <v>66600</v>
+        <v>46600</v>
       </c>
       <c r="G57" s="3">
-        <v>173800</v>
+        <v>60800</v>
       </c>
       <c r="H57" s="3">
-        <v>125000</v>
+        <v>158700</v>
       </c>
       <c r="I57" s="3">
-        <v>118600</v>
+        <v>114100</v>
       </c>
       <c r="J57" s="3">
+        <v>108300</v>
+      </c>
+      <c r="K57" s="3">
         <v>103900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>105300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>99700</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>158300</v>
+        <v>127500</v>
       </c>
       <c r="E58" s="3">
-        <v>132900</v>
+        <v>144600</v>
       </c>
       <c r="F58" s="3">
-        <v>164400</v>
+        <v>121400</v>
       </c>
       <c r="G58" s="3">
-        <v>254200</v>
+        <v>150100</v>
       </c>
       <c r="H58" s="3">
-        <v>120000</v>
+        <v>232200</v>
       </c>
       <c r="I58" s="3">
-        <v>112600</v>
+        <v>109600</v>
       </c>
       <c r="J58" s="3">
+        <v>102900</v>
+      </c>
+      <c r="K58" s="3">
         <v>108900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>129500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>126500</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>412100</v>
+        <v>309000</v>
       </c>
       <c r="E59" s="3">
-        <v>376400</v>
+        <v>376300</v>
       </c>
       <c r="F59" s="3">
-        <v>220300</v>
+        <v>343800</v>
       </c>
       <c r="G59" s="3">
-        <v>290900</v>
+        <v>201200</v>
       </c>
       <c r="H59" s="3">
-        <v>96100</v>
+        <v>265700</v>
       </c>
       <c r="I59" s="3">
-        <v>76400</v>
+        <v>87700</v>
       </c>
       <c r="J59" s="3">
+        <v>69800</v>
+      </c>
+      <c r="K59" s="3">
         <v>74900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>62700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>68100</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>624900</v>
+        <v>598100</v>
       </c>
       <c r="E60" s="3">
-        <v>560300</v>
+        <v>570700</v>
       </c>
       <c r="F60" s="3">
-        <v>451300</v>
+        <v>511700</v>
       </c>
       <c r="G60" s="3">
-        <v>359400</v>
+        <v>412100</v>
       </c>
       <c r="H60" s="3">
-        <v>341100</v>
+        <v>328200</v>
       </c>
       <c r="I60" s="3">
-        <v>307600</v>
+        <v>311500</v>
       </c>
       <c r="J60" s="3">
+        <v>281000</v>
+      </c>
+      <c r="K60" s="3">
         <v>287800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>297400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>294400</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>59700</v>
+        <v>42800</v>
       </c>
       <c r="E61" s="3">
-        <v>103800</v>
+        <v>54500</v>
       </c>
       <c r="F61" s="3">
-        <v>217600</v>
+        <v>94800</v>
       </c>
       <c r="G61" s="3">
-        <v>225400</v>
+        <v>198800</v>
       </c>
       <c r="H61" s="3">
-        <v>161100</v>
+        <v>205800</v>
       </c>
       <c r="I61" s="3">
-        <v>66400</v>
+        <v>147100</v>
       </c>
       <c r="J61" s="3">
+        <v>60600</v>
+      </c>
+      <c r="K61" s="3">
         <v>37000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>42200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>57700</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>422600</v>
+        <v>349800</v>
       </c>
       <c r="E62" s="3">
-        <v>414600</v>
+        <v>386000</v>
       </c>
       <c r="F62" s="3">
-        <v>100200</v>
+        <v>378700</v>
       </c>
       <c r="G62" s="3">
-        <v>189800</v>
+        <v>91500</v>
       </c>
       <c r="H62" s="3">
-        <v>95100</v>
+        <v>173400</v>
       </c>
       <c r="I62" s="3">
-        <v>73700</v>
+        <v>86800</v>
       </c>
       <c r="J62" s="3">
+        <v>67300</v>
+      </c>
+      <c r="K62" s="3">
         <v>66400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>60600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>52200</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2368,9 +2516,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2401,9 +2552,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2434,42 +2588,48 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1115900</v>
+        <v>999300</v>
       </c>
       <c r="E66" s="3">
-        <v>1087100</v>
+        <v>1019100</v>
       </c>
       <c r="F66" s="3">
-        <v>776400</v>
+        <v>992800</v>
       </c>
       <c r="G66" s="3">
-        <v>687800</v>
+        <v>709000</v>
       </c>
       <c r="H66" s="3">
-        <v>602700</v>
+        <v>628100</v>
       </c>
       <c r="I66" s="3">
-        <v>452000</v>
+        <v>550400</v>
       </c>
       <c r="J66" s="3">
+        <v>412800</v>
+      </c>
+      <c r="K66" s="3">
         <v>394100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>402600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>404500</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2483,8 +2643,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2515,9 +2676,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2548,9 +2712,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2581,9 +2748,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2614,42 +2784,48 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>213600</v>
+        <v>288400</v>
       </c>
       <c r="E72" s="3">
-        <v>140800</v>
+        <v>195100</v>
       </c>
       <c r="F72" s="3">
-        <v>105200</v>
+        <v>128500</v>
       </c>
       <c r="G72" s="3">
-        <v>154200</v>
+        <v>96100</v>
       </c>
       <c r="H72" s="3">
-        <v>38500</v>
+        <v>140900</v>
       </c>
       <c r="I72" s="3">
-        <v>21100</v>
+        <v>35100</v>
       </c>
       <c r="J72" s="3">
+        <v>19300</v>
+      </c>
+      <c r="K72" s="3">
         <v>-4700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-26300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-58200</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2680,9 +2856,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2713,9 +2892,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2746,42 +2928,48 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>767300</v>
+        <v>806500</v>
       </c>
       <c r="E76" s="3">
-        <v>674500</v>
+        <v>700800</v>
       </c>
       <c r="F76" s="3">
-        <v>650600</v>
+        <v>616000</v>
       </c>
       <c r="G76" s="3">
-        <v>635700</v>
+        <v>594200</v>
       </c>
       <c r="H76" s="3">
-        <v>569300</v>
+        <v>580600</v>
       </c>
       <c r="I76" s="3">
-        <v>553100</v>
+        <v>519900</v>
       </c>
       <c r="J76" s="3">
+        <v>505100</v>
+      </c>
+      <c r="K76" s="3">
         <v>533200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>548800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>341800</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2812,80 +3000,89 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43190</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42825</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42460</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42094</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41729</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41364</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>82800</v>
+        <v>122100</v>
       </c>
       <c r="E81" s="3">
-        <v>34200</v>
+        <v>75700</v>
       </c>
       <c r="F81" s="3">
-        <v>30000</v>
+        <v>31200</v>
       </c>
       <c r="G81" s="3">
-        <v>38900</v>
+        <v>27400</v>
       </c>
       <c r="H81" s="3">
-        <v>27000</v>
+        <v>35500</v>
       </c>
       <c r="I81" s="3">
-        <v>34400</v>
+        <v>24700</v>
       </c>
       <c r="J81" s="3">
+        <v>31500</v>
+      </c>
+      <c r="K81" s="3">
         <v>28300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>41000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>48200</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2899,41 +3096,45 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>238600</v>
+        <v>221600</v>
       </c>
       <c r="E83" s="3">
-        <v>243300</v>
+        <v>217900</v>
       </c>
       <c r="F83" s="3">
-        <v>133300</v>
+        <v>222200</v>
       </c>
       <c r="G83" s="3">
-        <v>114400</v>
+        <v>121700</v>
       </c>
       <c r="H83" s="3">
-        <v>92900</v>
+        <v>104500</v>
       </c>
       <c r="I83" s="3">
-        <v>84600</v>
+        <v>84900</v>
       </c>
       <c r="J83" s="3">
+        <v>77300</v>
+      </c>
+      <c r="K83" s="3">
         <v>82500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>80800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>68200</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2964,9 +3165,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2997,9 +3201,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3030,9 +3237,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3063,9 +3273,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3096,42 +3309,48 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>345800</v>
+        <v>339400</v>
       </c>
       <c r="E89" s="3">
-        <v>284800</v>
+        <v>315800</v>
       </c>
       <c r="F89" s="3">
-        <v>214500</v>
+        <v>260100</v>
       </c>
       <c r="G89" s="3">
-        <v>125100</v>
+        <v>195900</v>
       </c>
       <c r="H89" s="3">
-        <v>62800</v>
+        <v>114200</v>
       </c>
       <c r="I89" s="3">
-        <v>102800</v>
+        <v>57400</v>
       </c>
       <c r="J89" s="3">
+        <v>93900</v>
+      </c>
+      <c r="K89" s="3">
         <v>110100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>80500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>88700</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3145,41 +3364,45 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-54500</v>
+        <v>-52800</v>
       </c>
       <c r="E91" s="3">
-        <v>-61400</v>
+        <v>-49800</v>
       </c>
       <c r="F91" s="3">
-        <v>-60400</v>
+        <v>-56100</v>
       </c>
       <c r="G91" s="3">
-        <v>-229100</v>
+        <v>-55200</v>
       </c>
       <c r="H91" s="3">
-        <v>-90600</v>
+        <v>-209300</v>
       </c>
       <c r="I91" s="3">
-        <v>-93000</v>
+        <v>-82800</v>
       </c>
       <c r="J91" s="3">
+        <v>-84900</v>
+      </c>
+      <c r="K91" s="3">
         <v>-69600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-83600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-50800</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3210,9 +3433,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3243,42 +3469,48 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-112700</v>
+        <v>-92200</v>
       </c>
       <c r="E94" s="3">
-        <v>-62000</v>
+        <v>-103000</v>
       </c>
       <c r="F94" s="3">
-        <v>-74100</v>
+        <v>-56600</v>
       </c>
       <c r="G94" s="3">
-        <v>-122000</v>
+        <v>-67700</v>
       </c>
       <c r="H94" s="3">
-        <v>-62900</v>
+        <v>-111400</v>
       </c>
       <c r="I94" s="3">
-        <v>-71500</v>
+        <v>-57500</v>
       </c>
       <c r="J94" s="3">
+        <v>-65300</v>
+      </c>
+      <c r="K94" s="3">
         <v>-68900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-93500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-54000</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3292,41 +3524,45 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-13100</v>
+        <v>-29900</v>
       </c>
       <c r="E96" s="3">
-        <v>-10400</v>
+        <v>-11900</v>
       </c>
       <c r="F96" s="3">
-        <v>-10400</v>
+        <v>-9500</v>
       </c>
       <c r="G96" s="3">
-        <v>-10400</v>
+        <v>-9500</v>
       </c>
       <c r="H96" s="3">
-        <v>-9600</v>
+        <v>-9500</v>
       </c>
       <c r="I96" s="3">
+        <v>-8800</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="K96" s="3">
         <v>-8600</v>
       </c>
-      <c r="J96" s="3">
-        <v>-8600</v>
-      </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-8300</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-6400</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3357,9 +3593,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3390,9 +3629,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3423,106 +3665,118 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-201500</v>
+        <v>-212600</v>
       </c>
       <c r="E100" s="3">
-        <v>-165100</v>
+        <v>-184000</v>
       </c>
       <c r="F100" s="3">
-        <v>-50200</v>
+        <v>-150800</v>
       </c>
       <c r="G100" s="3">
-        <v>-6100</v>
+        <v>-45900</v>
       </c>
       <c r="H100" s="3">
-        <v>21300</v>
+        <v>-5600</v>
       </c>
       <c r="I100" s="3">
-        <v>-44400</v>
+        <v>19400</v>
       </c>
       <c r="J100" s="3">
+        <v>-40500</v>
+      </c>
+      <c r="K100" s="3">
         <v>-53600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>104300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-45400</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E101" s="3">
         <v>700</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-500</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>500</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
+        <v>-600</v>
+      </c>
+      <c r="I101" s="3">
         <v>-700</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
+        <v>1000</v>
+      </c>
+      <c r="L101" s="3">
+        <v>1800</v>
+      </c>
+      <c r="M101" s="3">
         <v>-800</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
-      <c r="J101" s="3">
-        <v>1000</v>
-      </c>
-      <c r="K101" s="3">
-        <v>1800</v>
-      </c>
-      <c r="L101" s="3">
-        <v>-800</v>
-      </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>32400</v>
+        <v>38400</v>
       </c>
       <c r="E102" s="3">
-        <v>57300</v>
+        <v>29600</v>
       </c>
       <c r="F102" s="3">
-        <v>90700</v>
+        <v>52300</v>
       </c>
       <c r="G102" s="3">
-        <v>-3600</v>
+        <v>82900</v>
       </c>
       <c r="H102" s="3">
-        <v>20400</v>
+        <v>-3300</v>
       </c>
       <c r="I102" s="3">
-        <v>-13000</v>
+        <v>18600</v>
       </c>
       <c r="J102" s="3">
+        <v>-11900</v>
+      </c>
+      <c r="K102" s="3">
         <v>-11300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>93100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-11600</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/IIJIY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/IIJIY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
   <si>
     <t>IIJIY</t>
   </si>
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1763200</v>
+        <v>1659000</v>
       </c>
       <c r="E8" s="3">
-        <v>1659300</v>
+        <v>1561300</v>
       </c>
       <c r="F8" s="3">
-        <v>1592800</v>
+        <v>1498800</v>
       </c>
       <c r="G8" s="3">
-        <v>1499000</v>
+        <v>1410500</v>
       </c>
       <c r="H8" s="3">
-        <v>1372900</v>
+        <v>1291800</v>
       </c>
       <c r="I8" s="3">
-        <v>1229200</v>
+        <v>1156600</v>
       </c>
       <c r="J8" s="3">
-        <v>1095600</v>
+        <v>1030900</v>
       </c>
       <c r="K8" s="3">
         <v>1049600</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1361000</v>
+        <v>1280600</v>
       </c>
       <c r="E9" s="3">
-        <v>1345500</v>
+        <v>1266000</v>
       </c>
       <c r="F9" s="3">
-        <v>1338900</v>
+        <v>1259900</v>
       </c>
       <c r="G9" s="3">
-        <v>1273300</v>
+        <v>1198100</v>
       </c>
       <c r="H9" s="3">
-        <v>2284900</v>
+        <v>2150000</v>
       </c>
       <c r="I9" s="3">
-        <v>1032500</v>
+        <v>971500</v>
       </c>
       <c r="J9" s="3">
-        <v>903600</v>
+        <v>850200</v>
       </c>
       <c r="K9" s="3">
         <v>861300</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>402200</v>
+        <v>378400</v>
       </c>
       <c r="E10" s="3">
-        <v>313800</v>
+        <v>295300</v>
       </c>
       <c r="F10" s="3">
-        <v>253900</v>
+        <v>238900</v>
       </c>
       <c r="G10" s="3">
-        <v>225700</v>
+        <v>212400</v>
       </c>
       <c r="H10" s="3">
-        <v>-912100</v>
+        <v>-858200</v>
       </c>
       <c r="I10" s="3">
-        <v>196700</v>
+        <v>185100</v>
       </c>
       <c r="J10" s="3">
-        <v>192100</v>
+        <v>180700</v>
       </c>
       <c r="K10" s="3">
         <v>188300</v>
@@ -843,26 +843,26 @@
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>10</v>
+      <c r="D12" s="3">
+        <v>3700</v>
       </c>
       <c r="E12" s="3">
-        <v>3700</v>
+        <v>3500</v>
       </c>
       <c r="F12" s="3">
+        <v>3200</v>
+      </c>
+      <c r="G12" s="3">
+        <v>3300</v>
+      </c>
+      <c r="H12" s="3">
+        <v>3600</v>
+      </c>
+      <c r="I12" s="3">
         <v>3400</v>
       </c>
-      <c r="G12" s="3">
-        <v>3500</v>
-      </c>
-      <c r="H12" s="3">
-        <v>3800</v>
-      </c>
-      <c r="I12" s="3">
-        <v>3600</v>
-      </c>
       <c r="J12" s="3">
-        <v>3500</v>
+        <v>3300</v>
       </c>
       <c r="K12" s="3">
         <v>3800</v>
@@ -915,20 +915,20 @@
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>10</v>
+      <c r="D14" s="3">
+        <v>-7000</v>
       </c>
       <c r="E14" s="3">
-        <v>3100</v>
+        <v>2900</v>
       </c>
       <c r="F14" s="3">
         <v>1400</v>
       </c>
       <c r="G14" s="3">
-        <v>2400</v>
+        <v>2200</v>
       </c>
       <c r="H14" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="I14" s="3">
         <v>200</v>
@@ -951,20 +951,20 @@
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>10</v>
+      <c r="D15" s="3">
+        <v>22900</v>
       </c>
       <c r="E15" s="3">
-        <v>22100</v>
+        <v>20800</v>
       </c>
       <c r="F15" s="3">
-        <v>22100</v>
+        <v>20800</v>
       </c>
       <c r="G15" s="3">
-        <v>10000</v>
+        <v>9400</v>
       </c>
       <c r="H15" s="3">
-        <v>9700</v>
+        <v>9200</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>10</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1579700</v>
+        <v>1477800</v>
       </c>
       <c r="E17" s="3">
-        <v>1545600</v>
+        <v>1454300</v>
       </c>
       <c r="F17" s="3">
-        <v>1525800</v>
+        <v>1435700</v>
       </c>
       <c r="G17" s="3">
-        <v>1452100</v>
+        <v>1366400</v>
       </c>
       <c r="H17" s="3">
-        <v>1320100</v>
+        <v>1242200</v>
       </c>
       <c r="I17" s="3">
-        <v>1189400</v>
+        <v>1119200</v>
       </c>
       <c r="J17" s="3">
-        <v>1047900</v>
+        <v>986000</v>
       </c>
       <c r="K17" s="3">
         <v>1006600</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>183400</v>
+        <v>181300</v>
       </c>
       <c r="E18" s="3">
-        <v>113700</v>
+        <v>107000</v>
       </c>
       <c r="F18" s="3">
-        <v>67000</v>
+        <v>63000</v>
       </c>
       <c r="G18" s="3">
-        <v>46900</v>
+        <v>44100</v>
       </c>
       <c r="H18" s="3">
-        <v>52700</v>
+        <v>49600</v>
       </c>
       <c r="I18" s="3">
-        <v>39800</v>
+        <v>37400</v>
       </c>
       <c r="J18" s="3">
-        <v>47700</v>
+        <v>44900</v>
       </c>
       <c r="K18" s="3">
         <v>43000</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>4800</v>
+        <v>-400</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
       </c>
       <c r="F20" s="3">
-        <v>-6800</v>
+        <v>-6400</v>
       </c>
       <c r="G20" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="H20" s="3">
-        <v>6900</v>
+        <v>6500</v>
       </c>
       <c r="I20" s="3">
-        <v>4900</v>
+        <v>4600</v>
       </c>
       <c r="J20" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="K20" s="3">
         <v>2800</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>403300</v>
+        <v>388200</v>
       </c>
       <c r="E21" s="3">
-        <v>333000</v>
+        <v>310900</v>
       </c>
       <c r="F21" s="3">
-        <v>180400</v>
+        <v>264500</v>
       </c>
       <c r="G21" s="3">
-        <v>152000</v>
+        <v>159900</v>
       </c>
       <c r="H21" s="3">
-        <v>143400</v>
+        <v>153900</v>
       </c>
       <c r="I21" s="3">
-        <v>120900</v>
+        <v>121400</v>
       </c>
       <c r="J21" s="3">
-        <v>124500</v>
+        <v>119500</v>
       </c>
       <c r="K21" s="3">
         <v>129400</v>
@@ -1160,26 +1160,26 @@
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>10</v>
+      <c r="D22" s="3">
+        <v>3800</v>
       </c>
       <c r="E22" s="3">
-        <v>4300</v>
+        <v>4100</v>
       </c>
       <c r="F22" s="3">
-        <v>4400</v>
+        <v>4100</v>
       </c>
       <c r="G22" s="3">
-        <v>3400</v>
+        <v>3200</v>
       </c>
       <c r="H22" s="3">
-        <v>6100</v>
+        <v>5700</v>
       </c>
       <c r="I22" s="3">
-        <v>2400</v>
+        <v>2200</v>
       </c>
       <c r="J22" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="K22" s="3">
         <v>2000</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>188200</v>
+        <v>177100</v>
       </c>
       <c r="E23" s="3">
-        <v>109300</v>
+        <v>102900</v>
       </c>
       <c r="F23" s="3">
-        <v>55800</v>
+        <v>52500</v>
       </c>
       <c r="G23" s="3">
-        <v>45500</v>
+        <v>42800</v>
       </c>
       <c r="H23" s="3">
-        <v>53500</v>
+        <v>50400</v>
       </c>
       <c r="I23" s="3">
-        <v>42300</v>
+        <v>39800</v>
       </c>
       <c r="J23" s="3">
-        <v>48200</v>
+        <v>45400</v>
       </c>
       <c r="K23" s="3">
         <v>43800</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>65100</v>
+        <v>61300</v>
       </c>
       <c r="E24" s="3">
-        <v>33000</v>
+        <v>31000</v>
       </c>
       <c r="F24" s="3">
-        <v>23100</v>
+        <v>21700</v>
       </c>
       <c r="G24" s="3">
-        <v>16700</v>
+        <v>15700</v>
       </c>
       <c r="H24" s="3">
-        <v>17900</v>
+        <v>16800</v>
       </c>
       <c r="I24" s="3">
-        <v>17300</v>
+        <v>16300</v>
       </c>
       <c r="J24" s="3">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="K24" s="3">
         <v>16200</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>123100</v>
+        <v>115800</v>
       </c>
       <c r="E26" s="3">
-        <v>76400</v>
+        <v>71800</v>
       </c>
       <c r="F26" s="3">
-        <v>32700</v>
+        <v>30700</v>
       </c>
       <c r="G26" s="3">
-        <v>28800</v>
+        <v>27100</v>
       </c>
       <c r="H26" s="3">
-        <v>35600</v>
+        <v>33500</v>
       </c>
       <c r="I26" s="3">
-        <v>24900</v>
+        <v>23500</v>
       </c>
       <c r="J26" s="3">
-        <v>31200</v>
+        <v>29400</v>
       </c>
       <c r="K26" s="3">
         <v>27700</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>122100</v>
+        <v>114900</v>
       </c>
       <c r="E27" s="3">
-        <v>75700</v>
+        <v>71200</v>
       </c>
       <c r="F27" s="3">
-        <v>31200</v>
+        <v>29400</v>
       </c>
       <c r="G27" s="3">
-        <v>27400</v>
+        <v>25800</v>
       </c>
       <c r="H27" s="3">
-        <v>35400</v>
+        <v>33300</v>
       </c>
       <c r="I27" s="3">
-        <v>24700</v>
+        <v>23200</v>
       </c>
       <c r="J27" s="3">
-        <v>31500</v>
+        <v>29600</v>
       </c>
       <c r="K27" s="3">
         <v>28300</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-4800</v>
+        <v>400</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
       </c>
       <c r="F32" s="3">
-        <v>6800</v>
+        <v>6400</v>
       </c>
       <c r="G32" s="3">
-        <v>-1900</v>
+        <v>-1800</v>
       </c>
       <c r="H32" s="3">
-        <v>-6900</v>
+        <v>-6500</v>
       </c>
       <c r="I32" s="3">
-        <v>-4900</v>
+        <v>-4600</v>
       </c>
       <c r="J32" s="3">
-        <v>-2400</v>
+        <v>-2300</v>
       </c>
       <c r="K32" s="3">
         <v>-2800</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>122100</v>
+        <v>114900</v>
       </c>
       <c r="E33" s="3">
-        <v>75700</v>
+        <v>71200</v>
       </c>
       <c r="F33" s="3">
-        <v>31200</v>
+        <v>29400</v>
       </c>
       <c r="G33" s="3">
-        <v>27400</v>
+        <v>25800</v>
       </c>
       <c r="H33" s="3">
-        <v>35500</v>
+        <v>33400</v>
       </c>
       <c r="I33" s="3">
-        <v>24700</v>
+        <v>23200</v>
       </c>
       <c r="J33" s="3">
-        <v>31500</v>
+        <v>29600</v>
       </c>
       <c r="K33" s="3">
         <v>28300</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>122100</v>
+        <v>114900</v>
       </c>
       <c r="E35" s="3">
-        <v>75700</v>
+        <v>71200</v>
       </c>
       <c r="F35" s="3">
-        <v>31200</v>
+        <v>29400</v>
       </c>
       <c r="G35" s="3">
-        <v>27400</v>
+        <v>25800</v>
       </c>
       <c r="H35" s="3">
-        <v>35500</v>
+        <v>33400</v>
       </c>
       <c r="I35" s="3">
-        <v>24700</v>
+        <v>23200</v>
       </c>
       <c r="J35" s="3">
-        <v>31500</v>
+        <v>29600</v>
       </c>
       <c r="K35" s="3">
         <v>28300</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>369200</v>
+        <v>347400</v>
       </c>
       <c r="E41" s="3">
-        <v>330800</v>
+        <v>311300</v>
       </c>
       <c r="F41" s="3">
-        <v>301300</v>
+        <v>283500</v>
       </c>
       <c r="G41" s="3">
-        <v>249000</v>
+        <v>234300</v>
       </c>
       <c r="H41" s="3">
-        <v>332800</v>
+        <v>313200</v>
       </c>
       <c r="I41" s="3">
-        <v>171100</v>
+        <v>161000</v>
       </c>
       <c r="J41" s="3">
-        <v>152400</v>
+        <v>143400</v>
       </c>
       <c r="K41" s="3">
         <v>179900</v>
@@ -1774,19 +1774,19 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>10100</v>
+        <v>9500</v>
       </c>
       <c r="E42" s="3">
-        <v>15400</v>
+        <v>14500</v>
       </c>
       <c r="F42" s="3">
-        <v>20800</v>
+        <v>19600</v>
       </c>
       <c r="G42" s="3">
-        <v>12300</v>
+        <v>11600</v>
       </c>
       <c r="H42" s="3">
-        <v>29300</v>
+        <v>27600</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>10</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>307900</v>
+        <v>289700</v>
       </c>
       <c r="E43" s="3">
-        <v>281100</v>
+        <v>264500</v>
       </c>
       <c r="F43" s="3">
-        <v>256900</v>
+        <v>241800</v>
       </c>
       <c r="G43" s="3">
-        <v>260000</v>
+        <v>244600</v>
       </c>
       <c r="H43" s="3">
-        <v>493900</v>
+        <v>464700</v>
       </c>
       <c r="I43" s="3">
-        <v>213200</v>
+        <v>200600</v>
       </c>
       <c r="J43" s="3">
-        <v>184900</v>
+        <v>173900</v>
       </c>
       <c r="K43" s="3">
         <v>189800</v>
@@ -1846,25 +1846,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>20300</v>
+        <v>19100</v>
       </c>
       <c r="E44" s="3">
-        <v>16900</v>
+        <v>15900</v>
       </c>
       <c r="F44" s="3">
-        <v>19300</v>
+        <v>18200</v>
       </c>
       <c r="G44" s="3">
-        <v>26500</v>
+        <v>24900</v>
       </c>
       <c r="H44" s="3">
-        <v>25400</v>
+        <v>23900</v>
       </c>
       <c r="I44" s="3">
-        <v>21800</v>
+        <v>20500</v>
       </c>
       <c r="J44" s="3">
-        <v>15600</v>
+        <v>14700</v>
       </c>
       <c r="K44" s="3">
         <v>10500</v>
@@ -1882,25 +1882,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>106500</v>
+        <v>100200</v>
       </c>
       <c r="E45" s="3">
-        <v>83400</v>
+        <v>78500</v>
       </c>
       <c r="F45" s="3">
-        <v>76300</v>
+        <v>71800</v>
       </c>
       <c r="G45" s="3">
-        <v>67400</v>
+        <v>63400</v>
       </c>
       <c r="H45" s="3">
-        <v>154900</v>
+        <v>145800</v>
       </c>
       <c r="I45" s="3">
-        <v>90300</v>
+        <v>85000</v>
       </c>
       <c r="J45" s="3">
-        <v>63100</v>
+        <v>59400</v>
       </c>
       <c r="K45" s="3">
         <v>64100</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>813900</v>
+        <v>765900</v>
       </c>
       <c r="E46" s="3">
-        <v>727600</v>
+        <v>684700</v>
       </c>
       <c r="F46" s="3">
-        <v>674500</v>
+        <v>634700</v>
       </c>
       <c r="G46" s="3">
-        <v>615200</v>
+        <v>578900</v>
       </c>
       <c r="H46" s="3">
-        <v>512900</v>
+        <v>482600</v>
       </c>
       <c r="I46" s="3">
-        <v>496400</v>
+        <v>467100</v>
       </c>
       <c r="J46" s="3">
-        <v>416000</v>
+        <v>391500</v>
       </c>
       <c r="K46" s="3">
         <v>444300</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>214600</v>
+        <v>202000</v>
       </c>
       <c r="E47" s="3">
-        <v>205900</v>
+        <v>193700</v>
       </c>
       <c r="F47" s="3">
-        <v>145800</v>
+        <v>137200</v>
       </c>
       <c r="G47" s="3">
-        <v>167700</v>
+        <v>157800</v>
       </c>
       <c r="H47" s="3">
-        <v>219500</v>
+        <v>206500</v>
       </c>
       <c r="I47" s="3">
-        <v>24100</v>
+        <v>22600</v>
       </c>
       <c r="J47" s="3">
-        <v>22700</v>
+        <v>21400</v>
       </c>
       <c r="K47" s="3">
         <v>21000</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>488600</v>
+        <v>459700</v>
       </c>
       <c r="E48" s="3">
-        <v>528100</v>
+        <v>496900</v>
       </c>
       <c r="F48" s="3">
-        <v>529400</v>
+        <v>498100</v>
       </c>
       <c r="G48" s="3">
-        <v>258100</v>
+        <v>242900</v>
       </c>
       <c r="H48" s="3">
-        <v>622700</v>
+        <v>585900</v>
       </c>
       <c r="I48" s="3">
-        <v>309900</v>
+        <v>291600</v>
       </c>
       <c r="J48" s="3">
-        <v>267400</v>
+        <v>251600</v>
       </c>
       <c r="K48" s="3">
         <v>250500</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>201800</v>
+        <v>189900</v>
       </c>
       <c r="E49" s="3">
-        <v>179500</v>
+        <v>168900</v>
       </c>
       <c r="F49" s="3">
-        <v>189800</v>
+        <v>178600</v>
       </c>
       <c r="G49" s="3">
-        <v>194000</v>
+        <v>182500</v>
       </c>
       <c r="H49" s="3">
-        <v>254200</v>
+        <v>239200</v>
       </c>
       <c r="I49" s="3">
-        <v>72100</v>
+        <v>67900</v>
       </c>
       <c r="J49" s="3">
-        <v>75700</v>
+        <v>71200</v>
       </c>
       <c r="K49" s="3">
         <v>86200</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>86800</v>
+        <v>81700</v>
       </c>
       <c r="E52" s="3">
-        <v>78800</v>
+        <v>74100</v>
       </c>
       <c r="F52" s="3">
-        <v>69300</v>
+        <v>65200</v>
       </c>
       <c r="G52" s="3">
-        <v>68100</v>
+        <v>64100</v>
       </c>
       <c r="H52" s="3">
-        <v>271400</v>
+        <v>255400</v>
       </c>
       <c r="I52" s="3">
-        <v>167900</v>
+        <v>158000</v>
       </c>
       <c r="J52" s="3">
-        <v>136100</v>
+        <v>128000</v>
       </c>
       <c r="K52" s="3">
         <v>125100</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1805800</v>
+        <v>1699100</v>
       </c>
       <c r="E54" s="3">
-        <v>1719900</v>
+        <v>1618300</v>
       </c>
       <c r="F54" s="3">
-        <v>1608800</v>
+        <v>1513800</v>
       </c>
       <c r="G54" s="3">
-        <v>1303200</v>
+        <v>1226200</v>
       </c>
       <c r="H54" s="3">
-        <v>1208700</v>
+        <v>1137300</v>
       </c>
       <c r="I54" s="3">
-        <v>1070300</v>
+        <v>1007100</v>
       </c>
       <c r="J54" s="3">
-        <v>917900</v>
+        <v>863700</v>
       </c>
       <c r="K54" s="3">
         <v>927300</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>161600</v>
+        <v>63900</v>
       </c>
       <c r="E57" s="3">
-        <v>49800</v>
+        <v>46800</v>
       </c>
       <c r="F57" s="3">
-        <v>46600</v>
+        <v>43800</v>
       </c>
       <c r="G57" s="3">
-        <v>60800</v>
+        <v>57200</v>
       </c>
       <c r="H57" s="3">
-        <v>158700</v>
+        <v>149300</v>
       </c>
       <c r="I57" s="3">
-        <v>114100</v>
+        <v>107400</v>
       </c>
       <c r="J57" s="3">
-        <v>108300</v>
+        <v>101900</v>
       </c>
       <c r="K57" s="3">
         <v>103900</v>
@@ -2310,25 +2310,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>127500</v>
+        <v>120000</v>
       </c>
       <c r="E58" s="3">
-        <v>144600</v>
+        <v>136000</v>
       </c>
       <c r="F58" s="3">
-        <v>121400</v>
+        <v>114200</v>
       </c>
       <c r="G58" s="3">
-        <v>150100</v>
+        <v>141200</v>
       </c>
       <c r="H58" s="3">
-        <v>232200</v>
+        <v>218400</v>
       </c>
       <c r="I58" s="3">
-        <v>109600</v>
+        <v>103100</v>
       </c>
       <c r="J58" s="3">
-        <v>102900</v>
+        <v>96800</v>
       </c>
       <c r="K58" s="3">
         <v>108900</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>309000</v>
+        <v>378800</v>
       </c>
       <c r="E59" s="3">
-        <v>376300</v>
+        <v>354100</v>
       </c>
       <c r="F59" s="3">
-        <v>343800</v>
+        <v>323500</v>
       </c>
       <c r="G59" s="3">
-        <v>201200</v>
+        <v>189300</v>
       </c>
       <c r="H59" s="3">
-        <v>265700</v>
+        <v>250000</v>
       </c>
       <c r="I59" s="3">
-        <v>87700</v>
+        <v>82500</v>
       </c>
       <c r="J59" s="3">
-        <v>69800</v>
+        <v>65600</v>
       </c>
       <c r="K59" s="3">
         <v>74900</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>598100</v>
+        <v>562800</v>
       </c>
       <c r="E60" s="3">
-        <v>570700</v>
+        <v>537000</v>
       </c>
       <c r="F60" s="3">
-        <v>511700</v>
+        <v>481500</v>
       </c>
       <c r="G60" s="3">
-        <v>412100</v>
+        <v>387800</v>
       </c>
       <c r="H60" s="3">
-        <v>328200</v>
+        <v>308900</v>
       </c>
       <c r="I60" s="3">
-        <v>311500</v>
+        <v>293100</v>
       </c>
       <c r="J60" s="3">
-        <v>281000</v>
+        <v>264400</v>
       </c>
       <c r="K60" s="3">
         <v>287800</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>42800</v>
+        <v>40300</v>
       </c>
       <c r="E61" s="3">
-        <v>54500</v>
+        <v>51300</v>
       </c>
       <c r="F61" s="3">
-        <v>94800</v>
+        <v>89200</v>
       </c>
       <c r="G61" s="3">
-        <v>198800</v>
+        <v>187000</v>
       </c>
       <c r="H61" s="3">
-        <v>205800</v>
+        <v>193600</v>
       </c>
       <c r="I61" s="3">
-        <v>147100</v>
+        <v>138400</v>
       </c>
       <c r="J61" s="3">
-        <v>60600</v>
+        <v>57000</v>
       </c>
       <c r="K61" s="3">
         <v>37000</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>349800</v>
+        <v>329200</v>
       </c>
       <c r="E62" s="3">
-        <v>386000</v>
+        <v>363200</v>
       </c>
       <c r="F62" s="3">
-        <v>378700</v>
+        <v>356300</v>
       </c>
       <c r="G62" s="3">
-        <v>91500</v>
+        <v>86100</v>
       </c>
       <c r="H62" s="3">
-        <v>173400</v>
+        <v>163100</v>
       </c>
       <c r="I62" s="3">
-        <v>86800</v>
+        <v>81700</v>
       </c>
       <c r="J62" s="3">
-        <v>67300</v>
+        <v>63400</v>
       </c>
       <c r="K62" s="3">
         <v>66400</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>999300</v>
+        <v>940300</v>
       </c>
       <c r="E66" s="3">
-        <v>1019100</v>
+        <v>958900</v>
       </c>
       <c r="F66" s="3">
-        <v>992800</v>
+        <v>934200</v>
       </c>
       <c r="G66" s="3">
-        <v>709000</v>
+        <v>667200</v>
       </c>
       <c r="H66" s="3">
-        <v>628100</v>
+        <v>591000</v>
       </c>
       <c r="I66" s="3">
-        <v>550400</v>
+        <v>517900</v>
       </c>
       <c r="J66" s="3">
-        <v>412800</v>
+        <v>388400</v>
       </c>
       <c r="K66" s="3">
         <v>394100</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>288400</v>
+        <v>271400</v>
       </c>
       <c r="E72" s="3">
-        <v>195100</v>
+        <v>183600</v>
       </c>
       <c r="F72" s="3">
-        <v>128500</v>
+        <v>121000</v>
       </c>
       <c r="G72" s="3">
-        <v>96100</v>
+        <v>90400</v>
       </c>
       <c r="H72" s="3">
-        <v>140900</v>
+        <v>132500</v>
       </c>
       <c r="I72" s="3">
-        <v>35100</v>
+        <v>33100</v>
       </c>
       <c r="J72" s="3">
-        <v>19300</v>
+        <v>18100</v>
       </c>
       <c r="K72" s="3">
         <v>-4700</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>806500</v>
+        <v>758900</v>
       </c>
       <c r="E76" s="3">
-        <v>700800</v>
+        <v>659400</v>
       </c>
       <c r="F76" s="3">
-        <v>616000</v>
+        <v>579600</v>
       </c>
       <c r="G76" s="3">
-        <v>594200</v>
+        <v>559100</v>
       </c>
       <c r="H76" s="3">
-        <v>580600</v>
+        <v>546300</v>
       </c>
       <c r="I76" s="3">
-        <v>519900</v>
+        <v>489200</v>
       </c>
       <c r="J76" s="3">
-        <v>505100</v>
+        <v>475300</v>
       </c>
       <c r="K76" s="3">
         <v>533200</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>122100</v>
+        <v>114900</v>
       </c>
       <c r="E81" s="3">
-        <v>75700</v>
+        <v>71200</v>
       </c>
       <c r="F81" s="3">
-        <v>31200</v>
+        <v>29400</v>
       </c>
       <c r="G81" s="3">
-        <v>27400</v>
+        <v>25800</v>
       </c>
       <c r="H81" s="3">
-        <v>35500</v>
+        <v>33400</v>
       </c>
       <c r="I81" s="3">
-        <v>24700</v>
+        <v>23200</v>
       </c>
       <c r="J81" s="3">
-        <v>31500</v>
+        <v>29600</v>
       </c>
       <c r="K81" s="3">
         <v>28300</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>221600</v>
+        <v>208500</v>
       </c>
       <c r="E83" s="3">
-        <v>217900</v>
+        <v>205000</v>
       </c>
       <c r="F83" s="3">
-        <v>222200</v>
+        <v>209100</v>
       </c>
       <c r="G83" s="3">
-        <v>121700</v>
+        <v>114600</v>
       </c>
       <c r="H83" s="3">
-        <v>104500</v>
+        <v>98300</v>
       </c>
       <c r="I83" s="3">
-        <v>84900</v>
+        <v>79900</v>
       </c>
       <c r="J83" s="3">
-        <v>77300</v>
+        <v>72700</v>
       </c>
       <c r="K83" s="3">
         <v>82500</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>339400</v>
+        <v>319400</v>
       </c>
       <c r="E89" s="3">
-        <v>315800</v>
+        <v>297200</v>
       </c>
       <c r="F89" s="3">
-        <v>260100</v>
+        <v>244800</v>
       </c>
       <c r="G89" s="3">
-        <v>195900</v>
+        <v>184400</v>
       </c>
       <c r="H89" s="3">
-        <v>114200</v>
+        <v>107500</v>
       </c>
       <c r="I89" s="3">
-        <v>57400</v>
+        <v>54000</v>
       </c>
       <c r="J89" s="3">
-        <v>93900</v>
+        <v>88300</v>
       </c>
       <c r="K89" s="3">
         <v>110100</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-49700</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-46800</v>
+      </c>
+      <c r="F91" s="3">
         <v>-52800</v>
       </c>
-      <c r="E91" s="3">
-        <v>-49800</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-56100</v>
-      </c>
       <c r="G91" s="3">
-        <v>-55200</v>
+        <v>-51900</v>
       </c>
       <c r="H91" s="3">
-        <v>-209300</v>
+        <v>-196900</v>
       </c>
       <c r="I91" s="3">
-        <v>-82800</v>
+        <v>-77900</v>
       </c>
       <c r="J91" s="3">
-        <v>-84900</v>
+        <v>-79900</v>
       </c>
       <c r="K91" s="3">
         <v>-69600</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-92200</v>
+        <v>-86800</v>
       </c>
       <c r="E94" s="3">
-        <v>-103000</v>
+        <v>-96900</v>
       </c>
       <c r="F94" s="3">
-        <v>-56600</v>
+        <v>-53300</v>
       </c>
       <c r="G94" s="3">
-        <v>-67700</v>
+        <v>-63700</v>
       </c>
       <c r="H94" s="3">
-        <v>-111400</v>
+        <v>-104800</v>
       </c>
       <c r="I94" s="3">
-        <v>-57500</v>
+        <v>-54100</v>
       </c>
       <c r="J94" s="3">
-        <v>-65300</v>
+        <v>-61400</v>
       </c>
       <c r="K94" s="3">
         <v>-68900</v>
@@ -3531,25 +3531,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-29900</v>
+        <v>-28100</v>
       </c>
       <c r="E96" s="3">
-        <v>-11900</v>
+        <v>-11200</v>
       </c>
       <c r="F96" s="3">
-        <v>-9500</v>
+        <v>-8900</v>
       </c>
       <c r="G96" s="3">
-        <v>-9500</v>
+        <v>-8900</v>
       </c>
       <c r="H96" s="3">
-        <v>-9500</v>
+        <v>-8900</v>
       </c>
       <c r="I96" s="3">
-        <v>-8800</v>
+        <v>-8300</v>
       </c>
       <c r="J96" s="3">
-        <v>-7900</v>
+        <v>-7400</v>
       </c>
       <c r="K96" s="3">
         <v>-8600</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-212600</v>
+        <v>-200100</v>
       </c>
       <c r="E100" s="3">
-        <v>-184000</v>
+        <v>-173100</v>
       </c>
       <c r="F100" s="3">
-        <v>-150800</v>
+        <v>-141900</v>
       </c>
       <c r="G100" s="3">
-        <v>-45900</v>
+        <v>-43200</v>
       </c>
       <c r="H100" s="3">
-        <v>-5600</v>
+        <v>-5300</v>
       </c>
       <c r="I100" s="3">
-        <v>19400</v>
+        <v>18300</v>
       </c>
       <c r="J100" s="3">
-        <v>-40500</v>
+        <v>-38100</v>
       </c>
       <c r="K100" s="3">
         <v>-53600</v>
@@ -3711,13 +3711,13 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>3800</v>
+        <v>3600</v>
       </c>
       <c r="E101" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="F101" s="3">
-        <v>-500</v>
+        <v>-400</v>
       </c>
       <c r="G101" s="3">
         <v>500</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>38400</v>
+        <v>36100</v>
       </c>
       <c r="E102" s="3">
-        <v>29600</v>
+        <v>27800</v>
       </c>
       <c r="F102" s="3">
-        <v>52300</v>
+        <v>49200</v>
       </c>
       <c r="G102" s="3">
-        <v>82900</v>
+        <v>78000</v>
       </c>
       <c r="H102" s="3">
-        <v>-3300</v>
+        <v>-3100</v>
       </c>
       <c r="I102" s="3">
-        <v>18600</v>
+        <v>17500</v>
       </c>
       <c r="J102" s="3">
-        <v>-11900</v>
+        <v>-11200</v>
       </c>
       <c r="K102" s="3">
         <v>-11300</v>

--- a/AAII_Financials/Yearly/IIJIY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/IIJIY_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1659000</v>
+        <v>1604700</v>
       </c>
       <c r="E8" s="3">
-        <v>1561300</v>
+        <v>1510200</v>
       </c>
       <c r="F8" s="3">
-        <v>1498800</v>
+        <v>1449700</v>
       </c>
       <c r="G8" s="3">
-        <v>1410500</v>
+        <v>1364300</v>
       </c>
       <c r="H8" s="3">
-        <v>1291800</v>
+        <v>1249500</v>
       </c>
       <c r="I8" s="3">
-        <v>1156600</v>
+        <v>1118700</v>
       </c>
       <c r="J8" s="3">
-        <v>1030900</v>
+        <v>997200</v>
       </c>
       <c r="K8" s="3">
         <v>1049600</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1280600</v>
+        <v>1238700</v>
       </c>
       <c r="E9" s="3">
-        <v>1266000</v>
+        <v>1224600</v>
       </c>
       <c r="F9" s="3">
-        <v>1259900</v>
+        <v>1218600</v>
       </c>
       <c r="G9" s="3">
-        <v>1198100</v>
+        <v>1158900</v>
       </c>
       <c r="H9" s="3">
-        <v>2150000</v>
+        <v>2079600</v>
       </c>
       <c r="I9" s="3">
-        <v>971500</v>
+        <v>939700</v>
       </c>
       <c r="J9" s="3">
-        <v>850200</v>
+        <v>822400</v>
       </c>
       <c r="K9" s="3">
         <v>861300</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>378400</v>
+        <v>366000</v>
       </c>
       <c r="E10" s="3">
-        <v>295300</v>
+        <v>285600</v>
       </c>
       <c r="F10" s="3">
-        <v>238900</v>
+        <v>231100</v>
       </c>
       <c r="G10" s="3">
-        <v>212400</v>
+        <v>205400</v>
       </c>
       <c r="H10" s="3">
-        <v>-858200</v>
+        <v>-830100</v>
       </c>
       <c r="I10" s="3">
-        <v>185100</v>
+        <v>179000</v>
       </c>
       <c r="J10" s="3">
-        <v>180700</v>
+        <v>174800</v>
       </c>
       <c r="K10" s="3">
         <v>188300</v>
@@ -844,25 +844,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>3700</v>
+        <v>3600</v>
       </c>
       <c r="E12" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F12" s="3">
+        <v>3100</v>
+      </c>
+      <c r="G12" s="3">
+        <v>3200</v>
+      </c>
+      <c r="H12" s="3">
         <v>3500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="I12" s="3">
+        <v>3300</v>
+      </c>
+      <c r="J12" s="3">
         <v>3200</v>
-      </c>
-      <c r="G12" s="3">
-        <v>3300</v>
-      </c>
-      <c r="H12" s="3">
-        <v>3600</v>
-      </c>
-      <c r="I12" s="3">
-        <v>3400</v>
-      </c>
-      <c r="J12" s="3">
-        <v>3300</v>
       </c>
       <c r="K12" s="3">
         <v>3800</v>
@@ -916,13 +916,13 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>-7000</v>
+        <v>-6800</v>
       </c>
       <c r="E14" s="3">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="F14" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="G14" s="3">
         <v>2200</v>
@@ -952,19 +952,19 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>22900</v>
+        <v>22200</v>
       </c>
       <c r="E15" s="3">
-        <v>20800</v>
+        <v>20100</v>
       </c>
       <c r="F15" s="3">
-        <v>20800</v>
+        <v>20100</v>
       </c>
       <c r="G15" s="3">
-        <v>9400</v>
+        <v>9100</v>
       </c>
       <c r="H15" s="3">
-        <v>9200</v>
+        <v>8900</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>10</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1477800</v>
+        <v>1429400</v>
       </c>
       <c r="E17" s="3">
-        <v>1454300</v>
+        <v>1406700</v>
       </c>
       <c r="F17" s="3">
-        <v>1435700</v>
+        <v>1388700</v>
       </c>
       <c r="G17" s="3">
-        <v>1366400</v>
+        <v>1321600</v>
       </c>
       <c r="H17" s="3">
-        <v>1242200</v>
+        <v>1201500</v>
       </c>
       <c r="I17" s="3">
-        <v>1119200</v>
+        <v>1082500</v>
       </c>
       <c r="J17" s="3">
-        <v>986000</v>
+        <v>953800</v>
       </c>
       <c r="K17" s="3">
         <v>1006600</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>181300</v>
+        <v>175300</v>
       </c>
       <c r="E18" s="3">
-        <v>107000</v>
+        <v>103500</v>
       </c>
       <c r="F18" s="3">
-        <v>63000</v>
+        <v>61000</v>
       </c>
       <c r="G18" s="3">
-        <v>44100</v>
+        <v>42700</v>
       </c>
       <c r="H18" s="3">
-        <v>49600</v>
+        <v>48000</v>
       </c>
       <c r="I18" s="3">
-        <v>37400</v>
+        <v>36200</v>
       </c>
       <c r="J18" s="3">
-        <v>44900</v>
+        <v>43400</v>
       </c>
       <c r="K18" s="3">
         <v>43000</v>
@@ -1095,19 +1095,19 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
-        <v>-6400</v>
+        <v>-6200</v>
       </c>
       <c r="G20" s="3">
         <v>1800</v>
       </c>
       <c r="H20" s="3">
-        <v>6500</v>
+        <v>6300</v>
       </c>
       <c r="I20" s="3">
-        <v>4600</v>
+        <v>4400</v>
       </c>
       <c r="J20" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="K20" s="3">
         <v>2800</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>388200</v>
+        <v>369200</v>
       </c>
       <c r="E21" s="3">
-        <v>310900</v>
+        <v>294500</v>
       </c>
       <c r="F21" s="3">
-        <v>264500</v>
+        <v>249600</v>
       </c>
       <c r="G21" s="3">
-        <v>159900</v>
+        <v>151200</v>
       </c>
       <c r="H21" s="3">
-        <v>153900</v>
+        <v>145900</v>
       </c>
       <c r="I21" s="3">
-        <v>121400</v>
+        <v>115000</v>
       </c>
       <c r="J21" s="3">
-        <v>119500</v>
+        <v>113400</v>
       </c>
       <c r="K21" s="3">
         <v>129400</v>
@@ -1161,25 +1161,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>3800</v>
+        <v>3600</v>
       </c>
       <c r="E22" s="3">
-        <v>4100</v>
+        <v>3900</v>
       </c>
       <c r="F22" s="3">
-        <v>4100</v>
+        <v>4000</v>
       </c>
       <c r="G22" s="3">
-        <v>3200</v>
+        <v>3000</v>
       </c>
       <c r="H22" s="3">
-        <v>5700</v>
+        <v>5500</v>
       </c>
       <c r="I22" s="3">
         <v>2200</v>
       </c>
       <c r="J22" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="K22" s="3">
         <v>2000</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>177100</v>
+        <v>171300</v>
       </c>
       <c r="E23" s="3">
-        <v>102900</v>
+        <v>99500</v>
       </c>
       <c r="F23" s="3">
-        <v>52500</v>
+        <v>50800</v>
       </c>
       <c r="G23" s="3">
-        <v>42800</v>
+        <v>41400</v>
       </c>
       <c r="H23" s="3">
-        <v>50400</v>
+        <v>48700</v>
       </c>
       <c r="I23" s="3">
-        <v>39800</v>
+        <v>38500</v>
       </c>
       <c r="J23" s="3">
-        <v>45400</v>
+        <v>43900</v>
       </c>
       <c r="K23" s="3">
         <v>43800</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>61300</v>
+        <v>59300</v>
       </c>
       <c r="E24" s="3">
-        <v>31000</v>
+        <v>30000</v>
       </c>
       <c r="F24" s="3">
-        <v>21700</v>
+        <v>21000</v>
       </c>
       <c r="G24" s="3">
-        <v>15700</v>
+        <v>15200</v>
       </c>
       <c r="H24" s="3">
-        <v>16800</v>
+        <v>16300</v>
       </c>
       <c r="I24" s="3">
-        <v>16300</v>
+        <v>15800</v>
       </c>
       <c r="J24" s="3">
-        <v>16000</v>
+        <v>15500</v>
       </c>
       <c r="K24" s="3">
         <v>16200</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>115800</v>
+        <v>112000</v>
       </c>
       <c r="E26" s="3">
-        <v>71800</v>
+        <v>69500</v>
       </c>
       <c r="F26" s="3">
-        <v>30700</v>
+        <v>29700</v>
       </c>
       <c r="G26" s="3">
-        <v>27100</v>
+        <v>26200</v>
       </c>
       <c r="H26" s="3">
-        <v>33500</v>
+        <v>32400</v>
       </c>
       <c r="I26" s="3">
-        <v>23500</v>
+        <v>22700</v>
       </c>
       <c r="J26" s="3">
-        <v>29400</v>
+        <v>28400</v>
       </c>
       <c r="K26" s="3">
         <v>27700</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>114900</v>
+        <v>111100</v>
       </c>
       <c r="E27" s="3">
-        <v>71200</v>
+        <v>68900</v>
       </c>
       <c r="F27" s="3">
-        <v>29400</v>
+        <v>28400</v>
       </c>
       <c r="G27" s="3">
-        <v>25800</v>
+        <v>25000</v>
       </c>
       <c r="H27" s="3">
-        <v>33300</v>
+        <v>32200</v>
       </c>
       <c r="I27" s="3">
-        <v>23200</v>
+        <v>22500</v>
       </c>
       <c r="J27" s="3">
-        <v>29600</v>
+        <v>28600</v>
       </c>
       <c r="K27" s="3">
         <v>28300</v>
@@ -1527,19 +1527,19 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
-        <v>6400</v>
+        <v>6200</v>
       </c>
       <c r="G32" s="3">
         <v>-1800</v>
       </c>
       <c r="H32" s="3">
-        <v>-6500</v>
+        <v>-6300</v>
       </c>
       <c r="I32" s="3">
-        <v>-4600</v>
+        <v>-4400</v>
       </c>
       <c r="J32" s="3">
-        <v>-2300</v>
+        <v>-2200</v>
       </c>
       <c r="K32" s="3">
         <v>-2800</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>114900</v>
+        <v>111100</v>
       </c>
       <c r="E33" s="3">
-        <v>71200</v>
+        <v>68900</v>
       </c>
       <c r="F33" s="3">
-        <v>29400</v>
+        <v>28400</v>
       </c>
       <c r="G33" s="3">
-        <v>25800</v>
+        <v>25000</v>
       </c>
       <c r="H33" s="3">
-        <v>33400</v>
+        <v>32300</v>
       </c>
       <c r="I33" s="3">
-        <v>23200</v>
+        <v>22500</v>
       </c>
       <c r="J33" s="3">
-        <v>29600</v>
+        <v>28600</v>
       </c>
       <c r="K33" s="3">
         <v>28300</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>114900</v>
+        <v>111100</v>
       </c>
       <c r="E35" s="3">
-        <v>71200</v>
+        <v>68900</v>
       </c>
       <c r="F35" s="3">
-        <v>29400</v>
+        <v>28400</v>
       </c>
       <c r="G35" s="3">
-        <v>25800</v>
+        <v>25000</v>
       </c>
       <c r="H35" s="3">
-        <v>33400</v>
+        <v>32300</v>
       </c>
       <c r="I35" s="3">
-        <v>23200</v>
+        <v>22500</v>
       </c>
       <c r="J35" s="3">
-        <v>29600</v>
+        <v>28600</v>
       </c>
       <c r="K35" s="3">
         <v>28300</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>347400</v>
+        <v>336000</v>
       </c>
       <c r="E41" s="3">
-        <v>311300</v>
+        <v>301100</v>
       </c>
       <c r="F41" s="3">
-        <v>283500</v>
+        <v>274200</v>
       </c>
       <c r="G41" s="3">
-        <v>234300</v>
+        <v>226600</v>
       </c>
       <c r="H41" s="3">
-        <v>313200</v>
+        <v>302900</v>
       </c>
       <c r="I41" s="3">
-        <v>161000</v>
+        <v>155700</v>
       </c>
       <c r="J41" s="3">
-        <v>143400</v>
+        <v>138700</v>
       </c>
       <c r="K41" s="3">
         <v>179900</v>
@@ -1774,19 +1774,19 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>9500</v>
+        <v>9200</v>
       </c>
       <c r="E42" s="3">
-        <v>14500</v>
+        <v>14000</v>
       </c>
       <c r="F42" s="3">
-        <v>19600</v>
+        <v>18900</v>
       </c>
       <c r="G42" s="3">
-        <v>11600</v>
+        <v>11200</v>
       </c>
       <c r="H42" s="3">
-        <v>27600</v>
+        <v>26600</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>10</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>289700</v>
+        <v>280200</v>
       </c>
       <c r="E43" s="3">
-        <v>264500</v>
+        <v>255800</v>
       </c>
       <c r="F43" s="3">
-        <v>241800</v>
+        <v>233800</v>
       </c>
       <c r="G43" s="3">
-        <v>244600</v>
+        <v>236600</v>
       </c>
       <c r="H43" s="3">
-        <v>464700</v>
+        <v>449500</v>
       </c>
       <c r="I43" s="3">
-        <v>200600</v>
+        <v>194000</v>
       </c>
       <c r="J43" s="3">
-        <v>173900</v>
+        <v>168300</v>
       </c>
       <c r="K43" s="3">
         <v>189800</v>
@@ -1846,25 +1846,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>19100</v>
+        <v>18500</v>
       </c>
       <c r="E44" s="3">
-        <v>15900</v>
+        <v>15400</v>
       </c>
       <c r="F44" s="3">
-        <v>18200</v>
+        <v>17600</v>
       </c>
       <c r="G44" s="3">
-        <v>24900</v>
+        <v>24100</v>
       </c>
       <c r="H44" s="3">
-        <v>23900</v>
+        <v>23100</v>
       </c>
       <c r="I44" s="3">
-        <v>20500</v>
+        <v>19800</v>
       </c>
       <c r="J44" s="3">
-        <v>14700</v>
+        <v>14200</v>
       </c>
       <c r="K44" s="3">
         <v>10500</v>
@@ -1882,25 +1882,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>100200</v>
+        <v>96900</v>
       </c>
       <c r="E45" s="3">
-        <v>78500</v>
+        <v>75900</v>
       </c>
       <c r="F45" s="3">
-        <v>71800</v>
+        <v>69400</v>
       </c>
       <c r="G45" s="3">
-        <v>63400</v>
+        <v>61400</v>
       </c>
       <c r="H45" s="3">
-        <v>145800</v>
+        <v>141000</v>
       </c>
       <c r="I45" s="3">
-        <v>85000</v>
+        <v>82200</v>
       </c>
       <c r="J45" s="3">
-        <v>59400</v>
+        <v>57400</v>
       </c>
       <c r="K45" s="3">
         <v>64100</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>765900</v>
+        <v>740800</v>
       </c>
       <c r="E46" s="3">
-        <v>684700</v>
+        <v>662200</v>
       </c>
       <c r="F46" s="3">
-        <v>634700</v>
+        <v>613900</v>
       </c>
       <c r="G46" s="3">
-        <v>578900</v>
+        <v>559900</v>
       </c>
       <c r="H46" s="3">
-        <v>482600</v>
+        <v>466800</v>
       </c>
       <c r="I46" s="3">
-        <v>467100</v>
+        <v>451800</v>
       </c>
       <c r="J46" s="3">
-        <v>391500</v>
+        <v>378600</v>
       </c>
       <c r="K46" s="3">
         <v>444300</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>202000</v>
+        <v>195300</v>
       </c>
       <c r="E47" s="3">
-        <v>193700</v>
+        <v>187400</v>
       </c>
       <c r="F47" s="3">
-        <v>137200</v>
+        <v>132700</v>
       </c>
       <c r="G47" s="3">
-        <v>157800</v>
+        <v>152700</v>
       </c>
       <c r="H47" s="3">
-        <v>206500</v>
+        <v>199700</v>
       </c>
       <c r="I47" s="3">
-        <v>22600</v>
+        <v>21900</v>
       </c>
       <c r="J47" s="3">
-        <v>21400</v>
+        <v>20700</v>
       </c>
       <c r="K47" s="3">
         <v>21000</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>459700</v>
+        <v>444700</v>
       </c>
       <c r="E48" s="3">
-        <v>496900</v>
+        <v>480600</v>
       </c>
       <c r="F48" s="3">
-        <v>498100</v>
+        <v>481800</v>
       </c>
       <c r="G48" s="3">
-        <v>242900</v>
+        <v>234900</v>
       </c>
       <c r="H48" s="3">
-        <v>585900</v>
+        <v>566800</v>
       </c>
       <c r="I48" s="3">
-        <v>291600</v>
+        <v>282000</v>
       </c>
       <c r="J48" s="3">
-        <v>251600</v>
+        <v>243400</v>
       </c>
       <c r="K48" s="3">
         <v>250500</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>189900</v>
+        <v>183700</v>
       </c>
       <c r="E49" s="3">
-        <v>168900</v>
+        <v>163300</v>
       </c>
       <c r="F49" s="3">
-        <v>178600</v>
+        <v>172700</v>
       </c>
       <c r="G49" s="3">
-        <v>182500</v>
+        <v>176500</v>
       </c>
       <c r="H49" s="3">
-        <v>239200</v>
+        <v>231400</v>
       </c>
       <c r="I49" s="3">
-        <v>67900</v>
+        <v>65600</v>
       </c>
       <c r="J49" s="3">
-        <v>71200</v>
+        <v>68900</v>
       </c>
       <c r="K49" s="3">
         <v>86200</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>81700</v>
+        <v>79000</v>
       </c>
       <c r="E52" s="3">
-        <v>74100</v>
+        <v>71700</v>
       </c>
       <c r="F52" s="3">
-        <v>65200</v>
+        <v>63000</v>
       </c>
       <c r="G52" s="3">
-        <v>64100</v>
+        <v>62000</v>
       </c>
       <c r="H52" s="3">
-        <v>255400</v>
+        <v>247000</v>
       </c>
       <c r="I52" s="3">
-        <v>158000</v>
+        <v>152800</v>
       </c>
       <c r="J52" s="3">
-        <v>128000</v>
+        <v>123800</v>
       </c>
       <c r="K52" s="3">
         <v>125100</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1699100</v>
+        <v>1643500</v>
       </c>
       <c r="E54" s="3">
-        <v>1618300</v>
+        <v>1565300</v>
       </c>
       <c r="F54" s="3">
-        <v>1513800</v>
+        <v>1464300</v>
       </c>
       <c r="G54" s="3">
-        <v>1226200</v>
+        <v>1186100</v>
       </c>
       <c r="H54" s="3">
-        <v>1137300</v>
+        <v>1100100</v>
       </c>
       <c r="I54" s="3">
-        <v>1007100</v>
+        <v>974100</v>
       </c>
       <c r="J54" s="3">
-        <v>863700</v>
+        <v>835400</v>
       </c>
       <c r="K54" s="3">
         <v>927300</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>63900</v>
+        <v>61800</v>
       </c>
       <c r="E57" s="3">
-        <v>46800</v>
+        <v>45300</v>
       </c>
       <c r="F57" s="3">
-        <v>43800</v>
+        <v>42400</v>
       </c>
       <c r="G57" s="3">
-        <v>57200</v>
+        <v>55400</v>
       </c>
       <c r="H57" s="3">
-        <v>149300</v>
+        <v>144500</v>
       </c>
       <c r="I57" s="3">
-        <v>107400</v>
+        <v>103900</v>
       </c>
       <c r="J57" s="3">
-        <v>101900</v>
+        <v>98600</v>
       </c>
       <c r="K57" s="3">
         <v>103900</v>
@@ -2310,25 +2310,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>120000</v>
+        <v>116100</v>
       </c>
       <c r="E58" s="3">
-        <v>136000</v>
+        <v>131600</v>
       </c>
       <c r="F58" s="3">
-        <v>114200</v>
+        <v>110500</v>
       </c>
       <c r="G58" s="3">
-        <v>141200</v>
+        <v>136600</v>
       </c>
       <c r="H58" s="3">
-        <v>218400</v>
+        <v>211300</v>
       </c>
       <c r="I58" s="3">
-        <v>103100</v>
+        <v>99700</v>
       </c>
       <c r="J58" s="3">
-        <v>96800</v>
+        <v>93600</v>
       </c>
       <c r="K58" s="3">
         <v>108900</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>378800</v>
+        <v>366400</v>
       </c>
       <c r="E59" s="3">
-        <v>354100</v>
+        <v>342500</v>
       </c>
       <c r="F59" s="3">
-        <v>323500</v>
+        <v>312900</v>
       </c>
       <c r="G59" s="3">
-        <v>189300</v>
+        <v>183100</v>
       </c>
       <c r="H59" s="3">
-        <v>250000</v>
+        <v>241800</v>
       </c>
       <c r="I59" s="3">
-        <v>82500</v>
+        <v>79800</v>
       </c>
       <c r="J59" s="3">
-        <v>65600</v>
+        <v>63500</v>
       </c>
       <c r="K59" s="3">
         <v>74900</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>562800</v>
+        <v>544400</v>
       </c>
       <c r="E60" s="3">
-        <v>537000</v>
+        <v>519400</v>
       </c>
       <c r="F60" s="3">
-        <v>481500</v>
+        <v>465700</v>
       </c>
       <c r="G60" s="3">
-        <v>387800</v>
+        <v>375100</v>
       </c>
       <c r="H60" s="3">
-        <v>308900</v>
+        <v>298800</v>
       </c>
       <c r="I60" s="3">
-        <v>293100</v>
+        <v>283500</v>
       </c>
       <c r="J60" s="3">
-        <v>264400</v>
+        <v>255700</v>
       </c>
       <c r="K60" s="3">
         <v>287800</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>40300</v>
+        <v>39000</v>
       </c>
       <c r="E61" s="3">
-        <v>51300</v>
+        <v>49600</v>
       </c>
       <c r="F61" s="3">
-        <v>89200</v>
+        <v>86300</v>
       </c>
       <c r="G61" s="3">
-        <v>187000</v>
+        <v>180900</v>
       </c>
       <c r="H61" s="3">
-        <v>193600</v>
+        <v>187300</v>
       </c>
       <c r="I61" s="3">
-        <v>138400</v>
+        <v>133900</v>
       </c>
       <c r="J61" s="3">
-        <v>57000</v>
+        <v>55200</v>
       </c>
       <c r="K61" s="3">
         <v>37000</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>329200</v>
+        <v>318400</v>
       </c>
       <c r="E62" s="3">
-        <v>363200</v>
+        <v>351300</v>
       </c>
       <c r="F62" s="3">
-        <v>356300</v>
+        <v>344600</v>
       </c>
       <c r="G62" s="3">
-        <v>86100</v>
+        <v>83300</v>
       </c>
       <c r="H62" s="3">
-        <v>163100</v>
+        <v>157800</v>
       </c>
       <c r="I62" s="3">
-        <v>81700</v>
+        <v>79000</v>
       </c>
       <c r="J62" s="3">
-        <v>63400</v>
+        <v>61300</v>
       </c>
       <c r="K62" s="3">
         <v>66400</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>940300</v>
+        <v>909500</v>
       </c>
       <c r="E66" s="3">
-        <v>958900</v>
+        <v>927500</v>
       </c>
       <c r="F66" s="3">
-        <v>934200</v>
+        <v>903600</v>
       </c>
       <c r="G66" s="3">
-        <v>667200</v>
+        <v>645300</v>
       </c>
       <c r="H66" s="3">
-        <v>591000</v>
+        <v>571700</v>
       </c>
       <c r="I66" s="3">
-        <v>517900</v>
+        <v>500900</v>
       </c>
       <c r="J66" s="3">
-        <v>388400</v>
+        <v>375700</v>
       </c>
       <c r="K66" s="3">
         <v>394100</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>271400</v>
+        <v>262500</v>
       </c>
       <c r="E72" s="3">
-        <v>183600</v>
+        <v>177600</v>
       </c>
       <c r="F72" s="3">
-        <v>121000</v>
+        <v>117000</v>
       </c>
       <c r="G72" s="3">
-        <v>90400</v>
+        <v>87500</v>
       </c>
       <c r="H72" s="3">
-        <v>132500</v>
+        <v>128200</v>
       </c>
       <c r="I72" s="3">
-        <v>33100</v>
+        <v>32000</v>
       </c>
       <c r="J72" s="3">
-        <v>18100</v>
+        <v>17500</v>
       </c>
       <c r="K72" s="3">
         <v>-4700</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>758900</v>
+        <v>734000</v>
       </c>
       <c r="E76" s="3">
-        <v>659400</v>
+        <v>637800</v>
       </c>
       <c r="F76" s="3">
-        <v>579600</v>
+        <v>560600</v>
       </c>
       <c r="G76" s="3">
-        <v>559100</v>
+        <v>540800</v>
       </c>
       <c r="H76" s="3">
-        <v>546300</v>
+        <v>528400</v>
       </c>
       <c r="I76" s="3">
-        <v>489200</v>
+        <v>473200</v>
       </c>
       <c r="J76" s="3">
-        <v>475300</v>
+        <v>459800</v>
       </c>
       <c r="K76" s="3">
         <v>533200</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>114900</v>
+        <v>111100</v>
       </c>
       <c r="E81" s="3">
-        <v>71200</v>
+        <v>68900</v>
       </c>
       <c r="F81" s="3">
-        <v>29400</v>
+        <v>28400</v>
       </c>
       <c r="G81" s="3">
-        <v>25800</v>
+        <v>25000</v>
       </c>
       <c r="H81" s="3">
-        <v>33400</v>
+        <v>32300</v>
       </c>
       <c r="I81" s="3">
-        <v>23200</v>
+        <v>22500</v>
       </c>
       <c r="J81" s="3">
-        <v>29600</v>
+        <v>28600</v>
       </c>
       <c r="K81" s="3">
         <v>28300</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>208500</v>
+        <v>201700</v>
       </c>
       <c r="E83" s="3">
-        <v>205000</v>
+        <v>198300</v>
       </c>
       <c r="F83" s="3">
-        <v>209100</v>
+        <v>202200</v>
       </c>
       <c r="G83" s="3">
-        <v>114600</v>
+        <v>110800</v>
       </c>
       <c r="H83" s="3">
-        <v>98300</v>
+        <v>95100</v>
       </c>
       <c r="I83" s="3">
-        <v>79900</v>
+        <v>77200</v>
       </c>
       <c r="J83" s="3">
-        <v>72700</v>
+        <v>70300</v>
       </c>
       <c r="K83" s="3">
         <v>82500</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>319400</v>
+        <v>308900</v>
       </c>
       <c r="E89" s="3">
-        <v>297200</v>
+        <v>287500</v>
       </c>
       <c r="F89" s="3">
-        <v>244800</v>
+        <v>236800</v>
       </c>
       <c r="G89" s="3">
-        <v>184400</v>
+        <v>178300</v>
       </c>
       <c r="H89" s="3">
-        <v>107500</v>
+        <v>104000</v>
       </c>
       <c r="I89" s="3">
-        <v>54000</v>
+        <v>52200</v>
       </c>
       <c r="J89" s="3">
-        <v>88300</v>
+        <v>85400</v>
       </c>
       <c r="K89" s="3">
         <v>110100</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-49700</v>
+        <v>-48100</v>
       </c>
       <c r="E91" s="3">
-        <v>-46800</v>
+        <v>-45300</v>
       </c>
       <c r="F91" s="3">
-        <v>-52800</v>
+        <v>-51000</v>
       </c>
       <c r="G91" s="3">
-        <v>-51900</v>
+        <v>-50200</v>
       </c>
       <c r="H91" s="3">
-        <v>-196900</v>
+        <v>-190500</v>
       </c>
       <c r="I91" s="3">
-        <v>-77900</v>
+        <v>-75300</v>
       </c>
       <c r="J91" s="3">
-        <v>-79900</v>
+        <v>-77300</v>
       </c>
       <c r="K91" s="3">
         <v>-69600</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-86800</v>
+        <v>-83900</v>
       </c>
       <c r="E94" s="3">
-        <v>-96900</v>
+        <v>-93700</v>
       </c>
       <c r="F94" s="3">
-        <v>-53300</v>
+        <v>-51500</v>
       </c>
       <c r="G94" s="3">
-        <v>-63700</v>
+        <v>-61600</v>
       </c>
       <c r="H94" s="3">
-        <v>-104800</v>
+        <v>-101400</v>
       </c>
       <c r="I94" s="3">
-        <v>-54100</v>
+        <v>-52300</v>
       </c>
       <c r="J94" s="3">
-        <v>-61400</v>
+        <v>-59400</v>
       </c>
       <c r="K94" s="3">
         <v>-68900</v>
@@ -3531,25 +3531,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-28100</v>
+        <v>-27200</v>
       </c>
       <c r="E96" s="3">
-        <v>-11200</v>
+        <v>-10900</v>
       </c>
       <c r="F96" s="3">
-        <v>-8900</v>
+        <v>-8600</v>
       </c>
       <c r="G96" s="3">
-        <v>-8900</v>
+        <v>-8600</v>
       </c>
       <c r="H96" s="3">
-        <v>-8900</v>
+        <v>-8600</v>
       </c>
       <c r="I96" s="3">
-        <v>-8300</v>
+        <v>-8000</v>
       </c>
       <c r="J96" s="3">
-        <v>-7400</v>
+        <v>-7200</v>
       </c>
       <c r="K96" s="3">
         <v>-8600</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-200100</v>
+        <v>-193500</v>
       </c>
       <c r="E100" s="3">
-        <v>-173100</v>
+        <v>-167400</v>
       </c>
       <c r="F100" s="3">
-        <v>-141900</v>
+        <v>-137200</v>
       </c>
       <c r="G100" s="3">
-        <v>-43200</v>
+        <v>-41800</v>
       </c>
       <c r="H100" s="3">
-        <v>-5300</v>
+        <v>-5100</v>
       </c>
       <c r="I100" s="3">
-        <v>18300</v>
+        <v>17700</v>
       </c>
       <c r="J100" s="3">
-        <v>-38100</v>
+        <v>-36900</v>
       </c>
       <c r="K100" s="3">
         <v>-53600</v>
@@ -3711,7 +3711,7 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>3600</v>
+        <v>3400</v>
       </c>
       <c r="E101" s="3">
         <v>600</v>
@@ -3720,10 +3720,10 @@
         <v>-400</v>
       </c>
       <c r="G101" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="H101" s="3">
-        <v>-600</v>
+        <v>-500</v>
       </c>
       <c r="I101" s="3">
         <v>-700</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>36100</v>
+        <v>34900</v>
       </c>
       <c r="E102" s="3">
-        <v>27800</v>
+        <v>26900</v>
       </c>
       <c r="F102" s="3">
-        <v>49200</v>
+        <v>47600</v>
       </c>
       <c r="G102" s="3">
-        <v>78000</v>
+        <v>75400</v>
       </c>
       <c r="H102" s="3">
-        <v>-3100</v>
+        <v>-3000</v>
       </c>
       <c r="I102" s="3">
-        <v>17500</v>
+        <v>16900</v>
       </c>
       <c r="J102" s="3">
-        <v>-11200</v>
+        <v>-10800</v>
       </c>
       <c r="K102" s="3">
         <v>-11300</v>

--- a/AAII_Financials/Yearly/IIJIY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/IIJIY_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1604700</v>
+        <v>1663600</v>
       </c>
       <c r="E8" s="3">
-        <v>1510200</v>
+        <v>1565600</v>
       </c>
       <c r="F8" s="3">
-        <v>1449700</v>
+        <v>1502900</v>
       </c>
       <c r="G8" s="3">
-        <v>1364300</v>
+        <v>1414400</v>
       </c>
       <c r="H8" s="3">
-        <v>1249500</v>
+        <v>1295300</v>
       </c>
       <c r="I8" s="3">
-        <v>1118700</v>
+        <v>1159700</v>
       </c>
       <c r="J8" s="3">
-        <v>997200</v>
+        <v>1033800</v>
       </c>
       <c r="K8" s="3">
         <v>1049600</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1238700</v>
+        <v>1284100</v>
       </c>
       <c r="E9" s="3">
-        <v>1224600</v>
+        <v>1269500</v>
       </c>
       <c r="F9" s="3">
-        <v>1218600</v>
+        <v>1263300</v>
       </c>
       <c r="G9" s="3">
-        <v>1158900</v>
+        <v>1201400</v>
       </c>
       <c r="H9" s="3">
-        <v>2079600</v>
+        <v>2155900</v>
       </c>
       <c r="I9" s="3">
-        <v>939700</v>
+        <v>974200</v>
       </c>
       <c r="J9" s="3">
-        <v>822400</v>
+        <v>852500</v>
       </c>
       <c r="K9" s="3">
         <v>861300</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>366000</v>
+        <v>379500</v>
       </c>
       <c r="E10" s="3">
-        <v>285600</v>
+        <v>296100</v>
       </c>
       <c r="F10" s="3">
-        <v>231100</v>
+        <v>239600</v>
       </c>
       <c r="G10" s="3">
-        <v>205400</v>
+        <v>213000</v>
       </c>
       <c r="H10" s="3">
-        <v>-830100</v>
+        <v>-860600</v>
       </c>
       <c r="I10" s="3">
-        <v>179000</v>
+        <v>185600</v>
       </c>
       <c r="J10" s="3">
-        <v>174800</v>
+        <v>181200</v>
       </c>
       <c r="K10" s="3">
         <v>188300</v>
@@ -844,25 +844,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E12" s="3">
+        <v>3500</v>
+      </c>
+      <c r="F12" s="3">
+        <v>3200</v>
+      </c>
+      <c r="G12" s="3">
+        <v>3300</v>
+      </c>
+      <c r="H12" s="3">
         <v>3600</v>
       </c>
-      <c r="E12" s="3">
+      <c r="I12" s="3">
+        <v>3400</v>
+      </c>
+      <c r="J12" s="3">
         <v>3300</v>
-      </c>
-      <c r="F12" s="3">
-        <v>3100</v>
-      </c>
-      <c r="G12" s="3">
-        <v>3200</v>
-      </c>
-      <c r="H12" s="3">
-        <v>3500</v>
-      </c>
-      <c r="I12" s="3">
-        <v>3300</v>
-      </c>
-      <c r="J12" s="3">
-        <v>3200</v>
       </c>
       <c r="K12" s="3">
         <v>3800</v>
@@ -916,16 +916,16 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>-6800</v>
+        <v>10300</v>
       </c>
       <c r="E14" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="F14" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="G14" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="H14" s="3">
         <v>1600</v>
@@ -952,19 +952,19 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>22200</v>
+        <v>23000</v>
       </c>
       <c r="E15" s="3">
-        <v>20100</v>
+        <v>20900</v>
       </c>
       <c r="F15" s="3">
-        <v>20100</v>
+        <v>20900</v>
       </c>
       <c r="G15" s="3">
-        <v>9100</v>
+        <v>9400</v>
       </c>
       <c r="H15" s="3">
-        <v>8900</v>
+        <v>9200</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>10</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1429400</v>
+        <v>1499200</v>
       </c>
       <c r="E17" s="3">
-        <v>1406700</v>
+        <v>1458300</v>
       </c>
       <c r="F17" s="3">
-        <v>1388700</v>
+        <v>1439700</v>
       </c>
       <c r="G17" s="3">
-        <v>1321600</v>
+        <v>1370100</v>
       </c>
       <c r="H17" s="3">
-        <v>1201500</v>
+        <v>1245600</v>
       </c>
       <c r="I17" s="3">
-        <v>1082500</v>
+        <v>1122200</v>
       </c>
       <c r="J17" s="3">
-        <v>953800</v>
+        <v>988700</v>
       </c>
       <c r="K17" s="3">
         <v>1006600</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>175300</v>
+        <v>164400</v>
       </c>
       <c r="E18" s="3">
-        <v>103500</v>
+        <v>107300</v>
       </c>
       <c r="F18" s="3">
-        <v>61000</v>
+        <v>63200</v>
       </c>
       <c r="G18" s="3">
-        <v>42700</v>
+        <v>44300</v>
       </c>
       <c r="H18" s="3">
-        <v>48000</v>
+        <v>49800</v>
       </c>
       <c r="I18" s="3">
-        <v>36200</v>
+        <v>37500</v>
       </c>
       <c r="J18" s="3">
-        <v>43400</v>
+        <v>45000</v>
       </c>
       <c r="K18" s="3">
         <v>43000</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-400</v>
+        <v>17000</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
       </c>
       <c r="F20" s="3">
-        <v>-6200</v>
+        <v>-6400</v>
       </c>
       <c r="G20" s="3">
         <v>1800</v>
       </c>
       <c r="H20" s="3">
-        <v>6300</v>
+        <v>6500</v>
       </c>
       <c r="I20" s="3">
-        <v>4400</v>
+        <v>4600</v>
       </c>
       <c r="J20" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="K20" s="3">
         <v>2800</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>369200</v>
+        <v>388400</v>
       </c>
       <c r="E21" s="3">
-        <v>294500</v>
+        <v>310900</v>
       </c>
       <c r="F21" s="3">
-        <v>249600</v>
+        <v>264400</v>
       </c>
       <c r="G21" s="3">
-        <v>151200</v>
+        <v>159900</v>
       </c>
       <c r="H21" s="3">
-        <v>145900</v>
+        <v>153900</v>
       </c>
       <c r="I21" s="3">
-        <v>115000</v>
+        <v>121400</v>
       </c>
       <c r="J21" s="3">
-        <v>113400</v>
+        <v>119500</v>
       </c>
       <c r="K21" s="3">
         <v>129400</v>
@@ -1161,25 +1161,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>3600</v>
+        <v>3800</v>
       </c>
       <c r="E22" s="3">
-        <v>3900</v>
+        <v>4100</v>
       </c>
       <c r="F22" s="3">
-        <v>4000</v>
+        <v>4200</v>
       </c>
       <c r="G22" s="3">
-        <v>3000</v>
+        <v>3200</v>
       </c>
       <c r="H22" s="3">
-        <v>5500</v>
+        <v>5700</v>
       </c>
       <c r="I22" s="3">
         <v>2200</v>
       </c>
       <c r="J22" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="K22" s="3">
         <v>2000</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>171300</v>
+        <v>177600</v>
       </c>
       <c r="E23" s="3">
-        <v>99500</v>
+        <v>103200</v>
       </c>
       <c r="F23" s="3">
-        <v>50800</v>
+        <v>52600</v>
       </c>
       <c r="G23" s="3">
-        <v>41400</v>
+        <v>42900</v>
       </c>
       <c r="H23" s="3">
-        <v>48700</v>
+        <v>50500</v>
       </c>
       <c r="I23" s="3">
-        <v>38500</v>
+        <v>39900</v>
       </c>
       <c r="J23" s="3">
-        <v>43900</v>
+        <v>45500</v>
       </c>
       <c r="K23" s="3">
         <v>43800</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>59300</v>
+        <v>61500</v>
       </c>
       <c r="E24" s="3">
-        <v>30000</v>
+        <v>31100</v>
       </c>
       <c r="F24" s="3">
-        <v>21000</v>
+        <v>21800</v>
       </c>
       <c r="G24" s="3">
-        <v>15200</v>
+        <v>15800</v>
       </c>
       <c r="H24" s="3">
-        <v>16300</v>
+        <v>16900</v>
       </c>
       <c r="I24" s="3">
-        <v>15800</v>
+        <v>16400</v>
       </c>
       <c r="J24" s="3">
-        <v>15500</v>
+        <v>16000</v>
       </c>
       <c r="K24" s="3">
         <v>16200</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>112000</v>
+        <v>116100</v>
       </c>
       <c r="E26" s="3">
-        <v>69500</v>
+        <v>72000</v>
       </c>
       <c r="F26" s="3">
-        <v>29700</v>
+        <v>30800</v>
       </c>
       <c r="G26" s="3">
-        <v>26200</v>
+        <v>27200</v>
       </c>
       <c r="H26" s="3">
-        <v>32400</v>
+        <v>33600</v>
       </c>
       <c r="I26" s="3">
-        <v>22700</v>
+        <v>23500</v>
       </c>
       <c r="J26" s="3">
-        <v>28400</v>
+        <v>29500</v>
       </c>
       <c r="K26" s="3">
         <v>27700</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>111100</v>
+        <v>115200</v>
       </c>
       <c r="E27" s="3">
-        <v>68900</v>
+        <v>71400</v>
       </c>
       <c r="F27" s="3">
-        <v>28400</v>
+        <v>29400</v>
       </c>
       <c r="G27" s="3">
-        <v>25000</v>
+        <v>25900</v>
       </c>
       <c r="H27" s="3">
-        <v>32200</v>
+        <v>33400</v>
       </c>
       <c r="I27" s="3">
-        <v>22500</v>
+        <v>23300</v>
       </c>
       <c r="J27" s="3">
-        <v>28600</v>
+        <v>29700</v>
       </c>
       <c r="K27" s="3">
         <v>28300</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>400</v>
+        <v>-17000</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
       </c>
       <c r="F32" s="3">
-        <v>6200</v>
+        <v>6400</v>
       </c>
       <c r="G32" s="3">
         <v>-1800</v>
       </c>
       <c r="H32" s="3">
-        <v>-6300</v>
+        <v>-6500</v>
       </c>
       <c r="I32" s="3">
-        <v>-4400</v>
+        <v>-4600</v>
       </c>
       <c r="J32" s="3">
-        <v>-2200</v>
+        <v>-2300</v>
       </c>
       <c r="K32" s="3">
         <v>-2800</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>111100</v>
+        <v>115200</v>
       </c>
       <c r="E33" s="3">
-        <v>68900</v>
+        <v>71400</v>
       </c>
       <c r="F33" s="3">
-        <v>28400</v>
+        <v>29400</v>
       </c>
       <c r="G33" s="3">
-        <v>25000</v>
+        <v>25900</v>
       </c>
       <c r="H33" s="3">
-        <v>32300</v>
+        <v>33500</v>
       </c>
       <c r="I33" s="3">
-        <v>22500</v>
+        <v>23300</v>
       </c>
       <c r="J33" s="3">
-        <v>28600</v>
+        <v>29700</v>
       </c>
       <c r="K33" s="3">
         <v>28300</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>111100</v>
+        <v>115200</v>
       </c>
       <c r="E35" s="3">
-        <v>68900</v>
+        <v>71400</v>
       </c>
       <c r="F35" s="3">
-        <v>28400</v>
+        <v>29400</v>
       </c>
       <c r="G35" s="3">
-        <v>25000</v>
+        <v>25900</v>
       </c>
       <c r="H35" s="3">
-        <v>32300</v>
+        <v>33500</v>
       </c>
       <c r="I35" s="3">
-        <v>22500</v>
+        <v>23300</v>
       </c>
       <c r="J35" s="3">
-        <v>28600</v>
+        <v>29700</v>
       </c>
       <c r="K35" s="3">
         <v>28300</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>336000</v>
+        <v>348300</v>
       </c>
       <c r="E41" s="3">
-        <v>301100</v>
+        <v>312100</v>
       </c>
       <c r="F41" s="3">
-        <v>274200</v>
+        <v>284200</v>
       </c>
       <c r="G41" s="3">
-        <v>226600</v>
+        <v>234900</v>
       </c>
       <c r="H41" s="3">
-        <v>302900</v>
+        <v>314000</v>
       </c>
       <c r="I41" s="3">
-        <v>155700</v>
+        <v>161400</v>
       </c>
       <c r="J41" s="3">
-        <v>138700</v>
+        <v>143800</v>
       </c>
       <c r="K41" s="3">
         <v>179900</v>
@@ -1774,19 +1774,19 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>9200</v>
+        <v>9500</v>
       </c>
       <c r="E42" s="3">
-        <v>14000</v>
+        <v>14500</v>
       </c>
       <c r="F42" s="3">
-        <v>18900</v>
+        <v>19600</v>
       </c>
       <c r="G42" s="3">
-        <v>11200</v>
+        <v>11600</v>
       </c>
       <c r="H42" s="3">
-        <v>26600</v>
+        <v>27600</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>10</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>280200</v>
+        <v>290500</v>
       </c>
       <c r="E43" s="3">
-        <v>255800</v>
+        <v>265200</v>
       </c>
       <c r="F43" s="3">
-        <v>233800</v>
+        <v>242400</v>
       </c>
       <c r="G43" s="3">
-        <v>236600</v>
+        <v>245300</v>
       </c>
       <c r="H43" s="3">
-        <v>449500</v>
+        <v>466000</v>
       </c>
       <c r="I43" s="3">
-        <v>194000</v>
+        <v>201200</v>
       </c>
       <c r="J43" s="3">
-        <v>168300</v>
+        <v>174400</v>
       </c>
       <c r="K43" s="3">
         <v>189800</v>
@@ -1846,25 +1846,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>18500</v>
+        <v>19200</v>
       </c>
       <c r="E44" s="3">
-        <v>15400</v>
+        <v>16000</v>
       </c>
       <c r="F44" s="3">
-        <v>17600</v>
+        <v>18200</v>
       </c>
       <c r="G44" s="3">
-        <v>24100</v>
+        <v>25000</v>
       </c>
       <c r="H44" s="3">
-        <v>23100</v>
+        <v>24000</v>
       </c>
       <c r="I44" s="3">
-        <v>19800</v>
+        <v>20600</v>
       </c>
       <c r="J44" s="3">
-        <v>14200</v>
+        <v>14700</v>
       </c>
       <c r="K44" s="3">
         <v>10500</v>
@@ -1882,25 +1882,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>96900</v>
+        <v>100500</v>
       </c>
       <c r="E45" s="3">
-        <v>75900</v>
+        <v>78700</v>
       </c>
       <c r="F45" s="3">
-        <v>69400</v>
+        <v>71900</v>
       </c>
       <c r="G45" s="3">
-        <v>61400</v>
+        <v>63600</v>
       </c>
       <c r="H45" s="3">
-        <v>141000</v>
+        <v>146200</v>
       </c>
       <c r="I45" s="3">
-        <v>82200</v>
+        <v>85200</v>
       </c>
       <c r="J45" s="3">
-        <v>57400</v>
+        <v>59600</v>
       </c>
       <c r="K45" s="3">
         <v>64100</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>740800</v>
+        <v>768000</v>
       </c>
       <c r="E46" s="3">
-        <v>662200</v>
+        <v>686500</v>
       </c>
       <c r="F46" s="3">
-        <v>613900</v>
+        <v>636400</v>
       </c>
       <c r="G46" s="3">
-        <v>559900</v>
+        <v>580400</v>
       </c>
       <c r="H46" s="3">
-        <v>466800</v>
+        <v>483900</v>
       </c>
       <c r="I46" s="3">
-        <v>451800</v>
+        <v>468400</v>
       </c>
       <c r="J46" s="3">
-        <v>378600</v>
+        <v>392500</v>
       </c>
       <c r="K46" s="3">
         <v>444300</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>195300</v>
+        <v>202500</v>
       </c>
       <c r="E47" s="3">
-        <v>187400</v>
+        <v>194300</v>
       </c>
       <c r="F47" s="3">
-        <v>132700</v>
+        <v>137600</v>
       </c>
       <c r="G47" s="3">
-        <v>152700</v>
+        <v>158300</v>
       </c>
       <c r="H47" s="3">
-        <v>199700</v>
+        <v>207100</v>
       </c>
       <c r="I47" s="3">
-        <v>21900</v>
+        <v>22700</v>
       </c>
       <c r="J47" s="3">
-        <v>20700</v>
+        <v>21400</v>
       </c>
       <c r="K47" s="3">
         <v>21000</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>444700</v>
+        <v>461000</v>
       </c>
       <c r="E48" s="3">
-        <v>480600</v>
+        <v>498300</v>
       </c>
       <c r="F48" s="3">
-        <v>481800</v>
+        <v>499500</v>
       </c>
       <c r="G48" s="3">
-        <v>234900</v>
+        <v>243600</v>
       </c>
       <c r="H48" s="3">
-        <v>566800</v>
+        <v>587500</v>
       </c>
       <c r="I48" s="3">
-        <v>282000</v>
+        <v>292300</v>
       </c>
       <c r="J48" s="3">
-        <v>243400</v>
+        <v>252300</v>
       </c>
       <c r="K48" s="3">
         <v>250500</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>183700</v>
+        <v>190400</v>
       </c>
       <c r="E49" s="3">
-        <v>163300</v>
+        <v>169300</v>
       </c>
       <c r="F49" s="3">
-        <v>172700</v>
+        <v>179100</v>
       </c>
       <c r="G49" s="3">
-        <v>176500</v>
+        <v>183000</v>
       </c>
       <c r="H49" s="3">
-        <v>231400</v>
+        <v>239800</v>
       </c>
       <c r="I49" s="3">
-        <v>65600</v>
+        <v>68000</v>
       </c>
       <c r="J49" s="3">
-        <v>68900</v>
+        <v>71400</v>
       </c>
       <c r="K49" s="3">
         <v>86200</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>79000</v>
+        <v>81900</v>
       </c>
       <c r="E52" s="3">
-        <v>71700</v>
+        <v>74300</v>
       </c>
       <c r="F52" s="3">
-        <v>63000</v>
+        <v>65300</v>
       </c>
       <c r="G52" s="3">
-        <v>62000</v>
+        <v>64300</v>
       </c>
       <c r="H52" s="3">
-        <v>247000</v>
+        <v>256100</v>
       </c>
       <c r="I52" s="3">
-        <v>152800</v>
+        <v>158400</v>
       </c>
       <c r="J52" s="3">
-        <v>123800</v>
+        <v>128400</v>
       </c>
       <c r="K52" s="3">
         <v>125100</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1643500</v>
+        <v>1703800</v>
       </c>
       <c r="E54" s="3">
-        <v>1565300</v>
+        <v>1622700</v>
       </c>
       <c r="F54" s="3">
-        <v>1464300</v>
+        <v>1518000</v>
       </c>
       <c r="G54" s="3">
-        <v>1186100</v>
+        <v>1229600</v>
       </c>
       <c r="H54" s="3">
-        <v>1100100</v>
+        <v>1140400</v>
       </c>
       <c r="I54" s="3">
-        <v>974100</v>
+        <v>1009900</v>
       </c>
       <c r="J54" s="3">
-        <v>835400</v>
+        <v>866100</v>
       </c>
       <c r="K54" s="3">
         <v>927300</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>61800</v>
+        <v>64100</v>
       </c>
       <c r="E57" s="3">
-        <v>45300</v>
+        <v>47000</v>
       </c>
       <c r="F57" s="3">
-        <v>42400</v>
+        <v>43900</v>
       </c>
       <c r="G57" s="3">
-        <v>55400</v>
+        <v>57400</v>
       </c>
       <c r="H57" s="3">
-        <v>144500</v>
+        <v>149800</v>
       </c>
       <c r="I57" s="3">
-        <v>103900</v>
+        <v>107700</v>
       </c>
       <c r="J57" s="3">
-        <v>98600</v>
+        <v>102200</v>
       </c>
       <c r="K57" s="3">
         <v>103900</v>
@@ -2310,25 +2310,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>116100</v>
+        <v>120300</v>
       </c>
       <c r="E58" s="3">
-        <v>131600</v>
+        <v>136400</v>
       </c>
       <c r="F58" s="3">
-        <v>110500</v>
+        <v>114500</v>
       </c>
       <c r="G58" s="3">
-        <v>136600</v>
+        <v>141600</v>
       </c>
       <c r="H58" s="3">
-        <v>211300</v>
+        <v>219000</v>
       </c>
       <c r="I58" s="3">
-        <v>99700</v>
+        <v>103400</v>
       </c>
       <c r="J58" s="3">
-        <v>93600</v>
+        <v>97100</v>
       </c>
       <c r="K58" s="3">
         <v>108900</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>366400</v>
+        <v>379900</v>
       </c>
       <c r="E59" s="3">
-        <v>342500</v>
+        <v>355100</v>
       </c>
       <c r="F59" s="3">
-        <v>312900</v>
+        <v>324300</v>
       </c>
       <c r="G59" s="3">
-        <v>183100</v>
+        <v>189800</v>
       </c>
       <c r="H59" s="3">
-        <v>241800</v>
+        <v>250700</v>
       </c>
       <c r="I59" s="3">
-        <v>79800</v>
+        <v>82800</v>
       </c>
       <c r="J59" s="3">
-        <v>63500</v>
+        <v>65800</v>
       </c>
       <c r="K59" s="3">
         <v>74900</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>544400</v>
+        <v>564300</v>
       </c>
       <c r="E60" s="3">
-        <v>519400</v>
+        <v>538500</v>
       </c>
       <c r="F60" s="3">
-        <v>465700</v>
+        <v>482800</v>
       </c>
       <c r="G60" s="3">
-        <v>375100</v>
+        <v>388800</v>
       </c>
       <c r="H60" s="3">
-        <v>298800</v>
+        <v>309700</v>
       </c>
       <c r="I60" s="3">
-        <v>283500</v>
+        <v>293900</v>
       </c>
       <c r="J60" s="3">
-        <v>255700</v>
+        <v>265100</v>
       </c>
       <c r="K60" s="3">
         <v>287800</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>39000</v>
+        <v>40400</v>
       </c>
       <c r="E61" s="3">
-        <v>49600</v>
+        <v>51400</v>
       </c>
       <c r="F61" s="3">
-        <v>86300</v>
+        <v>89400</v>
       </c>
       <c r="G61" s="3">
-        <v>180900</v>
+        <v>187500</v>
       </c>
       <c r="H61" s="3">
-        <v>187300</v>
+        <v>194200</v>
       </c>
       <c r="I61" s="3">
-        <v>133900</v>
+        <v>138800</v>
       </c>
       <c r="J61" s="3">
-        <v>55200</v>
+        <v>57200</v>
       </c>
       <c r="K61" s="3">
         <v>37000</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>318400</v>
+        <v>330100</v>
       </c>
       <c r="E62" s="3">
-        <v>351300</v>
+        <v>364200</v>
       </c>
       <c r="F62" s="3">
-        <v>344600</v>
+        <v>357300</v>
       </c>
       <c r="G62" s="3">
-        <v>83300</v>
+        <v>86400</v>
       </c>
       <c r="H62" s="3">
-        <v>157800</v>
+        <v>163600</v>
       </c>
       <c r="I62" s="3">
-        <v>79000</v>
+        <v>81900</v>
       </c>
       <c r="J62" s="3">
-        <v>61300</v>
+        <v>63500</v>
       </c>
       <c r="K62" s="3">
         <v>66400</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>909500</v>
+        <v>942800</v>
       </c>
       <c r="E66" s="3">
-        <v>927500</v>
+        <v>961500</v>
       </c>
       <c r="F66" s="3">
-        <v>903600</v>
+        <v>936700</v>
       </c>
       <c r="G66" s="3">
-        <v>645300</v>
+        <v>669000</v>
       </c>
       <c r="H66" s="3">
-        <v>571700</v>
+        <v>592700</v>
       </c>
       <c r="I66" s="3">
-        <v>500900</v>
+        <v>519300</v>
       </c>
       <c r="J66" s="3">
-        <v>375700</v>
+        <v>389500</v>
       </c>
       <c r="K66" s="3">
         <v>394100</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>262500</v>
+        <v>272100</v>
       </c>
       <c r="E72" s="3">
-        <v>177600</v>
+        <v>184100</v>
       </c>
       <c r="F72" s="3">
-        <v>117000</v>
+        <v>121300</v>
       </c>
       <c r="G72" s="3">
-        <v>87500</v>
+        <v>90700</v>
       </c>
       <c r="H72" s="3">
-        <v>128200</v>
+        <v>132900</v>
       </c>
       <c r="I72" s="3">
-        <v>32000</v>
+        <v>33200</v>
       </c>
       <c r="J72" s="3">
-        <v>17500</v>
+        <v>18200</v>
       </c>
       <c r="K72" s="3">
         <v>-4700</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>734000</v>
+        <v>760900</v>
       </c>
       <c r="E76" s="3">
-        <v>637800</v>
+        <v>661200</v>
       </c>
       <c r="F76" s="3">
+        <v>581200</v>
+      </c>
+      <c r="G76" s="3">
         <v>560600</v>
       </c>
-      <c r="G76" s="3">
-        <v>540800</v>
-      </c>
       <c r="H76" s="3">
-        <v>528400</v>
+        <v>547800</v>
       </c>
       <c r="I76" s="3">
-        <v>473200</v>
+        <v>490600</v>
       </c>
       <c r="J76" s="3">
-        <v>459800</v>
+        <v>476600</v>
       </c>
       <c r="K76" s="3">
         <v>533200</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>111100</v>
+        <v>115200</v>
       </c>
       <c r="E81" s="3">
-        <v>68900</v>
+        <v>71400</v>
       </c>
       <c r="F81" s="3">
-        <v>28400</v>
+        <v>29400</v>
       </c>
       <c r="G81" s="3">
-        <v>25000</v>
+        <v>25900</v>
       </c>
       <c r="H81" s="3">
-        <v>32300</v>
+        <v>33500</v>
       </c>
       <c r="I81" s="3">
-        <v>22500</v>
+        <v>23300</v>
       </c>
       <c r="J81" s="3">
-        <v>28600</v>
+        <v>29700</v>
       </c>
       <c r="K81" s="3">
         <v>28300</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>201700</v>
+        <v>209100</v>
       </c>
       <c r="E83" s="3">
-        <v>198300</v>
+        <v>205600</v>
       </c>
       <c r="F83" s="3">
-        <v>202200</v>
+        <v>209600</v>
       </c>
       <c r="G83" s="3">
-        <v>110800</v>
+        <v>114900</v>
       </c>
       <c r="H83" s="3">
-        <v>95100</v>
+        <v>98600</v>
       </c>
       <c r="I83" s="3">
-        <v>77200</v>
+        <v>80100</v>
       </c>
       <c r="J83" s="3">
-        <v>70300</v>
+        <v>72900</v>
       </c>
       <c r="K83" s="3">
         <v>82500</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>308900</v>
+        <v>320300</v>
       </c>
       <c r="E89" s="3">
-        <v>287500</v>
+        <v>298000</v>
       </c>
       <c r="F89" s="3">
-        <v>236800</v>
+        <v>245400</v>
       </c>
       <c r="G89" s="3">
-        <v>178300</v>
+        <v>184900</v>
       </c>
       <c r="H89" s="3">
-        <v>104000</v>
+        <v>107800</v>
       </c>
       <c r="I89" s="3">
-        <v>52200</v>
+        <v>54200</v>
       </c>
       <c r="J89" s="3">
-        <v>85400</v>
+        <v>88600</v>
       </c>
       <c r="K89" s="3">
         <v>110100</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-48100</v>
+        <v>-49900</v>
       </c>
       <c r="E91" s="3">
-        <v>-45300</v>
+        <v>-47000</v>
       </c>
       <c r="F91" s="3">
-        <v>-51000</v>
+        <v>-52900</v>
       </c>
       <c r="G91" s="3">
-        <v>-50200</v>
+        <v>-52000</v>
       </c>
       <c r="H91" s="3">
-        <v>-190500</v>
+        <v>-197400</v>
       </c>
       <c r="I91" s="3">
-        <v>-75300</v>
+        <v>-78100</v>
       </c>
       <c r="J91" s="3">
-        <v>-77300</v>
+        <v>-80100</v>
       </c>
       <c r="K91" s="3">
         <v>-69600</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-83900</v>
+        <v>-87000</v>
       </c>
       <c r="E94" s="3">
-        <v>-93700</v>
+        <v>-97100</v>
       </c>
       <c r="F94" s="3">
-        <v>-51500</v>
+        <v>-53400</v>
       </c>
       <c r="G94" s="3">
+        <v>-63900</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-105100</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-54200</v>
+      </c>
+      <c r="J94" s="3">
         <v>-61600</v>
-      </c>
-      <c r="H94" s="3">
-        <v>-101400</v>
-      </c>
-      <c r="I94" s="3">
-        <v>-52300</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-59400</v>
       </c>
       <c r="K94" s="3">
         <v>-68900</v>
@@ -3531,25 +3531,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-27200</v>
+        <v>-28200</v>
       </c>
       <c r="E96" s="3">
-        <v>-10900</v>
+        <v>-11300</v>
       </c>
       <c r="F96" s="3">
-        <v>-8600</v>
+        <v>-8900</v>
       </c>
       <c r="G96" s="3">
-        <v>-8600</v>
+        <v>-8900</v>
       </c>
       <c r="H96" s="3">
-        <v>-8600</v>
+        <v>-8900</v>
       </c>
       <c r="I96" s="3">
-        <v>-8000</v>
+        <v>-8300</v>
       </c>
       <c r="J96" s="3">
-        <v>-7200</v>
+        <v>-7400</v>
       </c>
       <c r="K96" s="3">
         <v>-8600</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-193500</v>
+        <v>-200600</v>
       </c>
       <c r="E100" s="3">
-        <v>-167400</v>
+        <v>-173600</v>
       </c>
       <c r="F100" s="3">
-        <v>-137200</v>
+        <v>-142300</v>
       </c>
       <c r="G100" s="3">
-        <v>-41800</v>
+        <v>-43300</v>
       </c>
       <c r="H100" s="3">
-        <v>-5100</v>
+        <v>-5300</v>
       </c>
       <c r="I100" s="3">
-        <v>17700</v>
+        <v>18300</v>
       </c>
       <c r="J100" s="3">
-        <v>-36900</v>
+        <v>-38200</v>
       </c>
       <c r="K100" s="3">
         <v>-53600</v>
@@ -3711,7 +3711,7 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>3400</v>
+        <v>3600</v>
       </c>
       <c r="E101" s="3">
         <v>600</v>
@@ -3720,10 +3720,10 @@
         <v>-400</v>
       </c>
       <c r="G101" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="H101" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="I101" s="3">
         <v>-700</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>34900</v>
+        <v>36200</v>
       </c>
       <c r="E102" s="3">
-        <v>26900</v>
+        <v>27900</v>
       </c>
       <c r="F102" s="3">
-        <v>47600</v>
+        <v>49300</v>
       </c>
       <c r="G102" s="3">
-        <v>75400</v>
+        <v>78200</v>
       </c>
       <c r="H102" s="3">
-        <v>-3000</v>
+        <v>-3100</v>
       </c>
       <c r="I102" s="3">
-        <v>16900</v>
+        <v>17600</v>
       </c>
       <c r="J102" s="3">
-        <v>-10800</v>
+        <v>-11200</v>
       </c>
       <c r="K102" s="3">
         <v>-11300</v>

--- a/AAII_Financials/Yearly/IIJIY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/IIJIY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
   <si>
     <t>IIJIY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,165 +665,177 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43190</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42825</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42460</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42094</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41729</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41364</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1663600</v>
+        <v>1822000</v>
       </c>
       <c r="E8" s="3">
-        <v>1565600</v>
+        <v>1631900</v>
       </c>
       <c r="F8" s="3">
-        <v>1502900</v>
+        <v>1535700</v>
       </c>
       <c r="G8" s="3">
-        <v>1414400</v>
+        <v>1474300</v>
       </c>
       <c r="H8" s="3">
-        <v>1295300</v>
+        <v>1387400</v>
       </c>
       <c r="I8" s="3">
-        <v>1159700</v>
+        <v>1270600</v>
       </c>
       <c r="J8" s="3">
+        <v>1137700</v>
+      </c>
+      <c r="K8" s="3">
         <v>1033800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1049600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1046700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>965800</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1284100</v>
+        <v>1404500</v>
       </c>
       <c r="E9" s="3">
-        <v>1269500</v>
+        <v>1259600</v>
       </c>
       <c r="F9" s="3">
-        <v>1263300</v>
+        <v>1245300</v>
       </c>
       <c r="G9" s="3">
-        <v>1201400</v>
+        <v>1239300</v>
       </c>
       <c r="H9" s="3">
-        <v>2155900</v>
+        <v>1178500</v>
       </c>
       <c r="I9" s="3">
-        <v>974200</v>
+        <v>2114800</v>
       </c>
       <c r="J9" s="3">
+        <v>955600</v>
+      </c>
+      <c r="K9" s="3">
         <v>852500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>861300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>853800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>767100</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>379500</v>
+        <v>417500</v>
       </c>
       <c r="E10" s="3">
-        <v>296100</v>
+        <v>372200</v>
       </c>
       <c r="F10" s="3">
-        <v>239600</v>
+        <v>290400</v>
       </c>
       <c r="G10" s="3">
-        <v>213000</v>
+        <v>235000</v>
       </c>
       <c r="H10" s="3">
-        <v>-860600</v>
+        <v>208900</v>
       </c>
       <c r="I10" s="3">
-        <v>185600</v>
+        <v>-844200</v>
       </c>
       <c r="J10" s="3">
+        <v>182000</v>
+      </c>
+      <c r="K10" s="3">
         <v>181200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>188300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>193000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>198600</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -838,44 +850,48 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="3">
         <v>3700</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
+        <v>3400</v>
+      </c>
+      <c r="G12" s="3">
+        <v>3200</v>
+      </c>
+      <c r="H12" s="3">
+        <v>3200</v>
+      </c>
+      <c r="I12" s="3">
         <v>3500</v>
       </c>
-      <c r="F12" s="3">
-        <v>3200</v>
-      </c>
-      <c r="G12" s="3">
+      <c r="J12" s="3">
+        <v>3400</v>
+      </c>
+      <c r="K12" s="3">
         <v>3300</v>
       </c>
-      <c r="H12" s="3">
-        <v>3600</v>
-      </c>
-      <c r="I12" s="3">
-        <v>3400</v>
-      </c>
-      <c r="J12" s="3">
-        <v>3300</v>
-      </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>3800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>3900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>3700</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -909,65 +925,71 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3">
-        <v>10300</v>
+      <c r="D14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E14" s="3">
+        <v>10100</v>
+      </c>
+      <c r="F14" s="3">
         <v>2900</v>
       </c>
-      <c r="F14" s="3">
-        <v>1400</v>
-      </c>
       <c r="G14" s="3">
-        <v>2300</v>
+        <v>1300</v>
       </c>
       <c r="H14" s="3">
+        <v>2200</v>
+      </c>
+      <c r="I14" s="3">
         <v>1600</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>200</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>200</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>200</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
-        <v>23000</v>
+      <c r="D15" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E15" s="3">
-        <v>20900</v>
+        <v>22500</v>
       </c>
       <c r="F15" s="3">
-        <v>20900</v>
+        <v>20500</v>
       </c>
       <c r="G15" s="3">
-        <v>9400</v>
+        <v>20500</v>
       </c>
       <c r="H15" s="3">
         <v>9200</v>
       </c>
-      <c r="I15" s="3" t="s">
-        <v>10</v>
+      <c r="I15" s="3">
+        <v>9000</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>10</v>
@@ -981,9 +1003,12 @@
       <c r="M15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -995,80 +1020,87 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1499200</v>
+        <v>1625800</v>
       </c>
       <c r="E17" s="3">
-        <v>1458300</v>
+        <v>1470600</v>
       </c>
       <c r="F17" s="3">
-        <v>1439700</v>
+        <v>1430500</v>
       </c>
       <c r="G17" s="3">
-        <v>1370100</v>
+        <v>1412200</v>
       </c>
       <c r="H17" s="3">
-        <v>1245600</v>
+        <v>1344000</v>
       </c>
       <c r="I17" s="3">
-        <v>1122200</v>
+        <v>1221800</v>
       </c>
       <c r="J17" s="3">
+        <v>1100900</v>
+      </c>
+      <c r="K17" s="3">
         <v>988700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1006600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>994300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>895500</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>164400</v>
+        <v>196300</v>
       </c>
       <c r="E18" s="3">
-        <v>107300</v>
+        <v>161300</v>
       </c>
       <c r="F18" s="3">
-        <v>63200</v>
+        <v>105200</v>
       </c>
       <c r="G18" s="3">
-        <v>44300</v>
+        <v>62000</v>
       </c>
       <c r="H18" s="3">
-        <v>49800</v>
+        <v>43400</v>
       </c>
       <c r="I18" s="3">
-        <v>37500</v>
+        <v>48800</v>
       </c>
       <c r="J18" s="3">
+        <v>36800</v>
+      </c>
+      <c r="K18" s="3">
         <v>45000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>43000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>52400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>70300</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1083,188 +1115,204 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>17000</v>
+        <v>600</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>16600</v>
       </c>
       <c r="F20" s="3">
-        <v>-6400</v>
+        <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="H20" s="3">
         <v>1800</v>
       </c>
-      <c r="H20" s="3">
-        <v>6500</v>
-      </c>
       <c r="I20" s="3">
-        <v>4600</v>
+        <v>6400</v>
       </c>
       <c r="J20" s="3">
+        <v>4500</v>
+      </c>
+      <c r="K20" s="3">
         <v>2300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>2800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>7400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>2800</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>388400</v>
+        <v>406000</v>
       </c>
       <c r="E21" s="3">
-        <v>310900</v>
+        <v>384400</v>
       </c>
       <c r="F21" s="3">
-        <v>264400</v>
+        <v>308300</v>
       </c>
       <c r="G21" s="3">
-        <v>159900</v>
+        <v>262700</v>
       </c>
       <c r="H21" s="3">
-        <v>153900</v>
+        <v>158700</v>
       </c>
       <c r="I21" s="3">
-        <v>121400</v>
+        <v>152500</v>
       </c>
       <c r="J21" s="3">
+        <v>120400</v>
+      </c>
+      <c r="K21" s="3">
         <v>119500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>129400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>141000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>141500</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>3800</v>
+      <c r="D22" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E22" s="3">
+        <v>3700</v>
+      </c>
+      <c r="F22" s="3">
+        <v>4000</v>
+      </c>
+      <c r="G22" s="3">
         <v>4100</v>
       </c>
-      <c r="F22" s="3">
-        <v>4200</v>
-      </c>
-      <c r="G22" s="3">
-        <v>3200</v>
-      </c>
       <c r="H22" s="3">
-        <v>5700</v>
+        <v>3100</v>
       </c>
       <c r="I22" s="3">
+        <v>5600</v>
+      </c>
+      <c r="J22" s="3">
         <v>2200</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>1800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>2000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>2300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>2600</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>177600</v>
+        <v>196900</v>
       </c>
       <c r="E23" s="3">
-        <v>103200</v>
+        <v>174200</v>
       </c>
       <c r="F23" s="3">
-        <v>52600</v>
+        <v>101200</v>
       </c>
       <c r="G23" s="3">
-        <v>42900</v>
+        <v>51600</v>
       </c>
       <c r="H23" s="3">
-        <v>50500</v>
+        <v>42100</v>
       </c>
       <c r="I23" s="3">
-        <v>39900</v>
+        <v>49500</v>
       </c>
       <c r="J23" s="3">
+        <v>39100</v>
+      </c>
+      <c r="K23" s="3">
         <v>45500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>43800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>57500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>70500</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>61500</v>
+        <v>60100</v>
       </c>
       <c r="E24" s="3">
-        <v>31100</v>
+        <v>60300</v>
       </c>
       <c r="F24" s="3">
-        <v>21800</v>
+        <v>30500</v>
       </c>
       <c r="G24" s="3">
-        <v>15800</v>
+        <v>21400</v>
       </c>
       <c r="H24" s="3">
-        <v>16900</v>
+        <v>15500</v>
       </c>
       <c r="I24" s="3">
-        <v>16400</v>
+        <v>16600</v>
       </c>
       <c r="J24" s="3">
         <v>16000</v>
       </c>
       <c r="K24" s="3">
+        <v>16000</v>
+      </c>
+      <c r="L24" s="3">
         <v>16200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>16400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>23700</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1298,81 +1346,90 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>116100</v>
+        <v>136800</v>
       </c>
       <c r="E26" s="3">
-        <v>72000</v>
+        <v>113900</v>
       </c>
       <c r="F26" s="3">
-        <v>30800</v>
+        <v>70700</v>
       </c>
       <c r="G26" s="3">
-        <v>27200</v>
+        <v>30200</v>
       </c>
       <c r="H26" s="3">
-        <v>33600</v>
+        <v>26700</v>
       </c>
       <c r="I26" s="3">
-        <v>23500</v>
+        <v>33000</v>
       </c>
       <c r="J26" s="3">
+        <v>23100</v>
+      </c>
+      <c r="K26" s="3">
         <v>29500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>27700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>41000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>46800</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>115200</v>
+        <v>135800</v>
       </c>
       <c r="E27" s="3">
-        <v>71400</v>
+        <v>113000</v>
       </c>
       <c r="F27" s="3">
-        <v>29400</v>
+        <v>70000</v>
       </c>
       <c r="G27" s="3">
-        <v>25900</v>
+        <v>28900</v>
       </c>
       <c r="H27" s="3">
-        <v>33400</v>
+        <v>25400</v>
       </c>
       <c r="I27" s="3">
-        <v>23300</v>
+        <v>32700</v>
       </c>
       <c r="J27" s="3">
+        <v>22800</v>
+      </c>
+      <c r="K27" s="3">
         <v>29700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>28300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>41000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>48200</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1406,9 +1463,12 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1424,11 +1484,11 @@
       <c r="G29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H29" s="3">
+      <c r="H29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I29" s="3">
         <v>100</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>10</v>
@@ -1442,9 +1502,12 @@
       <c r="M29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1478,9 +1541,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1514,81 +1580,90 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-17000</v>
+        <v>-600</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>-16600</v>
       </c>
       <c r="F32" s="3">
-        <v>6400</v>
+        <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>6300</v>
+      </c>
+      <c r="H32" s="3">
         <v>-1800</v>
       </c>
-      <c r="H32" s="3">
-        <v>-6500</v>
-      </c>
       <c r="I32" s="3">
-        <v>-4600</v>
+        <v>-6400</v>
       </c>
       <c r="J32" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="K32" s="3">
         <v>-2300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-2800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-7400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-2800</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>115200</v>
+        <v>135800</v>
       </c>
       <c r="E33" s="3">
-        <v>71400</v>
+        <v>113000</v>
       </c>
       <c r="F33" s="3">
-        <v>29400</v>
+        <v>70000</v>
       </c>
       <c r="G33" s="3">
-        <v>25900</v>
+        <v>28900</v>
       </c>
       <c r="H33" s="3">
-        <v>33500</v>
+        <v>25400</v>
       </c>
       <c r="I33" s="3">
-        <v>23300</v>
+        <v>32900</v>
       </c>
       <c r="J33" s="3">
+        <v>22800</v>
+      </c>
+      <c r="K33" s="3">
         <v>29700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>28300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>41000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>48200</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1622,86 +1697,95 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>115200</v>
+        <v>135800</v>
       </c>
       <c r="E35" s="3">
-        <v>71400</v>
+        <v>113000</v>
       </c>
       <c r="F35" s="3">
-        <v>29400</v>
+        <v>70000</v>
       </c>
       <c r="G35" s="3">
-        <v>25900</v>
+        <v>28900</v>
       </c>
       <c r="H35" s="3">
-        <v>33500</v>
+        <v>25400</v>
       </c>
       <c r="I35" s="3">
-        <v>23300</v>
+        <v>32900</v>
       </c>
       <c r="J35" s="3">
+        <v>22800</v>
+      </c>
+      <c r="K35" s="3">
         <v>29700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>28300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>41000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>48200</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43190</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42825</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42460</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42094</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41729</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41364</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1716,8 +1800,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1732,64 +1817,68 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>348300</v>
+        <v>306200</v>
       </c>
       <c r="E41" s="3">
-        <v>312100</v>
+        <v>341700</v>
       </c>
       <c r="F41" s="3">
-        <v>284200</v>
+        <v>306200</v>
       </c>
       <c r="G41" s="3">
-        <v>234900</v>
+        <v>278800</v>
       </c>
       <c r="H41" s="3">
-        <v>314000</v>
+        <v>230400</v>
       </c>
       <c r="I41" s="3">
-        <v>161400</v>
+        <v>308000</v>
       </c>
       <c r="J41" s="3">
+        <v>158300</v>
+      </c>
+      <c r="K41" s="3">
         <v>143800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>179900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>205400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>111400</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>9500</v>
+        <v>13800</v>
       </c>
       <c r="E42" s="3">
-        <v>14500</v>
+        <v>9300</v>
       </c>
       <c r="F42" s="3">
-        <v>19600</v>
+        <v>14200</v>
       </c>
       <c r="G42" s="3">
-        <v>11600</v>
+        <v>19300</v>
       </c>
       <c r="H42" s="3">
-        <v>27600</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>10</v>
+        <v>11400</v>
+      </c>
+      <c r="I42" s="3">
+        <v>27100</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>10</v>
@@ -1803,261 +1892,285 @@
       <c r="M42" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N42" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>290500</v>
+        <v>313800</v>
       </c>
       <c r="E43" s="3">
-        <v>265200</v>
+        <v>284900</v>
       </c>
       <c r="F43" s="3">
-        <v>242400</v>
+        <v>260100</v>
       </c>
       <c r="G43" s="3">
-        <v>245300</v>
+        <v>237800</v>
       </c>
       <c r="H43" s="3">
-        <v>466000</v>
+        <v>240600</v>
       </c>
       <c r="I43" s="3">
-        <v>201200</v>
+        <v>457100</v>
       </c>
       <c r="J43" s="3">
+        <v>197300</v>
+      </c>
+      <c r="K43" s="3">
         <v>174400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>189800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>176000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>170500</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>19200</v>
+        <v>23000</v>
       </c>
       <c r="E44" s="3">
-        <v>16000</v>
+        <v>18800</v>
       </c>
       <c r="F44" s="3">
-        <v>18200</v>
+        <v>15700</v>
       </c>
       <c r="G44" s="3">
-        <v>25000</v>
+        <v>17900</v>
       </c>
       <c r="H44" s="3">
-        <v>24000</v>
+        <v>24500</v>
       </c>
       <c r="I44" s="3">
-        <v>20600</v>
+        <v>23500</v>
       </c>
       <c r="J44" s="3">
+        <v>20200</v>
+      </c>
+      <c r="K44" s="3">
         <v>14700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>10500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>15300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>11800</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>100500</v>
+        <v>112300</v>
       </c>
       <c r="E45" s="3">
-        <v>78700</v>
+        <v>98600</v>
       </c>
       <c r="F45" s="3">
-        <v>71900</v>
+        <v>77200</v>
       </c>
       <c r="G45" s="3">
-        <v>63600</v>
+        <v>70600</v>
       </c>
       <c r="H45" s="3">
-        <v>146200</v>
+        <v>62400</v>
       </c>
       <c r="I45" s="3">
-        <v>85200</v>
+        <v>143400</v>
       </c>
       <c r="J45" s="3">
+        <v>83600</v>
+      </c>
+      <c r="K45" s="3">
         <v>59600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>64100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>76900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>46600</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>768000</v>
+        <v>769100</v>
       </c>
       <c r="E46" s="3">
-        <v>686500</v>
+        <v>753300</v>
       </c>
       <c r="F46" s="3">
-        <v>636400</v>
+        <v>673400</v>
       </c>
       <c r="G46" s="3">
-        <v>580400</v>
+        <v>624300</v>
       </c>
       <c r="H46" s="3">
-        <v>483900</v>
+        <v>569400</v>
       </c>
       <c r="I46" s="3">
-        <v>468400</v>
+        <v>474700</v>
       </c>
       <c r="J46" s="3">
+        <v>459400</v>
+      </c>
+      <c r="K46" s="3">
         <v>392500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>444300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>473600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>340300</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>202500</v>
+        <v>214000</v>
       </c>
       <c r="E47" s="3">
-        <v>194300</v>
+        <v>198700</v>
       </c>
       <c r="F47" s="3">
-        <v>137600</v>
+        <v>190600</v>
       </c>
       <c r="G47" s="3">
-        <v>158300</v>
+        <v>135000</v>
       </c>
       <c r="H47" s="3">
-        <v>207100</v>
+        <v>155300</v>
       </c>
       <c r="I47" s="3">
-        <v>22700</v>
+        <v>203100</v>
       </c>
       <c r="J47" s="3">
+        <v>22300</v>
+      </c>
+      <c r="K47" s="3">
         <v>21400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>21000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>18500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>14600</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>461000</v>
+        <v>504700</v>
       </c>
       <c r="E48" s="3">
-        <v>498300</v>
+        <v>452200</v>
       </c>
       <c r="F48" s="3">
-        <v>499500</v>
+        <v>488800</v>
       </c>
       <c r="G48" s="3">
-        <v>243600</v>
+        <v>490000</v>
       </c>
       <c r="H48" s="3">
-        <v>587500</v>
+        <v>238900</v>
       </c>
       <c r="I48" s="3">
-        <v>292300</v>
+        <v>576400</v>
       </c>
       <c r="J48" s="3">
+        <v>286800</v>
+      </c>
+      <c r="K48" s="3">
         <v>252300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>250500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>247100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>209300</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>190400</v>
+        <v>190900</v>
       </c>
       <c r="E49" s="3">
-        <v>169300</v>
+        <v>186800</v>
       </c>
       <c r="F49" s="3">
-        <v>179100</v>
+        <v>166100</v>
       </c>
       <c r="G49" s="3">
-        <v>183000</v>
+        <v>175700</v>
       </c>
       <c r="H49" s="3">
-        <v>239800</v>
+        <v>179500</v>
       </c>
       <c r="I49" s="3">
-        <v>68000</v>
+        <v>235300</v>
       </c>
       <c r="J49" s="3">
+        <v>66700</v>
+      </c>
+      <c r="K49" s="3">
         <v>71400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>86200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>94400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>97800</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2091,9 +2204,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2127,45 +2243,51 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>81900</v>
+        <v>96400</v>
       </c>
       <c r="E52" s="3">
-        <v>74300</v>
+        <v>80300</v>
       </c>
       <c r="F52" s="3">
-        <v>65300</v>
+        <v>72900</v>
       </c>
       <c r="G52" s="3">
-        <v>64300</v>
+        <v>64100</v>
       </c>
       <c r="H52" s="3">
-        <v>256100</v>
+        <v>63100</v>
       </c>
       <c r="I52" s="3">
-        <v>158400</v>
+        <v>251200</v>
       </c>
       <c r="J52" s="3">
+        <v>155400</v>
+      </c>
+      <c r="K52" s="3">
         <v>128400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>125100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>117800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>84300</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2199,45 +2321,51 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1703800</v>
+        <v>1775100</v>
       </c>
       <c r="E54" s="3">
-        <v>1622700</v>
+        <v>1671300</v>
       </c>
       <c r="F54" s="3">
-        <v>1518000</v>
+        <v>1591800</v>
       </c>
       <c r="G54" s="3">
-        <v>1229600</v>
+        <v>1489000</v>
       </c>
       <c r="H54" s="3">
-        <v>1140400</v>
+        <v>1206200</v>
       </c>
       <c r="I54" s="3">
-        <v>1009900</v>
+        <v>1118700</v>
       </c>
       <c r="J54" s="3">
+        <v>990600</v>
+      </c>
+      <c r="K54" s="3">
         <v>866100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>927300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>951400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>746400</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2252,8 +2380,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2268,224 +2397,243 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>64100</v>
+        <v>160900</v>
       </c>
       <c r="E57" s="3">
-        <v>47000</v>
+        <v>62900</v>
       </c>
       <c r="F57" s="3">
-        <v>43900</v>
+        <v>46100</v>
       </c>
       <c r="G57" s="3">
-        <v>57400</v>
+        <v>43100</v>
       </c>
       <c r="H57" s="3">
-        <v>149800</v>
+        <v>56300</v>
       </c>
       <c r="I57" s="3">
-        <v>107700</v>
+        <v>146900</v>
       </c>
       <c r="J57" s="3">
+        <v>105600</v>
+      </c>
+      <c r="K57" s="3">
         <v>102200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>103900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>105300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>99700</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>120300</v>
+        <v>121300</v>
       </c>
       <c r="E58" s="3">
-        <v>136400</v>
+        <v>118000</v>
       </c>
       <c r="F58" s="3">
-        <v>114500</v>
+        <v>133800</v>
       </c>
       <c r="G58" s="3">
-        <v>141600</v>
+        <v>112300</v>
       </c>
       <c r="H58" s="3">
-        <v>219000</v>
+        <v>138900</v>
       </c>
       <c r="I58" s="3">
-        <v>103400</v>
+        <v>214900</v>
       </c>
       <c r="J58" s="3">
+        <v>101400</v>
+      </c>
+      <c r="K58" s="3">
         <v>97100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>108900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>129500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>126500</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>379900</v>
+        <v>279200</v>
       </c>
       <c r="E59" s="3">
-        <v>355100</v>
+        <v>372600</v>
       </c>
       <c r="F59" s="3">
-        <v>324300</v>
+        <v>348300</v>
       </c>
       <c r="G59" s="3">
-        <v>189800</v>
+        <v>318200</v>
       </c>
       <c r="H59" s="3">
-        <v>250700</v>
+        <v>186200</v>
       </c>
       <c r="I59" s="3">
-        <v>82800</v>
+        <v>245900</v>
       </c>
       <c r="J59" s="3">
+        <v>81200</v>
+      </c>
+      <c r="K59" s="3">
         <v>65800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>74900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>62700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>68100</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>564300</v>
+        <v>561400</v>
       </c>
       <c r="E60" s="3">
-        <v>538500</v>
+        <v>553600</v>
       </c>
       <c r="F60" s="3">
-        <v>482800</v>
+        <v>528200</v>
       </c>
       <c r="G60" s="3">
-        <v>388800</v>
+        <v>473600</v>
       </c>
       <c r="H60" s="3">
-        <v>309700</v>
+        <v>381400</v>
       </c>
       <c r="I60" s="3">
-        <v>293900</v>
+        <v>303800</v>
       </c>
       <c r="J60" s="3">
+        <v>288300</v>
+      </c>
+      <c r="K60" s="3">
         <v>265100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>287800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>297400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>294400</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>40400</v>
+        <v>26000</v>
       </c>
       <c r="E61" s="3">
-        <v>51400</v>
+        <v>39700</v>
       </c>
       <c r="F61" s="3">
-        <v>89400</v>
+        <v>50500</v>
       </c>
       <c r="G61" s="3">
-        <v>187500</v>
+        <v>87700</v>
       </c>
       <c r="H61" s="3">
-        <v>194200</v>
+        <v>184000</v>
       </c>
       <c r="I61" s="3">
-        <v>138800</v>
+        <v>190500</v>
       </c>
       <c r="J61" s="3">
+        <v>136200</v>
+      </c>
+      <c r="K61" s="3">
         <v>57200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>37000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>42200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>57700</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>330100</v>
+        <v>327500</v>
       </c>
       <c r="E62" s="3">
-        <v>364200</v>
+        <v>323800</v>
       </c>
       <c r="F62" s="3">
-        <v>357300</v>
+        <v>357200</v>
       </c>
       <c r="G62" s="3">
-        <v>86400</v>
+        <v>350500</v>
       </c>
       <c r="H62" s="3">
-        <v>163600</v>
+        <v>84700</v>
       </c>
       <c r="I62" s="3">
-        <v>81900</v>
+        <v>160500</v>
       </c>
       <c r="J62" s="3">
+        <v>80400</v>
+      </c>
+      <c r="K62" s="3">
         <v>63500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>66400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>60600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>52200</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2519,9 +2667,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2555,9 +2706,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2591,45 +2745,51 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>942800</v>
+        <v>923400</v>
       </c>
       <c r="E66" s="3">
-        <v>961500</v>
+        <v>924900</v>
       </c>
       <c r="F66" s="3">
-        <v>936700</v>
+        <v>943200</v>
       </c>
       <c r="G66" s="3">
-        <v>669000</v>
+        <v>918900</v>
       </c>
       <c r="H66" s="3">
-        <v>592700</v>
+        <v>656200</v>
       </c>
       <c r="I66" s="3">
-        <v>519300</v>
+        <v>581400</v>
       </c>
       <c r="J66" s="3">
+        <v>509400</v>
+      </c>
+      <c r="K66" s="3">
         <v>389500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>394100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>402600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>404500</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2644,8 +2804,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2679,9 +2840,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2715,9 +2879,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2751,9 +2918,12 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2787,45 +2957,51 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>272100</v>
+        <v>368300</v>
       </c>
       <c r="E72" s="3">
-        <v>184100</v>
+        <v>266900</v>
       </c>
       <c r="F72" s="3">
-        <v>121300</v>
+        <v>180600</v>
       </c>
       <c r="G72" s="3">
-        <v>90700</v>
+        <v>119000</v>
       </c>
       <c r="H72" s="3">
-        <v>132900</v>
+        <v>88900</v>
       </c>
       <c r="I72" s="3">
-        <v>33200</v>
+        <v>130400</v>
       </c>
       <c r="J72" s="3">
+        <v>32500</v>
+      </c>
+      <c r="K72" s="3">
         <v>18200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-4700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-26300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-58200</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2859,9 +3035,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2895,9 +3074,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2931,45 +3113,51 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>760900</v>
+        <v>851600</v>
       </c>
       <c r="E76" s="3">
-        <v>661200</v>
+        <v>746400</v>
       </c>
       <c r="F76" s="3">
-        <v>581200</v>
+        <v>648600</v>
       </c>
       <c r="G76" s="3">
-        <v>560600</v>
+        <v>570100</v>
       </c>
       <c r="H76" s="3">
-        <v>547800</v>
+        <v>549900</v>
       </c>
       <c r="I76" s="3">
-        <v>490600</v>
+        <v>537400</v>
       </c>
       <c r="J76" s="3">
+        <v>481200</v>
+      </c>
+      <c r="K76" s="3">
         <v>476600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>533200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>548800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>341800</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3003,86 +3191,95 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43190</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42825</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42460</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42094</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41729</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41364</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>115200</v>
+        <v>135800</v>
       </c>
       <c r="E81" s="3">
-        <v>71400</v>
+        <v>113000</v>
       </c>
       <c r="F81" s="3">
-        <v>29400</v>
+        <v>70000</v>
       </c>
       <c r="G81" s="3">
-        <v>25900</v>
+        <v>28900</v>
       </c>
       <c r="H81" s="3">
-        <v>33500</v>
+        <v>25400</v>
       </c>
       <c r="I81" s="3">
-        <v>23300</v>
+        <v>32900</v>
       </c>
       <c r="J81" s="3">
+        <v>22800</v>
+      </c>
+      <c r="K81" s="3">
         <v>29700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>28300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>41000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>48200</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3097,44 +3294,48 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>209100</v>
+        <v>207700</v>
       </c>
       <c r="E83" s="3">
+        <v>205100</v>
+      </c>
+      <c r="F83" s="3">
+        <v>201700</v>
+      </c>
+      <c r="G83" s="3">
         <v>205600</v>
       </c>
-      <c r="F83" s="3">
-        <v>209600</v>
-      </c>
-      <c r="G83" s="3">
-        <v>114900</v>
-      </c>
       <c r="H83" s="3">
-        <v>98600</v>
+        <v>112700</v>
       </c>
       <c r="I83" s="3">
-        <v>80100</v>
+        <v>96700</v>
       </c>
       <c r="J83" s="3">
+        <v>78500</v>
+      </c>
+      <c r="K83" s="3">
         <v>72900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>82500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>80800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>68200</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3168,9 +3369,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3204,9 +3408,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3240,9 +3447,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3276,9 +3486,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3312,45 +3525,51 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>320300</v>
+        <v>277800</v>
       </c>
       <c r="E89" s="3">
-        <v>298000</v>
+        <v>314200</v>
       </c>
       <c r="F89" s="3">
-        <v>245400</v>
+        <v>292300</v>
       </c>
       <c r="G89" s="3">
-        <v>184900</v>
+        <v>240800</v>
       </c>
       <c r="H89" s="3">
-        <v>107800</v>
+        <v>181300</v>
       </c>
       <c r="I89" s="3">
-        <v>54200</v>
+        <v>105700</v>
       </c>
       <c r="J89" s="3">
+        <v>53100</v>
+      </c>
+      <c r="K89" s="3">
         <v>88600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>110100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>80500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>88700</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3365,44 +3584,48 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-49900</v>
+        <v>-85000</v>
       </c>
       <c r="E91" s="3">
-        <v>-47000</v>
+        <v>-48900</v>
       </c>
       <c r="F91" s="3">
-        <v>-52900</v>
+        <v>-46100</v>
       </c>
       <c r="G91" s="3">
-        <v>-52000</v>
+        <v>-51900</v>
       </c>
       <c r="H91" s="3">
-        <v>-197400</v>
+        <v>-51000</v>
       </c>
       <c r="I91" s="3">
-        <v>-78100</v>
+        <v>-193700</v>
       </c>
       <c r="J91" s="3">
+        <v>-76600</v>
+      </c>
+      <c r="K91" s="3">
         <v>-80100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-69600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-83600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-50800</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3436,9 +3659,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3472,45 +3698,51 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-87000</v>
+        <v>-132600</v>
       </c>
       <c r="E94" s="3">
-        <v>-97100</v>
+        <v>-85400</v>
       </c>
       <c r="F94" s="3">
-        <v>-53400</v>
+        <v>-95300</v>
       </c>
       <c r="G94" s="3">
-        <v>-63900</v>
+        <v>-52400</v>
       </c>
       <c r="H94" s="3">
-        <v>-105100</v>
+        <v>-62600</v>
       </c>
       <c r="I94" s="3">
-        <v>-54200</v>
+        <v>-103100</v>
       </c>
       <c r="J94" s="3">
+        <v>-53200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-61600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-68900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-93500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-54000</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3525,44 +3757,48 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-28200</v>
+        <v>-35300</v>
       </c>
       <c r="E96" s="3">
-        <v>-11300</v>
+        <v>-27700</v>
       </c>
       <c r="F96" s="3">
-        <v>-8900</v>
+        <v>-11100</v>
       </c>
       <c r="G96" s="3">
-        <v>-8900</v>
+        <v>-8800</v>
       </c>
       <c r="H96" s="3">
-        <v>-8900</v>
+        <v>-8800</v>
       </c>
       <c r="I96" s="3">
+        <v>-8800</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="K96" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="L96" s="3">
+        <v>-8600</v>
+      </c>
+      <c r="M96" s="3">
         <v>-8300</v>
       </c>
-      <c r="J96" s="3">
-        <v>-7400</v>
-      </c>
-      <c r="K96" s="3">
-        <v>-8600</v>
-      </c>
-      <c r="L96" s="3">
-        <v>-8300</v>
-      </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-6400</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3596,9 +3832,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3632,9 +3871,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3668,115 +3910,127 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-200600</v>
+        <v>-185500</v>
       </c>
       <c r="E100" s="3">
-        <v>-173600</v>
+        <v>-196800</v>
       </c>
       <c r="F100" s="3">
-        <v>-142300</v>
+        <v>-170300</v>
       </c>
       <c r="G100" s="3">
-        <v>-43300</v>
+        <v>-139500</v>
       </c>
       <c r="H100" s="3">
-        <v>-5300</v>
+        <v>-42500</v>
       </c>
       <c r="I100" s="3">
-        <v>18300</v>
+        <v>-5200</v>
       </c>
       <c r="J100" s="3">
+        <v>18000</v>
+      </c>
+      <c r="K100" s="3">
         <v>-38200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-53600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>104300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-45400</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>3600</v>
+        <v>4800</v>
       </c>
       <c r="E101" s="3">
+        <v>3500</v>
+      </c>
+      <c r="F101" s="3">
         <v>600</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-400</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>500</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-600</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-700</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
       <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
         <v>1000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>1800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-800</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>36200</v>
+        <v>-35500</v>
       </c>
       <c r="E102" s="3">
-        <v>27900</v>
+        <v>35500</v>
       </c>
       <c r="F102" s="3">
-        <v>49300</v>
+        <v>27400</v>
       </c>
       <c r="G102" s="3">
-        <v>78200</v>
+        <v>48400</v>
       </c>
       <c r="H102" s="3">
+        <v>76700</v>
+      </c>
+      <c r="I102" s="3">
         <v>-3100</v>
       </c>
-      <c r="I102" s="3">
-        <v>17600</v>
-      </c>
       <c r="J102" s="3">
+        <v>17200</v>
+      </c>
+      <c r="K102" s="3">
         <v>-11200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-11300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>93100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-11600</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/IIJIY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/IIJIY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
   <si>
     <t>IIJIY</t>
   </si>
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1822000</v>
+        <v>1736100</v>
       </c>
       <c r="E8" s="3">
-        <v>1631900</v>
+        <v>1554900</v>
       </c>
       <c r="F8" s="3">
-        <v>1535700</v>
+        <v>1463300</v>
       </c>
       <c r="G8" s="3">
-        <v>1474300</v>
+        <v>1404700</v>
       </c>
       <c r="H8" s="3">
-        <v>1387400</v>
+        <v>1322000</v>
       </c>
       <c r="I8" s="3">
-        <v>1270600</v>
+        <v>1210700</v>
       </c>
       <c r="J8" s="3">
-        <v>1137700</v>
+        <v>1084000</v>
       </c>
       <c r="K8" s="3">
         <v>1033800</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1404500</v>
+        <v>1338300</v>
       </c>
       <c r="E9" s="3">
-        <v>1259600</v>
+        <v>1200200</v>
       </c>
       <c r="F9" s="3">
-        <v>1245300</v>
+        <v>1186600</v>
       </c>
       <c r="G9" s="3">
-        <v>1239300</v>
+        <v>1180800</v>
       </c>
       <c r="H9" s="3">
-        <v>1178500</v>
+        <v>1122900</v>
       </c>
       <c r="I9" s="3">
-        <v>2114800</v>
+        <v>2015100</v>
       </c>
       <c r="J9" s="3">
-        <v>955600</v>
+        <v>910600</v>
       </c>
       <c r="K9" s="3">
         <v>852500</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>417500</v>
+        <v>397800</v>
       </c>
       <c r="E10" s="3">
-        <v>372200</v>
+        <v>354700</v>
       </c>
       <c r="F10" s="3">
-        <v>290400</v>
+        <v>276700</v>
       </c>
       <c r="G10" s="3">
-        <v>235000</v>
+        <v>223900</v>
       </c>
       <c r="H10" s="3">
-        <v>208900</v>
+        <v>199100</v>
       </c>
       <c r="I10" s="3">
-        <v>-844200</v>
+        <v>-804400</v>
       </c>
       <c r="J10" s="3">
-        <v>182000</v>
+        <v>173400</v>
       </c>
       <c r="K10" s="3">
         <v>181200</v>
@@ -856,26 +856,26 @@
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>10</v>
+      <c r="D12" s="3">
+        <v>3800</v>
       </c>
       <c r="E12" s="3">
-        <v>3700</v>
+        <v>3500</v>
       </c>
       <c r="F12" s="3">
-        <v>3400</v>
+        <v>3200</v>
       </c>
       <c r="G12" s="3">
+        <v>3000</v>
+      </c>
+      <c r="H12" s="3">
+        <v>3100</v>
+      </c>
+      <c r="I12" s="3">
+        <v>3300</v>
+      </c>
+      <c r="J12" s="3">
         <v>3200</v>
-      </c>
-      <c r="H12" s="3">
-        <v>3200</v>
-      </c>
-      <c r="I12" s="3">
-        <v>3500</v>
-      </c>
-      <c r="J12" s="3">
-        <v>3400</v>
       </c>
       <c r="K12" s="3">
         <v>3300</v>
@@ -934,23 +934,23 @@
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>10</v>
+      <c r="D14" s="3">
+        <v>2100</v>
       </c>
       <c r="E14" s="3">
-        <v>10100</v>
+        <v>9600</v>
       </c>
       <c r="F14" s="3">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="G14" s="3">
         <v>1300</v>
       </c>
       <c r="H14" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="I14" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="J14" s="3">
         <v>200</v>
@@ -973,23 +973,23 @@
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>10</v>
+      <c r="D15" s="3">
+        <v>21200</v>
       </c>
       <c r="E15" s="3">
-        <v>22500</v>
+        <v>21500</v>
       </c>
       <c r="F15" s="3">
-        <v>20500</v>
+        <v>19500</v>
       </c>
       <c r="G15" s="3">
-        <v>20500</v>
+        <v>19500</v>
       </c>
       <c r="H15" s="3">
-        <v>9200</v>
+        <v>8800</v>
       </c>
       <c r="I15" s="3">
-        <v>9000</v>
+        <v>8600</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>10</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1625800</v>
+        <v>1549100</v>
       </c>
       <c r="E17" s="3">
-        <v>1470600</v>
+        <v>1401300</v>
       </c>
       <c r="F17" s="3">
-        <v>1430500</v>
+        <v>1363000</v>
       </c>
       <c r="G17" s="3">
-        <v>1412200</v>
+        <v>1345600</v>
       </c>
       <c r="H17" s="3">
-        <v>1344000</v>
+        <v>1280600</v>
       </c>
       <c r="I17" s="3">
-        <v>1221800</v>
+        <v>1164200</v>
       </c>
       <c r="J17" s="3">
-        <v>1100900</v>
+        <v>1048900</v>
       </c>
       <c r="K17" s="3">
         <v>988700</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>196300</v>
+        <v>187000</v>
       </c>
       <c r="E18" s="3">
-        <v>161300</v>
+        <v>153700</v>
       </c>
       <c r="F18" s="3">
-        <v>105200</v>
+        <v>100300</v>
       </c>
       <c r="G18" s="3">
-        <v>62000</v>
+        <v>59100</v>
       </c>
       <c r="H18" s="3">
-        <v>43400</v>
+        <v>41400</v>
       </c>
       <c r="I18" s="3">
-        <v>48800</v>
+        <v>46500</v>
       </c>
       <c r="J18" s="3">
-        <v>36800</v>
+        <v>35100</v>
       </c>
       <c r="K18" s="3">
         <v>45000</v>
@@ -1122,25 +1122,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>600</v>
+        <v>4000</v>
       </c>
       <c r="E20" s="3">
-        <v>16600</v>
+        <v>15900</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
       <c r="G20" s="3">
-        <v>-6300</v>
+        <v>-6000</v>
       </c>
       <c r="H20" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="I20" s="3">
-        <v>6400</v>
+        <v>6100</v>
       </c>
       <c r="J20" s="3">
-        <v>4500</v>
+        <v>4300</v>
       </c>
       <c r="K20" s="3">
         <v>2300</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>406000</v>
+        <v>388900</v>
       </c>
       <c r="E21" s="3">
-        <v>384400</v>
+        <v>364900</v>
       </c>
       <c r="F21" s="3">
-        <v>308300</v>
+        <v>292400</v>
       </c>
       <c r="G21" s="3">
-        <v>262700</v>
+        <v>249000</v>
       </c>
       <c r="H21" s="3">
-        <v>158700</v>
+        <v>150500</v>
       </c>
       <c r="I21" s="3">
-        <v>152500</v>
+        <v>144700</v>
       </c>
       <c r="J21" s="3">
-        <v>120400</v>
+        <v>114200</v>
       </c>
       <c r="K21" s="3">
         <v>119500</v>
@@ -1199,26 +1199,26 @@
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>10</v>
+      <c r="D22" s="3">
+        <v>3400</v>
       </c>
       <c r="E22" s="3">
-        <v>3700</v>
+        <v>3500</v>
       </c>
       <c r="F22" s="3">
-        <v>4000</v>
+        <v>3800</v>
       </c>
       <c r="G22" s="3">
-        <v>4100</v>
+        <v>3900</v>
       </c>
       <c r="H22" s="3">
-        <v>3100</v>
+        <v>3000</v>
       </c>
       <c r="I22" s="3">
-        <v>5600</v>
+        <v>5400</v>
       </c>
       <c r="J22" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="K22" s="3">
         <v>1800</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>196900</v>
+        <v>187600</v>
       </c>
       <c r="E23" s="3">
-        <v>174200</v>
+        <v>166000</v>
       </c>
       <c r="F23" s="3">
-        <v>101200</v>
+        <v>96400</v>
       </c>
       <c r="G23" s="3">
-        <v>51600</v>
+        <v>49200</v>
       </c>
       <c r="H23" s="3">
-        <v>42100</v>
+        <v>40100</v>
       </c>
       <c r="I23" s="3">
-        <v>49500</v>
+        <v>47200</v>
       </c>
       <c r="J23" s="3">
-        <v>39100</v>
+        <v>37300</v>
       </c>
       <c r="K23" s="3">
         <v>45500</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>60100</v>
+        <v>57200</v>
       </c>
       <c r="E24" s="3">
-        <v>60300</v>
+        <v>57400</v>
       </c>
       <c r="F24" s="3">
-        <v>30500</v>
+        <v>29100</v>
       </c>
       <c r="G24" s="3">
-        <v>21400</v>
+        <v>20400</v>
       </c>
       <c r="H24" s="3">
-        <v>15500</v>
+        <v>14700</v>
       </c>
       <c r="I24" s="3">
-        <v>16600</v>
+        <v>15800</v>
       </c>
       <c r="J24" s="3">
-        <v>16000</v>
+        <v>15300</v>
       </c>
       <c r="K24" s="3">
         <v>16000</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>136800</v>
+        <v>130400</v>
       </c>
       <c r="E26" s="3">
-        <v>113900</v>
+        <v>108500</v>
       </c>
       <c r="F26" s="3">
-        <v>70700</v>
+        <v>67300</v>
       </c>
       <c r="G26" s="3">
-        <v>30200</v>
+        <v>28800</v>
       </c>
       <c r="H26" s="3">
-        <v>26700</v>
+        <v>25400</v>
       </c>
       <c r="I26" s="3">
-        <v>33000</v>
+        <v>31400</v>
       </c>
       <c r="J26" s="3">
-        <v>23100</v>
+        <v>22000</v>
       </c>
       <c r="K26" s="3">
         <v>29500</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>135800</v>
+        <v>129400</v>
       </c>
       <c r="E27" s="3">
-        <v>113000</v>
+        <v>107700</v>
       </c>
       <c r="F27" s="3">
-        <v>70000</v>
+        <v>66700</v>
       </c>
       <c r="G27" s="3">
-        <v>28900</v>
+        <v>27500</v>
       </c>
       <c r="H27" s="3">
-        <v>25400</v>
+        <v>24200</v>
       </c>
       <c r="I27" s="3">
-        <v>32700</v>
+        <v>31200</v>
       </c>
       <c r="J27" s="3">
-        <v>22800</v>
+        <v>21800</v>
       </c>
       <c r="K27" s="3">
         <v>29700</v>
@@ -1590,25 +1590,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-600</v>
+        <v>-4000</v>
       </c>
       <c r="E32" s="3">
-        <v>-16600</v>
+        <v>-15900</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
       <c r="G32" s="3">
-        <v>6300</v>
+        <v>6000</v>
       </c>
       <c r="H32" s="3">
-        <v>-1800</v>
+        <v>-1700</v>
       </c>
       <c r="I32" s="3">
-        <v>-6400</v>
+        <v>-6100</v>
       </c>
       <c r="J32" s="3">
-        <v>-4500</v>
+        <v>-4300</v>
       </c>
       <c r="K32" s="3">
         <v>-2300</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>135800</v>
+        <v>129400</v>
       </c>
       <c r="E33" s="3">
-        <v>113000</v>
+        <v>107700</v>
       </c>
       <c r="F33" s="3">
-        <v>70000</v>
+        <v>66700</v>
       </c>
       <c r="G33" s="3">
-        <v>28900</v>
+        <v>27500</v>
       </c>
       <c r="H33" s="3">
-        <v>25400</v>
+        <v>24200</v>
       </c>
       <c r="I33" s="3">
-        <v>32900</v>
+        <v>31300</v>
       </c>
       <c r="J33" s="3">
-        <v>22800</v>
+        <v>21800</v>
       </c>
       <c r="K33" s="3">
         <v>29700</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>135800</v>
+        <v>129400</v>
       </c>
       <c r="E35" s="3">
-        <v>113000</v>
+        <v>107700</v>
       </c>
       <c r="F35" s="3">
-        <v>70000</v>
+        <v>66700</v>
       </c>
       <c r="G35" s="3">
-        <v>28900</v>
+        <v>27500</v>
       </c>
       <c r="H35" s="3">
-        <v>25400</v>
+        <v>24200</v>
       </c>
       <c r="I35" s="3">
-        <v>32900</v>
+        <v>31300</v>
       </c>
       <c r="J35" s="3">
-        <v>22800</v>
+        <v>21800</v>
       </c>
       <c r="K35" s="3">
         <v>29700</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>306200</v>
+        <v>291800</v>
       </c>
       <c r="E41" s="3">
-        <v>341700</v>
+        <v>325600</v>
       </c>
       <c r="F41" s="3">
-        <v>306200</v>
+        <v>291700</v>
       </c>
       <c r="G41" s="3">
-        <v>278800</v>
+        <v>265700</v>
       </c>
       <c r="H41" s="3">
-        <v>230400</v>
+        <v>219600</v>
       </c>
       <c r="I41" s="3">
-        <v>308000</v>
+        <v>293500</v>
       </c>
       <c r="J41" s="3">
-        <v>158300</v>
+        <v>150900</v>
       </c>
       <c r="K41" s="3">
         <v>143800</v>
@@ -1863,22 +1863,22 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>13800</v>
+        <v>13200</v>
       </c>
       <c r="E42" s="3">
-        <v>9300</v>
+        <v>8900</v>
       </c>
       <c r="F42" s="3">
-        <v>14200</v>
+        <v>13600</v>
       </c>
       <c r="G42" s="3">
-        <v>19300</v>
+        <v>18300</v>
       </c>
       <c r="H42" s="3">
-        <v>11400</v>
+        <v>10900</v>
       </c>
       <c r="I42" s="3">
-        <v>27100</v>
+        <v>25800</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>10</v>
@@ -1902,25 +1902,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>313800</v>
+        <v>583000</v>
       </c>
       <c r="E43" s="3">
-        <v>284900</v>
+        <v>271500</v>
       </c>
       <c r="F43" s="3">
-        <v>260100</v>
+        <v>247900</v>
       </c>
       <c r="G43" s="3">
-        <v>237800</v>
+        <v>226600</v>
       </c>
       <c r="H43" s="3">
-        <v>240600</v>
+        <v>229300</v>
       </c>
       <c r="I43" s="3">
-        <v>457100</v>
+        <v>435600</v>
       </c>
       <c r="J43" s="3">
-        <v>197300</v>
+        <v>188000</v>
       </c>
       <c r="K43" s="3">
         <v>174400</v>
@@ -1941,25 +1941,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>23000</v>
+        <v>43800</v>
       </c>
       <c r="E44" s="3">
-        <v>18800</v>
+        <v>17900</v>
       </c>
       <c r="F44" s="3">
-        <v>15700</v>
+        <v>14900</v>
       </c>
       <c r="G44" s="3">
-        <v>17900</v>
+        <v>17000</v>
       </c>
       <c r="H44" s="3">
-        <v>24500</v>
+        <v>23400</v>
       </c>
       <c r="I44" s="3">
-        <v>23500</v>
+        <v>22400</v>
       </c>
       <c r="J44" s="3">
-        <v>20200</v>
+        <v>19200</v>
       </c>
       <c r="K44" s="3">
         <v>14700</v>
@@ -1980,25 +1980,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>112300</v>
+        <v>107000</v>
       </c>
       <c r="E45" s="3">
-        <v>98600</v>
+        <v>93900</v>
       </c>
       <c r="F45" s="3">
-        <v>77200</v>
+        <v>73600</v>
       </c>
       <c r="G45" s="3">
-        <v>70600</v>
+        <v>67200</v>
       </c>
       <c r="H45" s="3">
-        <v>62400</v>
+        <v>59400</v>
       </c>
       <c r="I45" s="3">
-        <v>143400</v>
+        <v>136600</v>
       </c>
       <c r="J45" s="3">
-        <v>83600</v>
+        <v>79700</v>
       </c>
       <c r="K45" s="3">
         <v>59600</v>
@@ -2019,25 +2019,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>769100</v>
+        <v>732900</v>
       </c>
       <c r="E46" s="3">
-        <v>753300</v>
+        <v>717800</v>
       </c>
       <c r="F46" s="3">
-        <v>673400</v>
+        <v>641700</v>
       </c>
       <c r="G46" s="3">
-        <v>624300</v>
+        <v>594900</v>
       </c>
       <c r="H46" s="3">
-        <v>569400</v>
+        <v>542500</v>
       </c>
       <c r="I46" s="3">
-        <v>474700</v>
+        <v>452300</v>
       </c>
       <c r="J46" s="3">
-        <v>459400</v>
+        <v>437800</v>
       </c>
       <c r="K46" s="3">
         <v>392500</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>214000</v>
+        <v>203900</v>
       </c>
       <c r="E47" s="3">
-        <v>198700</v>
+        <v>189300</v>
       </c>
       <c r="F47" s="3">
-        <v>190600</v>
+        <v>181600</v>
       </c>
       <c r="G47" s="3">
-        <v>135000</v>
+        <v>128600</v>
       </c>
       <c r="H47" s="3">
-        <v>155300</v>
+        <v>147900</v>
       </c>
       <c r="I47" s="3">
-        <v>203100</v>
+        <v>193600</v>
       </c>
       <c r="J47" s="3">
-        <v>22300</v>
+        <v>21200</v>
       </c>
       <c r="K47" s="3">
         <v>21400</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>504700</v>
+        <v>961700</v>
       </c>
       <c r="E48" s="3">
-        <v>452200</v>
+        <v>430900</v>
       </c>
       <c r="F48" s="3">
-        <v>488800</v>
+        <v>465700</v>
       </c>
       <c r="G48" s="3">
-        <v>490000</v>
+        <v>466900</v>
       </c>
       <c r="H48" s="3">
-        <v>238900</v>
+        <v>227600</v>
       </c>
       <c r="I48" s="3">
-        <v>576400</v>
+        <v>549200</v>
       </c>
       <c r="J48" s="3">
-        <v>286800</v>
+        <v>273300</v>
       </c>
       <c r="K48" s="3">
         <v>252300</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>190900</v>
+        <v>363800</v>
       </c>
       <c r="E49" s="3">
-        <v>186800</v>
+        <v>178000</v>
       </c>
       <c r="F49" s="3">
-        <v>166100</v>
+        <v>158300</v>
       </c>
       <c r="G49" s="3">
-        <v>175700</v>
+        <v>167400</v>
       </c>
       <c r="H49" s="3">
-        <v>179500</v>
+        <v>171100</v>
       </c>
       <c r="I49" s="3">
-        <v>235300</v>
+        <v>224200</v>
       </c>
       <c r="J49" s="3">
-        <v>66700</v>
+        <v>63600</v>
       </c>
       <c r="K49" s="3">
         <v>71400</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>96400</v>
+        <v>92700</v>
       </c>
       <c r="E52" s="3">
-        <v>80300</v>
+        <v>76600</v>
       </c>
       <c r="F52" s="3">
-        <v>72900</v>
+        <v>69500</v>
       </c>
       <c r="G52" s="3">
-        <v>64100</v>
+        <v>61100</v>
       </c>
       <c r="H52" s="3">
-        <v>63100</v>
+        <v>60100</v>
       </c>
       <c r="I52" s="3">
-        <v>251200</v>
+        <v>239300</v>
       </c>
       <c r="J52" s="3">
-        <v>155400</v>
+        <v>148100</v>
       </c>
       <c r="K52" s="3">
         <v>128400</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1775100</v>
+        <v>1692200</v>
       </c>
       <c r="E54" s="3">
-        <v>1671300</v>
+        <v>1592500</v>
       </c>
       <c r="F54" s="3">
-        <v>1591800</v>
+        <v>1516700</v>
       </c>
       <c r="G54" s="3">
-        <v>1489000</v>
+        <v>1418800</v>
       </c>
       <c r="H54" s="3">
-        <v>1206200</v>
+        <v>1149300</v>
       </c>
       <c r="I54" s="3">
-        <v>1118700</v>
+        <v>1066000</v>
       </c>
       <c r="J54" s="3">
-        <v>990600</v>
+        <v>943900</v>
       </c>
       <c r="K54" s="3">
         <v>866100</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>160900</v>
+        <v>223300</v>
       </c>
       <c r="E57" s="3">
-        <v>62900</v>
+        <v>59900</v>
       </c>
       <c r="F57" s="3">
-        <v>46100</v>
+        <v>43900</v>
       </c>
       <c r="G57" s="3">
-        <v>43100</v>
+        <v>41100</v>
       </c>
       <c r="H57" s="3">
-        <v>56300</v>
+        <v>53700</v>
       </c>
       <c r="I57" s="3">
-        <v>146900</v>
+        <v>140000</v>
       </c>
       <c r="J57" s="3">
-        <v>105600</v>
+        <v>100700</v>
       </c>
       <c r="K57" s="3">
         <v>102200</v>
@@ -2443,25 +2443,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>121300</v>
+        <v>231200</v>
       </c>
       <c r="E58" s="3">
-        <v>118000</v>
+        <v>112500</v>
       </c>
       <c r="F58" s="3">
-        <v>133800</v>
+        <v>127500</v>
       </c>
       <c r="G58" s="3">
-        <v>112300</v>
+        <v>107000</v>
       </c>
       <c r="H58" s="3">
-        <v>138900</v>
+        <v>132400</v>
       </c>
       <c r="I58" s="3">
-        <v>214900</v>
+        <v>204700</v>
       </c>
       <c r="J58" s="3">
-        <v>101400</v>
+        <v>96700</v>
       </c>
       <c r="K58" s="3">
         <v>97100</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>279200</v>
+        <v>349300</v>
       </c>
       <c r="E59" s="3">
-        <v>372600</v>
+        <v>355100</v>
       </c>
       <c r="F59" s="3">
-        <v>348300</v>
+        <v>331900</v>
       </c>
       <c r="G59" s="3">
-        <v>318200</v>
+        <v>303200</v>
       </c>
       <c r="H59" s="3">
-        <v>186200</v>
+        <v>177400</v>
       </c>
       <c r="I59" s="3">
-        <v>245900</v>
+        <v>234300</v>
       </c>
       <c r="J59" s="3">
-        <v>81200</v>
+        <v>77400</v>
       </c>
       <c r="K59" s="3">
         <v>65800</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>561400</v>
+        <v>534900</v>
       </c>
       <c r="E60" s="3">
-        <v>553600</v>
+        <v>527500</v>
       </c>
       <c r="F60" s="3">
-        <v>528200</v>
+        <v>503300</v>
       </c>
       <c r="G60" s="3">
-        <v>473600</v>
+        <v>451300</v>
       </c>
       <c r="H60" s="3">
-        <v>381400</v>
+        <v>363500</v>
       </c>
       <c r="I60" s="3">
-        <v>303800</v>
+        <v>289500</v>
       </c>
       <c r="J60" s="3">
-        <v>288300</v>
+        <v>274700</v>
       </c>
       <c r="K60" s="3">
         <v>265100</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>26000</v>
+        <v>24700</v>
       </c>
       <c r="E61" s="3">
-        <v>39700</v>
+        <v>37800</v>
       </c>
       <c r="F61" s="3">
-        <v>50500</v>
+        <v>48100</v>
       </c>
       <c r="G61" s="3">
-        <v>87700</v>
+        <v>83600</v>
       </c>
       <c r="H61" s="3">
-        <v>184000</v>
+        <v>175300</v>
       </c>
       <c r="I61" s="3">
-        <v>190500</v>
+        <v>181500</v>
       </c>
       <c r="J61" s="3">
-        <v>136200</v>
+        <v>129700</v>
       </c>
       <c r="K61" s="3">
         <v>57200</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>327500</v>
+        <v>528400</v>
       </c>
       <c r="E62" s="3">
-        <v>323800</v>
+        <v>308500</v>
       </c>
       <c r="F62" s="3">
-        <v>357200</v>
+        <v>340400</v>
       </c>
       <c r="G62" s="3">
-        <v>350500</v>
+        <v>334000</v>
       </c>
       <c r="H62" s="3">
-        <v>84700</v>
+        <v>80700</v>
       </c>
       <c r="I62" s="3">
-        <v>160500</v>
+        <v>152900</v>
       </c>
       <c r="J62" s="3">
-        <v>80400</v>
+        <v>76600</v>
       </c>
       <c r="K62" s="3">
         <v>63500</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>923400</v>
+        <v>879900</v>
       </c>
       <c r="E66" s="3">
-        <v>924900</v>
+        <v>881300</v>
       </c>
       <c r="F66" s="3">
-        <v>943200</v>
+        <v>898700</v>
       </c>
       <c r="G66" s="3">
-        <v>918900</v>
+        <v>875600</v>
       </c>
       <c r="H66" s="3">
-        <v>656200</v>
+        <v>625300</v>
       </c>
       <c r="I66" s="3">
-        <v>581400</v>
+        <v>554000</v>
       </c>
       <c r="J66" s="3">
-        <v>509400</v>
+        <v>485400</v>
       </c>
       <c r="K66" s="3">
         <v>389500</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>368300</v>
+        <v>351800</v>
       </c>
       <c r="E72" s="3">
-        <v>266900</v>
+        <v>254400</v>
       </c>
       <c r="F72" s="3">
-        <v>180600</v>
+        <v>172100</v>
       </c>
       <c r="G72" s="3">
-        <v>119000</v>
+        <v>113400</v>
       </c>
       <c r="H72" s="3">
-        <v>88900</v>
+        <v>84700</v>
       </c>
       <c r="I72" s="3">
-        <v>130400</v>
+        <v>124200</v>
       </c>
       <c r="J72" s="3">
-        <v>32500</v>
+        <v>31000</v>
       </c>
       <c r="K72" s="3">
         <v>18200</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>851600</v>
+        <v>812300</v>
       </c>
       <c r="E76" s="3">
-        <v>746400</v>
+        <v>711200</v>
       </c>
       <c r="F76" s="3">
-        <v>648600</v>
+        <v>618000</v>
       </c>
       <c r="G76" s="3">
-        <v>570100</v>
+        <v>543200</v>
       </c>
       <c r="H76" s="3">
-        <v>549900</v>
+        <v>524000</v>
       </c>
       <c r="I76" s="3">
-        <v>537400</v>
+        <v>512000</v>
       </c>
       <c r="J76" s="3">
-        <v>481200</v>
+        <v>458500</v>
       </c>
       <c r="K76" s="3">
         <v>476600</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>135800</v>
+        <v>129400</v>
       </c>
       <c r="E81" s="3">
-        <v>113000</v>
+        <v>107700</v>
       </c>
       <c r="F81" s="3">
-        <v>70000</v>
+        <v>66700</v>
       </c>
       <c r="G81" s="3">
-        <v>28900</v>
+        <v>27500</v>
       </c>
       <c r="H81" s="3">
-        <v>25400</v>
+        <v>24200</v>
       </c>
       <c r="I81" s="3">
-        <v>32900</v>
+        <v>31300</v>
       </c>
       <c r="J81" s="3">
-        <v>22800</v>
+        <v>21800</v>
       </c>
       <c r="K81" s="3">
         <v>29700</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>207700</v>
+        <v>197900</v>
       </c>
       <c r="E83" s="3">
-        <v>205100</v>
+        <v>195400</v>
       </c>
       <c r="F83" s="3">
-        <v>201700</v>
+        <v>192200</v>
       </c>
       <c r="G83" s="3">
-        <v>205600</v>
+        <v>195900</v>
       </c>
       <c r="H83" s="3">
-        <v>112700</v>
+        <v>107400</v>
       </c>
       <c r="I83" s="3">
-        <v>96700</v>
+        <v>92100</v>
       </c>
       <c r="J83" s="3">
-        <v>78500</v>
+        <v>74800</v>
       </c>
       <c r="K83" s="3">
         <v>72900</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>277800</v>
+        <v>264700</v>
       </c>
       <c r="E89" s="3">
-        <v>314200</v>
+        <v>299300</v>
       </c>
       <c r="F89" s="3">
-        <v>292300</v>
+        <v>278500</v>
       </c>
       <c r="G89" s="3">
-        <v>240800</v>
+        <v>229400</v>
       </c>
       <c r="H89" s="3">
-        <v>181300</v>
+        <v>172800</v>
       </c>
       <c r="I89" s="3">
-        <v>105700</v>
+        <v>100700</v>
       </c>
       <c r="J89" s="3">
-        <v>53100</v>
+        <v>50600</v>
       </c>
       <c r="K89" s="3">
         <v>88600</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-85000</v>
+        <v>-81000</v>
       </c>
       <c r="E91" s="3">
-        <v>-48900</v>
+        <v>-46600</v>
       </c>
       <c r="F91" s="3">
-        <v>-46100</v>
+        <v>-43900</v>
       </c>
       <c r="G91" s="3">
-        <v>-51900</v>
+        <v>-49400</v>
       </c>
       <c r="H91" s="3">
-        <v>-51000</v>
+        <v>-48600</v>
       </c>
       <c r="I91" s="3">
-        <v>-193700</v>
+        <v>-184500</v>
       </c>
       <c r="J91" s="3">
-        <v>-76600</v>
+        <v>-73000</v>
       </c>
       <c r="K91" s="3">
         <v>-80100</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-132600</v>
+        <v>-126300</v>
       </c>
       <c r="E94" s="3">
-        <v>-85400</v>
+        <v>-81300</v>
       </c>
       <c r="F94" s="3">
-        <v>-95300</v>
+        <v>-90800</v>
       </c>
       <c r="G94" s="3">
-        <v>-52400</v>
+        <v>-49900</v>
       </c>
       <c r="H94" s="3">
-        <v>-62600</v>
+        <v>-59700</v>
       </c>
       <c r="I94" s="3">
-        <v>-103100</v>
+        <v>-98200</v>
       </c>
       <c r="J94" s="3">
-        <v>-53200</v>
+        <v>-50700</v>
       </c>
       <c r="K94" s="3">
         <v>-61600</v>
@@ -3764,25 +3764,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-35300</v>
+        <v>-33700</v>
       </c>
       <c r="E96" s="3">
-        <v>-27700</v>
+        <v>-26400</v>
       </c>
       <c r="F96" s="3">
-        <v>-11100</v>
+        <v>-10500</v>
       </c>
       <c r="G96" s="3">
-        <v>-8800</v>
+        <v>-8400</v>
       </c>
       <c r="H96" s="3">
-        <v>-8800</v>
+        <v>-8400</v>
       </c>
       <c r="I96" s="3">
-        <v>-8800</v>
+        <v>-8400</v>
       </c>
       <c r="J96" s="3">
-        <v>-8100</v>
+        <v>-7700</v>
       </c>
       <c r="K96" s="3">
         <v>-7400</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-185500</v>
+        <v>-176800</v>
       </c>
       <c r="E100" s="3">
-        <v>-196800</v>
+        <v>-187500</v>
       </c>
       <c r="F100" s="3">
-        <v>-170300</v>
+        <v>-162300</v>
       </c>
       <c r="G100" s="3">
-        <v>-139500</v>
+        <v>-133000</v>
       </c>
       <c r="H100" s="3">
-        <v>-42500</v>
+        <v>-40500</v>
       </c>
       <c r="I100" s="3">
-        <v>-5200</v>
+        <v>-4900</v>
       </c>
       <c r="J100" s="3">
-        <v>18000</v>
+        <v>17100</v>
       </c>
       <c r="K100" s="3">
         <v>-38200</v>
@@ -3959,10 +3959,10 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>4800</v>
+        <v>4600</v>
       </c>
       <c r="E101" s="3">
-        <v>3500</v>
+        <v>3300</v>
       </c>
       <c r="F101" s="3">
         <v>600</v>
@@ -3971,13 +3971,13 @@
         <v>-400</v>
       </c>
       <c r="H101" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="I101" s="3">
+        <v>-500</v>
+      </c>
+      <c r="J101" s="3">
         <v>-600</v>
-      </c>
-      <c r="J101" s="3">
-        <v>-700</v>
       </c>
       <c r="K101" s="3">
         <v>0</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-35500</v>
+        <v>-33800</v>
       </c>
       <c r="E102" s="3">
-        <v>35500</v>
+        <v>33800</v>
       </c>
       <c r="F102" s="3">
-        <v>27400</v>
+        <v>26100</v>
       </c>
       <c r="G102" s="3">
-        <v>48400</v>
+        <v>46100</v>
       </c>
       <c r="H102" s="3">
-        <v>76700</v>
+        <v>73100</v>
       </c>
       <c r="I102" s="3">
-        <v>-3100</v>
+        <v>-2900</v>
       </c>
       <c r="J102" s="3">
-        <v>17200</v>
+        <v>16400</v>
       </c>
       <c r="K102" s="3">
         <v>-11200</v>

--- a/AAII_Financials/Yearly/IIJIY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/IIJIY_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1736100</v>
+        <v>1678000</v>
       </c>
       <c r="E8" s="3">
-        <v>1554900</v>
+        <v>1502900</v>
       </c>
       <c r="F8" s="3">
-        <v>1463300</v>
+        <v>1414300</v>
       </c>
       <c r="G8" s="3">
-        <v>1404700</v>
+        <v>1357700</v>
       </c>
       <c r="H8" s="3">
-        <v>1322000</v>
+        <v>1277700</v>
       </c>
       <c r="I8" s="3">
-        <v>1210700</v>
+        <v>1170200</v>
       </c>
       <c r="J8" s="3">
-        <v>1084000</v>
+        <v>1047700</v>
       </c>
       <c r="K8" s="3">
         <v>1033800</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1338300</v>
+        <v>1293500</v>
       </c>
       <c r="E9" s="3">
-        <v>1200200</v>
+        <v>1160100</v>
       </c>
       <c r="F9" s="3">
-        <v>1186600</v>
+        <v>1146900</v>
       </c>
       <c r="G9" s="3">
-        <v>1180800</v>
+        <v>1141300</v>
       </c>
       <c r="H9" s="3">
-        <v>1122900</v>
+        <v>1085300</v>
       </c>
       <c r="I9" s="3">
-        <v>2015100</v>
+        <v>1947600</v>
       </c>
       <c r="J9" s="3">
-        <v>910600</v>
+        <v>880100</v>
       </c>
       <c r="K9" s="3">
         <v>852500</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>397800</v>
+        <v>384500</v>
       </c>
       <c r="E10" s="3">
-        <v>354700</v>
+        <v>342800</v>
       </c>
       <c r="F10" s="3">
-        <v>276700</v>
+        <v>267500</v>
       </c>
       <c r="G10" s="3">
-        <v>223900</v>
+        <v>216400</v>
       </c>
       <c r="H10" s="3">
-        <v>199100</v>
+        <v>192400</v>
       </c>
       <c r="I10" s="3">
-        <v>-804400</v>
+        <v>-777400</v>
       </c>
       <c r="J10" s="3">
-        <v>173400</v>
+        <v>167600</v>
       </c>
       <c r="K10" s="3">
         <v>181200</v>
@@ -857,25 +857,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>3800</v>
+        <v>3600</v>
       </c>
       <c r="E12" s="3">
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="F12" s="3">
+        <v>3100</v>
+      </c>
+      <c r="G12" s="3">
+        <v>2900</v>
+      </c>
+      <c r="H12" s="3">
+        <v>3000</v>
+      </c>
+      <c r="I12" s="3">
         <v>3200</v>
       </c>
-      <c r="G12" s="3">
-        <v>3000</v>
-      </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>3100</v>
-      </c>
-      <c r="I12" s="3">
-        <v>3300</v>
-      </c>
-      <c r="J12" s="3">
-        <v>3200</v>
       </c>
       <c r="K12" s="3">
         <v>3300</v>
@@ -935,19 +935,19 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="E14" s="3">
-        <v>9600</v>
+        <v>9300</v>
       </c>
       <c r="F14" s="3">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="G14" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="H14" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="I14" s="3">
         <v>1500</v>
@@ -974,22 +974,22 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>21200</v>
+        <v>20400</v>
       </c>
       <c r="E15" s="3">
-        <v>21500</v>
+        <v>20800</v>
       </c>
       <c r="F15" s="3">
-        <v>19500</v>
+        <v>18800</v>
       </c>
       <c r="G15" s="3">
-        <v>19500</v>
+        <v>18900</v>
       </c>
       <c r="H15" s="3">
-        <v>8800</v>
+        <v>8500</v>
       </c>
       <c r="I15" s="3">
-        <v>8600</v>
+        <v>8300</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>10</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1549100</v>
+        <v>1497200</v>
       </c>
       <c r="E17" s="3">
-        <v>1401300</v>
+        <v>1354400</v>
       </c>
       <c r="F17" s="3">
-        <v>1363000</v>
+        <v>1317400</v>
       </c>
       <c r="G17" s="3">
-        <v>1345600</v>
+        <v>1300600</v>
       </c>
       <c r="H17" s="3">
-        <v>1280600</v>
+        <v>1237700</v>
       </c>
       <c r="I17" s="3">
-        <v>1164200</v>
+        <v>1125200</v>
       </c>
       <c r="J17" s="3">
-        <v>1048900</v>
+        <v>1013800</v>
       </c>
       <c r="K17" s="3">
         <v>988700</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>187000</v>
+        <v>180700</v>
       </c>
       <c r="E18" s="3">
-        <v>153700</v>
+        <v>148500</v>
       </c>
       <c r="F18" s="3">
-        <v>100300</v>
+        <v>96900</v>
       </c>
       <c r="G18" s="3">
-        <v>59100</v>
+        <v>57100</v>
       </c>
       <c r="H18" s="3">
-        <v>41400</v>
+        <v>40000</v>
       </c>
       <c r="I18" s="3">
-        <v>46500</v>
+        <v>45000</v>
       </c>
       <c r="J18" s="3">
-        <v>35100</v>
+        <v>33900</v>
       </c>
       <c r="K18" s="3">
         <v>45000</v>
@@ -1122,25 +1122,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>4000</v>
+        <v>3900</v>
       </c>
       <c r="E20" s="3">
-        <v>15900</v>
+        <v>15300</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
       <c r="G20" s="3">
-        <v>-6000</v>
+        <v>-5800</v>
       </c>
       <c r="H20" s="3">
         <v>1700</v>
       </c>
       <c r="I20" s="3">
-        <v>6100</v>
+        <v>5900</v>
       </c>
       <c r="J20" s="3">
-        <v>4300</v>
+        <v>4200</v>
       </c>
       <c r="K20" s="3">
         <v>2300</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>388900</v>
+        <v>375000</v>
       </c>
       <c r="E21" s="3">
-        <v>364900</v>
+        <v>351900</v>
       </c>
       <c r="F21" s="3">
-        <v>292400</v>
+        <v>281800</v>
       </c>
       <c r="G21" s="3">
-        <v>249000</v>
+        <v>239800</v>
       </c>
       <c r="H21" s="3">
-        <v>150500</v>
+        <v>145000</v>
       </c>
       <c r="I21" s="3">
-        <v>144700</v>
+        <v>139500</v>
       </c>
       <c r="J21" s="3">
-        <v>114200</v>
+        <v>110100</v>
       </c>
       <c r="K21" s="3">
         <v>119500</v>
@@ -1200,25 +1200,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E22" s="3">
         <v>3400</v>
       </c>
-      <c r="E22" s="3">
-        <v>3500</v>
-      </c>
       <c r="F22" s="3">
+        <v>3700</v>
+      </c>
+      <c r="G22" s="3">
         <v>3800</v>
       </c>
-      <c r="G22" s="3">
-        <v>3900</v>
-      </c>
       <c r="H22" s="3">
-        <v>3000</v>
+        <v>2900</v>
       </c>
       <c r="I22" s="3">
-        <v>5400</v>
+        <v>5200</v>
       </c>
       <c r="J22" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="K22" s="3">
         <v>1800</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>187600</v>
+        <v>181300</v>
       </c>
       <c r="E23" s="3">
-        <v>166000</v>
+        <v>160400</v>
       </c>
       <c r="F23" s="3">
-        <v>96400</v>
+        <v>93200</v>
       </c>
       <c r="G23" s="3">
-        <v>49200</v>
+        <v>47500</v>
       </c>
       <c r="H23" s="3">
-        <v>40100</v>
+        <v>38800</v>
       </c>
       <c r="I23" s="3">
-        <v>47200</v>
+        <v>45600</v>
       </c>
       <c r="J23" s="3">
-        <v>37300</v>
+        <v>36000</v>
       </c>
       <c r="K23" s="3">
         <v>45500</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>57200</v>
+        <v>55300</v>
       </c>
       <c r="E24" s="3">
-        <v>57400</v>
+        <v>55500</v>
       </c>
       <c r="F24" s="3">
-        <v>29100</v>
+        <v>28100</v>
       </c>
       <c r="G24" s="3">
-        <v>20400</v>
+        <v>19700</v>
       </c>
       <c r="H24" s="3">
-        <v>14700</v>
+        <v>14200</v>
       </c>
       <c r="I24" s="3">
-        <v>15800</v>
+        <v>15300</v>
       </c>
       <c r="J24" s="3">
-        <v>15300</v>
+        <v>14800</v>
       </c>
       <c r="K24" s="3">
         <v>16000</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>130400</v>
+        <v>126000</v>
       </c>
       <c r="E26" s="3">
-        <v>108500</v>
+        <v>104900</v>
       </c>
       <c r="F26" s="3">
-        <v>67300</v>
+        <v>65100</v>
       </c>
       <c r="G26" s="3">
-        <v>28800</v>
+        <v>27800</v>
       </c>
       <c r="H26" s="3">
-        <v>25400</v>
+        <v>24600</v>
       </c>
       <c r="I26" s="3">
-        <v>31400</v>
+        <v>30400</v>
       </c>
       <c r="J26" s="3">
-        <v>22000</v>
+        <v>21300</v>
       </c>
       <c r="K26" s="3">
         <v>29500</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>129400</v>
+        <v>125100</v>
       </c>
       <c r="E27" s="3">
-        <v>107700</v>
+        <v>104100</v>
       </c>
       <c r="F27" s="3">
-        <v>66700</v>
+        <v>64500</v>
       </c>
       <c r="G27" s="3">
-        <v>27500</v>
+        <v>26600</v>
       </c>
       <c r="H27" s="3">
-        <v>24200</v>
+        <v>23400</v>
       </c>
       <c r="I27" s="3">
-        <v>31200</v>
+        <v>30100</v>
       </c>
       <c r="J27" s="3">
-        <v>21800</v>
+        <v>21000</v>
       </c>
       <c r="K27" s="3">
         <v>29700</v>
@@ -1590,25 +1590,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-4000</v>
+        <v>-3900</v>
       </c>
       <c r="E32" s="3">
-        <v>-15900</v>
+        <v>-15300</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
       <c r="G32" s="3">
-        <v>6000</v>
+        <v>5800</v>
       </c>
       <c r="H32" s="3">
         <v>-1700</v>
       </c>
       <c r="I32" s="3">
-        <v>-6100</v>
+        <v>-5900</v>
       </c>
       <c r="J32" s="3">
-        <v>-4300</v>
+        <v>-4200</v>
       </c>
       <c r="K32" s="3">
         <v>-2300</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>129400</v>
+        <v>125100</v>
       </c>
       <c r="E33" s="3">
-        <v>107700</v>
+        <v>104100</v>
       </c>
       <c r="F33" s="3">
-        <v>66700</v>
+        <v>64500</v>
       </c>
       <c r="G33" s="3">
-        <v>27500</v>
+        <v>26600</v>
       </c>
       <c r="H33" s="3">
-        <v>24200</v>
+        <v>23400</v>
       </c>
       <c r="I33" s="3">
-        <v>31300</v>
+        <v>30300</v>
       </c>
       <c r="J33" s="3">
-        <v>21800</v>
+        <v>21000</v>
       </c>
       <c r="K33" s="3">
         <v>29700</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>129400</v>
+        <v>125100</v>
       </c>
       <c r="E35" s="3">
-        <v>107700</v>
+        <v>104100</v>
       </c>
       <c r="F35" s="3">
-        <v>66700</v>
+        <v>64500</v>
       </c>
       <c r="G35" s="3">
-        <v>27500</v>
+        <v>26600</v>
       </c>
       <c r="H35" s="3">
-        <v>24200</v>
+        <v>23400</v>
       </c>
       <c r="I35" s="3">
-        <v>31300</v>
+        <v>30300</v>
       </c>
       <c r="J35" s="3">
-        <v>21800</v>
+        <v>21000</v>
       </c>
       <c r="K35" s="3">
         <v>29700</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>291800</v>
+        <v>282000</v>
       </c>
       <c r="E41" s="3">
-        <v>325600</v>
+        <v>314700</v>
       </c>
       <c r="F41" s="3">
-        <v>291700</v>
+        <v>282000</v>
       </c>
       <c r="G41" s="3">
-        <v>265700</v>
+        <v>256800</v>
       </c>
       <c r="H41" s="3">
-        <v>219600</v>
+        <v>212200</v>
       </c>
       <c r="I41" s="3">
-        <v>293500</v>
+        <v>283700</v>
       </c>
       <c r="J41" s="3">
-        <v>150900</v>
+        <v>145800</v>
       </c>
       <c r="K41" s="3">
         <v>143800</v>
@@ -1863,22 +1863,22 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>13200</v>
+        <v>12700</v>
       </c>
       <c r="E42" s="3">
-        <v>8900</v>
+        <v>8600</v>
       </c>
       <c r="F42" s="3">
-        <v>13600</v>
+        <v>13100</v>
       </c>
       <c r="G42" s="3">
-        <v>18300</v>
+        <v>17700</v>
       </c>
       <c r="H42" s="3">
-        <v>10900</v>
+        <v>10500</v>
       </c>
       <c r="I42" s="3">
-        <v>25800</v>
+        <v>25000</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>10</v>
@@ -1902,25 +1902,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>583000</v>
+        <v>563500</v>
       </c>
       <c r="E43" s="3">
-        <v>271500</v>
+        <v>262400</v>
       </c>
       <c r="F43" s="3">
-        <v>247900</v>
+        <v>239600</v>
       </c>
       <c r="G43" s="3">
-        <v>226600</v>
+        <v>219000</v>
       </c>
       <c r="H43" s="3">
-        <v>229300</v>
+        <v>221600</v>
       </c>
       <c r="I43" s="3">
-        <v>435600</v>
+        <v>421000</v>
       </c>
       <c r="J43" s="3">
-        <v>188000</v>
+        <v>181700</v>
       </c>
       <c r="K43" s="3">
         <v>174400</v>
@@ -1941,25 +1941,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>43800</v>
+        <v>42300</v>
       </c>
       <c r="E44" s="3">
-        <v>17900</v>
+        <v>17300</v>
       </c>
       <c r="F44" s="3">
-        <v>14900</v>
+        <v>14400</v>
       </c>
       <c r="G44" s="3">
-        <v>17000</v>
+        <v>16400</v>
       </c>
       <c r="H44" s="3">
-        <v>23400</v>
+        <v>22600</v>
       </c>
       <c r="I44" s="3">
-        <v>22400</v>
+        <v>21600</v>
       </c>
       <c r="J44" s="3">
-        <v>19200</v>
+        <v>18600</v>
       </c>
       <c r="K44" s="3">
         <v>14700</v>
@@ -1980,25 +1980,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>107000</v>
+        <v>103500</v>
       </c>
       <c r="E45" s="3">
-        <v>93900</v>
+        <v>90800</v>
       </c>
       <c r="F45" s="3">
-        <v>73600</v>
+        <v>71100</v>
       </c>
       <c r="G45" s="3">
-        <v>67200</v>
+        <v>65000</v>
       </c>
       <c r="H45" s="3">
-        <v>59400</v>
+        <v>57500</v>
       </c>
       <c r="I45" s="3">
-        <v>136600</v>
+        <v>132100</v>
       </c>
       <c r="J45" s="3">
-        <v>79700</v>
+        <v>77000</v>
       </c>
       <c r="K45" s="3">
         <v>59600</v>
@@ -2019,25 +2019,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>732900</v>
+        <v>708300</v>
       </c>
       <c r="E46" s="3">
-        <v>717800</v>
+        <v>693800</v>
       </c>
       <c r="F46" s="3">
-        <v>641700</v>
+        <v>620200</v>
       </c>
       <c r="G46" s="3">
-        <v>594900</v>
+        <v>575000</v>
       </c>
       <c r="H46" s="3">
-        <v>542500</v>
+        <v>524400</v>
       </c>
       <c r="I46" s="3">
-        <v>452300</v>
+        <v>437200</v>
       </c>
       <c r="J46" s="3">
-        <v>437800</v>
+        <v>423100</v>
       </c>
       <c r="K46" s="3">
         <v>392500</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>203900</v>
+        <v>197100</v>
       </c>
       <c r="E47" s="3">
-        <v>189300</v>
+        <v>183000</v>
       </c>
       <c r="F47" s="3">
-        <v>181600</v>
+        <v>175500</v>
       </c>
       <c r="G47" s="3">
-        <v>128600</v>
+        <v>124300</v>
       </c>
       <c r="H47" s="3">
-        <v>147900</v>
+        <v>143000</v>
       </c>
       <c r="I47" s="3">
-        <v>193600</v>
+        <v>187100</v>
       </c>
       <c r="J47" s="3">
-        <v>21200</v>
+        <v>20500</v>
       </c>
       <c r="K47" s="3">
         <v>21400</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>961700</v>
+        <v>929500</v>
       </c>
       <c r="E48" s="3">
-        <v>430900</v>
+        <v>416500</v>
       </c>
       <c r="F48" s="3">
-        <v>465700</v>
+        <v>450100</v>
       </c>
       <c r="G48" s="3">
-        <v>466900</v>
+        <v>451300</v>
       </c>
       <c r="H48" s="3">
-        <v>227600</v>
+        <v>220000</v>
       </c>
       <c r="I48" s="3">
-        <v>549200</v>
+        <v>530800</v>
       </c>
       <c r="J48" s="3">
-        <v>273300</v>
+        <v>264100</v>
       </c>
       <c r="K48" s="3">
         <v>252300</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>363800</v>
+        <v>351600</v>
       </c>
       <c r="E49" s="3">
-        <v>178000</v>
+        <v>172000</v>
       </c>
       <c r="F49" s="3">
-        <v>158300</v>
+        <v>153000</v>
       </c>
       <c r="G49" s="3">
-        <v>167400</v>
+        <v>161800</v>
       </c>
       <c r="H49" s="3">
-        <v>171100</v>
+        <v>165300</v>
       </c>
       <c r="I49" s="3">
-        <v>224200</v>
+        <v>216700</v>
       </c>
       <c r="J49" s="3">
-        <v>63600</v>
+        <v>61500</v>
       </c>
       <c r="K49" s="3">
         <v>71400</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>92700</v>
+        <v>89600</v>
       </c>
       <c r="E52" s="3">
-        <v>76600</v>
+        <v>74000</v>
       </c>
       <c r="F52" s="3">
-        <v>69500</v>
+        <v>67200</v>
       </c>
       <c r="G52" s="3">
-        <v>61100</v>
+        <v>59000</v>
       </c>
       <c r="H52" s="3">
-        <v>60100</v>
+        <v>58100</v>
       </c>
       <c r="I52" s="3">
-        <v>239300</v>
+        <v>231300</v>
       </c>
       <c r="J52" s="3">
-        <v>148100</v>
+        <v>143100</v>
       </c>
       <c r="K52" s="3">
         <v>128400</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1692200</v>
+        <v>1635600</v>
       </c>
       <c r="E54" s="3">
-        <v>1592500</v>
+        <v>1539200</v>
       </c>
       <c r="F54" s="3">
-        <v>1516700</v>
+        <v>1466000</v>
       </c>
       <c r="G54" s="3">
-        <v>1418800</v>
+        <v>1371300</v>
       </c>
       <c r="H54" s="3">
-        <v>1149300</v>
+        <v>1110800</v>
       </c>
       <c r="I54" s="3">
-        <v>1066000</v>
+        <v>1030300</v>
       </c>
       <c r="J54" s="3">
-        <v>943900</v>
+        <v>912300</v>
       </c>
       <c r="K54" s="3">
         <v>866100</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>223300</v>
+        <v>215800</v>
       </c>
       <c r="E57" s="3">
-        <v>59900</v>
+        <v>57900</v>
       </c>
       <c r="F57" s="3">
-        <v>43900</v>
+        <v>42400</v>
       </c>
       <c r="G57" s="3">
-        <v>41100</v>
+        <v>39700</v>
       </c>
       <c r="H57" s="3">
-        <v>53700</v>
+        <v>51900</v>
       </c>
       <c r="I57" s="3">
-        <v>140000</v>
+        <v>135300</v>
       </c>
       <c r="J57" s="3">
-        <v>100700</v>
+        <v>97300</v>
       </c>
       <c r="K57" s="3">
         <v>102200</v>
@@ -2443,25 +2443,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>231200</v>
+        <v>223500</v>
       </c>
       <c r="E58" s="3">
-        <v>112500</v>
+        <v>108700</v>
       </c>
       <c r="F58" s="3">
-        <v>127500</v>
+        <v>123200</v>
       </c>
       <c r="G58" s="3">
-        <v>107000</v>
+        <v>103500</v>
       </c>
       <c r="H58" s="3">
-        <v>132400</v>
+        <v>127900</v>
       </c>
       <c r="I58" s="3">
-        <v>204700</v>
+        <v>197900</v>
       </c>
       <c r="J58" s="3">
-        <v>96700</v>
+        <v>93400</v>
       </c>
       <c r="K58" s="3">
         <v>97100</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>349300</v>
+        <v>337600</v>
       </c>
       <c r="E59" s="3">
-        <v>355100</v>
+        <v>343200</v>
       </c>
       <c r="F59" s="3">
-        <v>331900</v>
+        <v>320800</v>
       </c>
       <c r="G59" s="3">
-        <v>303200</v>
+        <v>293000</v>
       </c>
       <c r="H59" s="3">
-        <v>177400</v>
+        <v>171500</v>
       </c>
       <c r="I59" s="3">
-        <v>234300</v>
+        <v>226500</v>
       </c>
       <c r="J59" s="3">
-        <v>77400</v>
+        <v>74800</v>
       </c>
       <c r="K59" s="3">
         <v>65800</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>534900</v>
+        <v>517000</v>
       </c>
       <c r="E60" s="3">
-        <v>527500</v>
+        <v>509800</v>
       </c>
       <c r="F60" s="3">
-        <v>503300</v>
+        <v>486400</v>
       </c>
       <c r="G60" s="3">
-        <v>451300</v>
+        <v>436200</v>
       </c>
       <c r="H60" s="3">
-        <v>363500</v>
+        <v>351300</v>
       </c>
       <c r="I60" s="3">
-        <v>289500</v>
+        <v>279800</v>
       </c>
       <c r="J60" s="3">
-        <v>274700</v>
+        <v>265500</v>
       </c>
       <c r="K60" s="3">
         <v>265100</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>24700</v>
+        <v>23900</v>
       </c>
       <c r="E61" s="3">
-        <v>37800</v>
+        <v>36500</v>
       </c>
       <c r="F61" s="3">
-        <v>48100</v>
+        <v>46500</v>
       </c>
       <c r="G61" s="3">
-        <v>83600</v>
+        <v>80800</v>
       </c>
       <c r="H61" s="3">
-        <v>175300</v>
+        <v>169400</v>
       </c>
       <c r="I61" s="3">
-        <v>181500</v>
+        <v>175400</v>
       </c>
       <c r="J61" s="3">
-        <v>129700</v>
+        <v>125400</v>
       </c>
       <c r="K61" s="3">
         <v>57200</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>528400</v>
+        <v>510700</v>
       </c>
       <c r="E62" s="3">
-        <v>308500</v>
+        <v>298200</v>
       </c>
       <c r="F62" s="3">
-        <v>340400</v>
+        <v>329000</v>
       </c>
       <c r="G62" s="3">
-        <v>334000</v>
+        <v>322800</v>
       </c>
       <c r="H62" s="3">
-        <v>80700</v>
+        <v>78000</v>
       </c>
       <c r="I62" s="3">
-        <v>152900</v>
+        <v>147800</v>
       </c>
       <c r="J62" s="3">
-        <v>76600</v>
+        <v>74000</v>
       </c>
       <c r="K62" s="3">
         <v>63500</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>879900</v>
+        <v>850400</v>
       </c>
       <c r="E66" s="3">
-        <v>881300</v>
+        <v>851800</v>
       </c>
       <c r="F66" s="3">
-        <v>898700</v>
+        <v>868700</v>
       </c>
       <c r="G66" s="3">
-        <v>875600</v>
+        <v>846300</v>
       </c>
       <c r="H66" s="3">
-        <v>625300</v>
+        <v>604400</v>
       </c>
       <c r="I66" s="3">
-        <v>554000</v>
+        <v>535400</v>
       </c>
       <c r="J66" s="3">
-        <v>485400</v>
+        <v>469100</v>
       </c>
       <c r="K66" s="3">
         <v>389500</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>351800</v>
+        <v>340000</v>
       </c>
       <c r="E72" s="3">
-        <v>254400</v>
+        <v>245800</v>
       </c>
       <c r="F72" s="3">
-        <v>172100</v>
+        <v>166300</v>
       </c>
       <c r="G72" s="3">
-        <v>113400</v>
+        <v>109600</v>
       </c>
       <c r="H72" s="3">
-        <v>84700</v>
+        <v>81900</v>
       </c>
       <c r="I72" s="3">
-        <v>124200</v>
+        <v>120100</v>
       </c>
       <c r="J72" s="3">
-        <v>31000</v>
+        <v>30000</v>
       </c>
       <c r="K72" s="3">
         <v>18200</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>812300</v>
+        <v>785100</v>
       </c>
       <c r="E76" s="3">
-        <v>711200</v>
+        <v>687400</v>
       </c>
       <c r="F76" s="3">
-        <v>618000</v>
+        <v>597300</v>
       </c>
       <c r="G76" s="3">
-        <v>543200</v>
+        <v>525100</v>
       </c>
       <c r="H76" s="3">
-        <v>524000</v>
+        <v>506400</v>
       </c>
       <c r="I76" s="3">
-        <v>512000</v>
+        <v>494900</v>
       </c>
       <c r="J76" s="3">
-        <v>458500</v>
+        <v>443200</v>
       </c>
       <c r="K76" s="3">
         <v>476600</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>129400</v>
+        <v>125100</v>
       </c>
       <c r="E81" s="3">
-        <v>107700</v>
+        <v>104100</v>
       </c>
       <c r="F81" s="3">
-        <v>66700</v>
+        <v>64500</v>
       </c>
       <c r="G81" s="3">
-        <v>27500</v>
+        <v>26600</v>
       </c>
       <c r="H81" s="3">
-        <v>24200</v>
+        <v>23400</v>
       </c>
       <c r="I81" s="3">
-        <v>31300</v>
+        <v>30300</v>
       </c>
       <c r="J81" s="3">
-        <v>21800</v>
+        <v>21000</v>
       </c>
       <c r="K81" s="3">
         <v>29700</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>197900</v>
+        <v>191200</v>
       </c>
       <c r="E83" s="3">
-        <v>195400</v>
+        <v>188900</v>
       </c>
       <c r="F83" s="3">
-        <v>192200</v>
+        <v>185700</v>
       </c>
       <c r="G83" s="3">
-        <v>195900</v>
+        <v>189400</v>
       </c>
       <c r="H83" s="3">
-        <v>107400</v>
+        <v>103800</v>
       </c>
       <c r="I83" s="3">
-        <v>92100</v>
+        <v>89100</v>
       </c>
       <c r="J83" s="3">
-        <v>74800</v>
+        <v>72300</v>
       </c>
       <c r="K83" s="3">
         <v>72900</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>264700</v>
+        <v>255800</v>
       </c>
       <c r="E89" s="3">
-        <v>299300</v>
+        <v>289300</v>
       </c>
       <c r="F89" s="3">
-        <v>278500</v>
+        <v>269200</v>
       </c>
       <c r="G89" s="3">
-        <v>229400</v>
+        <v>221700</v>
       </c>
       <c r="H89" s="3">
-        <v>172800</v>
+        <v>167000</v>
       </c>
       <c r="I89" s="3">
-        <v>100700</v>
+        <v>97400</v>
       </c>
       <c r="J89" s="3">
-        <v>50600</v>
+        <v>48900</v>
       </c>
       <c r="K89" s="3">
         <v>88600</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-81000</v>
+        <v>-78300</v>
       </c>
       <c r="E91" s="3">
-        <v>-46600</v>
+        <v>-45000</v>
       </c>
       <c r="F91" s="3">
-        <v>-43900</v>
+        <v>-42400</v>
       </c>
       <c r="G91" s="3">
-        <v>-49400</v>
+        <v>-47800</v>
       </c>
       <c r="H91" s="3">
-        <v>-48600</v>
+        <v>-47000</v>
       </c>
       <c r="I91" s="3">
-        <v>-184500</v>
+        <v>-178400</v>
       </c>
       <c r="J91" s="3">
-        <v>-73000</v>
+        <v>-70500</v>
       </c>
       <c r="K91" s="3">
         <v>-80100</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-126300</v>
+        <v>-122100</v>
       </c>
       <c r="E94" s="3">
-        <v>-81300</v>
+        <v>-78600</v>
       </c>
       <c r="F94" s="3">
-        <v>-90800</v>
+        <v>-87800</v>
       </c>
       <c r="G94" s="3">
-        <v>-49900</v>
+        <v>-48200</v>
       </c>
       <c r="H94" s="3">
-        <v>-59700</v>
+        <v>-57700</v>
       </c>
       <c r="I94" s="3">
-        <v>-98200</v>
+        <v>-94900</v>
       </c>
       <c r="J94" s="3">
-        <v>-50700</v>
+        <v>-49000</v>
       </c>
       <c r="K94" s="3">
         <v>-61600</v>
@@ -3764,25 +3764,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-33700</v>
+        <v>-32500</v>
       </c>
       <c r="E96" s="3">
-        <v>-26400</v>
+        <v>-25500</v>
       </c>
       <c r="F96" s="3">
-        <v>-10500</v>
+        <v>-10200</v>
       </c>
       <c r="G96" s="3">
-        <v>-8400</v>
+        <v>-8100</v>
       </c>
       <c r="H96" s="3">
-        <v>-8400</v>
+        <v>-8100</v>
       </c>
       <c r="I96" s="3">
-        <v>-8400</v>
+        <v>-8100</v>
       </c>
       <c r="J96" s="3">
-        <v>-7700</v>
+        <v>-7500</v>
       </c>
       <c r="K96" s="3">
         <v>-7400</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-176800</v>
+        <v>-170900</v>
       </c>
       <c r="E100" s="3">
-        <v>-187500</v>
+        <v>-181200</v>
       </c>
       <c r="F100" s="3">
-        <v>-162300</v>
+        <v>-156800</v>
       </c>
       <c r="G100" s="3">
-        <v>-133000</v>
+        <v>-128500</v>
       </c>
       <c r="H100" s="3">
-        <v>-40500</v>
+        <v>-39100</v>
       </c>
       <c r="I100" s="3">
-        <v>-4900</v>
+        <v>-4800</v>
       </c>
       <c r="J100" s="3">
-        <v>17100</v>
+        <v>16500</v>
       </c>
       <c r="K100" s="3">
         <v>-38200</v>
@@ -3959,10 +3959,10 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>4600</v>
+        <v>4400</v>
       </c>
       <c r="E101" s="3">
-        <v>3300</v>
+        <v>3200</v>
       </c>
       <c r="F101" s="3">
         <v>600</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-33800</v>
+        <v>-32700</v>
       </c>
       <c r="E102" s="3">
-        <v>33800</v>
+        <v>32700</v>
       </c>
       <c r="F102" s="3">
-        <v>26100</v>
+        <v>25200</v>
       </c>
       <c r="G102" s="3">
-        <v>46100</v>
+        <v>44600</v>
       </c>
       <c r="H102" s="3">
-        <v>73100</v>
+        <v>70600</v>
       </c>
       <c r="I102" s="3">
-        <v>-2900</v>
+        <v>-2800</v>
       </c>
       <c r="J102" s="3">
-        <v>16400</v>
+        <v>15900</v>
       </c>
       <c r="K102" s="3">
         <v>-11200</v>
